--- a/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
+++ b/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/217fb073e6d8a319/Fichiers/Cours/BTS02_Efficom_2019_2020/Projet_BTS/M2L_R2S/Documentation/Ecrit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_80D462172F5B4425D945EF521484D17E7B1EEE66" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E39014FF-602E-418E-97DD-2ACB358879FF}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="11_80D462172F5B4425D945EF521484D17E7B1EEE66" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{796A8183-B014-499A-9186-C9D64CE3C064}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template GANTT Chart" sheetId="1" r:id="rId1"/>
@@ -599,10 +599,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -722,7 +722,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -930,7 +930,7 @@
   <dimension ref="A1:AK1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -974,7 +974,7 @@
       </c>
       <c r="F1" s="5">
         <f ca="1">TODAY()</f>
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -1173,7 +1173,7 @@
       <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="56">
         <f>$E$3</f>
         <v>100</v>
       </c>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E6" s="29">
         <f>(E7+E8)/2</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
@@ -1336,14 +1336,14 @@
       <c r="H6" s="52"/>
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
-      <c r="K6" s="56">
+      <c r="K6" s="57">
         <f>E6</f>
-        <v>100</v>
+        <v>1</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
       <c r="R6" s="52"/>
@@ -1380,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>33</v>
@@ -1391,14 +1391,14 @@
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
-      <c r="K7" s="56">
+      <c r="K7" s="57">
         <f>$E$7</f>
-        <v>100</v>
+        <v>1</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
@@ -1435,7 +1435,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>33</v>
@@ -1446,14 +1446,14 @@
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="56">
+      <c r="K8" s="57">
         <f>$E$8</f>
-        <v>100</v>
+        <v>1</v>
       </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
       <c r="R8" s="52"/>
@@ -1491,23 +1491,23 @@
       </c>
       <c r="E9" s="15">
         <f>(E10+E11+E12+E13+E14)/5</f>
-        <v>100</v>
+        <v>60.4</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="57">
         <f>E9</f>
-        <v>100</v>
+        <v>60.4</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
       <c r="R9" s="52"/>
@@ -1709,10 +1709,10 @@
         <v>28</v>
       </c>
       <c r="E13" s="25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>12</v>
@@ -1721,13 +1721,13 @@
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="56">
+      <c r="L13" s="57">
         <f>E13</f>
-        <v>100</v>
+        <v>1</v>
       </c>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
       <c r="P13" s="52"/>
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
@@ -1764,7 +1764,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>33</v>
@@ -1776,13 +1776,13 @@
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="56">
+      <c r="L14" s="57">
         <f>E14</f>
-        <v>100</v>
+        <v>1</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
       <c r="P14" s="52"/>
       <c r="Q14" s="52"/>
       <c r="R14" s="52"/>
@@ -1820,22 +1820,22 @@
       </c>
       <c r="E15" s="37">
         <f>(E16+E17+E18+E19)/4</f>
-        <v>100</v>
+        <v>50.5</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="57">
         <f>$E$15</f>
-        <v>100</v>
+        <v>50.5</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
@@ -1883,13 +1883,13 @@
         <v>14</v>
       </c>
       <c r="H16" s="52"/>
-      <c r="I16" s="56">
+      <c r="I16" s="57">
         <f>$E$16</f>
         <v>100</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="52"/>
       <c r="N16" s="52"/>
       <c r="O16" s="52"/>
@@ -1938,11 +1938,11 @@
         <v>14</v>
       </c>
       <c r="H17" s="52"/>
-      <c r="I17" s="56">
+      <c r="I17" s="57">
         <f>$E$17</f>
         <v>100</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
       <c r="M17" s="52"/>
@@ -1984,10 +1984,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>14</v>
@@ -1997,11 +1997,11 @@
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
-      <c r="M18" s="56">
+      <c r="M18" s="57">
         <f>$E$18</f>
-        <v>100</v>
+        <v>1</v>
       </c>
-      <c r="N18" s="56"/>
+      <c r="N18" s="57"/>
       <c r="O18" s="52"/>
       <c r="P18" s="52"/>
       <c r="Q18" s="52"/>
@@ -2039,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>37</v>
@@ -2056,14 +2056,14 @@
       <c r="N19" s="52"/>
       <c r="O19" s="52">
         <f>E19</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
       <c r="S19" s="52"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
       <c r="V19" s="52"/>
       <c r="W19" s="52"/>
       <c r="Z19" s="51"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="E20" s="37">
         <f>(E21)/1</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="54" t="s">
@@ -2109,7 +2109,7 @@
       <c r="O20" s="52"/>
       <c r="P20" s="55">
         <f>E20</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
@@ -2148,10 +2148,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>35</v>
@@ -2166,7 +2166,7 @@
       <c r="O21" s="52"/>
       <c r="P21" s="52">
         <f>E21</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="52"/>
       <c r="R21" s="52"/>
@@ -39373,6 +39373,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="I15:O15"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="K7:O7"/>
@@ -39380,10 +39384,6 @@
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="L13:O13"/>
     <mergeCell ref="L14:O14"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <conditionalFormatting sqref="Z4:Z21">
     <cfRule type="dataBar" priority="41">

--- a/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
+++ b/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/217fb073e6d8a319/Fichiers/Cours/BTS02_Efficom_2019_2020/Projet_BTS/M2L_R2S/Documentation/Ecrit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_80D462172F5B4425D945EF521484D17E7B1EEE66" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{796A8183-B014-499A-9186-C9D64CE3C064}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="11_80D462172F5B4425D945EF521484D17E7B1EEE66" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5905E4A8-DA8A-4617-BA92-B916E602B71D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:AK1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E6" s="29">
         <f>(E7+E8)/2</f>
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
@@ -1338,7 +1338,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="57">
         <f>E6</f>
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="57"/>
@@ -1380,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>33</v>
@@ -1393,7 +1393,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="57">
         <f>$E$7</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L7" s="57"/>
       <c r="M7" s="57"/>
@@ -1435,7 +1435,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="25">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>33</v>
@@ -1448,7 +1448,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="57">
         <f>$E$8</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E9" s="15">
         <f>(E10+E11+E12+E13+E14)/5</f>
-        <v>60.4</v>
+        <v>80.2</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="H9" s="57">
         <f>E9</f>
-        <v>60.4</v>
+        <v>80.2</v>
       </c>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
@@ -1764,7 +1764,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>33</v>
@@ -1778,7 +1778,7 @@
       <c r="K14" s="52"/>
       <c r="L14" s="57">
         <f>E14</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
@@ -39373,17 +39373,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="L13:O13"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="I15:O15"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
   </mergeCells>
   <conditionalFormatting sqref="Z4:Z21">
     <cfRule type="dataBar" priority="41">

--- a/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
+++ b/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/217fb073e6d8a319/Fichiers/Cours/BTS02_Efficom_2019_2020/Projet_BTS/M2L_R2S/Documentation/Ecrit/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="11_80D462172F5B4425D945EF521484D17E7B1EEE66" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5905E4A8-DA8A-4617-BA92-B916E602B71D}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Template GANTT Chart" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="mmm&quot;-&quot;d&quot;-&quot;yy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
@@ -265,7 +259,7 @@
     <numFmt numFmtId="168" formatCode="0&quot;%&quot;"/>
     <numFmt numFmtId="169" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -670,7 +664,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -722,7 +716,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -916,24 +910,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AK1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -956,7 +950,7 @@
     <col min="35" max="37" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -974,7 +968,7 @@
       </c>
       <c r="F1" s="5">
         <f ca="1">TODAY()</f>
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -1008,7 +1002,7 @@
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
     </row>
-    <row r="2" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="22.5">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1151,7 +1145,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="12.75">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1191,7 @@
       <c r="AJ3" s="19"/>
       <c r="AK3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="13.15" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
@@ -1254,7 +1248,7 @@
       <c r="AJ4" s="27"/>
       <c r="AK4" s="20"/>
     </row>
-    <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="12.75">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
@@ -1311,7 +1305,7 @@
       <c r="AJ5" s="27"/>
       <c r="AK5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="12.75">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +1359,7 @@
       <c r="AJ6" s="30"/>
       <c r="AK6" s="20"/>
     </row>
-    <row r="7" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="25.5">
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1420,7 +1414,7 @@
       <c r="AJ7" s="27"/>
       <c r="AK7" s="20"/>
     </row>
-    <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="12.75">
       <c r="A8" s="21" t="s">
         <v>22</v>
       </c>
@@ -1475,7 +1469,7 @@
       <c r="AJ8" s="27"/>
       <c r="AK8" s="20"/>
     </row>
-    <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="12.75">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1491,7 +1485,7 @@
       </c>
       <c r="E9" s="15">
         <f>(E10+E11+E12+E13+E14)/5</f>
-        <v>80.2</v>
+        <v>96</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
@@ -1499,7 +1493,7 @@
       </c>
       <c r="H9" s="57">
         <f>E9</f>
-        <v>80.2</v>
+        <v>96</v>
       </c>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
@@ -1529,7 +1523,7 @@
       <c r="AJ9" s="27"/>
       <c r="AK9" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="12.75">
       <c r="A10" s="49" t="s">
         <v>21</v>
       </c>
@@ -1584,7 +1578,7 @@
       <c r="AJ10" s="27"/>
       <c r="AK10" s="20"/>
     </row>
-    <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="12.75">
       <c r="A11" s="49" t="s">
         <v>24</v>
       </c>
@@ -1639,7 +1633,7 @@
       <c r="AJ11" s="27"/>
       <c r="AK11" s="20"/>
     </row>
-    <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="14.25" customHeight="1">
       <c r="A12" s="49" t="s">
         <v>36</v>
       </c>
@@ -1694,7 +1688,7 @@
       <c r="AJ12" s="27"/>
       <c r="AK12" s="20"/>
     </row>
-    <row r="13" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="12.75">
       <c r="A13" s="49" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1703,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="25">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -1723,7 +1717,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="57">
         <f>E13</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -1749,7 +1743,7 @@
       <c r="AJ13" s="27"/>
       <c r="AK13" s="20"/>
     </row>
-    <row r="14" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="25.5">
       <c r="A14" s="49" t="s">
         <v>26</v>
       </c>
@@ -1804,7 +1798,7 @@
       <c r="AJ14" s="27"/>
       <c r="AK14" s="20"/>
     </row>
-    <row r="15" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="12.75">
       <c r="A15" s="34" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1814,7 @@
       </c>
       <c r="E15" s="37">
         <f>(E16+E17+E18+E19)/4</f>
-        <v>50.5</v>
+        <v>75.25</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="39" t="s">
@@ -1828,7 +1822,7 @@
       </c>
       <c r="I15" s="57">
         <f>$E$15</f>
-        <v>50.5</v>
+        <v>75.25</v>
       </c>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
@@ -1859,7 +1853,7 @@
       <c r="AJ15" s="32"/>
       <c r="AK15" s="40"/>
     </row>
-    <row r="16" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="25.5">
       <c r="A16" s="49" t="s">
         <v>27</v>
       </c>
@@ -1914,7 +1908,7 @@
       <c r="AJ16" s="27"/>
       <c r="AK16" s="20"/>
     </row>
-    <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="30" customHeight="1">
       <c r="A17" s="49" t="s">
         <v>30</v>
       </c>
@@ -1969,7 +1963,7 @@
       <c r="AJ17" s="27"/>
       <c r="AK17" s="20"/>
     </row>
-    <row r="18" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="12.75">
       <c r="A18" s="49" t="s">
         <v>29</v>
       </c>
@@ -1984,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -1999,7 +1993,7 @@
       <c r="L18" s="52"/>
       <c r="M18" s="57">
         <f>$E$18</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N18" s="57"/>
       <c r="O18" s="52"/>
@@ -2024,7 +2018,7 @@
       <c r="AJ18" s="27"/>
       <c r="AK18" s="20"/>
     </row>
-    <row r="19" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="12.75">
       <c r="A19" s="49" t="s">
         <v>28</v>
       </c>
@@ -2077,7 +2071,7 @@
       <c r="AJ19" s="27"/>
       <c r="AK19" s="20"/>
     </row>
-    <row r="20" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="12.75">
       <c r="A20" s="34" t="s">
         <v>15</v>
       </c>
@@ -2133,7 +2127,7 @@
       <c r="AJ20" s="32"/>
       <c r="AK20" s="40"/>
     </row>
-    <row r="21" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="25.5">
       <c r="A21" s="49" t="s">
         <v>31</v>
       </c>
@@ -2188,7 +2182,7 @@
       <c r="AJ21" s="27"/>
       <c r="AK21" s="20"/>
     </row>
-    <row r="22" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="12.75">
       <c r="A22" s="41"/>
       <c r="B22" s="18"/>
       <c r="C22" s="42"/>
@@ -2223,7 +2217,7 @@
       <c r="AJ22" s="45"/>
       <c r="AK22" s="46"/>
     </row>
-    <row r="23" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="18">
       <c r="A23" s="41" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2254,7 @@
       <c r="AJ23" s="45"/>
       <c r="AK23" s="46"/>
     </row>
-    <row r="24" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="12.75">
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
       <c r="D24" s="43"/>
@@ -2297,7 +2291,7 @@
       <c r="AJ24" s="46"/>
       <c r="AK24" s="46"/>
     </row>
-    <row r="25" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="12.75">
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
       <c r="D25" s="43"/>
@@ -2334,7 +2328,7 @@
       <c r="AJ25" s="46"/>
       <c r="AK25" s="46"/>
     </row>
-    <row r="26" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="12.75">
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
       <c r="D26" s="43"/>
@@ -2371,7 +2365,7 @@
       <c r="AJ26" s="46"/>
       <c r="AK26" s="46"/>
     </row>
-    <row r="27" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="12.75">
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
       <c r="D27" s="43"/>
@@ -2408,7 +2402,7 @@
       <c r="AJ27" s="46"/>
       <c r="AK27" s="46"/>
     </row>
-    <row r="28" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="12.75">
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="43"/>
@@ -2445,7 +2439,7 @@
       <c r="AJ28" s="46"/>
       <c r="AK28" s="46"/>
     </row>
-    <row r="29" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="12.75">
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
       <c r="D29" s="43"/>
@@ -2482,7 +2476,7 @@
       <c r="AJ29" s="46"/>
       <c r="AK29" s="46"/>
     </row>
-    <row r="30" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="12.75">
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="43"/>
@@ -2519,7 +2513,7 @@
       <c r="AJ30" s="46"/>
       <c r="AK30" s="46"/>
     </row>
-    <row r="31" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="12.75">
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="43"/>
@@ -2556,7 +2550,7 @@
       <c r="AJ31" s="46"/>
       <c r="AK31" s="46"/>
     </row>
-    <row r="32" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="12.75">
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="D32" s="43"/>
@@ -2593,7 +2587,7 @@
       <c r="AJ32" s="46"/>
       <c r="AK32" s="46"/>
     </row>
-    <row r="33" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:37" ht="12.75">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="43"/>
@@ -2630,7 +2624,7 @@
       <c r="AJ33" s="46"/>
       <c r="AK33" s="46"/>
     </row>
-    <row r="34" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:37" ht="12.75">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="D34" s="43"/>
@@ -2667,7 +2661,7 @@
       <c r="AJ34" s="46"/>
       <c r="AK34" s="46"/>
     </row>
-    <row r="35" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:37" ht="12.75">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="D35" s="43"/>
@@ -2704,7 +2698,7 @@
       <c r="AJ35" s="46"/>
       <c r="AK35" s="46"/>
     </row>
-    <row r="36" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:37" ht="12.75">
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
       <c r="D36" s="43"/>
@@ -2741,7 +2735,7 @@
       <c r="AJ36" s="46"/>
       <c r="AK36" s="46"/>
     </row>
-    <row r="37" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:37" ht="12.75">
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
       <c r="D37" s="43"/>
@@ -2778,7 +2772,7 @@
       <c r="AJ37" s="46"/>
       <c r="AK37" s="46"/>
     </row>
-    <row r="38" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:37" ht="12.75">
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
       <c r="D38" s="43"/>
@@ -2815,7 +2809,7 @@
       <c r="AJ38" s="46"/>
       <c r="AK38" s="46"/>
     </row>
-    <row r="39" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:37" ht="12.75">
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
       <c r="D39" s="43"/>
@@ -2852,7 +2846,7 @@
       <c r="AJ39" s="46"/>
       <c r="AK39" s="46"/>
     </row>
-    <row r="40" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:37" ht="12.75">
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
       <c r="D40" s="43"/>
@@ -2889,7 +2883,7 @@
       <c r="AJ40" s="46"/>
       <c r="AK40" s="46"/>
     </row>
-    <row r="41" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:37" ht="12.75">
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
       <c r="D41" s="43"/>
@@ -2926,7 +2920,7 @@
       <c r="AJ41" s="46"/>
       <c r="AK41" s="46"/>
     </row>
-    <row r="42" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:37" ht="12.75">
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
       <c r="D42" s="43"/>
@@ -2963,7 +2957,7 @@
       <c r="AJ42" s="46"/>
       <c r="AK42" s="46"/>
     </row>
-    <row r="43" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:37" ht="12.75">
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
       <c r="D43" s="43"/>
@@ -3000,7 +2994,7 @@
       <c r="AJ43" s="46"/>
       <c r="AK43" s="46"/>
     </row>
-    <row r="44" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:37" ht="12.75">
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
       <c r="D44" s="43"/>
@@ -3037,7 +3031,7 @@
       <c r="AJ44" s="46"/>
       <c r="AK44" s="46"/>
     </row>
-    <row r="45" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:37" ht="12.75">
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
       <c r="D45" s="43"/>
@@ -3074,7 +3068,7 @@
       <c r="AJ45" s="46"/>
       <c r="AK45" s="46"/>
     </row>
-    <row r="46" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:37" ht="12.75">
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
       <c r="D46" s="43"/>
@@ -3111,7 +3105,7 @@
       <c r="AJ46" s="46"/>
       <c r="AK46" s="46"/>
     </row>
-    <row r="47" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:37" ht="12.75">
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
       <c r="D47" s="43"/>
@@ -3148,7 +3142,7 @@
       <c r="AJ47" s="46"/>
       <c r="AK47" s="46"/>
     </row>
-    <row r="48" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:37" ht="12.75">
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
       <c r="D48" s="43"/>
@@ -3185,7 +3179,7 @@
       <c r="AJ48" s="46"/>
       <c r="AK48" s="46"/>
     </row>
-    <row r="49" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:37" ht="12.75">
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
       <c r="D49" s="43"/>
@@ -3222,7 +3216,7 @@
       <c r="AJ49" s="46"/>
       <c r="AK49" s="46"/>
     </row>
-    <row r="50" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:37" ht="12.75">
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
       <c r="D50" s="43"/>
@@ -3259,7 +3253,7 @@
       <c r="AJ50" s="46"/>
       <c r="AK50" s="46"/>
     </row>
-    <row r="51" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:37" ht="12.75">
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
       <c r="D51" s="43"/>
@@ -3296,7 +3290,7 @@
       <c r="AJ51" s="46"/>
       <c r="AK51" s="46"/>
     </row>
-    <row r="52" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:37" ht="12.75">
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
       <c r="D52" s="43"/>
@@ -3333,7 +3327,7 @@
       <c r="AJ52" s="46"/>
       <c r="AK52" s="46"/>
     </row>
-    <row r="53" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:37" ht="12.75">
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
       <c r="D53" s="43"/>
@@ -3370,7 +3364,7 @@
       <c r="AJ53" s="46"/>
       <c r="AK53" s="46"/>
     </row>
-    <row r="54" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:37" ht="12.75">
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
       <c r="D54" s="43"/>
@@ -3407,7 +3401,7 @@
       <c r="AJ54" s="46"/>
       <c r="AK54" s="46"/>
     </row>
-    <row r="55" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:37" ht="12.75">
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
       <c r="D55" s="43"/>
@@ -3444,7 +3438,7 @@
       <c r="AJ55" s="46"/>
       <c r="AK55" s="46"/>
     </row>
-    <row r="56" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:37" ht="12.75">
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
       <c r="D56" s="43"/>
@@ -3481,7 +3475,7 @@
       <c r="AJ56" s="46"/>
       <c r="AK56" s="46"/>
     </row>
-    <row r="57" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:37" ht="12.75">
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
       <c r="D57" s="43"/>
@@ -3518,7 +3512,7 @@
       <c r="AJ57" s="46"/>
       <c r="AK57" s="46"/>
     </row>
-    <row r="58" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:37" ht="12.75">
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
       <c r="D58" s="43"/>
@@ -3555,7 +3549,7 @@
       <c r="AJ58" s="46"/>
       <c r="AK58" s="46"/>
     </row>
-    <row r="59" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:37" ht="12.75">
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
       <c r="D59" s="43"/>
@@ -3592,7 +3586,7 @@
       <c r="AJ59" s="46"/>
       <c r="AK59" s="46"/>
     </row>
-    <row r="60" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:37" ht="12.75">
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
       <c r="D60" s="43"/>
@@ -3629,7 +3623,7 @@
       <c r="AJ60" s="46"/>
       <c r="AK60" s="46"/>
     </row>
-    <row r="61" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:37" ht="12.75">
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
       <c r="D61" s="43"/>
@@ -3666,7 +3660,7 @@
       <c r="AJ61" s="46"/>
       <c r="AK61" s="46"/>
     </row>
-    <row r="62" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:37" ht="12.75">
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
       <c r="D62" s="43"/>
@@ -3703,7 +3697,7 @@
       <c r="AJ62" s="46"/>
       <c r="AK62" s="46"/>
     </row>
-    <row r="63" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:37" ht="12.75">
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
       <c r="D63" s="43"/>
@@ -3740,7 +3734,7 @@
       <c r="AJ63" s="46"/>
       <c r="AK63" s="46"/>
     </row>
-    <row r="64" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:37" ht="12.75">
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
       <c r="D64" s="43"/>
@@ -3777,7 +3771,7 @@
       <c r="AJ64" s="46"/>
       <c r="AK64" s="46"/>
     </row>
-    <row r="65" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:37" ht="12.75">
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
       <c r="D65" s="43"/>
@@ -3814,7 +3808,7 @@
       <c r="AJ65" s="46"/>
       <c r="AK65" s="46"/>
     </row>
-    <row r="66" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:37" ht="12.75">
       <c r="B66" s="47"/>
       <c r="C66" s="47"/>
       <c r="D66" s="43"/>
@@ -3851,7 +3845,7 @@
       <c r="AJ66" s="46"/>
       <c r="AK66" s="46"/>
     </row>
-    <row r="67" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:37" ht="12.75">
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
       <c r="D67" s="43"/>
@@ -3888,7 +3882,7 @@
       <c r="AJ67" s="46"/>
       <c r="AK67" s="46"/>
     </row>
-    <row r="68" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:37" ht="12.75">
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
       <c r="D68" s="43"/>
@@ -3925,7 +3919,7 @@
       <c r="AJ68" s="46"/>
       <c r="AK68" s="46"/>
     </row>
-    <row r="69" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:37" ht="12.75">
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
       <c r="D69" s="43"/>
@@ -3962,7 +3956,7 @@
       <c r="AJ69" s="46"/>
       <c r="AK69" s="46"/>
     </row>
-    <row r="70" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:37" ht="12.75">
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
       <c r="D70" s="43"/>
@@ -3999,7 +3993,7 @@
       <c r="AJ70" s="46"/>
       <c r="AK70" s="46"/>
     </row>
-    <row r="71" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:37" ht="12.75">
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
       <c r="D71" s="43"/>
@@ -4036,7 +4030,7 @@
       <c r="AJ71" s="46"/>
       <c r="AK71" s="46"/>
     </row>
-    <row r="72" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:37" ht="12.75">
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
       <c r="D72" s="43"/>
@@ -4073,7 +4067,7 @@
       <c r="AJ72" s="46"/>
       <c r="AK72" s="46"/>
     </row>
-    <row r="73" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:37" ht="12.75">
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
       <c r="D73" s="43"/>
@@ -4110,7 +4104,7 @@
       <c r="AJ73" s="46"/>
       <c r="AK73" s="46"/>
     </row>
-    <row r="74" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:37" ht="12.75">
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
       <c r="D74" s="43"/>
@@ -4147,7 +4141,7 @@
       <c r="AJ74" s="46"/>
       <c r="AK74" s="46"/>
     </row>
-    <row r="75" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:37" ht="12.75">
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
       <c r="D75" s="43"/>
@@ -4184,7 +4178,7 @@
       <c r="AJ75" s="46"/>
       <c r="AK75" s="46"/>
     </row>
-    <row r="76" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:37" ht="12.75">
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
       <c r="D76" s="43"/>
@@ -4221,7 +4215,7 @@
       <c r="AJ76" s="46"/>
       <c r="AK76" s="46"/>
     </row>
-    <row r="77" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:37" ht="12.75">
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
       <c r="D77" s="43"/>
@@ -4258,7 +4252,7 @@
       <c r="AJ77" s="46"/>
       <c r="AK77" s="46"/>
     </row>
-    <row r="78" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:37" ht="12.75">
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
       <c r="D78" s="43"/>
@@ -4295,7 +4289,7 @@
       <c r="AJ78" s="46"/>
       <c r="AK78" s="46"/>
     </row>
-    <row r="79" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:37" ht="12.75">
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
       <c r="D79" s="43"/>
@@ -4332,7 +4326,7 @@
       <c r="AJ79" s="46"/>
       <c r="AK79" s="46"/>
     </row>
-    <row r="80" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:37" ht="12.75">
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
       <c r="D80" s="43"/>
@@ -4369,7 +4363,7 @@
       <c r="AJ80" s="46"/>
       <c r="AK80" s="46"/>
     </row>
-    <row r="81" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:37" ht="12.75">
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
       <c r="D81" s="43"/>
@@ -4406,7 +4400,7 @@
       <c r="AJ81" s="46"/>
       <c r="AK81" s="46"/>
     </row>
-    <row r="82" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:37" ht="12.75">
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
       <c r="D82" s="43"/>
@@ -4443,7 +4437,7 @@
       <c r="AJ82" s="46"/>
       <c r="AK82" s="46"/>
     </row>
-    <row r="83" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:37" ht="12.75">
       <c r="B83" s="47"/>
       <c r="C83" s="47"/>
       <c r="D83" s="43"/>
@@ -4480,7 +4474,7 @@
       <c r="AJ83" s="46"/>
       <c r="AK83" s="46"/>
     </row>
-    <row r="84" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:37" ht="12.75">
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
       <c r="D84" s="43"/>
@@ -4517,7 +4511,7 @@
       <c r="AJ84" s="46"/>
       <c r="AK84" s="46"/>
     </row>
-    <row r="85" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:37" ht="12.75">
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
       <c r="D85" s="43"/>
@@ -4554,7 +4548,7 @@
       <c r="AJ85" s="46"/>
       <c r="AK85" s="46"/>
     </row>
-    <row r="86" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:37" ht="12.75">
       <c r="B86" s="47"/>
       <c r="C86" s="47"/>
       <c r="D86" s="43"/>
@@ -4591,7 +4585,7 @@
       <c r="AJ86" s="46"/>
       <c r="AK86" s="46"/>
     </row>
-    <row r="87" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:37" ht="12.75">
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
       <c r="D87" s="43"/>
@@ -4628,7 +4622,7 @@
       <c r="AJ87" s="46"/>
       <c r="AK87" s="46"/>
     </row>
-    <row r="88" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:37" ht="12.75">
       <c r="B88" s="47"/>
       <c r="C88" s="47"/>
       <c r="D88" s="43"/>
@@ -4665,7 +4659,7 @@
       <c r="AJ88" s="46"/>
       <c r="AK88" s="46"/>
     </row>
-    <row r="89" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:37" ht="12.75">
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
       <c r="D89" s="43"/>
@@ -4702,7 +4696,7 @@
       <c r="AJ89" s="46"/>
       <c r="AK89" s="46"/>
     </row>
-    <row r="90" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:37" ht="12.75">
       <c r="B90" s="47"/>
       <c r="C90" s="47"/>
       <c r="D90" s="43"/>
@@ -4739,7 +4733,7 @@
       <c r="AJ90" s="46"/>
       <c r="AK90" s="46"/>
     </row>
-    <row r="91" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:37" ht="12.75">
       <c r="B91" s="47"/>
       <c r="C91" s="47"/>
       <c r="D91" s="43"/>
@@ -4776,7 +4770,7 @@
       <c r="AJ91" s="46"/>
       <c r="AK91" s="46"/>
     </row>
-    <row r="92" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:37" ht="12.75">
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
       <c r="D92" s="43"/>
@@ -4813,7 +4807,7 @@
       <c r="AJ92" s="46"/>
       <c r="AK92" s="46"/>
     </row>
-    <row r="93" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:37" ht="12.75">
       <c r="B93" s="47"/>
       <c r="C93" s="47"/>
       <c r="D93" s="43"/>
@@ -4850,7 +4844,7 @@
       <c r="AJ93" s="46"/>
       <c r="AK93" s="46"/>
     </row>
-    <row r="94" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:37" ht="12.75">
       <c r="B94" s="47"/>
       <c r="C94" s="47"/>
       <c r="D94" s="43"/>
@@ -4887,7 +4881,7 @@
       <c r="AJ94" s="46"/>
       <c r="AK94" s="46"/>
     </row>
-    <row r="95" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:37" ht="12.75">
       <c r="B95" s="47"/>
       <c r="C95" s="47"/>
       <c r="D95" s="43"/>
@@ -4924,7 +4918,7 @@
       <c r="AJ95" s="46"/>
       <c r="AK95" s="46"/>
     </row>
-    <row r="96" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:37" ht="12.75">
       <c r="B96" s="47"/>
       <c r="C96" s="47"/>
       <c r="D96" s="43"/>
@@ -4961,7 +4955,7 @@
       <c r="AJ96" s="46"/>
       <c r="AK96" s="46"/>
     </row>
-    <row r="97" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:37" ht="12.75">
       <c r="B97" s="47"/>
       <c r="C97" s="47"/>
       <c r="D97" s="43"/>
@@ -4998,7 +4992,7 @@
       <c r="AJ97" s="46"/>
       <c r="AK97" s="46"/>
     </row>
-    <row r="98" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:37" ht="12.75">
       <c r="B98" s="47"/>
       <c r="C98" s="47"/>
       <c r="D98" s="43"/>
@@ -5035,7 +5029,7 @@
       <c r="AJ98" s="46"/>
       <c r="AK98" s="46"/>
     </row>
-    <row r="99" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:37" ht="12.75">
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
       <c r="D99" s="43"/>
@@ -5072,7 +5066,7 @@
       <c r="AJ99" s="46"/>
       <c r="AK99" s="46"/>
     </row>
-    <row r="100" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:37" ht="12.75">
       <c r="B100" s="47"/>
       <c r="C100" s="47"/>
       <c r="D100" s="43"/>
@@ -5109,7 +5103,7 @@
       <c r="AJ100" s="46"/>
       <c r="AK100" s="46"/>
     </row>
-    <row r="101" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:37" ht="12.75">
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
       <c r="D101" s="43"/>
@@ -5146,7 +5140,7 @@
       <c r="AJ101" s="46"/>
       <c r="AK101" s="46"/>
     </row>
-    <row r="102" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:37" ht="12.75">
       <c r="B102" s="47"/>
       <c r="C102" s="47"/>
       <c r="D102" s="43"/>
@@ -5183,7 +5177,7 @@
       <c r="AJ102" s="46"/>
       <c r="AK102" s="46"/>
     </row>
-    <row r="103" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:37" ht="12.75">
       <c r="B103" s="47"/>
       <c r="C103" s="47"/>
       <c r="D103" s="43"/>
@@ -5220,7 +5214,7 @@
       <c r="AJ103" s="46"/>
       <c r="AK103" s="46"/>
     </row>
-    <row r="104" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:37" ht="12.75">
       <c r="B104" s="47"/>
       <c r="C104" s="47"/>
       <c r="D104" s="43"/>
@@ -5257,7 +5251,7 @@
       <c r="AJ104" s="46"/>
       <c r="AK104" s="46"/>
     </row>
-    <row r="105" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:37" ht="12.75">
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
       <c r="D105" s="43"/>
@@ -5294,7 +5288,7 @@
       <c r="AJ105" s="46"/>
       <c r="AK105" s="46"/>
     </row>
-    <row r="106" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:37" ht="12.75">
       <c r="B106" s="47"/>
       <c r="C106" s="47"/>
       <c r="D106" s="43"/>
@@ -5331,7 +5325,7 @@
       <c r="AJ106" s="46"/>
       <c r="AK106" s="46"/>
     </row>
-    <row r="107" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:37" ht="12.75">
       <c r="B107" s="47"/>
       <c r="C107" s="47"/>
       <c r="D107" s="43"/>
@@ -5368,7 +5362,7 @@
       <c r="AJ107" s="46"/>
       <c r="AK107" s="46"/>
     </row>
-    <row r="108" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:37" ht="12.75">
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
       <c r="D108" s="43"/>
@@ -5405,7 +5399,7 @@
       <c r="AJ108" s="46"/>
       <c r="AK108" s="46"/>
     </row>
-    <row r="109" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:37" ht="12.75">
       <c r="B109" s="47"/>
       <c r="C109" s="47"/>
       <c r="D109" s="43"/>
@@ -5442,7 +5436,7 @@
       <c r="AJ109" s="46"/>
       <c r="AK109" s="46"/>
     </row>
-    <row r="110" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:37" ht="12.75">
       <c r="B110" s="47"/>
       <c r="C110" s="47"/>
       <c r="D110" s="43"/>
@@ -5479,7 +5473,7 @@
       <c r="AJ110" s="46"/>
       <c r="AK110" s="46"/>
     </row>
-    <row r="111" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:37" ht="12.75">
       <c r="B111" s="47"/>
       <c r="C111" s="47"/>
       <c r="D111" s="43"/>
@@ -5516,7 +5510,7 @@
       <c r="AJ111" s="46"/>
       <c r="AK111" s="46"/>
     </row>
-    <row r="112" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:37" ht="12.75">
       <c r="B112" s="47"/>
       <c r="C112" s="47"/>
       <c r="D112" s="43"/>
@@ -5553,7 +5547,7 @@
       <c r="AJ112" s="46"/>
       <c r="AK112" s="46"/>
     </row>
-    <row r="113" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:37" ht="12.75">
       <c r="B113" s="47"/>
       <c r="C113" s="47"/>
       <c r="D113" s="43"/>
@@ -5590,7 +5584,7 @@
       <c r="AJ113" s="46"/>
       <c r="AK113" s="46"/>
     </row>
-    <row r="114" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:37" ht="12.75">
       <c r="B114" s="47"/>
       <c r="C114" s="47"/>
       <c r="D114" s="43"/>
@@ -5627,7 +5621,7 @@
       <c r="AJ114" s="46"/>
       <c r="AK114" s="46"/>
     </row>
-    <row r="115" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:37" ht="12.75">
       <c r="B115" s="47"/>
       <c r="C115" s="47"/>
       <c r="D115" s="43"/>
@@ -5664,7 +5658,7 @@
       <c r="AJ115" s="46"/>
       <c r="AK115" s="46"/>
     </row>
-    <row r="116" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:37" ht="12.75">
       <c r="B116" s="47"/>
       <c r="C116" s="47"/>
       <c r="D116" s="43"/>
@@ -5701,7 +5695,7 @@
       <c r="AJ116" s="46"/>
       <c r="AK116" s="46"/>
     </row>
-    <row r="117" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:37" ht="12.75">
       <c r="B117" s="47"/>
       <c r="C117" s="47"/>
       <c r="D117" s="43"/>
@@ -5738,7 +5732,7 @@
       <c r="AJ117" s="46"/>
       <c r="AK117" s="46"/>
     </row>
-    <row r="118" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:37" ht="12.75">
       <c r="B118" s="47"/>
       <c r="C118" s="47"/>
       <c r="D118" s="43"/>
@@ -5775,7 +5769,7 @@
       <c r="AJ118" s="46"/>
       <c r="AK118" s="46"/>
     </row>
-    <row r="119" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:37" ht="12.75">
       <c r="B119" s="47"/>
       <c r="C119" s="47"/>
       <c r="D119" s="43"/>
@@ -5812,7 +5806,7 @@
       <c r="AJ119" s="46"/>
       <c r="AK119" s="46"/>
     </row>
-    <row r="120" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:37" ht="12.75">
       <c r="B120" s="47"/>
       <c r="C120" s="47"/>
       <c r="D120" s="43"/>
@@ -5849,7 +5843,7 @@
       <c r="AJ120" s="46"/>
       <c r="AK120" s="46"/>
     </row>
-    <row r="121" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:37" ht="12.75">
       <c r="B121" s="47"/>
       <c r="C121" s="47"/>
       <c r="D121" s="43"/>
@@ -5886,7 +5880,7 @@
       <c r="AJ121" s="46"/>
       <c r="AK121" s="46"/>
     </row>
-    <row r="122" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:37" ht="12.75">
       <c r="B122" s="47"/>
       <c r="C122" s="47"/>
       <c r="D122" s="43"/>
@@ -5923,7 +5917,7 @@
       <c r="AJ122" s="46"/>
       <c r="AK122" s="46"/>
     </row>
-    <row r="123" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:37" ht="12.75">
       <c r="B123" s="47"/>
       <c r="C123" s="47"/>
       <c r="D123" s="43"/>
@@ -5960,7 +5954,7 @@
       <c r="AJ123" s="46"/>
       <c r="AK123" s="46"/>
     </row>
-    <row r="124" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:37" ht="12.75">
       <c r="B124" s="47"/>
       <c r="C124" s="47"/>
       <c r="D124" s="43"/>
@@ -5997,7 +5991,7 @@
       <c r="AJ124" s="46"/>
       <c r="AK124" s="46"/>
     </row>
-    <row r="125" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:37" ht="12.75">
       <c r="B125" s="47"/>
       <c r="C125" s="47"/>
       <c r="D125" s="43"/>
@@ -6034,7 +6028,7 @@
       <c r="AJ125" s="46"/>
       <c r="AK125" s="46"/>
     </row>
-    <row r="126" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:37" ht="12.75">
       <c r="B126" s="47"/>
       <c r="C126" s="47"/>
       <c r="D126" s="43"/>
@@ -6071,7 +6065,7 @@
       <c r="AJ126" s="46"/>
       <c r="AK126" s="46"/>
     </row>
-    <row r="127" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:37" ht="12.75">
       <c r="B127" s="47"/>
       <c r="C127" s="47"/>
       <c r="D127" s="43"/>
@@ -6108,7 +6102,7 @@
       <c r="AJ127" s="46"/>
       <c r="AK127" s="46"/>
     </row>
-    <row r="128" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:37" ht="12.75">
       <c r="B128" s="47"/>
       <c r="C128" s="47"/>
       <c r="D128" s="43"/>
@@ -6145,7 +6139,7 @@
       <c r="AJ128" s="46"/>
       <c r="AK128" s="46"/>
     </row>
-    <row r="129" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:37" ht="12.75">
       <c r="B129" s="47"/>
       <c r="C129" s="47"/>
       <c r="D129" s="43"/>
@@ -6182,7 +6176,7 @@
       <c r="AJ129" s="46"/>
       <c r="AK129" s="46"/>
     </row>
-    <row r="130" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:37" ht="12.75">
       <c r="B130" s="47"/>
       <c r="C130" s="47"/>
       <c r="D130" s="43"/>
@@ -6219,7 +6213,7 @@
       <c r="AJ130" s="46"/>
       <c r="AK130" s="46"/>
     </row>
-    <row r="131" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:37" ht="12.75">
       <c r="B131" s="47"/>
       <c r="C131" s="47"/>
       <c r="D131" s="43"/>
@@ -6256,7 +6250,7 @@
       <c r="AJ131" s="46"/>
       <c r="AK131" s="46"/>
     </row>
-    <row r="132" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:37" ht="12.75">
       <c r="B132" s="47"/>
       <c r="C132" s="47"/>
       <c r="D132" s="43"/>
@@ -6293,7 +6287,7 @@
       <c r="AJ132" s="46"/>
       <c r="AK132" s="46"/>
     </row>
-    <row r="133" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:37" ht="12.75">
       <c r="B133" s="47"/>
       <c r="C133" s="47"/>
       <c r="D133" s="43"/>
@@ -6330,7 +6324,7 @@
       <c r="AJ133" s="46"/>
       <c r="AK133" s="46"/>
     </row>
-    <row r="134" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:37" ht="12.75">
       <c r="B134" s="47"/>
       <c r="C134" s="47"/>
       <c r="D134" s="43"/>
@@ -6367,7 +6361,7 @@
       <c r="AJ134" s="46"/>
       <c r="AK134" s="46"/>
     </row>
-    <row r="135" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:37" ht="12.75">
       <c r="B135" s="47"/>
       <c r="C135" s="47"/>
       <c r="D135" s="43"/>
@@ -6404,7 +6398,7 @@
       <c r="AJ135" s="46"/>
       <c r="AK135" s="46"/>
     </row>
-    <row r="136" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:37" ht="12.75">
       <c r="B136" s="47"/>
       <c r="C136" s="47"/>
       <c r="D136" s="43"/>
@@ -6441,7 +6435,7 @@
       <c r="AJ136" s="46"/>
       <c r="AK136" s="46"/>
     </row>
-    <row r="137" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:37" ht="12.75">
       <c r="B137" s="47"/>
       <c r="C137" s="47"/>
       <c r="D137" s="43"/>
@@ -6478,7 +6472,7 @@
       <c r="AJ137" s="46"/>
       <c r="AK137" s="46"/>
     </row>
-    <row r="138" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:37" ht="12.75">
       <c r="B138" s="47"/>
       <c r="C138" s="47"/>
       <c r="D138" s="43"/>
@@ -6515,7 +6509,7 @@
       <c r="AJ138" s="46"/>
       <c r="AK138" s="46"/>
     </row>
-    <row r="139" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:37" ht="12.75">
       <c r="B139" s="47"/>
       <c r="C139" s="47"/>
       <c r="D139" s="43"/>
@@ -6552,7 +6546,7 @@
       <c r="AJ139" s="46"/>
       <c r="AK139" s="46"/>
     </row>
-    <row r="140" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:37" ht="12.75">
       <c r="B140" s="47"/>
       <c r="C140" s="47"/>
       <c r="D140" s="43"/>
@@ -6589,7 +6583,7 @@
       <c r="AJ140" s="46"/>
       <c r="AK140" s="46"/>
     </row>
-    <row r="141" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:37" ht="12.75">
       <c r="B141" s="47"/>
       <c r="C141" s="47"/>
       <c r="D141" s="43"/>
@@ -6626,7 +6620,7 @@
       <c r="AJ141" s="46"/>
       <c r="AK141" s="46"/>
     </row>
-    <row r="142" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:37" ht="12.75">
       <c r="B142" s="47"/>
       <c r="C142" s="47"/>
       <c r="D142" s="43"/>
@@ -6663,7 +6657,7 @@
       <c r="AJ142" s="46"/>
       <c r="AK142" s="46"/>
     </row>
-    <row r="143" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:37" ht="12.75">
       <c r="B143" s="47"/>
       <c r="C143" s="47"/>
       <c r="D143" s="43"/>
@@ -6700,7 +6694,7 @@
       <c r="AJ143" s="46"/>
       <c r="AK143" s="46"/>
     </row>
-    <row r="144" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:37" ht="12.75">
       <c r="B144" s="47"/>
       <c r="C144" s="47"/>
       <c r="D144" s="43"/>
@@ -6737,7 +6731,7 @@
       <c r="AJ144" s="46"/>
       <c r="AK144" s="46"/>
     </row>
-    <row r="145" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:37" ht="12.75">
       <c r="B145" s="47"/>
       <c r="C145" s="47"/>
       <c r="D145" s="43"/>
@@ -6774,7 +6768,7 @@
       <c r="AJ145" s="46"/>
       <c r="AK145" s="46"/>
     </row>
-    <row r="146" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:37" ht="12.75">
       <c r="B146" s="47"/>
       <c r="C146" s="47"/>
       <c r="D146" s="43"/>
@@ -6811,7 +6805,7 @@
       <c r="AJ146" s="46"/>
       <c r="AK146" s="46"/>
     </row>
-    <row r="147" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:37" ht="12.75">
       <c r="B147" s="47"/>
       <c r="C147" s="47"/>
       <c r="D147" s="43"/>
@@ -6848,7 +6842,7 @@
       <c r="AJ147" s="46"/>
       <c r="AK147" s="46"/>
     </row>
-    <row r="148" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:37" ht="12.75">
       <c r="B148" s="47"/>
       <c r="C148" s="47"/>
       <c r="D148" s="43"/>
@@ -6885,7 +6879,7 @@
       <c r="AJ148" s="46"/>
       <c r="AK148" s="46"/>
     </row>
-    <row r="149" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:37" ht="12.75">
       <c r="B149" s="47"/>
       <c r="C149" s="47"/>
       <c r="D149" s="43"/>
@@ -6922,7 +6916,7 @@
       <c r="AJ149" s="46"/>
       <c r="AK149" s="46"/>
     </row>
-    <row r="150" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:37" ht="12.75">
       <c r="B150" s="47"/>
       <c r="C150" s="47"/>
       <c r="D150" s="43"/>
@@ -6959,7 +6953,7 @@
       <c r="AJ150" s="46"/>
       <c r="AK150" s="46"/>
     </row>
-    <row r="151" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:37" ht="12.75">
       <c r="B151" s="47"/>
       <c r="C151" s="47"/>
       <c r="D151" s="43"/>
@@ -6996,7 +6990,7 @@
       <c r="AJ151" s="46"/>
       <c r="AK151" s="46"/>
     </row>
-    <row r="152" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:37" ht="12.75">
       <c r="B152" s="47"/>
       <c r="C152" s="47"/>
       <c r="D152" s="43"/>
@@ -7033,7 +7027,7 @@
       <c r="AJ152" s="46"/>
       <c r="AK152" s="46"/>
     </row>
-    <row r="153" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:37" ht="12.75">
       <c r="B153" s="47"/>
       <c r="C153" s="47"/>
       <c r="D153" s="43"/>
@@ -7070,7 +7064,7 @@
       <c r="AJ153" s="46"/>
       <c r="AK153" s="46"/>
     </row>
-    <row r="154" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:37" ht="12.75">
       <c r="B154" s="47"/>
       <c r="C154" s="47"/>
       <c r="D154" s="43"/>
@@ -7107,7 +7101,7 @@
       <c r="AJ154" s="46"/>
       <c r="AK154" s="46"/>
     </row>
-    <row r="155" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:37" ht="12.75">
       <c r="B155" s="47"/>
       <c r="C155" s="47"/>
       <c r="D155" s="43"/>
@@ -7144,7 +7138,7 @@
       <c r="AJ155" s="46"/>
       <c r="AK155" s="46"/>
     </row>
-    <row r="156" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:37" ht="12.75">
       <c r="B156" s="47"/>
       <c r="C156" s="47"/>
       <c r="D156" s="43"/>
@@ -7181,7 +7175,7 @@
       <c r="AJ156" s="46"/>
       <c r="AK156" s="46"/>
     </row>
-    <row r="157" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:37" ht="12.75">
       <c r="B157" s="47"/>
       <c r="C157" s="47"/>
       <c r="D157" s="43"/>
@@ -7218,7 +7212,7 @@
       <c r="AJ157" s="46"/>
       <c r="AK157" s="46"/>
     </row>
-    <row r="158" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:37" ht="12.75">
       <c r="B158" s="47"/>
       <c r="C158" s="47"/>
       <c r="D158" s="43"/>
@@ -7255,7 +7249,7 @@
       <c r="AJ158" s="46"/>
       <c r="AK158" s="46"/>
     </row>
-    <row r="159" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:37" ht="12.75">
       <c r="B159" s="47"/>
       <c r="C159" s="47"/>
       <c r="D159" s="43"/>
@@ -7292,7 +7286,7 @@
       <c r="AJ159" s="46"/>
       <c r="AK159" s="46"/>
     </row>
-    <row r="160" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:37" ht="12.75">
       <c r="B160" s="47"/>
       <c r="C160" s="47"/>
       <c r="D160" s="43"/>
@@ -7329,7 +7323,7 @@
       <c r="AJ160" s="46"/>
       <c r="AK160" s="46"/>
     </row>
-    <row r="161" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:37" ht="12.75">
       <c r="B161" s="47"/>
       <c r="C161" s="47"/>
       <c r="D161" s="43"/>
@@ -7366,7 +7360,7 @@
       <c r="AJ161" s="46"/>
       <c r="AK161" s="46"/>
     </row>
-    <row r="162" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:37" ht="12.75">
       <c r="B162" s="47"/>
       <c r="C162" s="47"/>
       <c r="D162" s="43"/>
@@ -7403,7 +7397,7 @@
       <c r="AJ162" s="46"/>
       <c r="AK162" s="46"/>
     </row>
-    <row r="163" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:37" ht="12.75">
       <c r="B163" s="47"/>
       <c r="C163" s="47"/>
       <c r="D163" s="43"/>
@@ -7440,7 +7434,7 @@
       <c r="AJ163" s="46"/>
       <c r="AK163" s="46"/>
     </row>
-    <row r="164" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:37" ht="12.75">
       <c r="B164" s="47"/>
       <c r="C164" s="47"/>
       <c r="D164" s="43"/>
@@ -7477,7 +7471,7 @@
       <c r="AJ164" s="46"/>
       <c r="AK164" s="46"/>
     </row>
-    <row r="165" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:37" ht="12.75">
       <c r="B165" s="47"/>
       <c r="C165" s="47"/>
       <c r="D165" s="43"/>
@@ -7514,7 +7508,7 @@
       <c r="AJ165" s="46"/>
       <c r="AK165" s="46"/>
     </row>
-    <row r="166" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:37" ht="12.75">
       <c r="B166" s="47"/>
       <c r="C166" s="47"/>
       <c r="D166" s="43"/>
@@ -7551,7 +7545,7 @@
       <c r="AJ166" s="46"/>
       <c r="AK166" s="46"/>
     </row>
-    <row r="167" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:37" ht="12.75">
       <c r="B167" s="47"/>
       <c r="C167" s="47"/>
       <c r="D167" s="43"/>
@@ -7588,7 +7582,7 @@
       <c r="AJ167" s="46"/>
       <c r="AK167" s="46"/>
     </row>
-    <row r="168" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:37" ht="12.75">
       <c r="B168" s="47"/>
       <c r="C168" s="47"/>
       <c r="D168" s="43"/>
@@ -7625,7 +7619,7 @@
       <c r="AJ168" s="46"/>
       <c r="AK168" s="46"/>
     </row>
-    <row r="169" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:37" ht="12.75">
       <c r="B169" s="47"/>
       <c r="C169" s="47"/>
       <c r="D169" s="43"/>
@@ -7662,7 +7656,7 @@
       <c r="AJ169" s="46"/>
       <c r="AK169" s="46"/>
     </row>
-    <row r="170" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:37" ht="12.75">
       <c r="B170" s="47"/>
       <c r="C170" s="47"/>
       <c r="D170" s="43"/>
@@ -7699,7 +7693,7 @@
       <c r="AJ170" s="46"/>
       <c r="AK170" s="46"/>
     </row>
-    <row r="171" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:37" ht="12.75">
       <c r="B171" s="47"/>
       <c r="C171" s="47"/>
       <c r="D171" s="43"/>
@@ -7736,7 +7730,7 @@
       <c r="AJ171" s="46"/>
       <c r="AK171" s="46"/>
     </row>
-    <row r="172" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:37" ht="12.75">
       <c r="B172" s="47"/>
       <c r="C172" s="47"/>
       <c r="D172" s="43"/>
@@ -7773,7 +7767,7 @@
       <c r="AJ172" s="46"/>
       <c r="AK172" s="46"/>
     </row>
-    <row r="173" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:37" ht="12.75">
       <c r="B173" s="47"/>
       <c r="C173" s="47"/>
       <c r="D173" s="43"/>
@@ -7810,7 +7804,7 @@
       <c r="AJ173" s="46"/>
       <c r="AK173" s="46"/>
     </row>
-    <row r="174" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:37" ht="12.75">
       <c r="B174" s="47"/>
       <c r="C174" s="47"/>
       <c r="D174" s="43"/>
@@ -7847,7 +7841,7 @@
       <c r="AJ174" s="46"/>
       <c r="AK174" s="46"/>
     </row>
-    <row r="175" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:37" ht="12.75">
       <c r="B175" s="47"/>
       <c r="C175" s="47"/>
       <c r="D175" s="43"/>
@@ -7884,7 +7878,7 @@
       <c r="AJ175" s="46"/>
       <c r="AK175" s="46"/>
     </row>
-    <row r="176" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:37" ht="12.75">
       <c r="B176" s="47"/>
       <c r="C176" s="47"/>
       <c r="D176" s="43"/>
@@ -7921,7 +7915,7 @@
       <c r="AJ176" s="46"/>
       <c r="AK176" s="46"/>
     </row>
-    <row r="177" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:37" ht="12.75">
       <c r="B177" s="47"/>
       <c r="C177" s="47"/>
       <c r="D177" s="43"/>
@@ -7958,7 +7952,7 @@
       <c r="AJ177" s="46"/>
       <c r="AK177" s="46"/>
     </row>
-    <row r="178" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:37" ht="12.75">
       <c r="B178" s="47"/>
       <c r="C178" s="47"/>
       <c r="D178" s="43"/>
@@ -7995,7 +7989,7 @@
       <c r="AJ178" s="46"/>
       <c r="AK178" s="46"/>
     </row>
-    <row r="179" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:37" ht="12.75">
       <c r="B179" s="47"/>
       <c r="C179" s="47"/>
       <c r="D179" s="43"/>
@@ -8032,7 +8026,7 @@
       <c r="AJ179" s="46"/>
       <c r="AK179" s="46"/>
     </row>
-    <row r="180" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:37" ht="12.75">
       <c r="B180" s="47"/>
       <c r="C180" s="47"/>
       <c r="D180" s="43"/>
@@ -8069,7 +8063,7 @@
       <c r="AJ180" s="46"/>
       <c r="AK180" s="46"/>
     </row>
-    <row r="181" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:37" ht="12.75">
       <c r="B181" s="47"/>
       <c r="C181" s="47"/>
       <c r="D181" s="43"/>
@@ -8106,7 +8100,7 @@
       <c r="AJ181" s="46"/>
       <c r="AK181" s="46"/>
     </row>
-    <row r="182" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:37" ht="12.75">
       <c r="B182" s="47"/>
       <c r="C182" s="47"/>
       <c r="D182" s="43"/>
@@ -8143,7 +8137,7 @@
       <c r="AJ182" s="46"/>
       <c r="AK182" s="46"/>
     </row>
-    <row r="183" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:37" ht="12.75">
       <c r="B183" s="47"/>
       <c r="C183" s="47"/>
       <c r="D183" s="43"/>
@@ -8180,7 +8174,7 @@
       <c r="AJ183" s="46"/>
       <c r="AK183" s="46"/>
     </row>
-    <row r="184" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:37" ht="12.75">
       <c r="B184" s="47"/>
       <c r="C184" s="47"/>
       <c r="D184" s="43"/>
@@ -8217,7 +8211,7 @@
       <c r="AJ184" s="46"/>
       <c r="AK184" s="46"/>
     </row>
-    <row r="185" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:37" ht="12.75">
       <c r="B185" s="47"/>
       <c r="C185" s="47"/>
       <c r="D185" s="43"/>
@@ -8254,7 +8248,7 @@
       <c r="AJ185" s="46"/>
       <c r="AK185" s="46"/>
     </row>
-    <row r="186" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:37" ht="12.75">
       <c r="B186" s="47"/>
       <c r="C186" s="47"/>
       <c r="D186" s="43"/>
@@ -8291,7 +8285,7 @@
       <c r="AJ186" s="46"/>
       <c r="AK186" s="46"/>
     </row>
-    <row r="187" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:37" ht="12.75">
       <c r="B187" s="47"/>
       <c r="C187" s="47"/>
       <c r="D187" s="43"/>
@@ -8328,7 +8322,7 @@
       <c r="AJ187" s="46"/>
       <c r="AK187" s="46"/>
     </row>
-    <row r="188" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:37" ht="12.75">
       <c r="B188" s="47"/>
       <c r="C188" s="47"/>
       <c r="D188" s="43"/>
@@ -8365,7 +8359,7 @@
       <c r="AJ188" s="46"/>
       <c r="AK188" s="46"/>
     </row>
-    <row r="189" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:37" ht="12.75">
       <c r="B189" s="47"/>
       <c r="C189" s="47"/>
       <c r="D189" s="43"/>
@@ -8402,7 +8396,7 @@
       <c r="AJ189" s="46"/>
       <c r="AK189" s="46"/>
     </row>
-    <row r="190" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:37" ht="12.75">
       <c r="B190" s="47"/>
       <c r="C190" s="47"/>
       <c r="D190" s="43"/>
@@ -8439,7 +8433,7 @@
       <c r="AJ190" s="46"/>
       <c r="AK190" s="46"/>
     </row>
-    <row r="191" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:37" ht="12.75">
       <c r="B191" s="47"/>
       <c r="C191" s="47"/>
       <c r="D191" s="43"/>
@@ -8476,7 +8470,7 @@
       <c r="AJ191" s="46"/>
       <c r="AK191" s="46"/>
     </row>
-    <row r="192" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:37" ht="12.75">
       <c r="B192" s="47"/>
       <c r="C192" s="47"/>
       <c r="D192" s="43"/>
@@ -8513,7 +8507,7 @@
       <c r="AJ192" s="46"/>
       <c r="AK192" s="46"/>
     </row>
-    <row r="193" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:37" ht="12.75">
       <c r="B193" s="47"/>
       <c r="C193" s="47"/>
       <c r="D193" s="43"/>
@@ -8550,7 +8544,7 @@
       <c r="AJ193" s="46"/>
       <c r="AK193" s="46"/>
     </row>
-    <row r="194" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:37" ht="12.75">
       <c r="B194" s="47"/>
       <c r="C194" s="47"/>
       <c r="D194" s="43"/>
@@ -8587,7 +8581,7 @@
       <c r="AJ194" s="46"/>
       <c r="AK194" s="46"/>
     </row>
-    <row r="195" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:37" ht="12.75">
       <c r="B195" s="47"/>
       <c r="C195" s="47"/>
       <c r="D195" s="43"/>
@@ -8624,7 +8618,7 @@
       <c r="AJ195" s="46"/>
       <c r="AK195" s="46"/>
     </row>
-    <row r="196" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:37" ht="12.75">
       <c r="B196" s="47"/>
       <c r="C196" s="47"/>
       <c r="D196" s="43"/>
@@ -8661,7 +8655,7 @@
       <c r="AJ196" s="46"/>
       <c r="AK196" s="46"/>
     </row>
-    <row r="197" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:37" ht="12.75">
       <c r="B197" s="47"/>
       <c r="C197" s="47"/>
       <c r="D197" s="43"/>
@@ -8698,7 +8692,7 @@
       <c r="AJ197" s="46"/>
       <c r="AK197" s="46"/>
     </row>
-    <row r="198" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:37" ht="12.75">
       <c r="B198" s="47"/>
       <c r="C198" s="47"/>
       <c r="D198" s="43"/>
@@ -8735,7 +8729,7 @@
       <c r="AJ198" s="46"/>
       <c r="AK198" s="46"/>
     </row>
-    <row r="199" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:37" ht="12.75">
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
       <c r="D199" s="43"/>
@@ -8772,7 +8766,7 @@
       <c r="AJ199" s="46"/>
       <c r="AK199" s="46"/>
     </row>
-    <row r="200" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:37" ht="12.75">
       <c r="B200" s="47"/>
       <c r="C200" s="47"/>
       <c r="D200" s="43"/>
@@ -8809,7 +8803,7 @@
       <c r="AJ200" s="46"/>
       <c r="AK200" s="46"/>
     </row>
-    <row r="201" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:37" ht="12.75">
       <c r="B201" s="47"/>
       <c r="C201" s="47"/>
       <c r="D201" s="43"/>
@@ -8846,7 +8840,7 @@
       <c r="AJ201" s="46"/>
       <c r="AK201" s="46"/>
     </row>
-    <row r="202" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:37" ht="12.75">
       <c r="B202" s="47"/>
       <c r="C202" s="47"/>
       <c r="D202" s="43"/>
@@ -8883,7 +8877,7 @@
       <c r="AJ202" s="46"/>
       <c r="AK202" s="46"/>
     </row>
-    <row r="203" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:37" ht="12.75">
       <c r="B203" s="47"/>
       <c r="C203" s="47"/>
       <c r="D203" s="43"/>
@@ -8920,7 +8914,7 @@
       <c r="AJ203" s="46"/>
       <c r="AK203" s="46"/>
     </row>
-    <row r="204" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:37" ht="12.75">
       <c r="B204" s="47"/>
       <c r="C204" s="47"/>
       <c r="D204" s="43"/>
@@ -8957,7 +8951,7 @@
       <c r="AJ204" s="46"/>
       <c r="AK204" s="46"/>
     </row>
-    <row r="205" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:37" ht="12.75">
       <c r="B205" s="47"/>
       <c r="C205" s="47"/>
       <c r="D205" s="43"/>
@@ -8994,7 +8988,7 @@
       <c r="AJ205" s="46"/>
       <c r="AK205" s="46"/>
     </row>
-    <row r="206" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:37" ht="12.75">
       <c r="B206" s="47"/>
       <c r="C206" s="47"/>
       <c r="D206" s="43"/>
@@ -9031,7 +9025,7 @@
       <c r="AJ206" s="46"/>
       <c r="AK206" s="46"/>
     </row>
-    <row r="207" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:37" ht="12.75">
       <c r="B207" s="47"/>
       <c r="C207" s="47"/>
       <c r="D207" s="43"/>
@@ -9068,7 +9062,7 @@
       <c r="AJ207" s="46"/>
       <c r="AK207" s="46"/>
     </row>
-    <row r="208" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:37" ht="12.75">
       <c r="B208" s="47"/>
       <c r="C208" s="47"/>
       <c r="D208" s="43"/>
@@ -9105,7 +9099,7 @@
       <c r="AJ208" s="46"/>
       <c r="AK208" s="46"/>
     </row>
-    <row r="209" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:37" ht="12.75">
       <c r="B209" s="47"/>
       <c r="C209" s="47"/>
       <c r="D209" s="43"/>
@@ -9142,7 +9136,7 @@
       <c r="AJ209" s="46"/>
       <c r="AK209" s="46"/>
     </row>
-    <row r="210" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:37" ht="12.75">
       <c r="B210" s="47"/>
       <c r="C210" s="47"/>
       <c r="D210" s="43"/>
@@ -9179,7 +9173,7 @@
       <c r="AJ210" s="46"/>
       <c r="AK210" s="46"/>
     </row>
-    <row r="211" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:37" ht="12.75">
       <c r="B211" s="47"/>
       <c r="C211" s="47"/>
       <c r="D211" s="43"/>
@@ -9216,7 +9210,7 @@
       <c r="AJ211" s="46"/>
       <c r="AK211" s="46"/>
     </row>
-    <row r="212" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:37" ht="12.75">
       <c r="B212" s="47"/>
       <c r="C212" s="47"/>
       <c r="D212" s="43"/>
@@ -9253,7 +9247,7 @@
       <c r="AJ212" s="46"/>
       <c r="AK212" s="46"/>
     </row>
-    <row r="213" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:37" ht="12.75">
       <c r="B213" s="47"/>
       <c r="C213" s="47"/>
       <c r="D213" s="43"/>
@@ -9290,7 +9284,7 @@
       <c r="AJ213" s="46"/>
       <c r="AK213" s="46"/>
     </row>
-    <row r="214" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:37" ht="12.75">
       <c r="B214" s="47"/>
       <c r="C214" s="47"/>
       <c r="D214" s="43"/>
@@ -9327,7 +9321,7 @@
       <c r="AJ214" s="46"/>
       <c r="AK214" s="46"/>
     </row>
-    <row r="215" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:37" ht="12.75">
       <c r="B215" s="47"/>
       <c r="C215" s="47"/>
       <c r="D215" s="43"/>
@@ -9364,7 +9358,7 @@
       <c r="AJ215" s="46"/>
       <c r="AK215" s="46"/>
     </row>
-    <row r="216" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:37" ht="12.75">
       <c r="B216" s="47"/>
       <c r="C216" s="47"/>
       <c r="D216" s="43"/>
@@ -9401,7 +9395,7 @@
       <c r="AJ216" s="46"/>
       <c r="AK216" s="46"/>
     </row>
-    <row r="217" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:37" ht="12.75">
       <c r="B217" s="47"/>
       <c r="C217" s="47"/>
       <c r="D217" s="43"/>
@@ -9438,7 +9432,7 @@
       <c r="AJ217" s="46"/>
       <c r="AK217" s="46"/>
     </row>
-    <row r="218" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:37" ht="12.75">
       <c r="B218" s="47"/>
       <c r="C218" s="47"/>
       <c r="D218" s="43"/>
@@ -9475,7 +9469,7 @@
       <c r="AJ218" s="46"/>
       <c r="AK218" s="46"/>
     </row>
-    <row r="219" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:37" ht="12.75">
       <c r="B219" s="47"/>
       <c r="C219" s="47"/>
       <c r="D219" s="43"/>
@@ -9512,7 +9506,7 @@
       <c r="AJ219" s="46"/>
       <c r="AK219" s="46"/>
     </row>
-    <row r="220" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:37" ht="12.75">
       <c r="B220" s="47"/>
       <c r="C220" s="47"/>
       <c r="D220" s="43"/>
@@ -9549,7 +9543,7 @@
       <c r="AJ220" s="46"/>
       <c r="AK220" s="46"/>
     </row>
-    <row r="221" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:37" ht="12.75">
       <c r="B221" s="47"/>
       <c r="C221" s="47"/>
       <c r="D221" s="43"/>
@@ -9586,7 +9580,7 @@
       <c r="AJ221" s="46"/>
       <c r="AK221" s="46"/>
     </row>
-    <row r="222" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:37" ht="12.75">
       <c r="B222" s="47"/>
       <c r="C222" s="47"/>
       <c r="D222" s="43"/>
@@ -9623,7 +9617,7 @@
       <c r="AJ222" s="46"/>
       <c r="AK222" s="46"/>
     </row>
-    <row r="223" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:37" ht="12.75">
       <c r="B223" s="47"/>
       <c r="C223" s="47"/>
       <c r="D223" s="43"/>
@@ -9660,7 +9654,7 @@
       <c r="AJ223" s="46"/>
       <c r="AK223" s="46"/>
     </row>
-    <row r="224" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:37" ht="12.75">
       <c r="B224" s="47"/>
       <c r="C224" s="47"/>
       <c r="D224" s="43"/>
@@ -9697,7 +9691,7 @@
       <c r="AJ224" s="46"/>
       <c r="AK224" s="46"/>
     </row>
-    <row r="225" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:37" ht="12.75">
       <c r="B225" s="47"/>
       <c r="C225" s="47"/>
       <c r="D225" s="43"/>
@@ -9734,7 +9728,7 @@
       <c r="AJ225" s="46"/>
       <c r="AK225" s="46"/>
     </row>
-    <row r="226" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:37" ht="12.75">
       <c r="B226" s="47"/>
       <c r="C226" s="47"/>
       <c r="D226" s="43"/>
@@ -9771,7 +9765,7 @@
       <c r="AJ226" s="46"/>
       <c r="AK226" s="46"/>
     </row>
-    <row r="227" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:37" ht="12.75">
       <c r="B227" s="47"/>
       <c r="C227" s="47"/>
       <c r="D227" s="43"/>
@@ -9808,7 +9802,7 @@
       <c r="AJ227" s="46"/>
       <c r="AK227" s="46"/>
     </row>
-    <row r="228" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:37" ht="12.75">
       <c r="B228" s="47"/>
       <c r="C228" s="47"/>
       <c r="D228" s="43"/>
@@ -9845,7 +9839,7 @@
       <c r="AJ228" s="46"/>
       <c r="AK228" s="46"/>
     </row>
-    <row r="229" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:37" ht="12.75">
       <c r="B229" s="47"/>
       <c r="C229" s="47"/>
       <c r="D229" s="43"/>
@@ -9882,7 +9876,7 @@
       <c r="AJ229" s="46"/>
       <c r="AK229" s="46"/>
     </row>
-    <row r="230" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:37" ht="12.75">
       <c r="B230" s="47"/>
       <c r="C230" s="47"/>
       <c r="D230" s="43"/>
@@ -9919,7 +9913,7 @@
       <c r="AJ230" s="46"/>
       <c r="AK230" s="46"/>
     </row>
-    <row r="231" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:37" ht="12.75">
       <c r="B231" s="47"/>
       <c r="C231" s="47"/>
       <c r="D231" s="43"/>
@@ -9956,7 +9950,7 @@
       <c r="AJ231" s="46"/>
       <c r="AK231" s="46"/>
     </row>
-    <row r="232" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:37" ht="12.75">
       <c r="B232" s="47"/>
       <c r="C232" s="47"/>
       <c r="D232" s="43"/>
@@ -9993,7 +9987,7 @@
       <c r="AJ232" s="46"/>
       <c r="AK232" s="46"/>
     </row>
-    <row r="233" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:37" ht="12.75">
       <c r="B233" s="47"/>
       <c r="C233" s="47"/>
       <c r="D233" s="43"/>
@@ -10030,7 +10024,7 @@
       <c r="AJ233" s="46"/>
       <c r="AK233" s="46"/>
     </row>
-    <row r="234" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:37" ht="12.75">
       <c r="B234" s="47"/>
       <c r="C234" s="47"/>
       <c r="D234" s="43"/>
@@ -10067,7 +10061,7 @@
       <c r="AJ234" s="46"/>
       <c r="AK234" s="46"/>
     </row>
-    <row r="235" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:37" ht="12.75">
       <c r="B235" s="47"/>
       <c r="C235" s="47"/>
       <c r="D235" s="43"/>
@@ -10104,7 +10098,7 @@
       <c r="AJ235" s="46"/>
       <c r="AK235" s="46"/>
     </row>
-    <row r="236" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:37" ht="12.75">
       <c r="B236" s="47"/>
       <c r="C236" s="47"/>
       <c r="D236" s="43"/>
@@ -10141,7 +10135,7 @@
       <c r="AJ236" s="46"/>
       <c r="AK236" s="46"/>
     </row>
-    <row r="237" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:37" ht="12.75">
       <c r="B237" s="47"/>
       <c r="C237" s="47"/>
       <c r="D237" s="43"/>
@@ -10178,7 +10172,7 @@
       <c r="AJ237" s="46"/>
       <c r="AK237" s="46"/>
     </row>
-    <row r="238" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:37" ht="12.75">
       <c r="B238" s="47"/>
       <c r="C238" s="47"/>
       <c r="D238" s="43"/>
@@ -10215,7 +10209,7 @@
       <c r="AJ238" s="46"/>
       <c r="AK238" s="46"/>
     </row>
-    <row r="239" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:37" ht="12.75">
       <c r="B239" s="47"/>
       <c r="C239" s="47"/>
       <c r="D239" s="43"/>
@@ -10252,7 +10246,7 @@
       <c r="AJ239" s="46"/>
       <c r="AK239" s="46"/>
     </row>
-    <row r="240" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:37" ht="12.75">
       <c r="B240" s="47"/>
       <c r="C240" s="47"/>
       <c r="D240" s="43"/>
@@ -10289,7 +10283,7 @@
       <c r="AJ240" s="46"/>
       <c r="AK240" s="46"/>
     </row>
-    <row r="241" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:37" ht="12.75">
       <c r="B241" s="47"/>
       <c r="C241" s="47"/>
       <c r="D241" s="43"/>
@@ -10326,7 +10320,7 @@
       <c r="AJ241" s="46"/>
       <c r="AK241" s="46"/>
     </row>
-    <row r="242" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:37" ht="12.75">
       <c r="B242" s="47"/>
       <c r="C242" s="47"/>
       <c r="D242" s="43"/>
@@ -10363,7 +10357,7 @@
       <c r="AJ242" s="46"/>
       <c r="AK242" s="46"/>
     </row>
-    <row r="243" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:37" ht="12.75">
       <c r="B243" s="47"/>
       <c r="C243" s="47"/>
       <c r="D243" s="43"/>
@@ -10400,7 +10394,7 @@
       <c r="AJ243" s="46"/>
       <c r="AK243" s="46"/>
     </row>
-    <row r="244" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:37" ht="12.75">
       <c r="B244" s="47"/>
       <c r="C244" s="47"/>
       <c r="D244" s="43"/>
@@ -10437,7 +10431,7 @@
       <c r="AJ244" s="46"/>
       <c r="AK244" s="46"/>
     </row>
-    <row r="245" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:37" ht="12.75">
       <c r="B245" s="47"/>
       <c r="C245" s="47"/>
       <c r="D245" s="43"/>
@@ -10474,7 +10468,7 @@
       <c r="AJ245" s="46"/>
       <c r="AK245" s="46"/>
     </row>
-    <row r="246" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:37" ht="12.75">
       <c r="B246" s="47"/>
       <c r="C246" s="47"/>
       <c r="D246" s="43"/>
@@ -10511,7 +10505,7 @@
       <c r="AJ246" s="46"/>
       <c r="AK246" s="46"/>
     </row>
-    <row r="247" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:37" ht="12.75">
       <c r="B247" s="47"/>
       <c r="C247" s="47"/>
       <c r="D247" s="43"/>
@@ -10548,7 +10542,7 @@
       <c r="AJ247" s="46"/>
       <c r="AK247" s="46"/>
     </row>
-    <row r="248" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:37" ht="12.75">
       <c r="B248" s="47"/>
       <c r="C248" s="47"/>
       <c r="D248" s="43"/>
@@ -10585,7 +10579,7 @@
       <c r="AJ248" s="46"/>
       <c r="AK248" s="46"/>
     </row>
-    <row r="249" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:37" ht="12.75">
       <c r="B249" s="47"/>
       <c r="C249" s="47"/>
       <c r="D249" s="43"/>
@@ -10622,7 +10616,7 @@
       <c r="AJ249" s="46"/>
       <c r="AK249" s="46"/>
     </row>
-    <row r="250" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:37" ht="12.75">
       <c r="B250" s="47"/>
       <c r="C250" s="47"/>
       <c r="D250" s="43"/>
@@ -10659,7 +10653,7 @@
       <c r="AJ250" s="46"/>
       <c r="AK250" s="46"/>
     </row>
-    <row r="251" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:37" ht="12.75">
       <c r="B251" s="47"/>
       <c r="C251" s="47"/>
       <c r="D251" s="43"/>
@@ -10696,7 +10690,7 @@
       <c r="AJ251" s="46"/>
       <c r="AK251" s="46"/>
     </row>
-    <row r="252" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:37" ht="12.75">
       <c r="B252" s="47"/>
       <c r="C252" s="47"/>
       <c r="D252" s="43"/>
@@ -10733,7 +10727,7 @@
       <c r="AJ252" s="46"/>
       <c r="AK252" s="46"/>
     </row>
-    <row r="253" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:37" ht="12.75">
       <c r="B253" s="47"/>
       <c r="C253" s="47"/>
       <c r="D253" s="43"/>
@@ -10770,7 +10764,7 @@
       <c r="AJ253" s="46"/>
       <c r="AK253" s="46"/>
     </row>
-    <row r="254" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:37" ht="12.75">
       <c r="B254" s="47"/>
       <c r="C254" s="47"/>
       <c r="D254" s="43"/>
@@ -10807,7 +10801,7 @@
       <c r="AJ254" s="46"/>
       <c r="AK254" s="46"/>
     </row>
-    <row r="255" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:37" ht="12.75">
       <c r="B255" s="47"/>
       <c r="C255" s="47"/>
       <c r="D255" s="43"/>
@@ -10844,7 +10838,7 @@
       <c r="AJ255" s="46"/>
       <c r="AK255" s="46"/>
     </row>
-    <row r="256" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:37" ht="12.75">
       <c r="B256" s="47"/>
       <c r="C256" s="47"/>
       <c r="D256" s="43"/>
@@ -10881,7 +10875,7 @@
       <c r="AJ256" s="46"/>
       <c r="AK256" s="46"/>
     </row>
-    <row r="257" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:37" ht="12.75">
       <c r="B257" s="47"/>
       <c r="C257" s="47"/>
       <c r="D257" s="43"/>
@@ -10918,7 +10912,7 @@
       <c r="AJ257" s="46"/>
       <c r="AK257" s="46"/>
     </row>
-    <row r="258" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:37" ht="12.75">
       <c r="B258" s="47"/>
       <c r="C258" s="47"/>
       <c r="D258" s="43"/>
@@ -10955,7 +10949,7 @@
       <c r="AJ258" s="46"/>
       <c r="AK258" s="46"/>
     </row>
-    <row r="259" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:37" ht="12.75">
       <c r="B259" s="47"/>
       <c r="C259" s="47"/>
       <c r="D259" s="43"/>
@@ -10992,7 +10986,7 @@
       <c r="AJ259" s="46"/>
       <c r="AK259" s="46"/>
     </row>
-    <row r="260" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:37" ht="12.75">
       <c r="B260" s="47"/>
       <c r="C260" s="47"/>
       <c r="D260" s="43"/>
@@ -11029,7 +11023,7 @@
       <c r="AJ260" s="46"/>
       <c r="AK260" s="46"/>
     </row>
-    <row r="261" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:37" ht="12.75">
       <c r="B261" s="47"/>
       <c r="C261" s="47"/>
       <c r="D261" s="43"/>
@@ -11066,7 +11060,7 @@
       <c r="AJ261" s="46"/>
       <c r="AK261" s="46"/>
     </row>
-    <row r="262" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:37" ht="12.75">
       <c r="B262" s="47"/>
       <c r="C262" s="47"/>
       <c r="D262" s="43"/>
@@ -11103,7 +11097,7 @@
       <c r="AJ262" s="46"/>
       <c r="AK262" s="46"/>
     </row>
-    <row r="263" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:37" ht="12.75">
       <c r="B263" s="47"/>
       <c r="C263" s="47"/>
       <c r="D263" s="43"/>
@@ -11140,7 +11134,7 @@
       <c r="AJ263" s="46"/>
       <c r="AK263" s="46"/>
     </row>
-    <row r="264" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:37" ht="12.75">
       <c r="B264" s="47"/>
       <c r="C264" s="47"/>
       <c r="D264" s="43"/>
@@ -11177,7 +11171,7 @@
       <c r="AJ264" s="46"/>
       <c r="AK264" s="46"/>
     </row>
-    <row r="265" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:37" ht="12.75">
       <c r="B265" s="47"/>
       <c r="C265" s="47"/>
       <c r="D265" s="43"/>
@@ -11214,7 +11208,7 @@
       <c r="AJ265" s="46"/>
       <c r="AK265" s="46"/>
     </row>
-    <row r="266" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:37" ht="12.75">
       <c r="B266" s="47"/>
       <c r="C266" s="47"/>
       <c r="D266" s="43"/>
@@ -11251,7 +11245,7 @@
       <c r="AJ266" s="46"/>
       <c r="AK266" s="46"/>
     </row>
-    <row r="267" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:37" ht="12.75">
       <c r="B267" s="47"/>
       <c r="C267" s="47"/>
       <c r="D267" s="43"/>
@@ -11288,7 +11282,7 @@
       <c r="AJ267" s="46"/>
       <c r="AK267" s="46"/>
     </row>
-    <row r="268" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:37" ht="12.75">
       <c r="B268" s="47"/>
       <c r="C268" s="47"/>
       <c r="D268" s="43"/>
@@ -11325,7 +11319,7 @@
       <c r="AJ268" s="46"/>
       <c r="AK268" s="46"/>
     </row>
-    <row r="269" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:37" ht="12.75">
       <c r="B269" s="47"/>
       <c r="C269" s="47"/>
       <c r="D269" s="43"/>
@@ -11362,7 +11356,7 @@
       <c r="AJ269" s="46"/>
       <c r="AK269" s="46"/>
     </row>
-    <row r="270" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:37" ht="12.75">
       <c r="B270" s="47"/>
       <c r="C270" s="47"/>
       <c r="D270" s="43"/>
@@ -11399,7 +11393,7 @@
       <c r="AJ270" s="46"/>
       <c r="AK270" s="46"/>
     </row>
-    <row r="271" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:37" ht="12.75">
       <c r="B271" s="47"/>
       <c r="C271" s="47"/>
       <c r="D271" s="43"/>
@@ -11436,7 +11430,7 @@
       <c r="AJ271" s="46"/>
       <c r="AK271" s="46"/>
     </row>
-    <row r="272" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:37" ht="12.75">
       <c r="B272" s="47"/>
       <c r="C272" s="47"/>
       <c r="D272" s="43"/>
@@ -11473,7 +11467,7 @@
       <c r="AJ272" s="46"/>
       <c r="AK272" s="46"/>
     </row>
-    <row r="273" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:37" ht="12.75">
       <c r="B273" s="47"/>
       <c r="C273" s="47"/>
       <c r="D273" s="43"/>
@@ -11510,7 +11504,7 @@
       <c r="AJ273" s="46"/>
       <c r="AK273" s="46"/>
     </row>
-    <row r="274" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:37" ht="12.75">
       <c r="B274" s="47"/>
       <c r="C274" s="47"/>
       <c r="D274" s="43"/>
@@ -11547,7 +11541,7 @@
       <c r="AJ274" s="46"/>
       <c r="AK274" s="46"/>
     </row>
-    <row r="275" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:37" ht="12.75">
       <c r="B275" s="47"/>
       <c r="C275" s="47"/>
       <c r="D275" s="43"/>
@@ -11584,7 +11578,7 @@
       <c r="AJ275" s="46"/>
       <c r="AK275" s="46"/>
     </row>
-    <row r="276" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:37" ht="12.75">
       <c r="B276" s="47"/>
       <c r="C276" s="47"/>
       <c r="D276" s="43"/>
@@ -11621,7 +11615,7 @@
       <c r="AJ276" s="46"/>
       <c r="AK276" s="46"/>
     </row>
-    <row r="277" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:37" ht="12.75">
       <c r="B277" s="47"/>
       <c r="C277" s="47"/>
       <c r="D277" s="43"/>
@@ -11658,7 +11652,7 @@
       <c r="AJ277" s="46"/>
       <c r="AK277" s="46"/>
     </row>
-    <row r="278" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:37" ht="12.75">
       <c r="B278" s="47"/>
       <c r="C278" s="47"/>
       <c r="D278" s="43"/>
@@ -11695,7 +11689,7 @@
       <c r="AJ278" s="46"/>
       <c r="AK278" s="46"/>
     </row>
-    <row r="279" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:37" ht="12.75">
       <c r="B279" s="47"/>
       <c r="C279" s="47"/>
       <c r="D279" s="43"/>
@@ -11732,7 +11726,7 @@
       <c r="AJ279" s="46"/>
       <c r="AK279" s="46"/>
     </row>
-    <row r="280" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:37" ht="12.75">
       <c r="B280" s="47"/>
       <c r="C280" s="47"/>
       <c r="D280" s="43"/>
@@ -11769,7 +11763,7 @@
       <c r="AJ280" s="46"/>
       <c r="AK280" s="46"/>
     </row>
-    <row r="281" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:37" ht="12.75">
       <c r="B281" s="47"/>
       <c r="C281" s="47"/>
       <c r="D281" s="43"/>
@@ -11806,7 +11800,7 @@
       <c r="AJ281" s="46"/>
       <c r="AK281" s="46"/>
     </row>
-    <row r="282" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:37" ht="12.75">
       <c r="B282" s="47"/>
       <c r="C282" s="47"/>
       <c r="D282" s="43"/>
@@ -11843,7 +11837,7 @@
       <c r="AJ282" s="46"/>
       <c r="AK282" s="46"/>
     </row>
-    <row r="283" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:37" ht="12.75">
       <c r="B283" s="47"/>
       <c r="C283" s="47"/>
       <c r="D283" s="43"/>
@@ -11880,7 +11874,7 @@
       <c r="AJ283" s="46"/>
       <c r="AK283" s="46"/>
     </row>
-    <row r="284" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:37" ht="12.75">
       <c r="B284" s="47"/>
       <c r="C284" s="47"/>
       <c r="D284" s="43"/>
@@ -11917,7 +11911,7 @@
       <c r="AJ284" s="46"/>
       <c r="AK284" s="46"/>
     </row>
-    <row r="285" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:37" ht="12.75">
       <c r="B285" s="47"/>
       <c r="C285" s="47"/>
       <c r="D285" s="43"/>
@@ -11954,7 +11948,7 @@
       <c r="AJ285" s="46"/>
       <c r="AK285" s="46"/>
     </row>
-    <row r="286" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:37" ht="12.75">
       <c r="B286" s="47"/>
       <c r="C286" s="47"/>
       <c r="D286" s="43"/>
@@ -11991,7 +11985,7 @@
       <c r="AJ286" s="46"/>
       <c r="AK286" s="46"/>
     </row>
-    <row r="287" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:37" ht="12.75">
       <c r="B287" s="47"/>
       <c r="C287" s="47"/>
       <c r="D287" s="43"/>
@@ -12028,7 +12022,7 @@
       <c r="AJ287" s="46"/>
       <c r="AK287" s="46"/>
     </row>
-    <row r="288" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:37" ht="12.75">
       <c r="B288" s="47"/>
       <c r="C288" s="47"/>
       <c r="D288" s="43"/>
@@ -12065,7 +12059,7 @@
       <c r="AJ288" s="46"/>
       <c r="AK288" s="46"/>
     </row>
-    <row r="289" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:37" ht="12.75">
       <c r="B289" s="47"/>
       <c r="C289" s="47"/>
       <c r="D289" s="43"/>
@@ -12102,7 +12096,7 @@
       <c r="AJ289" s="46"/>
       <c r="AK289" s="46"/>
     </row>
-    <row r="290" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:37" ht="12.75">
       <c r="B290" s="47"/>
       <c r="C290" s="47"/>
       <c r="D290" s="43"/>
@@ -12139,7 +12133,7 @@
       <c r="AJ290" s="46"/>
       <c r="AK290" s="46"/>
     </row>
-    <row r="291" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:37" ht="12.75">
       <c r="B291" s="47"/>
       <c r="C291" s="47"/>
       <c r="D291" s="43"/>
@@ -12176,7 +12170,7 @@
       <c r="AJ291" s="46"/>
       <c r="AK291" s="46"/>
     </row>
-    <row r="292" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:37" ht="12.75">
       <c r="B292" s="47"/>
       <c r="C292" s="47"/>
       <c r="D292" s="43"/>
@@ -12213,7 +12207,7 @@
       <c r="AJ292" s="46"/>
       <c r="AK292" s="46"/>
     </row>
-    <row r="293" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:37" ht="12.75">
       <c r="B293" s="47"/>
       <c r="C293" s="47"/>
       <c r="D293" s="43"/>
@@ -12250,7 +12244,7 @@
       <c r="AJ293" s="46"/>
       <c r="AK293" s="46"/>
     </row>
-    <row r="294" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:37" ht="12.75">
       <c r="B294" s="47"/>
       <c r="C294" s="47"/>
       <c r="D294" s="43"/>
@@ -12287,7 +12281,7 @@
       <c r="AJ294" s="46"/>
       <c r="AK294" s="46"/>
     </row>
-    <row r="295" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:37" ht="12.75">
       <c r="B295" s="47"/>
       <c r="C295" s="47"/>
       <c r="D295" s="43"/>
@@ -12324,7 +12318,7 @@
       <c r="AJ295" s="46"/>
       <c r="AK295" s="46"/>
     </row>
-    <row r="296" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:37" ht="12.75">
       <c r="B296" s="47"/>
       <c r="C296" s="47"/>
       <c r="D296" s="43"/>
@@ -12361,7 +12355,7 @@
       <c r="AJ296" s="46"/>
       <c r="AK296" s="46"/>
     </row>
-    <row r="297" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:37" ht="12.75">
       <c r="B297" s="47"/>
       <c r="C297" s="47"/>
       <c r="D297" s="43"/>
@@ -12398,7 +12392,7 @@
       <c r="AJ297" s="46"/>
       <c r="AK297" s="46"/>
     </row>
-    <row r="298" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:37" ht="12.75">
       <c r="B298" s="47"/>
       <c r="C298" s="47"/>
       <c r="D298" s="43"/>
@@ -12435,7 +12429,7 @@
       <c r="AJ298" s="46"/>
       <c r="AK298" s="46"/>
     </row>
-    <row r="299" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:37" ht="12.75">
       <c r="B299" s="47"/>
       <c r="C299" s="47"/>
       <c r="D299" s="43"/>
@@ -12472,7 +12466,7 @@
       <c r="AJ299" s="46"/>
       <c r="AK299" s="46"/>
     </row>
-    <row r="300" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:37" ht="12.75">
       <c r="B300" s="47"/>
       <c r="C300" s="47"/>
       <c r="D300" s="43"/>
@@ -12509,7 +12503,7 @@
       <c r="AJ300" s="46"/>
       <c r="AK300" s="46"/>
     </row>
-    <row r="301" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:37" ht="12.75">
       <c r="B301" s="47"/>
       <c r="C301" s="47"/>
       <c r="D301" s="43"/>
@@ -12546,7 +12540,7 @@
       <c r="AJ301" s="46"/>
       <c r="AK301" s="46"/>
     </row>
-    <row r="302" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:37" ht="12.75">
       <c r="B302" s="47"/>
       <c r="C302" s="47"/>
       <c r="D302" s="43"/>
@@ -12583,7 +12577,7 @@
       <c r="AJ302" s="46"/>
       <c r="AK302" s="46"/>
     </row>
-    <row r="303" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:37" ht="12.75">
       <c r="B303" s="47"/>
       <c r="C303" s="47"/>
       <c r="D303" s="43"/>
@@ -12620,7 +12614,7 @@
       <c r="AJ303" s="46"/>
       <c r="AK303" s="46"/>
     </row>
-    <row r="304" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:37" ht="12.75">
       <c r="B304" s="47"/>
       <c r="C304" s="47"/>
       <c r="D304" s="43"/>
@@ -12657,7 +12651,7 @@
       <c r="AJ304" s="46"/>
       <c r="AK304" s="46"/>
     </row>
-    <row r="305" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:37" ht="12.75">
       <c r="B305" s="47"/>
       <c r="C305" s="47"/>
       <c r="D305" s="43"/>
@@ -12694,7 +12688,7 @@
       <c r="AJ305" s="46"/>
       <c r="AK305" s="46"/>
     </row>
-    <row r="306" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:37" ht="12.75">
       <c r="B306" s="47"/>
       <c r="C306" s="47"/>
       <c r="D306" s="43"/>
@@ -12731,7 +12725,7 @@
       <c r="AJ306" s="46"/>
       <c r="AK306" s="46"/>
     </row>
-    <row r="307" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:37" ht="12.75">
       <c r="B307" s="47"/>
       <c r="C307" s="47"/>
       <c r="D307" s="43"/>
@@ -12768,7 +12762,7 @@
       <c r="AJ307" s="46"/>
       <c r="AK307" s="46"/>
     </row>
-    <row r="308" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:37" ht="12.75">
       <c r="B308" s="47"/>
       <c r="C308" s="47"/>
       <c r="D308" s="43"/>
@@ -12805,7 +12799,7 @@
       <c r="AJ308" s="46"/>
       <c r="AK308" s="46"/>
     </row>
-    <row r="309" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:37" ht="12.75">
       <c r="B309" s="47"/>
       <c r="C309" s="47"/>
       <c r="D309" s="43"/>
@@ -12842,7 +12836,7 @@
       <c r="AJ309" s="46"/>
       <c r="AK309" s="46"/>
     </row>
-    <row r="310" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:37" ht="12.75">
       <c r="B310" s="47"/>
       <c r="C310" s="47"/>
       <c r="D310" s="43"/>
@@ -12879,7 +12873,7 @@
       <c r="AJ310" s="46"/>
       <c r="AK310" s="46"/>
     </row>
-    <row r="311" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:37" ht="12.75">
       <c r="B311" s="47"/>
       <c r="C311" s="47"/>
       <c r="D311" s="43"/>
@@ -12916,7 +12910,7 @@
       <c r="AJ311" s="46"/>
       <c r="AK311" s="46"/>
     </row>
-    <row r="312" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:37" ht="12.75">
       <c r="B312" s="47"/>
       <c r="C312" s="47"/>
       <c r="D312" s="43"/>
@@ -12953,7 +12947,7 @@
       <c r="AJ312" s="46"/>
       <c r="AK312" s="46"/>
     </row>
-    <row r="313" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:37" ht="12.75">
       <c r="B313" s="47"/>
       <c r="C313" s="47"/>
       <c r="D313" s="43"/>
@@ -12990,7 +12984,7 @@
       <c r="AJ313" s="46"/>
       <c r="AK313" s="46"/>
     </row>
-    <row r="314" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:37" ht="12.75">
       <c r="B314" s="47"/>
       <c r="C314" s="47"/>
       <c r="D314" s="43"/>
@@ -13027,7 +13021,7 @@
       <c r="AJ314" s="46"/>
       <c r="AK314" s="46"/>
     </row>
-    <row r="315" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:37" ht="12.75">
       <c r="B315" s="47"/>
       <c r="C315" s="47"/>
       <c r="D315" s="43"/>
@@ -13064,7 +13058,7 @@
       <c r="AJ315" s="46"/>
       <c r="AK315" s="46"/>
     </row>
-    <row r="316" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:37" ht="12.75">
       <c r="B316" s="47"/>
       <c r="C316" s="47"/>
       <c r="D316" s="43"/>
@@ -13101,7 +13095,7 @@
       <c r="AJ316" s="46"/>
       <c r="AK316" s="46"/>
     </row>
-    <row r="317" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:37" ht="12.75">
       <c r="B317" s="47"/>
       <c r="C317" s="47"/>
       <c r="D317" s="43"/>
@@ -13138,7 +13132,7 @@
       <c r="AJ317" s="46"/>
       <c r="AK317" s="46"/>
     </row>
-    <row r="318" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:37" ht="12.75">
       <c r="B318" s="47"/>
       <c r="C318" s="47"/>
       <c r="D318" s="43"/>
@@ -13175,7 +13169,7 @@
       <c r="AJ318" s="46"/>
       <c r="AK318" s="46"/>
     </row>
-    <row r="319" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:37" ht="12.75">
       <c r="B319" s="47"/>
       <c r="C319" s="47"/>
       <c r="D319" s="43"/>
@@ -13212,7 +13206,7 @@
       <c r="AJ319" s="46"/>
       <c r="AK319" s="46"/>
     </row>
-    <row r="320" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:37" ht="12.75">
       <c r="B320" s="47"/>
       <c r="C320" s="47"/>
       <c r="D320" s="43"/>
@@ -13249,7 +13243,7 @@
       <c r="AJ320" s="46"/>
       <c r="AK320" s="46"/>
     </row>
-    <row r="321" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:37" ht="12.75">
       <c r="B321" s="47"/>
       <c r="C321" s="47"/>
       <c r="D321" s="43"/>
@@ -13286,7 +13280,7 @@
       <c r="AJ321" s="46"/>
       <c r="AK321" s="46"/>
     </row>
-    <row r="322" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:37" ht="12.75">
       <c r="B322" s="47"/>
       <c r="C322" s="47"/>
       <c r="D322" s="43"/>
@@ -13323,7 +13317,7 @@
       <c r="AJ322" s="46"/>
       <c r="AK322" s="46"/>
     </row>
-    <row r="323" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:37" ht="12.75">
       <c r="B323" s="47"/>
       <c r="C323" s="47"/>
       <c r="D323" s="43"/>
@@ -13360,7 +13354,7 @@
       <c r="AJ323" s="46"/>
       <c r="AK323" s="46"/>
     </row>
-    <row r="324" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:37" ht="12.75">
       <c r="B324" s="47"/>
       <c r="C324" s="47"/>
       <c r="D324" s="43"/>
@@ -13397,7 +13391,7 @@
       <c r="AJ324" s="46"/>
       <c r="AK324" s="46"/>
     </row>
-    <row r="325" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:37" ht="12.75">
       <c r="B325" s="47"/>
       <c r="C325" s="47"/>
       <c r="D325" s="43"/>
@@ -13434,7 +13428,7 @@
       <c r="AJ325" s="46"/>
       <c r="AK325" s="46"/>
     </row>
-    <row r="326" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:37" ht="12.75">
       <c r="B326" s="47"/>
       <c r="C326" s="47"/>
       <c r="D326" s="43"/>
@@ -13471,7 +13465,7 @@
       <c r="AJ326" s="46"/>
       <c r="AK326" s="46"/>
     </row>
-    <row r="327" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:37" ht="12.75">
       <c r="B327" s="47"/>
       <c r="C327" s="47"/>
       <c r="D327" s="43"/>
@@ -13508,7 +13502,7 @@
       <c r="AJ327" s="46"/>
       <c r="AK327" s="46"/>
     </row>
-    <row r="328" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:37" ht="12.75">
       <c r="B328" s="47"/>
       <c r="C328" s="47"/>
       <c r="D328" s="43"/>
@@ -13545,7 +13539,7 @@
       <c r="AJ328" s="46"/>
       <c r="AK328" s="46"/>
     </row>
-    <row r="329" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:37" ht="12.75">
       <c r="B329" s="47"/>
       <c r="C329" s="47"/>
       <c r="D329" s="43"/>
@@ -13582,7 +13576,7 @@
       <c r="AJ329" s="46"/>
       <c r="AK329" s="46"/>
     </row>
-    <row r="330" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:37" ht="12.75">
       <c r="B330" s="47"/>
       <c r="C330" s="47"/>
       <c r="D330" s="43"/>
@@ -13619,7 +13613,7 @@
       <c r="AJ330" s="46"/>
       <c r="AK330" s="46"/>
     </row>
-    <row r="331" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:37" ht="12.75">
       <c r="B331" s="47"/>
       <c r="C331" s="47"/>
       <c r="D331" s="43"/>
@@ -13656,7 +13650,7 @@
       <c r="AJ331" s="46"/>
       <c r="AK331" s="46"/>
     </row>
-    <row r="332" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:37" ht="12.75">
       <c r="B332" s="47"/>
       <c r="C332" s="47"/>
       <c r="D332" s="43"/>
@@ -13693,7 +13687,7 @@
       <c r="AJ332" s="46"/>
       <c r="AK332" s="46"/>
     </row>
-    <row r="333" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:37" ht="12.75">
       <c r="B333" s="47"/>
       <c r="C333" s="47"/>
       <c r="D333" s="43"/>
@@ -13730,7 +13724,7 @@
       <c r="AJ333" s="46"/>
       <c r="AK333" s="46"/>
     </row>
-    <row r="334" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:37" ht="12.75">
       <c r="B334" s="47"/>
       <c r="C334" s="47"/>
       <c r="D334" s="43"/>
@@ -13767,7 +13761,7 @@
       <c r="AJ334" s="46"/>
       <c r="AK334" s="46"/>
     </row>
-    <row r="335" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:37" ht="12.75">
       <c r="B335" s="47"/>
       <c r="C335" s="47"/>
       <c r="D335" s="43"/>
@@ -13804,7 +13798,7 @@
       <c r="AJ335" s="46"/>
       <c r="AK335" s="46"/>
     </row>
-    <row r="336" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:37" ht="12.75">
       <c r="B336" s="47"/>
       <c r="C336" s="47"/>
       <c r="D336" s="43"/>
@@ -13841,7 +13835,7 @@
       <c r="AJ336" s="46"/>
       <c r="AK336" s="46"/>
     </row>
-    <row r="337" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:37" ht="12.75">
       <c r="B337" s="47"/>
       <c r="C337" s="47"/>
       <c r="D337" s="43"/>
@@ -13878,7 +13872,7 @@
       <c r="AJ337" s="46"/>
       <c r="AK337" s="46"/>
     </row>
-    <row r="338" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:37" ht="12.75">
       <c r="B338" s="47"/>
       <c r="C338" s="47"/>
       <c r="D338" s="43"/>
@@ -13915,7 +13909,7 @@
       <c r="AJ338" s="46"/>
       <c r="AK338" s="46"/>
     </row>
-    <row r="339" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:37" ht="12.75">
       <c r="B339" s="47"/>
       <c r="C339" s="47"/>
       <c r="D339" s="43"/>
@@ -13952,7 +13946,7 @@
       <c r="AJ339" s="46"/>
       <c r="AK339" s="46"/>
     </row>
-    <row r="340" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:37" ht="12.75">
       <c r="B340" s="47"/>
       <c r="C340" s="47"/>
       <c r="D340" s="43"/>
@@ -13989,7 +13983,7 @@
       <c r="AJ340" s="46"/>
       <c r="AK340" s="46"/>
     </row>
-    <row r="341" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:37" ht="12.75">
       <c r="B341" s="47"/>
       <c r="C341" s="47"/>
       <c r="D341" s="43"/>
@@ -14026,7 +14020,7 @@
       <c r="AJ341" s="46"/>
       <c r="AK341" s="46"/>
     </row>
-    <row r="342" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:37" ht="12.75">
       <c r="B342" s="47"/>
       <c r="C342" s="47"/>
       <c r="D342" s="43"/>
@@ -14063,7 +14057,7 @@
       <c r="AJ342" s="46"/>
       <c r="AK342" s="46"/>
     </row>
-    <row r="343" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:37" ht="12.75">
       <c r="B343" s="47"/>
       <c r="C343" s="47"/>
       <c r="D343" s="43"/>
@@ -14100,7 +14094,7 @@
       <c r="AJ343" s="46"/>
       <c r="AK343" s="46"/>
     </row>
-    <row r="344" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:37" ht="12.75">
       <c r="B344" s="47"/>
       <c r="C344" s="47"/>
       <c r="D344" s="43"/>
@@ -14137,7 +14131,7 @@
       <c r="AJ344" s="46"/>
       <c r="AK344" s="46"/>
     </row>
-    <row r="345" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:37" ht="12.75">
       <c r="B345" s="47"/>
       <c r="C345" s="47"/>
       <c r="D345" s="43"/>
@@ -14174,7 +14168,7 @@
       <c r="AJ345" s="46"/>
       <c r="AK345" s="46"/>
     </row>
-    <row r="346" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:37" ht="12.75">
       <c r="B346" s="47"/>
       <c r="C346" s="47"/>
       <c r="D346" s="43"/>
@@ -14211,7 +14205,7 @@
       <c r="AJ346" s="46"/>
       <c r="AK346" s="46"/>
     </row>
-    <row r="347" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:37" ht="12.75">
       <c r="B347" s="47"/>
       <c r="C347" s="47"/>
       <c r="D347" s="43"/>
@@ -14248,7 +14242,7 @@
       <c r="AJ347" s="46"/>
       <c r="AK347" s="46"/>
     </row>
-    <row r="348" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:37" ht="12.75">
       <c r="B348" s="47"/>
       <c r="C348" s="47"/>
       <c r="D348" s="43"/>
@@ -14285,7 +14279,7 @@
       <c r="AJ348" s="46"/>
       <c r="AK348" s="46"/>
     </row>
-    <row r="349" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:37" ht="12.75">
       <c r="B349" s="47"/>
       <c r="C349" s="47"/>
       <c r="D349" s="43"/>
@@ -14322,7 +14316,7 @@
       <c r="AJ349" s="46"/>
       <c r="AK349" s="46"/>
     </row>
-    <row r="350" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:37" ht="12.75">
       <c r="B350" s="47"/>
       <c r="C350" s="47"/>
       <c r="D350" s="43"/>
@@ -14359,7 +14353,7 @@
       <c r="AJ350" s="46"/>
       <c r="AK350" s="46"/>
     </row>
-    <row r="351" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:37" ht="12.75">
       <c r="B351" s="47"/>
       <c r="C351" s="47"/>
       <c r="D351" s="43"/>
@@ -14396,7 +14390,7 @@
       <c r="AJ351" s="46"/>
       <c r="AK351" s="46"/>
     </row>
-    <row r="352" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:37" ht="12.75">
       <c r="B352" s="47"/>
       <c r="C352" s="47"/>
       <c r="D352" s="43"/>
@@ -14433,7 +14427,7 @@
       <c r="AJ352" s="46"/>
       <c r="AK352" s="46"/>
     </row>
-    <row r="353" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:37" ht="12.75">
       <c r="B353" s="47"/>
       <c r="C353" s="47"/>
       <c r="D353" s="43"/>
@@ -14470,7 +14464,7 @@
       <c r="AJ353" s="46"/>
       <c r="AK353" s="46"/>
     </row>
-    <row r="354" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:37" ht="12.75">
       <c r="B354" s="47"/>
       <c r="C354" s="47"/>
       <c r="D354" s="43"/>
@@ -14507,7 +14501,7 @@
       <c r="AJ354" s="46"/>
       <c r="AK354" s="46"/>
     </row>
-    <row r="355" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:37" ht="12.75">
       <c r="B355" s="47"/>
       <c r="C355" s="47"/>
       <c r="D355" s="43"/>
@@ -14544,7 +14538,7 @@
       <c r="AJ355" s="46"/>
       <c r="AK355" s="46"/>
     </row>
-    <row r="356" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:37" ht="12.75">
       <c r="B356" s="47"/>
       <c r="C356" s="47"/>
       <c r="D356" s="43"/>
@@ -14581,7 +14575,7 @@
       <c r="AJ356" s="46"/>
       <c r="AK356" s="46"/>
     </row>
-    <row r="357" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:37" ht="12.75">
       <c r="B357" s="47"/>
       <c r="C357" s="47"/>
       <c r="D357" s="43"/>
@@ -14618,7 +14612,7 @@
       <c r="AJ357" s="46"/>
       <c r="AK357" s="46"/>
     </row>
-    <row r="358" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:37" ht="12.75">
       <c r="B358" s="47"/>
       <c r="C358" s="47"/>
       <c r="D358" s="43"/>
@@ -14655,7 +14649,7 @@
       <c r="AJ358" s="46"/>
       <c r="AK358" s="46"/>
     </row>
-    <row r="359" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:37" ht="12.75">
       <c r="B359" s="47"/>
       <c r="C359" s="47"/>
       <c r="D359" s="43"/>
@@ -14692,7 +14686,7 @@
       <c r="AJ359" s="46"/>
       <c r="AK359" s="46"/>
     </row>
-    <row r="360" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:37" ht="12.75">
       <c r="B360" s="47"/>
       <c r="C360" s="47"/>
       <c r="D360" s="43"/>
@@ -14729,7 +14723,7 @@
       <c r="AJ360" s="46"/>
       <c r="AK360" s="46"/>
     </row>
-    <row r="361" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:37" ht="12.75">
       <c r="B361" s="47"/>
       <c r="C361" s="47"/>
       <c r="D361" s="43"/>
@@ -14766,7 +14760,7 @@
       <c r="AJ361" s="46"/>
       <c r="AK361" s="46"/>
     </row>
-    <row r="362" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:37" ht="12.75">
       <c r="B362" s="47"/>
       <c r="C362" s="47"/>
       <c r="D362" s="43"/>
@@ -14803,7 +14797,7 @@
       <c r="AJ362" s="46"/>
       <c r="AK362" s="46"/>
     </row>
-    <row r="363" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:37" ht="12.75">
       <c r="B363" s="47"/>
       <c r="C363" s="47"/>
       <c r="D363" s="43"/>
@@ -14840,7 +14834,7 @@
       <c r="AJ363" s="46"/>
       <c r="AK363" s="46"/>
     </row>
-    <row r="364" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:37" ht="12.75">
       <c r="B364" s="47"/>
       <c r="C364" s="47"/>
       <c r="D364" s="43"/>
@@ -14877,7 +14871,7 @@
       <c r="AJ364" s="46"/>
       <c r="AK364" s="46"/>
     </row>
-    <row r="365" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:37" ht="12.75">
       <c r="B365" s="47"/>
       <c r="C365" s="47"/>
       <c r="D365" s="43"/>
@@ -14914,7 +14908,7 @@
       <c r="AJ365" s="46"/>
       <c r="AK365" s="46"/>
     </row>
-    <row r="366" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:37" ht="12.75">
       <c r="B366" s="47"/>
       <c r="C366" s="47"/>
       <c r="D366" s="43"/>
@@ -14951,7 +14945,7 @@
       <c r="AJ366" s="46"/>
       <c r="AK366" s="46"/>
     </row>
-    <row r="367" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:37" ht="12.75">
       <c r="B367" s="47"/>
       <c r="C367" s="47"/>
       <c r="D367" s="43"/>
@@ -14988,7 +14982,7 @@
       <c r="AJ367" s="46"/>
       <c r="AK367" s="46"/>
     </row>
-    <row r="368" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:37" ht="12.75">
       <c r="B368" s="47"/>
       <c r="C368" s="47"/>
       <c r="D368" s="43"/>
@@ -15025,7 +15019,7 @@
       <c r="AJ368" s="46"/>
       <c r="AK368" s="46"/>
     </row>
-    <row r="369" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:37" ht="12.75">
       <c r="B369" s="47"/>
       <c r="C369" s="47"/>
       <c r="D369" s="43"/>
@@ -15062,7 +15056,7 @@
       <c r="AJ369" s="46"/>
       <c r="AK369" s="46"/>
     </row>
-    <row r="370" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:37" ht="12.75">
       <c r="B370" s="47"/>
       <c r="C370" s="47"/>
       <c r="D370" s="43"/>
@@ -15099,7 +15093,7 @@
       <c r="AJ370" s="46"/>
       <c r="AK370" s="46"/>
     </row>
-    <row r="371" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:37" ht="12.75">
       <c r="B371" s="47"/>
       <c r="C371" s="47"/>
       <c r="D371" s="43"/>
@@ -15136,7 +15130,7 @@
       <c r="AJ371" s="46"/>
       <c r="AK371" s="46"/>
     </row>
-    <row r="372" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:37" ht="12.75">
       <c r="B372" s="47"/>
       <c r="C372" s="47"/>
       <c r="D372" s="43"/>
@@ -15173,7 +15167,7 @@
       <c r="AJ372" s="46"/>
       <c r="AK372" s="46"/>
     </row>
-    <row r="373" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:37" ht="12.75">
       <c r="B373" s="47"/>
       <c r="C373" s="47"/>
       <c r="D373" s="43"/>
@@ -15210,7 +15204,7 @@
       <c r="AJ373" s="46"/>
       <c r="AK373" s="46"/>
     </row>
-    <row r="374" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:37" ht="12.75">
       <c r="B374" s="47"/>
       <c r="C374" s="47"/>
       <c r="D374" s="43"/>
@@ -15247,7 +15241,7 @@
       <c r="AJ374" s="46"/>
       <c r="AK374" s="46"/>
     </row>
-    <row r="375" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:37" ht="12.75">
       <c r="B375" s="47"/>
       <c r="C375" s="47"/>
       <c r="D375" s="43"/>
@@ -15284,7 +15278,7 @@
       <c r="AJ375" s="46"/>
       <c r="AK375" s="46"/>
     </row>
-    <row r="376" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:37" ht="12.75">
       <c r="B376" s="47"/>
       <c r="C376" s="47"/>
       <c r="D376" s="43"/>
@@ -15321,7 +15315,7 @@
       <c r="AJ376" s="46"/>
       <c r="AK376" s="46"/>
     </row>
-    <row r="377" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:37" ht="12.75">
       <c r="B377" s="47"/>
       <c r="C377" s="47"/>
       <c r="D377" s="43"/>
@@ -15358,7 +15352,7 @@
       <c r="AJ377" s="46"/>
       <c r="AK377" s="46"/>
     </row>
-    <row r="378" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:37" ht="12.75">
       <c r="B378" s="47"/>
       <c r="C378" s="47"/>
       <c r="D378" s="43"/>
@@ -15395,7 +15389,7 @@
       <c r="AJ378" s="46"/>
       <c r="AK378" s="46"/>
     </row>
-    <row r="379" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:37" ht="12.75">
       <c r="B379" s="47"/>
       <c r="C379" s="47"/>
       <c r="D379" s="43"/>
@@ -15432,7 +15426,7 @@
       <c r="AJ379" s="46"/>
       <c r="AK379" s="46"/>
     </row>
-    <row r="380" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:37" ht="12.75">
       <c r="B380" s="47"/>
       <c r="C380" s="47"/>
       <c r="D380" s="43"/>
@@ -15469,7 +15463,7 @@
       <c r="AJ380" s="46"/>
       <c r="AK380" s="46"/>
     </row>
-    <row r="381" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:37" ht="12.75">
       <c r="B381" s="47"/>
       <c r="C381" s="47"/>
       <c r="D381" s="43"/>
@@ -15506,7 +15500,7 @@
       <c r="AJ381" s="46"/>
       <c r="AK381" s="46"/>
     </row>
-    <row r="382" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:37" ht="12.75">
       <c r="B382" s="47"/>
       <c r="C382" s="47"/>
       <c r="D382" s="43"/>
@@ -15543,7 +15537,7 @@
       <c r="AJ382" s="46"/>
       <c r="AK382" s="46"/>
     </row>
-    <row r="383" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:37" ht="12.75">
       <c r="B383" s="47"/>
       <c r="C383" s="47"/>
       <c r="D383" s="43"/>
@@ -15580,7 +15574,7 @@
       <c r="AJ383" s="46"/>
       <c r="AK383" s="46"/>
     </row>
-    <row r="384" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:37" ht="12.75">
       <c r="B384" s="47"/>
       <c r="C384" s="47"/>
       <c r="D384" s="43"/>
@@ -15617,7 +15611,7 @@
       <c r="AJ384" s="46"/>
       <c r="AK384" s="46"/>
     </row>
-    <row r="385" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:37" ht="12.75">
       <c r="B385" s="47"/>
       <c r="C385" s="47"/>
       <c r="D385" s="43"/>
@@ -15654,7 +15648,7 @@
       <c r="AJ385" s="46"/>
       <c r="AK385" s="46"/>
     </row>
-    <row r="386" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:37" ht="12.75">
       <c r="B386" s="47"/>
       <c r="C386" s="47"/>
       <c r="D386" s="43"/>
@@ -15691,7 +15685,7 @@
       <c r="AJ386" s="46"/>
       <c r="AK386" s="46"/>
     </row>
-    <row r="387" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:37" ht="12.75">
       <c r="B387" s="47"/>
       <c r="C387" s="47"/>
       <c r="D387" s="43"/>
@@ -15728,7 +15722,7 @@
       <c r="AJ387" s="46"/>
       <c r="AK387" s="46"/>
     </row>
-    <row r="388" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:37" ht="12.75">
       <c r="B388" s="47"/>
       <c r="C388" s="47"/>
       <c r="D388" s="43"/>
@@ -15765,7 +15759,7 @@
       <c r="AJ388" s="46"/>
       <c r="AK388" s="46"/>
     </row>
-    <row r="389" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:37" ht="12.75">
       <c r="B389" s="47"/>
       <c r="C389" s="47"/>
       <c r="D389" s="43"/>
@@ -15802,7 +15796,7 @@
       <c r="AJ389" s="46"/>
       <c r="AK389" s="46"/>
     </row>
-    <row r="390" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:37" ht="12.75">
       <c r="B390" s="47"/>
       <c r="C390" s="47"/>
       <c r="D390" s="43"/>
@@ -15839,7 +15833,7 @@
       <c r="AJ390" s="46"/>
       <c r="AK390" s="46"/>
     </row>
-    <row r="391" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:37" ht="12.75">
       <c r="B391" s="47"/>
       <c r="C391" s="47"/>
       <c r="D391" s="43"/>
@@ -15876,7 +15870,7 @@
       <c r="AJ391" s="46"/>
       <c r="AK391" s="46"/>
     </row>
-    <row r="392" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:37" ht="12.75">
       <c r="B392" s="47"/>
       <c r="C392" s="47"/>
       <c r="D392" s="43"/>
@@ -15913,7 +15907,7 @@
       <c r="AJ392" s="46"/>
       <c r="AK392" s="46"/>
     </row>
-    <row r="393" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:37" ht="12.75">
       <c r="B393" s="47"/>
       <c r="C393" s="47"/>
       <c r="D393" s="43"/>
@@ -15950,7 +15944,7 @@
       <c r="AJ393" s="46"/>
       <c r="AK393" s="46"/>
     </row>
-    <row r="394" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:37" ht="12.75">
       <c r="B394" s="47"/>
       <c r="C394" s="47"/>
       <c r="D394" s="43"/>
@@ -15987,7 +15981,7 @@
       <c r="AJ394" s="46"/>
       <c r="AK394" s="46"/>
     </row>
-    <row r="395" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:37" ht="12.75">
       <c r="B395" s="47"/>
       <c r="C395" s="47"/>
       <c r="D395" s="43"/>
@@ -16024,7 +16018,7 @@
       <c r="AJ395" s="46"/>
       <c r="AK395" s="46"/>
     </row>
-    <row r="396" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:37" ht="12.75">
       <c r="B396" s="47"/>
       <c r="C396" s="47"/>
       <c r="D396" s="43"/>
@@ -16061,7 +16055,7 @@
       <c r="AJ396" s="46"/>
       <c r="AK396" s="46"/>
     </row>
-    <row r="397" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:37" ht="12.75">
       <c r="B397" s="47"/>
       <c r="C397" s="47"/>
       <c r="D397" s="43"/>
@@ -16098,7 +16092,7 @@
       <c r="AJ397" s="46"/>
       <c r="AK397" s="46"/>
     </row>
-    <row r="398" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:37" ht="12.75">
       <c r="B398" s="47"/>
       <c r="C398" s="47"/>
       <c r="D398" s="43"/>
@@ -16135,7 +16129,7 @@
       <c r="AJ398" s="46"/>
       <c r="AK398" s="46"/>
     </row>
-    <row r="399" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:37" ht="12.75">
       <c r="B399" s="47"/>
       <c r="C399" s="47"/>
       <c r="D399" s="43"/>
@@ -16172,7 +16166,7 @@
       <c r="AJ399" s="46"/>
       <c r="AK399" s="46"/>
     </row>
-    <row r="400" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:37" ht="12.75">
       <c r="B400" s="47"/>
       <c r="C400" s="47"/>
       <c r="D400" s="43"/>
@@ -16209,7 +16203,7 @@
       <c r="AJ400" s="46"/>
       <c r="AK400" s="46"/>
     </row>
-    <row r="401" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:37" ht="12.75">
       <c r="B401" s="47"/>
       <c r="C401" s="47"/>
       <c r="D401" s="43"/>
@@ -16246,7 +16240,7 @@
       <c r="AJ401" s="46"/>
       <c r="AK401" s="46"/>
     </row>
-    <row r="402" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:37" ht="12.75">
       <c r="B402" s="47"/>
       <c r="C402" s="47"/>
       <c r="D402" s="43"/>
@@ -16283,7 +16277,7 @@
       <c r="AJ402" s="46"/>
       <c r="AK402" s="46"/>
     </row>
-    <row r="403" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:37" ht="12.75">
       <c r="B403" s="47"/>
       <c r="C403" s="47"/>
       <c r="D403" s="43"/>
@@ -16320,7 +16314,7 @@
       <c r="AJ403" s="46"/>
       <c r="AK403" s="46"/>
     </row>
-    <row r="404" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:37" ht="12.75">
       <c r="B404" s="47"/>
       <c r="C404" s="47"/>
       <c r="D404" s="43"/>
@@ -16357,7 +16351,7 @@
       <c r="AJ404" s="46"/>
       <c r="AK404" s="46"/>
     </row>
-    <row r="405" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:37" ht="12.75">
       <c r="B405" s="47"/>
       <c r="C405" s="47"/>
       <c r="D405" s="43"/>
@@ -16394,7 +16388,7 @@
       <c r="AJ405" s="46"/>
       <c r="AK405" s="46"/>
     </row>
-    <row r="406" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:37" ht="12.75">
       <c r="B406" s="47"/>
       <c r="C406" s="47"/>
       <c r="D406" s="43"/>
@@ -16431,7 +16425,7 @@
       <c r="AJ406" s="46"/>
       <c r="AK406" s="46"/>
     </row>
-    <row r="407" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:37" ht="12.75">
       <c r="B407" s="47"/>
       <c r="C407" s="47"/>
       <c r="D407" s="43"/>
@@ -16468,7 +16462,7 @@
       <c r="AJ407" s="46"/>
       <c r="AK407" s="46"/>
     </row>
-    <row r="408" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:37" ht="12.75">
       <c r="B408" s="47"/>
       <c r="C408" s="47"/>
       <c r="D408" s="43"/>
@@ -16505,7 +16499,7 @@
       <c r="AJ408" s="46"/>
       <c r="AK408" s="46"/>
     </row>
-    <row r="409" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:37" ht="12.75">
       <c r="B409" s="47"/>
       <c r="C409" s="47"/>
       <c r="D409" s="43"/>
@@ -16542,7 +16536,7 @@
       <c r="AJ409" s="46"/>
       <c r="AK409" s="46"/>
     </row>
-    <row r="410" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:37" ht="12.75">
       <c r="B410" s="47"/>
       <c r="C410" s="47"/>
       <c r="D410" s="43"/>
@@ -16579,7 +16573,7 @@
       <c r="AJ410" s="46"/>
       <c r="AK410" s="46"/>
     </row>
-    <row r="411" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:37" ht="12.75">
       <c r="B411" s="47"/>
       <c r="C411" s="47"/>
       <c r="D411" s="43"/>
@@ -16616,7 +16610,7 @@
       <c r="AJ411" s="46"/>
       <c r="AK411" s="46"/>
     </row>
-    <row r="412" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:37" ht="12.75">
       <c r="B412" s="47"/>
       <c r="C412" s="47"/>
       <c r="D412" s="43"/>
@@ -16653,7 +16647,7 @@
       <c r="AJ412" s="46"/>
       <c r="AK412" s="46"/>
     </row>
-    <row r="413" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:37" ht="12.75">
       <c r="B413" s="47"/>
       <c r="C413" s="47"/>
       <c r="D413" s="43"/>
@@ -16690,7 +16684,7 @@
       <c r="AJ413" s="46"/>
       <c r="AK413" s="46"/>
     </row>
-    <row r="414" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:37" ht="12.75">
       <c r="B414" s="47"/>
       <c r="C414" s="47"/>
       <c r="D414" s="43"/>
@@ -16727,7 +16721,7 @@
       <c r="AJ414" s="46"/>
       <c r="AK414" s="46"/>
     </row>
-    <row r="415" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:37" ht="12.75">
       <c r="B415" s="47"/>
       <c r="C415" s="47"/>
       <c r="D415" s="43"/>
@@ -16764,7 +16758,7 @@
       <c r="AJ415" s="46"/>
       <c r="AK415" s="46"/>
     </row>
-    <row r="416" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:37" ht="12.75">
       <c r="B416" s="47"/>
       <c r="C416" s="47"/>
       <c r="D416" s="43"/>
@@ -16801,7 +16795,7 @@
       <c r="AJ416" s="46"/>
       <c r="AK416" s="46"/>
     </row>
-    <row r="417" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:37" ht="12.75">
       <c r="B417" s="47"/>
       <c r="C417" s="47"/>
       <c r="D417" s="43"/>
@@ -16838,7 +16832,7 @@
       <c r="AJ417" s="46"/>
       <c r="AK417" s="46"/>
     </row>
-    <row r="418" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:37" ht="12.75">
       <c r="B418" s="47"/>
       <c r="C418" s="47"/>
       <c r="D418" s="43"/>
@@ -16875,7 +16869,7 @@
       <c r="AJ418" s="46"/>
       <c r="AK418" s="46"/>
     </row>
-    <row r="419" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:37" ht="12.75">
       <c r="B419" s="47"/>
       <c r="C419" s="47"/>
       <c r="D419" s="43"/>
@@ -16912,7 +16906,7 @@
       <c r="AJ419" s="46"/>
       <c r="AK419" s="46"/>
     </row>
-    <row r="420" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:37" ht="12.75">
       <c r="B420" s="47"/>
       <c r="C420" s="47"/>
       <c r="D420" s="43"/>
@@ -16949,7 +16943,7 @@
       <c r="AJ420" s="46"/>
       <c r="AK420" s="46"/>
     </row>
-    <row r="421" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:37" ht="12.75">
       <c r="B421" s="47"/>
       <c r="C421" s="47"/>
       <c r="D421" s="43"/>
@@ -16986,7 +16980,7 @@
       <c r="AJ421" s="46"/>
       <c r="AK421" s="46"/>
     </row>
-    <row r="422" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:37" ht="12.75">
       <c r="B422" s="47"/>
       <c r="C422" s="47"/>
       <c r="D422" s="43"/>
@@ -17023,7 +17017,7 @@
       <c r="AJ422" s="46"/>
       <c r="AK422" s="46"/>
     </row>
-    <row r="423" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:37" ht="12.75">
       <c r="B423" s="47"/>
       <c r="C423" s="47"/>
       <c r="D423" s="43"/>
@@ -17060,7 +17054,7 @@
       <c r="AJ423" s="46"/>
       <c r="AK423" s="46"/>
     </row>
-    <row r="424" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:37" ht="12.75">
       <c r="B424" s="47"/>
       <c r="C424" s="47"/>
       <c r="D424" s="43"/>
@@ -17097,7 +17091,7 @@
       <c r="AJ424" s="46"/>
       <c r="AK424" s="46"/>
     </row>
-    <row r="425" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:37" ht="12.75">
       <c r="B425" s="47"/>
       <c r="C425" s="47"/>
       <c r="D425" s="43"/>
@@ -17134,7 +17128,7 @@
       <c r="AJ425" s="46"/>
       <c r="AK425" s="46"/>
     </row>
-    <row r="426" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:37" ht="12.75">
       <c r="B426" s="47"/>
       <c r="C426" s="47"/>
       <c r="D426" s="43"/>
@@ -17171,7 +17165,7 @@
       <c r="AJ426" s="46"/>
       <c r="AK426" s="46"/>
     </row>
-    <row r="427" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:37" ht="12.75">
       <c r="B427" s="47"/>
       <c r="C427" s="47"/>
       <c r="D427" s="43"/>
@@ -17208,7 +17202,7 @@
       <c r="AJ427" s="46"/>
       <c r="AK427" s="46"/>
     </row>
-    <row r="428" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:37" ht="12.75">
       <c r="B428" s="47"/>
       <c r="C428" s="47"/>
       <c r="D428" s="43"/>
@@ -17245,7 +17239,7 @@
       <c r="AJ428" s="46"/>
       <c r="AK428" s="46"/>
     </row>
-    <row r="429" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:37" ht="12.75">
       <c r="B429" s="47"/>
       <c r="C429" s="47"/>
       <c r="D429" s="43"/>
@@ -17282,7 +17276,7 @@
       <c r="AJ429" s="46"/>
       <c r="AK429" s="46"/>
     </row>
-    <row r="430" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:37" ht="12.75">
       <c r="B430" s="47"/>
       <c r="C430" s="47"/>
       <c r="D430" s="43"/>
@@ -17319,7 +17313,7 @@
       <c r="AJ430" s="46"/>
       <c r="AK430" s="46"/>
     </row>
-    <row r="431" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:37" ht="12.75">
       <c r="B431" s="47"/>
       <c r="C431" s="47"/>
       <c r="D431" s="43"/>
@@ -17356,7 +17350,7 @@
       <c r="AJ431" s="46"/>
       <c r="AK431" s="46"/>
     </row>
-    <row r="432" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:37" ht="12.75">
       <c r="B432" s="47"/>
       <c r="C432" s="47"/>
       <c r="D432" s="43"/>
@@ -17393,7 +17387,7 @@
       <c r="AJ432" s="46"/>
       <c r="AK432" s="46"/>
     </row>
-    <row r="433" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:37" ht="12.75">
       <c r="B433" s="47"/>
       <c r="C433" s="47"/>
       <c r="D433" s="43"/>
@@ -17430,7 +17424,7 @@
       <c r="AJ433" s="46"/>
       <c r="AK433" s="46"/>
     </row>
-    <row r="434" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:37" ht="12.75">
       <c r="B434" s="47"/>
       <c r="C434" s="47"/>
       <c r="D434" s="43"/>
@@ -17467,7 +17461,7 @@
       <c r="AJ434" s="46"/>
       <c r="AK434" s="46"/>
     </row>
-    <row r="435" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:37" ht="12.75">
       <c r="B435" s="47"/>
       <c r="C435" s="47"/>
       <c r="D435" s="43"/>
@@ -17504,7 +17498,7 @@
       <c r="AJ435" s="46"/>
       <c r="AK435" s="46"/>
     </row>
-    <row r="436" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:37" ht="12.75">
       <c r="B436" s="47"/>
       <c r="C436" s="47"/>
       <c r="D436" s="43"/>
@@ -17541,7 +17535,7 @@
       <c r="AJ436" s="46"/>
       <c r="AK436" s="46"/>
     </row>
-    <row r="437" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:37" ht="12.75">
       <c r="B437" s="47"/>
       <c r="C437" s="47"/>
       <c r="D437" s="43"/>
@@ -17578,7 +17572,7 @@
       <c r="AJ437" s="46"/>
       <c r="AK437" s="46"/>
     </row>
-    <row r="438" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:37" ht="12.75">
       <c r="B438" s="47"/>
       <c r="C438" s="47"/>
       <c r="D438" s="43"/>
@@ -17615,7 +17609,7 @@
       <c r="AJ438" s="46"/>
       <c r="AK438" s="46"/>
     </row>
-    <row r="439" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:37" ht="12.75">
       <c r="B439" s="47"/>
       <c r="C439" s="47"/>
       <c r="D439" s="43"/>
@@ -17652,7 +17646,7 @@
       <c r="AJ439" s="46"/>
       <c r="AK439" s="46"/>
     </row>
-    <row r="440" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:37" ht="12.75">
       <c r="B440" s="47"/>
       <c r="C440" s="47"/>
       <c r="D440" s="43"/>
@@ -17689,7 +17683,7 @@
       <c r="AJ440" s="46"/>
       <c r="AK440" s="46"/>
     </row>
-    <row r="441" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:37" ht="12.75">
       <c r="B441" s="47"/>
       <c r="C441" s="47"/>
       <c r="D441" s="43"/>
@@ -17726,7 +17720,7 @@
       <c r="AJ441" s="46"/>
       <c r="AK441" s="46"/>
     </row>
-    <row r="442" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:37" ht="12.75">
       <c r="B442" s="47"/>
       <c r="C442" s="47"/>
       <c r="D442" s="43"/>
@@ -17763,7 +17757,7 @@
       <c r="AJ442" s="46"/>
       <c r="AK442" s="46"/>
     </row>
-    <row r="443" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:37" ht="12.75">
       <c r="B443" s="47"/>
       <c r="C443" s="47"/>
       <c r="D443" s="43"/>
@@ -17800,7 +17794,7 @@
       <c r="AJ443" s="46"/>
       <c r="AK443" s="46"/>
     </row>
-    <row r="444" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:37" ht="12.75">
       <c r="B444" s="47"/>
       <c r="C444" s="47"/>
       <c r="D444" s="43"/>
@@ -17837,7 +17831,7 @@
       <c r="AJ444" s="46"/>
       <c r="AK444" s="46"/>
     </row>
-    <row r="445" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:37" ht="12.75">
       <c r="B445" s="47"/>
       <c r="C445" s="47"/>
       <c r="D445" s="43"/>
@@ -17874,7 +17868,7 @@
       <c r="AJ445" s="46"/>
       <c r="AK445" s="46"/>
     </row>
-    <row r="446" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:37" ht="12.75">
       <c r="B446" s="47"/>
       <c r="C446" s="47"/>
       <c r="D446" s="43"/>
@@ -17911,7 +17905,7 @@
       <c r="AJ446" s="46"/>
       <c r="AK446" s="46"/>
     </row>
-    <row r="447" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:37" ht="12.75">
       <c r="B447" s="47"/>
       <c r="C447" s="47"/>
       <c r="D447" s="43"/>
@@ -17948,7 +17942,7 @@
       <c r="AJ447" s="46"/>
       <c r="AK447" s="46"/>
     </row>
-    <row r="448" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:37" ht="12.75">
       <c r="B448" s="47"/>
       <c r="C448" s="47"/>
       <c r="D448" s="43"/>
@@ -17985,7 +17979,7 @@
       <c r="AJ448" s="46"/>
       <c r="AK448" s="46"/>
     </row>
-    <row r="449" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:37" ht="12.75">
       <c r="B449" s="47"/>
       <c r="C449" s="47"/>
       <c r="D449" s="43"/>
@@ -18022,7 +18016,7 @@
       <c r="AJ449" s="46"/>
       <c r="AK449" s="46"/>
     </row>
-    <row r="450" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:37" ht="12.75">
       <c r="B450" s="47"/>
       <c r="C450" s="47"/>
       <c r="D450" s="43"/>
@@ -18059,7 +18053,7 @@
       <c r="AJ450" s="46"/>
       <c r="AK450" s="46"/>
     </row>
-    <row r="451" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:37" ht="12.75">
       <c r="B451" s="47"/>
       <c r="C451" s="47"/>
       <c r="D451" s="43"/>
@@ -18096,7 +18090,7 @@
       <c r="AJ451" s="46"/>
       <c r="AK451" s="46"/>
     </row>
-    <row r="452" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:37" ht="12.75">
       <c r="B452" s="47"/>
       <c r="C452" s="47"/>
       <c r="D452" s="43"/>
@@ -18133,7 +18127,7 @@
       <c r="AJ452" s="46"/>
       <c r="AK452" s="46"/>
     </row>
-    <row r="453" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:37" ht="12.75">
       <c r="B453" s="47"/>
       <c r="C453" s="47"/>
       <c r="D453" s="43"/>
@@ -18170,7 +18164,7 @@
       <c r="AJ453" s="46"/>
       <c r="AK453" s="46"/>
     </row>
-    <row r="454" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:37" ht="12.75">
       <c r="B454" s="47"/>
       <c r="C454" s="47"/>
       <c r="D454" s="43"/>
@@ -18207,7 +18201,7 @@
       <c r="AJ454" s="46"/>
       <c r="AK454" s="46"/>
     </row>
-    <row r="455" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:37" ht="12.75">
       <c r="B455" s="47"/>
       <c r="C455" s="47"/>
       <c r="D455" s="43"/>
@@ -18244,7 +18238,7 @@
       <c r="AJ455" s="46"/>
       <c r="AK455" s="46"/>
     </row>
-    <row r="456" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:37" ht="12.75">
       <c r="B456" s="47"/>
       <c r="C456" s="47"/>
       <c r="D456" s="43"/>
@@ -18281,7 +18275,7 @@
       <c r="AJ456" s="46"/>
       <c r="AK456" s="46"/>
     </row>
-    <row r="457" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:37" ht="12.75">
       <c r="B457" s="47"/>
       <c r="C457" s="47"/>
       <c r="D457" s="43"/>
@@ -18318,7 +18312,7 @@
       <c r="AJ457" s="46"/>
       <c r="AK457" s="46"/>
     </row>
-    <row r="458" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:37" ht="12.75">
       <c r="B458" s="47"/>
       <c r="C458" s="47"/>
       <c r="D458" s="43"/>
@@ -18355,7 +18349,7 @@
       <c r="AJ458" s="46"/>
       <c r="AK458" s="46"/>
     </row>
-    <row r="459" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:37" ht="12.75">
       <c r="B459" s="47"/>
       <c r="C459" s="47"/>
       <c r="D459" s="43"/>
@@ -18392,7 +18386,7 @@
       <c r="AJ459" s="46"/>
       <c r="AK459" s="46"/>
     </row>
-    <row r="460" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:37" ht="12.75">
       <c r="B460" s="47"/>
       <c r="C460" s="47"/>
       <c r="D460" s="43"/>
@@ -18429,7 +18423,7 @@
       <c r="AJ460" s="46"/>
       <c r="AK460" s="46"/>
     </row>
-    <row r="461" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:37" ht="12.75">
       <c r="B461" s="47"/>
       <c r="C461" s="47"/>
       <c r="D461" s="43"/>
@@ -18466,7 +18460,7 @@
       <c r="AJ461" s="46"/>
       <c r="AK461" s="46"/>
     </row>
-    <row r="462" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:37" ht="12.75">
       <c r="B462" s="47"/>
       <c r="C462" s="47"/>
       <c r="D462" s="43"/>
@@ -18503,7 +18497,7 @@
       <c r="AJ462" s="46"/>
       <c r="AK462" s="46"/>
     </row>
-    <row r="463" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:37" ht="12.75">
       <c r="B463" s="47"/>
       <c r="C463" s="47"/>
       <c r="D463" s="43"/>
@@ -18540,7 +18534,7 @@
       <c r="AJ463" s="46"/>
       <c r="AK463" s="46"/>
     </row>
-    <row r="464" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:37" ht="12.75">
       <c r="B464" s="47"/>
       <c r="C464" s="47"/>
       <c r="D464" s="43"/>
@@ -18577,7 +18571,7 @@
       <c r="AJ464" s="46"/>
       <c r="AK464" s="46"/>
     </row>
-    <row r="465" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:37" ht="12.75">
       <c r="B465" s="47"/>
       <c r="C465" s="47"/>
       <c r="D465" s="43"/>
@@ -18614,7 +18608,7 @@
       <c r="AJ465" s="46"/>
       <c r="AK465" s="46"/>
     </row>
-    <row r="466" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:37" ht="12.75">
       <c r="B466" s="47"/>
       <c r="C466" s="47"/>
       <c r="D466" s="43"/>
@@ -18651,7 +18645,7 @@
       <c r="AJ466" s="46"/>
       <c r="AK466" s="46"/>
     </row>
-    <row r="467" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:37" ht="12.75">
       <c r="B467" s="47"/>
       <c r="C467" s="47"/>
       <c r="D467" s="43"/>
@@ -18688,7 +18682,7 @@
       <c r="AJ467" s="46"/>
       <c r="AK467" s="46"/>
     </row>
-    <row r="468" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:37" ht="12.75">
       <c r="B468" s="47"/>
       <c r="C468" s="47"/>
       <c r="D468" s="43"/>
@@ -18725,7 +18719,7 @@
       <c r="AJ468" s="46"/>
       <c r="AK468" s="46"/>
     </row>
-    <row r="469" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:37" ht="12.75">
       <c r="B469" s="47"/>
       <c r="C469" s="47"/>
       <c r="D469" s="43"/>
@@ -18762,7 +18756,7 @@
       <c r="AJ469" s="46"/>
       <c r="AK469" s="46"/>
     </row>
-    <row r="470" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:37" ht="12.75">
       <c r="B470" s="47"/>
       <c r="C470" s="47"/>
       <c r="D470" s="43"/>
@@ -18799,7 +18793,7 @@
       <c r="AJ470" s="46"/>
       <c r="AK470" s="46"/>
     </row>
-    <row r="471" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:37" ht="12.75">
       <c r="B471" s="47"/>
       <c r="C471" s="47"/>
       <c r="D471" s="43"/>
@@ -18836,7 +18830,7 @@
       <c r="AJ471" s="46"/>
       <c r="AK471" s="46"/>
     </row>
-    <row r="472" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:37" ht="12.75">
       <c r="B472" s="47"/>
       <c r="C472" s="47"/>
       <c r="D472" s="43"/>
@@ -18873,7 +18867,7 @@
       <c r="AJ472" s="46"/>
       <c r="AK472" s="46"/>
     </row>
-    <row r="473" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:37" ht="12.75">
       <c r="B473" s="47"/>
       <c r="C473" s="47"/>
       <c r="D473" s="43"/>
@@ -18910,7 +18904,7 @@
       <c r="AJ473" s="46"/>
       <c r="AK473" s="46"/>
     </row>
-    <row r="474" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:37" ht="12.75">
       <c r="B474" s="47"/>
       <c r="C474" s="47"/>
       <c r="D474" s="43"/>
@@ -18947,7 +18941,7 @@
       <c r="AJ474" s="46"/>
       <c r="AK474" s="46"/>
     </row>
-    <row r="475" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:37" ht="12.75">
       <c r="B475" s="47"/>
       <c r="C475" s="47"/>
       <c r="D475" s="43"/>
@@ -18984,7 +18978,7 @@
       <c r="AJ475" s="46"/>
       <c r="AK475" s="46"/>
     </row>
-    <row r="476" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:37" ht="12.75">
       <c r="B476" s="47"/>
       <c r="C476" s="47"/>
       <c r="D476" s="43"/>
@@ -19021,7 +19015,7 @@
       <c r="AJ476" s="46"/>
       <c r="AK476" s="46"/>
     </row>
-    <row r="477" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:37" ht="12.75">
       <c r="B477" s="47"/>
       <c r="C477" s="47"/>
       <c r="D477" s="43"/>
@@ -19058,7 +19052,7 @@
       <c r="AJ477" s="46"/>
       <c r="AK477" s="46"/>
     </row>
-    <row r="478" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:37" ht="12.75">
       <c r="B478" s="47"/>
       <c r="C478" s="47"/>
       <c r="D478" s="43"/>
@@ -19095,7 +19089,7 @@
       <c r="AJ478" s="46"/>
       <c r="AK478" s="46"/>
     </row>
-    <row r="479" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:37" ht="12.75">
       <c r="B479" s="47"/>
       <c r="C479" s="47"/>
       <c r="D479" s="43"/>
@@ -19132,7 +19126,7 @@
       <c r="AJ479" s="46"/>
       <c r="AK479" s="46"/>
     </row>
-    <row r="480" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:37" ht="12.75">
       <c r="B480" s="47"/>
       <c r="C480" s="47"/>
       <c r="D480" s="43"/>
@@ -19169,7 +19163,7 @@
       <c r="AJ480" s="46"/>
       <c r="AK480" s="46"/>
     </row>
-    <row r="481" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:37" ht="12.75">
       <c r="B481" s="47"/>
       <c r="C481" s="47"/>
       <c r="D481" s="43"/>
@@ -19206,7 +19200,7 @@
       <c r="AJ481" s="46"/>
       <c r="AK481" s="46"/>
     </row>
-    <row r="482" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:37" ht="12.75">
       <c r="B482" s="47"/>
       <c r="C482" s="47"/>
       <c r="D482" s="43"/>
@@ -19243,7 +19237,7 @@
       <c r="AJ482" s="46"/>
       <c r="AK482" s="46"/>
     </row>
-    <row r="483" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:37" ht="12.75">
       <c r="B483" s="47"/>
       <c r="C483" s="47"/>
       <c r="D483" s="43"/>
@@ -19280,7 +19274,7 @@
       <c r="AJ483" s="46"/>
       <c r="AK483" s="46"/>
     </row>
-    <row r="484" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:37" ht="12.75">
       <c r="B484" s="47"/>
       <c r="C484" s="47"/>
       <c r="D484" s="43"/>
@@ -19317,7 +19311,7 @@
       <c r="AJ484" s="46"/>
       <c r="AK484" s="46"/>
     </row>
-    <row r="485" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:37" ht="12.75">
       <c r="B485" s="47"/>
       <c r="C485" s="47"/>
       <c r="D485" s="43"/>
@@ -19354,7 +19348,7 @@
       <c r="AJ485" s="46"/>
       <c r="AK485" s="46"/>
     </row>
-    <row r="486" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:37" ht="12.75">
       <c r="B486" s="47"/>
       <c r="C486" s="47"/>
       <c r="D486" s="43"/>
@@ -19391,7 +19385,7 @@
       <c r="AJ486" s="46"/>
       <c r="AK486" s="46"/>
     </row>
-    <row r="487" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:37" ht="12.75">
       <c r="B487" s="47"/>
       <c r="C487" s="47"/>
       <c r="D487" s="43"/>
@@ -19428,7 +19422,7 @@
       <c r="AJ487" s="46"/>
       <c r="AK487" s="46"/>
     </row>
-    <row r="488" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:37" ht="12.75">
       <c r="B488" s="47"/>
       <c r="C488" s="47"/>
       <c r="D488" s="43"/>
@@ -19465,7 +19459,7 @@
       <c r="AJ488" s="46"/>
       <c r="AK488" s="46"/>
     </row>
-    <row r="489" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:37" ht="12.75">
       <c r="B489" s="47"/>
       <c r="C489" s="47"/>
       <c r="D489" s="43"/>
@@ -19502,7 +19496,7 @@
       <c r="AJ489" s="46"/>
       <c r="AK489" s="46"/>
     </row>
-    <row r="490" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:37" ht="12.75">
       <c r="B490" s="47"/>
       <c r="C490" s="47"/>
       <c r="D490" s="43"/>
@@ -19539,7 +19533,7 @@
       <c r="AJ490" s="46"/>
       <c r="AK490" s="46"/>
     </row>
-    <row r="491" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:37" ht="12.75">
       <c r="B491" s="47"/>
       <c r="C491" s="47"/>
       <c r="D491" s="43"/>
@@ -19576,7 +19570,7 @@
       <c r="AJ491" s="46"/>
       <c r="AK491" s="46"/>
     </row>
-    <row r="492" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:37" ht="12.75">
       <c r="B492" s="47"/>
       <c r="C492" s="47"/>
       <c r="D492" s="43"/>
@@ -19613,7 +19607,7 @@
       <c r="AJ492" s="46"/>
       <c r="AK492" s="46"/>
     </row>
-    <row r="493" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:37" ht="12.75">
       <c r="B493" s="47"/>
       <c r="C493" s="47"/>
       <c r="D493" s="43"/>
@@ -19650,7 +19644,7 @@
       <c r="AJ493" s="46"/>
       <c r="AK493" s="46"/>
     </row>
-    <row r="494" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:37" ht="12.75">
       <c r="B494" s="47"/>
       <c r="C494" s="47"/>
       <c r="D494" s="43"/>
@@ -19687,7 +19681,7 @@
       <c r="AJ494" s="46"/>
       <c r="AK494" s="46"/>
     </row>
-    <row r="495" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:37" ht="12.75">
       <c r="B495" s="47"/>
       <c r="C495" s="47"/>
       <c r="D495" s="43"/>
@@ -19724,7 +19718,7 @@
       <c r="AJ495" s="46"/>
       <c r="AK495" s="46"/>
     </row>
-    <row r="496" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:37" ht="12.75">
       <c r="B496" s="47"/>
       <c r="C496" s="47"/>
       <c r="D496" s="43"/>
@@ -19761,7 +19755,7 @@
       <c r="AJ496" s="46"/>
       <c r="AK496" s="46"/>
     </row>
-    <row r="497" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:37" ht="12.75">
       <c r="B497" s="47"/>
       <c r="C497" s="47"/>
       <c r="D497" s="43"/>
@@ -19798,7 +19792,7 @@
       <c r="AJ497" s="46"/>
       <c r="AK497" s="46"/>
     </row>
-    <row r="498" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:37" ht="12.75">
       <c r="B498" s="47"/>
       <c r="C498" s="47"/>
       <c r="D498" s="43"/>
@@ -19835,7 +19829,7 @@
       <c r="AJ498" s="46"/>
       <c r="AK498" s="46"/>
     </row>
-    <row r="499" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:37" ht="12.75">
       <c r="B499" s="47"/>
       <c r="C499" s="47"/>
       <c r="D499" s="43"/>
@@ -19872,7 +19866,7 @@
       <c r="AJ499" s="46"/>
       <c r="AK499" s="46"/>
     </row>
-    <row r="500" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:37" ht="12.75">
       <c r="B500" s="47"/>
       <c r="C500" s="47"/>
       <c r="D500" s="43"/>
@@ -19909,7 +19903,7 @@
       <c r="AJ500" s="46"/>
       <c r="AK500" s="46"/>
     </row>
-    <row r="501" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:37" ht="12.75">
       <c r="B501" s="47"/>
       <c r="C501" s="47"/>
       <c r="D501" s="43"/>
@@ -19946,7 +19940,7 @@
       <c r="AJ501" s="46"/>
       <c r="AK501" s="46"/>
     </row>
-    <row r="502" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:37" ht="12.75">
       <c r="B502" s="47"/>
       <c r="C502" s="47"/>
       <c r="D502" s="43"/>
@@ -19983,7 +19977,7 @@
       <c r="AJ502" s="46"/>
       <c r="AK502" s="46"/>
     </row>
-    <row r="503" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:37" ht="12.75">
       <c r="B503" s="47"/>
       <c r="C503" s="47"/>
       <c r="D503" s="43"/>
@@ -20020,7 +20014,7 @@
       <c r="AJ503" s="46"/>
       <c r="AK503" s="46"/>
     </row>
-    <row r="504" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:37" ht="12.75">
       <c r="B504" s="47"/>
       <c r="C504" s="47"/>
       <c r="D504" s="43"/>
@@ -20057,7 +20051,7 @@
       <c r="AJ504" s="46"/>
       <c r="AK504" s="46"/>
     </row>
-    <row r="505" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:37" ht="12.75">
       <c r="B505" s="47"/>
       <c r="C505" s="47"/>
       <c r="D505" s="43"/>
@@ -20094,7 +20088,7 @@
       <c r="AJ505" s="46"/>
       <c r="AK505" s="46"/>
     </row>
-    <row r="506" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:37" ht="12.75">
       <c r="B506" s="47"/>
       <c r="C506" s="47"/>
       <c r="D506" s="43"/>
@@ -20131,7 +20125,7 @@
       <c r="AJ506" s="46"/>
       <c r="AK506" s="46"/>
     </row>
-    <row r="507" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:37" ht="12.75">
       <c r="B507" s="47"/>
       <c r="C507" s="47"/>
       <c r="D507" s="43"/>
@@ -20168,7 +20162,7 @@
       <c r="AJ507" s="46"/>
       <c r="AK507" s="46"/>
     </row>
-    <row r="508" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:37" ht="12.75">
       <c r="B508" s="47"/>
       <c r="C508" s="47"/>
       <c r="D508" s="43"/>
@@ -20205,7 +20199,7 @@
       <c r="AJ508" s="46"/>
       <c r="AK508" s="46"/>
     </row>
-    <row r="509" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:37" ht="12.75">
       <c r="B509" s="47"/>
       <c r="C509" s="47"/>
       <c r="D509" s="43"/>
@@ -20242,7 +20236,7 @@
       <c r="AJ509" s="46"/>
       <c r="AK509" s="46"/>
     </row>
-    <row r="510" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:37" ht="12.75">
       <c r="B510" s="47"/>
       <c r="C510" s="47"/>
       <c r="D510" s="43"/>
@@ -20279,7 +20273,7 @@
       <c r="AJ510" s="46"/>
       <c r="AK510" s="46"/>
     </row>
-    <row r="511" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:37" ht="12.75">
       <c r="B511" s="47"/>
       <c r="C511" s="47"/>
       <c r="D511" s="43"/>
@@ -20316,7 +20310,7 @@
       <c r="AJ511" s="46"/>
       <c r="AK511" s="46"/>
     </row>
-    <row r="512" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:37" ht="12.75">
       <c r="B512" s="47"/>
       <c r="C512" s="47"/>
       <c r="D512" s="43"/>
@@ -20353,7 +20347,7 @@
       <c r="AJ512" s="46"/>
       <c r="AK512" s="46"/>
     </row>
-    <row r="513" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:37" ht="12.75">
       <c r="B513" s="47"/>
       <c r="C513" s="47"/>
       <c r="D513" s="43"/>
@@ -20390,7 +20384,7 @@
       <c r="AJ513" s="46"/>
       <c r="AK513" s="46"/>
     </row>
-    <row r="514" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:37" ht="12.75">
       <c r="B514" s="47"/>
       <c r="C514" s="47"/>
       <c r="D514" s="43"/>
@@ -20427,7 +20421,7 @@
       <c r="AJ514" s="46"/>
       <c r="AK514" s="46"/>
     </row>
-    <row r="515" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:37" ht="12.75">
       <c r="B515" s="47"/>
       <c r="C515" s="47"/>
       <c r="D515" s="43"/>
@@ -20464,7 +20458,7 @@
       <c r="AJ515" s="46"/>
       <c r="AK515" s="46"/>
     </row>
-    <row r="516" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:37" ht="12.75">
       <c r="B516" s="47"/>
       <c r="C516" s="47"/>
       <c r="D516" s="43"/>
@@ -20501,7 +20495,7 @@
       <c r="AJ516" s="46"/>
       <c r="AK516" s="46"/>
     </row>
-    <row r="517" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:37" ht="12.75">
       <c r="B517" s="47"/>
       <c r="C517" s="47"/>
       <c r="D517" s="43"/>
@@ -20538,7 +20532,7 @@
       <c r="AJ517" s="46"/>
       <c r="AK517" s="46"/>
     </row>
-    <row r="518" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:37" ht="12.75">
       <c r="B518" s="47"/>
       <c r="C518" s="47"/>
       <c r="D518" s="43"/>
@@ -20575,7 +20569,7 @@
       <c r="AJ518" s="46"/>
       <c r="AK518" s="46"/>
     </row>
-    <row r="519" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:37" ht="12.75">
       <c r="B519" s="47"/>
       <c r="C519" s="47"/>
       <c r="D519" s="43"/>
@@ -20612,7 +20606,7 @@
       <c r="AJ519" s="46"/>
       <c r="AK519" s="46"/>
     </row>
-    <row r="520" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:37" ht="12.75">
       <c r="B520" s="47"/>
       <c r="C520" s="47"/>
       <c r="D520" s="43"/>
@@ -20649,7 +20643,7 @@
       <c r="AJ520" s="46"/>
       <c r="AK520" s="46"/>
     </row>
-    <row r="521" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:37" ht="12.75">
       <c r="B521" s="47"/>
       <c r="C521" s="47"/>
       <c r="D521" s="43"/>
@@ -20686,7 +20680,7 @@
       <c r="AJ521" s="46"/>
       <c r="AK521" s="46"/>
     </row>
-    <row r="522" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:37" ht="12.75">
       <c r="B522" s="47"/>
       <c r="C522" s="47"/>
       <c r="D522" s="43"/>
@@ -20723,7 +20717,7 @@
       <c r="AJ522" s="46"/>
       <c r="AK522" s="46"/>
     </row>
-    <row r="523" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:37" ht="12.75">
       <c r="B523" s="47"/>
       <c r="C523" s="47"/>
       <c r="D523" s="43"/>
@@ -20760,7 +20754,7 @@
       <c r="AJ523" s="46"/>
       <c r="AK523" s="46"/>
     </row>
-    <row r="524" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:37" ht="12.75">
       <c r="B524" s="47"/>
       <c r="C524" s="47"/>
       <c r="D524" s="43"/>
@@ -20797,7 +20791,7 @@
       <c r="AJ524" s="46"/>
       <c r="AK524" s="46"/>
     </row>
-    <row r="525" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:37" ht="12.75">
       <c r="B525" s="47"/>
       <c r="C525" s="47"/>
       <c r="D525" s="43"/>
@@ -20834,7 +20828,7 @@
       <c r="AJ525" s="46"/>
       <c r="AK525" s="46"/>
     </row>
-    <row r="526" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:37" ht="12.75">
       <c r="B526" s="47"/>
       <c r="C526" s="47"/>
       <c r="D526" s="43"/>
@@ -20871,7 +20865,7 @@
       <c r="AJ526" s="46"/>
       <c r="AK526" s="46"/>
     </row>
-    <row r="527" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:37" ht="12.75">
       <c r="B527" s="47"/>
       <c r="C527" s="47"/>
       <c r="D527" s="43"/>
@@ -20908,7 +20902,7 @@
       <c r="AJ527" s="46"/>
       <c r="AK527" s="46"/>
     </row>
-    <row r="528" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:37" ht="12.75">
       <c r="B528" s="47"/>
       <c r="C528" s="47"/>
       <c r="D528" s="43"/>
@@ -20945,7 +20939,7 @@
       <c r="AJ528" s="46"/>
       <c r="AK528" s="46"/>
     </row>
-    <row r="529" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:37" ht="12.75">
       <c r="B529" s="47"/>
       <c r="C529" s="47"/>
       <c r="D529" s="43"/>
@@ -20982,7 +20976,7 @@
       <c r="AJ529" s="46"/>
       <c r="AK529" s="46"/>
     </row>
-    <row r="530" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:37" ht="12.75">
       <c r="B530" s="47"/>
       <c r="C530" s="47"/>
       <c r="D530" s="43"/>
@@ -21019,7 +21013,7 @@
       <c r="AJ530" s="46"/>
       <c r="AK530" s="46"/>
     </row>
-    <row r="531" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:37" ht="12.75">
       <c r="B531" s="47"/>
       <c r="C531" s="47"/>
       <c r="D531" s="43"/>
@@ -21056,7 +21050,7 @@
       <c r="AJ531" s="46"/>
       <c r="AK531" s="46"/>
     </row>
-    <row r="532" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:37" ht="12.75">
       <c r="B532" s="47"/>
       <c r="C532" s="47"/>
       <c r="D532" s="43"/>
@@ -21093,7 +21087,7 @@
       <c r="AJ532" s="46"/>
       <c r="AK532" s="46"/>
     </row>
-    <row r="533" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:37" ht="12.75">
       <c r="B533" s="47"/>
       <c r="C533" s="47"/>
       <c r="D533" s="43"/>
@@ -21130,7 +21124,7 @@
       <c r="AJ533" s="46"/>
       <c r="AK533" s="46"/>
     </row>
-    <row r="534" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:37" ht="12.75">
       <c r="B534" s="47"/>
       <c r="C534" s="47"/>
       <c r="D534" s="43"/>
@@ -21167,7 +21161,7 @@
       <c r="AJ534" s="46"/>
       <c r="AK534" s="46"/>
     </row>
-    <row r="535" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:37" ht="12.75">
       <c r="B535" s="47"/>
       <c r="C535" s="47"/>
       <c r="D535" s="43"/>
@@ -21204,7 +21198,7 @@
       <c r="AJ535" s="46"/>
       <c r="AK535" s="46"/>
     </row>
-    <row r="536" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:37" ht="12.75">
       <c r="B536" s="47"/>
       <c r="C536" s="47"/>
       <c r="D536" s="43"/>
@@ -21241,7 +21235,7 @@
       <c r="AJ536" s="46"/>
       <c r="AK536" s="46"/>
     </row>
-    <row r="537" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:37" ht="12.75">
       <c r="B537" s="47"/>
       <c r="C537" s="47"/>
       <c r="D537" s="43"/>
@@ -21278,7 +21272,7 @@
       <c r="AJ537" s="46"/>
       <c r="AK537" s="46"/>
     </row>
-    <row r="538" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:37" ht="12.75">
       <c r="B538" s="47"/>
       <c r="C538" s="47"/>
       <c r="D538" s="43"/>
@@ -21315,7 +21309,7 @@
       <c r="AJ538" s="46"/>
       <c r="AK538" s="46"/>
     </row>
-    <row r="539" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:37" ht="12.75">
       <c r="B539" s="47"/>
       <c r="C539" s="47"/>
       <c r="D539" s="43"/>
@@ -21352,7 +21346,7 @@
       <c r="AJ539" s="46"/>
       <c r="AK539" s="46"/>
     </row>
-    <row r="540" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:37" ht="12.75">
       <c r="B540" s="47"/>
       <c r="C540" s="47"/>
       <c r="D540" s="43"/>
@@ -21389,7 +21383,7 @@
       <c r="AJ540" s="46"/>
       <c r="AK540" s="46"/>
     </row>
-    <row r="541" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:37" ht="12.75">
       <c r="B541" s="47"/>
       <c r="C541" s="47"/>
       <c r="D541" s="43"/>
@@ -21426,7 +21420,7 @@
       <c r="AJ541" s="46"/>
       <c r="AK541" s="46"/>
     </row>
-    <row r="542" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:37" ht="12.75">
       <c r="B542" s="47"/>
       <c r="C542" s="47"/>
       <c r="D542" s="43"/>
@@ -21463,7 +21457,7 @@
       <c r="AJ542" s="46"/>
       <c r="AK542" s="46"/>
     </row>
-    <row r="543" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:37" ht="12.75">
       <c r="B543" s="47"/>
       <c r="C543" s="47"/>
       <c r="D543" s="43"/>
@@ -21500,7 +21494,7 @@
       <c r="AJ543" s="46"/>
       <c r="AK543" s="46"/>
     </row>
-    <row r="544" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:37" ht="12.75">
       <c r="B544" s="47"/>
       <c r="C544" s="47"/>
       <c r="D544" s="43"/>
@@ -21537,7 +21531,7 @@
       <c r="AJ544" s="46"/>
       <c r="AK544" s="46"/>
     </row>
-    <row r="545" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:37" ht="12.75">
       <c r="B545" s="47"/>
       <c r="C545" s="47"/>
       <c r="D545" s="43"/>
@@ -21574,7 +21568,7 @@
       <c r="AJ545" s="46"/>
       <c r="AK545" s="46"/>
     </row>
-    <row r="546" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:37" ht="12.75">
       <c r="B546" s="47"/>
       <c r="C546" s="47"/>
       <c r="D546" s="43"/>
@@ -21611,7 +21605,7 @@
       <c r="AJ546" s="46"/>
       <c r="AK546" s="46"/>
     </row>
-    <row r="547" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:37" ht="12.75">
       <c r="B547" s="47"/>
       <c r="C547" s="47"/>
       <c r="D547" s="43"/>
@@ -21648,7 +21642,7 @@
       <c r="AJ547" s="46"/>
       <c r="AK547" s="46"/>
     </row>
-    <row r="548" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:37" ht="12.75">
       <c r="B548" s="47"/>
       <c r="C548" s="47"/>
       <c r="D548" s="43"/>
@@ -21685,7 +21679,7 @@
       <c r="AJ548" s="46"/>
       <c r="AK548" s="46"/>
     </row>
-    <row r="549" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:37" ht="12.75">
       <c r="B549" s="47"/>
       <c r="C549" s="47"/>
       <c r="D549" s="43"/>
@@ -21722,7 +21716,7 @@
       <c r="AJ549" s="46"/>
       <c r="AK549" s="46"/>
     </row>
-    <row r="550" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:37" ht="12.75">
       <c r="B550" s="47"/>
       <c r="C550" s="47"/>
       <c r="D550" s="43"/>
@@ -21759,7 +21753,7 @@
       <c r="AJ550" s="46"/>
       <c r="AK550" s="46"/>
     </row>
-    <row r="551" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:37" ht="12.75">
       <c r="B551" s="47"/>
       <c r="C551" s="47"/>
       <c r="D551" s="43"/>
@@ -21796,7 +21790,7 @@
       <c r="AJ551" s="46"/>
       <c r="AK551" s="46"/>
     </row>
-    <row r="552" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:37" ht="12.75">
       <c r="B552" s="47"/>
       <c r="C552" s="47"/>
       <c r="D552" s="43"/>
@@ -21833,7 +21827,7 @@
       <c r="AJ552" s="46"/>
       <c r="AK552" s="46"/>
     </row>
-    <row r="553" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:37" ht="12.75">
       <c r="B553" s="47"/>
       <c r="C553" s="47"/>
       <c r="D553" s="43"/>
@@ -21870,7 +21864,7 @@
       <c r="AJ553" s="46"/>
       <c r="AK553" s="46"/>
     </row>
-    <row r="554" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:37" ht="12.75">
       <c r="B554" s="47"/>
       <c r="C554" s="47"/>
       <c r="D554" s="43"/>
@@ -21907,7 +21901,7 @@
       <c r="AJ554" s="46"/>
       <c r="AK554" s="46"/>
     </row>
-    <row r="555" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:37" ht="12.75">
       <c r="B555" s="47"/>
       <c r="C555" s="47"/>
       <c r="D555" s="43"/>
@@ -21944,7 +21938,7 @@
       <c r="AJ555" s="46"/>
       <c r="AK555" s="46"/>
     </row>
-    <row r="556" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:37" ht="12.75">
       <c r="B556" s="47"/>
       <c r="C556" s="47"/>
       <c r="D556" s="43"/>
@@ -21981,7 +21975,7 @@
       <c r="AJ556" s="46"/>
       <c r="AK556" s="46"/>
     </row>
-    <row r="557" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:37" ht="12.75">
       <c r="B557" s="47"/>
       <c r="C557" s="47"/>
       <c r="D557" s="43"/>
@@ -22018,7 +22012,7 @@
       <c r="AJ557" s="46"/>
       <c r="AK557" s="46"/>
     </row>
-    <row r="558" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:37" ht="12.75">
       <c r="B558" s="47"/>
       <c r="C558" s="47"/>
       <c r="D558" s="43"/>
@@ -22055,7 +22049,7 @@
       <c r="AJ558" s="46"/>
       <c r="AK558" s="46"/>
     </row>
-    <row r="559" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:37" ht="12.75">
       <c r="B559" s="47"/>
       <c r="C559" s="47"/>
       <c r="D559" s="43"/>
@@ -22092,7 +22086,7 @@
       <c r="AJ559" s="46"/>
       <c r="AK559" s="46"/>
     </row>
-    <row r="560" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:37" ht="12.75">
       <c r="B560" s="47"/>
       <c r="C560" s="47"/>
       <c r="D560" s="43"/>
@@ -22129,7 +22123,7 @@
       <c r="AJ560" s="46"/>
       <c r="AK560" s="46"/>
     </row>
-    <row r="561" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:37" ht="12.75">
       <c r="B561" s="47"/>
       <c r="C561" s="47"/>
       <c r="D561" s="43"/>
@@ -22166,7 +22160,7 @@
       <c r="AJ561" s="46"/>
       <c r="AK561" s="46"/>
     </row>
-    <row r="562" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:37" ht="12.75">
       <c r="B562" s="47"/>
       <c r="C562" s="47"/>
       <c r="D562" s="43"/>
@@ -22203,7 +22197,7 @@
       <c r="AJ562" s="46"/>
       <c r="AK562" s="46"/>
     </row>
-    <row r="563" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:37" ht="12.75">
       <c r="B563" s="47"/>
       <c r="C563" s="47"/>
       <c r="D563" s="43"/>
@@ -22240,7 +22234,7 @@
       <c r="AJ563" s="46"/>
       <c r="AK563" s="46"/>
     </row>
-    <row r="564" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:37" ht="12.75">
       <c r="B564" s="47"/>
       <c r="C564" s="47"/>
       <c r="D564" s="43"/>
@@ -22277,7 +22271,7 @@
       <c r="AJ564" s="46"/>
       <c r="AK564" s="46"/>
     </row>
-    <row r="565" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:37" ht="12.75">
       <c r="B565" s="47"/>
       <c r="C565" s="47"/>
       <c r="D565" s="43"/>
@@ -22314,7 +22308,7 @@
       <c r="AJ565" s="46"/>
       <c r="AK565" s="46"/>
     </row>
-    <row r="566" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:37" ht="12.75">
       <c r="B566" s="47"/>
       <c r="C566" s="47"/>
       <c r="D566" s="43"/>
@@ -22351,7 +22345,7 @@
       <c r="AJ566" s="46"/>
       <c r="AK566" s="46"/>
     </row>
-    <row r="567" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:37" ht="12.75">
       <c r="B567" s="47"/>
       <c r="C567" s="47"/>
       <c r="D567" s="43"/>
@@ -22388,7 +22382,7 @@
       <c r="AJ567" s="46"/>
       <c r="AK567" s="46"/>
     </row>
-    <row r="568" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:37" ht="12.75">
       <c r="B568" s="47"/>
       <c r="C568" s="47"/>
       <c r="D568" s="43"/>
@@ -22425,7 +22419,7 @@
       <c r="AJ568" s="46"/>
       <c r="AK568" s="46"/>
     </row>
-    <row r="569" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:37" ht="12.75">
       <c r="B569" s="47"/>
       <c r="C569" s="47"/>
       <c r="D569" s="43"/>
@@ -22462,7 +22456,7 @@
       <c r="AJ569" s="46"/>
       <c r="AK569" s="46"/>
     </row>
-    <row r="570" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:37" ht="12.75">
       <c r="B570" s="47"/>
       <c r="C570" s="47"/>
       <c r="D570" s="43"/>
@@ -22499,7 +22493,7 @@
       <c r="AJ570" s="46"/>
       <c r="AK570" s="46"/>
     </row>
-    <row r="571" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:37" ht="12.75">
       <c r="B571" s="47"/>
       <c r="C571" s="47"/>
       <c r="D571" s="43"/>
@@ -22536,7 +22530,7 @@
       <c r="AJ571" s="46"/>
       <c r="AK571" s="46"/>
     </row>
-    <row r="572" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:37" ht="12.75">
       <c r="B572" s="47"/>
       <c r="C572" s="47"/>
       <c r="D572" s="43"/>
@@ -22573,7 +22567,7 @@
       <c r="AJ572" s="46"/>
       <c r="AK572" s="46"/>
     </row>
-    <row r="573" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:37" ht="12.75">
       <c r="B573" s="47"/>
       <c r="C573" s="47"/>
       <c r="D573" s="43"/>
@@ -22610,7 +22604,7 @@
       <c r="AJ573" s="46"/>
       <c r="AK573" s="46"/>
     </row>
-    <row r="574" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:37" ht="12.75">
       <c r="B574" s="47"/>
       <c r="C574" s="47"/>
       <c r="D574" s="43"/>
@@ -22647,7 +22641,7 @@
       <c r="AJ574" s="46"/>
       <c r="AK574" s="46"/>
     </row>
-    <row r="575" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:37" ht="12.75">
       <c r="B575" s="47"/>
       <c r="C575" s="47"/>
       <c r="D575" s="43"/>
@@ -22684,7 +22678,7 @@
       <c r="AJ575" s="46"/>
       <c r="AK575" s="46"/>
     </row>
-    <row r="576" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:37" ht="12.75">
       <c r="B576" s="47"/>
       <c r="C576" s="47"/>
       <c r="D576" s="43"/>
@@ -22721,7 +22715,7 @@
       <c r="AJ576" s="46"/>
       <c r="AK576" s="46"/>
     </row>
-    <row r="577" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:37" ht="12.75">
       <c r="B577" s="47"/>
       <c r="C577" s="47"/>
       <c r="D577" s="43"/>
@@ -22758,7 +22752,7 @@
       <c r="AJ577" s="46"/>
       <c r="AK577" s="46"/>
     </row>
-    <row r="578" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:37" ht="12.75">
       <c r="B578" s="47"/>
       <c r="C578" s="47"/>
       <c r="D578" s="43"/>
@@ -22795,7 +22789,7 @@
       <c r="AJ578" s="46"/>
       <c r="AK578" s="46"/>
     </row>
-    <row r="579" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:37" ht="12.75">
       <c r="B579" s="47"/>
       <c r="C579" s="47"/>
       <c r="D579" s="43"/>
@@ -22832,7 +22826,7 @@
       <c r="AJ579" s="46"/>
       <c r="AK579" s="46"/>
     </row>
-    <row r="580" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:37" ht="12.75">
       <c r="B580" s="47"/>
       <c r="C580" s="47"/>
       <c r="D580" s="43"/>
@@ -22869,7 +22863,7 @@
       <c r="AJ580" s="46"/>
       <c r="AK580" s="46"/>
     </row>
-    <row r="581" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:37" ht="12.75">
       <c r="B581" s="47"/>
       <c r="C581" s="47"/>
       <c r="D581" s="43"/>
@@ -22906,7 +22900,7 @@
       <c r="AJ581" s="46"/>
       <c r="AK581" s="46"/>
     </row>
-    <row r="582" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:37" ht="12.75">
       <c r="B582" s="47"/>
       <c r="C582" s="47"/>
       <c r="D582" s="43"/>
@@ -22943,7 +22937,7 @@
       <c r="AJ582" s="46"/>
       <c r="AK582" s="46"/>
     </row>
-    <row r="583" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:37" ht="12.75">
       <c r="B583" s="47"/>
       <c r="C583" s="47"/>
       <c r="D583" s="43"/>
@@ -22980,7 +22974,7 @@
       <c r="AJ583" s="46"/>
       <c r="AK583" s="46"/>
     </row>
-    <row r="584" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:37" ht="12.75">
       <c r="B584" s="47"/>
       <c r="C584" s="47"/>
       <c r="D584" s="43"/>
@@ -23017,7 +23011,7 @@
       <c r="AJ584" s="46"/>
       <c r="AK584" s="46"/>
     </row>
-    <row r="585" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:37" ht="12.75">
       <c r="B585" s="47"/>
       <c r="C585" s="47"/>
       <c r="D585" s="43"/>
@@ -23054,7 +23048,7 @@
       <c r="AJ585" s="46"/>
       <c r="AK585" s="46"/>
     </row>
-    <row r="586" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:37" ht="12.75">
       <c r="B586" s="47"/>
       <c r="C586" s="47"/>
       <c r="D586" s="43"/>
@@ -23091,7 +23085,7 @@
       <c r="AJ586" s="46"/>
       <c r="AK586" s="46"/>
     </row>
-    <row r="587" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:37" ht="12.75">
       <c r="B587" s="47"/>
       <c r="C587" s="47"/>
       <c r="D587" s="43"/>
@@ -23128,7 +23122,7 @@
       <c r="AJ587" s="46"/>
       <c r="AK587" s="46"/>
     </row>
-    <row r="588" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:37" ht="12.75">
       <c r="B588" s="47"/>
       <c r="C588" s="47"/>
       <c r="D588" s="43"/>
@@ -23165,7 +23159,7 @@
       <c r="AJ588" s="46"/>
       <c r="AK588" s="46"/>
     </row>
-    <row r="589" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:37" ht="12.75">
       <c r="B589" s="47"/>
       <c r="C589" s="47"/>
       <c r="D589" s="43"/>
@@ -23202,7 +23196,7 @@
       <c r="AJ589" s="46"/>
       <c r="AK589" s="46"/>
     </row>
-    <row r="590" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:37" ht="12.75">
       <c r="B590" s="47"/>
       <c r="C590" s="47"/>
       <c r="D590" s="43"/>
@@ -23239,7 +23233,7 @@
       <c r="AJ590" s="46"/>
       <c r="AK590" s="46"/>
     </row>
-    <row r="591" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:37" ht="12.75">
       <c r="B591" s="47"/>
       <c r="C591" s="47"/>
       <c r="D591" s="43"/>
@@ -23276,7 +23270,7 @@
       <c r="AJ591" s="46"/>
       <c r="AK591" s="46"/>
     </row>
-    <row r="592" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:37" ht="12.75">
       <c r="B592" s="47"/>
       <c r="C592" s="47"/>
       <c r="D592" s="43"/>
@@ -23313,7 +23307,7 @@
       <c r="AJ592" s="46"/>
       <c r="AK592" s="46"/>
     </row>
-    <row r="593" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:37" ht="12.75">
       <c r="B593" s="47"/>
       <c r="C593" s="47"/>
       <c r="D593" s="43"/>
@@ -23350,7 +23344,7 @@
       <c r="AJ593" s="46"/>
       <c r="AK593" s="46"/>
     </row>
-    <row r="594" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:37" ht="12.75">
       <c r="B594" s="47"/>
       <c r="C594" s="47"/>
       <c r="D594" s="43"/>
@@ -23387,7 +23381,7 @@
       <c r="AJ594" s="46"/>
       <c r="AK594" s="46"/>
     </row>
-    <row r="595" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:37" ht="12.75">
       <c r="B595" s="47"/>
       <c r="C595" s="47"/>
       <c r="D595" s="43"/>
@@ -23424,7 +23418,7 @@
       <c r="AJ595" s="46"/>
       <c r="AK595" s="46"/>
     </row>
-    <row r="596" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:37" ht="12.75">
       <c r="B596" s="47"/>
       <c r="C596" s="47"/>
       <c r="D596" s="43"/>
@@ -23461,7 +23455,7 @@
       <c r="AJ596" s="46"/>
       <c r="AK596" s="46"/>
     </row>
-    <row r="597" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:37" ht="12.75">
       <c r="B597" s="47"/>
       <c r="C597" s="47"/>
       <c r="D597" s="43"/>
@@ -23498,7 +23492,7 @@
       <c r="AJ597" s="46"/>
       <c r="AK597" s="46"/>
     </row>
-    <row r="598" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:37" ht="12.75">
       <c r="B598" s="47"/>
       <c r="C598" s="47"/>
       <c r="D598" s="43"/>
@@ -23535,7 +23529,7 @@
       <c r="AJ598" s="46"/>
       <c r="AK598" s="46"/>
     </row>
-    <row r="599" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:37" ht="12.75">
       <c r="B599" s="47"/>
       <c r="C599" s="47"/>
       <c r="D599" s="43"/>
@@ -23572,7 +23566,7 @@
       <c r="AJ599" s="46"/>
       <c r="AK599" s="46"/>
     </row>
-    <row r="600" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:37" ht="12.75">
       <c r="B600" s="47"/>
       <c r="C600" s="47"/>
       <c r="D600" s="43"/>
@@ -23609,7 +23603,7 @@
       <c r="AJ600" s="46"/>
       <c r="AK600" s="46"/>
     </row>
-    <row r="601" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:37" ht="12.75">
       <c r="B601" s="47"/>
       <c r="C601" s="47"/>
       <c r="D601" s="43"/>
@@ -23646,7 +23640,7 @@
       <c r="AJ601" s="46"/>
       <c r="AK601" s="46"/>
     </row>
-    <row r="602" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:37" ht="12.75">
       <c r="B602" s="47"/>
       <c r="C602" s="47"/>
       <c r="D602" s="43"/>
@@ -23683,7 +23677,7 @@
       <c r="AJ602" s="46"/>
       <c r="AK602" s="46"/>
     </row>
-    <row r="603" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:37" ht="12.75">
       <c r="B603" s="47"/>
       <c r="C603" s="47"/>
       <c r="D603" s="43"/>
@@ -23720,7 +23714,7 @@
       <c r="AJ603" s="46"/>
       <c r="AK603" s="46"/>
     </row>
-    <row r="604" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:37" ht="12.75">
       <c r="B604" s="47"/>
       <c r="C604" s="47"/>
       <c r="D604" s="43"/>
@@ -23757,7 +23751,7 @@
       <c r="AJ604" s="46"/>
       <c r="AK604" s="46"/>
     </row>
-    <row r="605" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:37" ht="12.75">
       <c r="B605" s="47"/>
       <c r="C605" s="47"/>
       <c r="D605" s="43"/>
@@ -23794,7 +23788,7 @@
       <c r="AJ605" s="46"/>
       <c r="AK605" s="46"/>
     </row>
-    <row r="606" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:37" ht="12.75">
       <c r="B606" s="47"/>
       <c r="C606" s="47"/>
       <c r="D606" s="43"/>
@@ -23831,7 +23825,7 @@
       <c r="AJ606" s="46"/>
       <c r="AK606" s="46"/>
     </row>
-    <row r="607" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:37" ht="12.75">
       <c r="B607" s="47"/>
       <c r="C607" s="47"/>
       <c r="D607" s="43"/>
@@ -23868,7 +23862,7 @@
       <c r="AJ607" s="46"/>
       <c r="AK607" s="46"/>
     </row>
-    <row r="608" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:37" ht="12.75">
       <c r="B608" s="47"/>
       <c r="C608" s="47"/>
       <c r="D608" s="43"/>
@@ -23905,7 +23899,7 @@
       <c r="AJ608" s="46"/>
       <c r="AK608" s="46"/>
     </row>
-    <row r="609" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:37" ht="12.75">
       <c r="B609" s="47"/>
       <c r="C609" s="47"/>
       <c r="D609" s="43"/>
@@ -23942,7 +23936,7 @@
       <c r="AJ609" s="46"/>
       <c r="AK609" s="46"/>
     </row>
-    <row r="610" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:37" ht="12.75">
       <c r="B610" s="47"/>
       <c r="C610" s="47"/>
       <c r="D610" s="43"/>
@@ -23979,7 +23973,7 @@
       <c r="AJ610" s="46"/>
       <c r="AK610" s="46"/>
     </row>
-    <row r="611" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:37" ht="12.75">
       <c r="B611" s="47"/>
       <c r="C611" s="47"/>
       <c r="D611" s="43"/>
@@ -24016,7 +24010,7 @@
       <c r="AJ611" s="46"/>
       <c r="AK611" s="46"/>
     </row>
-    <row r="612" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:37" ht="12.75">
       <c r="B612" s="47"/>
       <c r="C612" s="47"/>
       <c r="D612" s="43"/>
@@ -24053,7 +24047,7 @@
       <c r="AJ612" s="46"/>
       <c r="AK612" s="46"/>
     </row>
-    <row r="613" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:37" ht="12.75">
       <c r="B613" s="47"/>
       <c r="C613" s="47"/>
       <c r="D613" s="43"/>
@@ -24090,7 +24084,7 @@
       <c r="AJ613" s="46"/>
       <c r="AK613" s="46"/>
     </row>
-    <row r="614" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:37" ht="12.75">
       <c r="B614" s="47"/>
       <c r="C614" s="47"/>
       <c r="D614" s="43"/>
@@ -24127,7 +24121,7 @@
       <c r="AJ614" s="46"/>
       <c r="AK614" s="46"/>
     </row>
-    <row r="615" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:37" ht="12.75">
       <c r="B615" s="47"/>
       <c r="C615" s="47"/>
       <c r="D615" s="43"/>
@@ -24164,7 +24158,7 @@
       <c r="AJ615" s="46"/>
       <c r="AK615" s="46"/>
     </row>
-    <row r="616" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:37" ht="12.75">
       <c r="B616" s="47"/>
       <c r="C616" s="47"/>
       <c r="D616" s="43"/>
@@ -24201,7 +24195,7 @@
       <c r="AJ616" s="46"/>
       <c r="AK616" s="46"/>
     </row>
-    <row r="617" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:37" ht="12.75">
       <c r="B617" s="47"/>
       <c r="C617" s="47"/>
       <c r="D617" s="43"/>
@@ -24238,7 +24232,7 @@
       <c r="AJ617" s="46"/>
       <c r="AK617" s="46"/>
     </row>
-    <row r="618" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:37" ht="12.75">
       <c r="B618" s="47"/>
       <c r="C618" s="47"/>
       <c r="D618" s="43"/>
@@ -24275,7 +24269,7 @@
       <c r="AJ618" s="46"/>
       <c r="AK618" s="46"/>
     </row>
-    <row r="619" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:37" ht="12.75">
       <c r="B619" s="47"/>
       <c r="C619" s="47"/>
       <c r="D619" s="43"/>
@@ -24312,7 +24306,7 @@
       <c r="AJ619" s="46"/>
       <c r="AK619" s="46"/>
     </row>
-    <row r="620" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:37" ht="12.75">
       <c r="B620" s="47"/>
       <c r="C620" s="47"/>
       <c r="D620" s="43"/>
@@ -24349,7 +24343,7 @@
       <c r="AJ620" s="46"/>
       <c r="AK620" s="46"/>
     </row>
-    <row r="621" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:37" ht="12.75">
       <c r="B621" s="47"/>
       <c r="C621" s="47"/>
       <c r="D621" s="43"/>
@@ -24386,7 +24380,7 @@
       <c r="AJ621" s="46"/>
       <c r="AK621" s="46"/>
     </row>
-    <row r="622" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:37" ht="12.75">
       <c r="B622" s="47"/>
       <c r="C622" s="47"/>
       <c r="D622" s="43"/>
@@ -24423,7 +24417,7 @@
       <c r="AJ622" s="46"/>
       <c r="AK622" s="46"/>
     </row>
-    <row r="623" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:37" ht="12.75">
       <c r="B623" s="47"/>
       <c r="C623" s="47"/>
       <c r="D623" s="43"/>
@@ -24460,7 +24454,7 @@
       <c r="AJ623" s="46"/>
       <c r="AK623" s="46"/>
     </row>
-    <row r="624" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:37" ht="12.75">
       <c r="B624" s="47"/>
       <c r="C624" s="47"/>
       <c r="D624" s="43"/>
@@ -24497,7 +24491,7 @@
       <c r="AJ624" s="46"/>
       <c r="AK624" s="46"/>
     </row>
-    <row r="625" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:37" ht="12.75">
       <c r="B625" s="47"/>
       <c r="C625" s="47"/>
       <c r="D625" s="43"/>
@@ -24534,7 +24528,7 @@
       <c r="AJ625" s="46"/>
       <c r="AK625" s="46"/>
     </row>
-    <row r="626" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:37" ht="12.75">
       <c r="B626" s="47"/>
       <c r="C626" s="47"/>
       <c r="D626" s="43"/>
@@ -24571,7 +24565,7 @@
       <c r="AJ626" s="46"/>
       <c r="AK626" s="46"/>
     </row>
-    <row r="627" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:37" ht="12.75">
       <c r="B627" s="47"/>
       <c r="C627" s="47"/>
       <c r="D627" s="43"/>
@@ -24608,7 +24602,7 @@
       <c r="AJ627" s="46"/>
       <c r="AK627" s="46"/>
     </row>
-    <row r="628" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:37" ht="12.75">
       <c r="B628" s="47"/>
       <c r="C628" s="47"/>
       <c r="D628" s="43"/>
@@ -24645,7 +24639,7 @@
       <c r="AJ628" s="46"/>
       <c r="AK628" s="46"/>
     </row>
-    <row r="629" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:37" ht="12.75">
       <c r="B629" s="47"/>
       <c r="C629" s="47"/>
       <c r="D629" s="43"/>
@@ -24682,7 +24676,7 @@
       <c r="AJ629" s="46"/>
       <c r="AK629" s="46"/>
     </row>
-    <row r="630" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:37" ht="12.75">
       <c r="B630" s="47"/>
       <c r="C630" s="47"/>
       <c r="D630" s="43"/>
@@ -24719,7 +24713,7 @@
       <c r="AJ630" s="46"/>
       <c r="AK630" s="46"/>
     </row>
-    <row r="631" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:37" ht="12.75">
       <c r="B631" s="47"/>
       <c r="C631" s="47"/>
       <c r="D631" s="43"/>
@@ -24756,7 +24750,7 @@
       <c r="AJ631" s="46"/>
       <c r="AK631" s="46"/>
     </row>
-    <row r="632" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:37" ht="12.75">
       <c r="B632" s="47"/>
       <c r="C632" s="47"/>
       <c r="D632" s="43"/>
@@ -24793,7 +24787,7 @@
       <c r="AJ632" s="46"/>
       <c r="AK632" s="46"/>
     </row>
-    <row r="633" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:37" ht="12.75">
       <c r="B633" s="47"/>
       <c r="C633" s="47"/>
       <c r="D633" s="43"/>
@@ -24830,7 +24824,7 @@
       <c r="AJ633" s="46"/>
       <c r="AK633" s="46"/>
     </row>
-    <row r="634" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:37" ht="12.75">
       <c r="B634" s="47"/>
       <c r="C634" s="47"/>
       <c r="D634" s="43"/>
@@ -24867,7 +24861,7 @@
       <c r="AJ634" s="46"/>
       <c r="AK634" s="46"/>
     </row>
-    <row r="635" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:37" ht="12.75">
       <c r="B635" s="47"/>
       <c r="C635" s="47"/>
       <c r="D635" s="43"/>
@@ -24904,7 +24898,7 @@
       <c r="AJ635" s="46"/>
       <c r="AK635" s="46"/>
     </row>
-    <row r="636" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:37" ht="12.75">
       <c r="B636" s="47"/>
       <c r="C636" s="47"/>
       <c r="D636" s="43"/>
@@ -24941,7 +24935,7 @@
       <c r="AJ636" s="46"/>
       <c r="AK636" s="46"/>
     </row>
-    <row r="637" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:37" ht="12.75">
       <c r="B637" s="47"/>
       <c r="C637" s="47"/>
       <c r="D637" s="43"/>
@@ -24978,7 +24972,7 @@
       <c r="AJ637" s="46"/>
       <c r="AK637" s="46"/>
     </row>
-    <row r="638" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:37" ht="12.75">
       <c r="B638" s="47"/>
       <c r="C638" s="47"/>
       <c r="D638" s="43"/>
@@ -25015,7 +25009,7 @@
       <c r="AJ638" s="46"/>
       <c r="AK638" s="46"/>
     </row>
-    <row r="639" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:37" ht="12.75">
       <c r="B639" s="47"/>
       <c r="C639" s="47"/>
       <c r="D639" s="43"/>
@@ -25052,7 +25046,7 @@
       <c r="AJ639" s="46"/>
       <c r="AK639" s="46"/>
     </row>
-    <row r="640" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:37" ht="12.75">
       <c r="B640" s="47"/>
       <c r="C640" s="47"/>
       <c r="D640" s="43"/>
@@ -25089,7 +25083,7 @@
       <c r="AJ640" s="46"/>
       <c r="AK640" s="46"/>
     </row>
-    <row r="641" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:37" ht="12.75">
       <c r="B641" s="47"/>
       <c r="C641" s="47"/>
       <c r="D641" s="43"/>
@@ -25126,7 +25120,7 @@
       <c r="AJ641" s="46"/>
       <c r="AK641" s="46"/>
     </row>
-    <row r="642" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:37" ht="12.75">
       <c r="B642" s="47"/>
       <c r="C642" s="47"/>
       <c r="D642" s="43"/>
@@ -25163,7 +25157,7 @@
       <c r="AJ642" s="46"/>
       <c r="AK642" s="46"/>
     </row>
-    <row r="643" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:37" ht="12.75">
       <c r="B643" s="47"/>
       <c r="C643" s="47"/>
       <c r="D643" s="43"/>
@@ -25200,7 +25194,7 @@
       <c r="AJ643" s="46"/>
       <c r="AK643" s="46"/>
     </row>
-    <row r="644" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:37" ht="12.75">
       <c r="B644" s="47"/>
       <c r="C644" s="47"/>
       <c r="D644" s="43"/>
@@ -25237,7 +25231,7 @@
       <c r="AJ644" s="46"/>
       <c r="AK644" s="46"/>
     </row>
-    <row r="645" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:37" ht="12.75">
       <c r="B645" s="47"/>
       <c r="C645" s="47"/>
       <c r="D645" s="43"/>
@@ -25274,7 +25268,7 @@
       <c r="AJ645" s="46"/>
       <c r="AK645" s="46"/>
     </row>
-    <row r="646" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:37" ht="12.75">
       <c r="B646" s="47"/>
       <c r="C646" s="47"/>
       <c r="D646" s="43"/>
@@ -25311,7 +25305,7 @@
       <c r="AJ646" s="46"/>
       <c r="AK646" s="46"/>
     </row>
-    <row r="647" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:37" ht="12.75">
       <c r="B647" s="47"/>
       <c r="C647" s="47"/>
       <c r="D647" s="43"/>
@@ -25348,7 +25342,7 @@
       <c r="AJ647" s="46"/>
       <c r="AK647" s="46"/>
     </row>
-    <row r="648" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:37" ht="12.75">
       <c r="B648" s="47"/>
       <c r="C648" s="47"/>
       <c r="D648" s="43"/>
@@ -25385,7 +25379,7 @@
       <c r="AJ648" s="46"/>
       <c r="AK648" s="46"/>
     </row>
-    <row r="649" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:37" ht="12.75">
       <c r="B649" s="47"/>
       <c r="C649" s="47"/>
       <c r="D649" s="43"/>
@@ -25422,7 +25416,7 @@
       <c r="AJ649" s="46"/>
       <c r="AK649" s="46"/>
     </row>
-    <row r="650" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:37" ht="12.75">
       <c r="B650" s="47"/>
       <c r="C650" s="47"/>
       <c r="D650" s="43"/>
@@ -25459,7 +25453,7 @@
       <c r="AJ650" s="46"/>
       <c r="AK650" s="46"/>
     </row>
-    <row r="651" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:37" ht="12.75">
       <c r="B651" s="47"/>
       <c r="C651" s="47"/>
       <c r="D651" s="43"/>
@@ -25496,7 +25490,7 @@
       <c r="AJ651" s="46"/>
       <c r="AK651" s="46"/>
     </row>
-    <row r="652" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:37" ht="12.75">
       <c r="B652" s="47"/>
       <c r="C652" s="47"/>
       <c r="D652" s="43"/>
@@ -25533,7 +25527,7 @@
       <c r="AJ652" s="46"/>
       <c r="AK652" s="46"/>
     </row>
-    <row r="653" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:37" ht="12.75">
       <c r="B653" s="47"/>
       <c r="C653" s="47"/>
       <c r="D653" s="43"/>
@@ -25570,7 +25564,7 @@
       <c r="AJ653" s="46"/>
       <c r="AK653" s="46"/>
     </row>
-    <row r="654" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:37" ht="12.75">
       <c r="B654" s="47"/>
       <c r="C654" s="47"/>
       <c r="D654" s="43"/>
@@ -25607,7 +25601,7 @@
       <c r="AJ654" s="46"/>
       <c r="AK654" s="46"/>
     </row>
-    <row r="655" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:37" ht="12.75">
       <c r="B655" s="47"/>
       <c r="C655" s="47"/>
       <c r="D655" s="43"/>
@@ -25644,7 +25638,7 @@
       <c r="AJ655" s="46"/>
       <c r="AK655" s="46"/>
     </row>
-    <row r="656" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:37" ht="12.75">
       <c r="B656" s="47"/>
       <c r="C656" s="47"/>
       <c r="D656" s="43"/>
@@ -25681,7 +25675,7 @@
       <c r="AJ656" s="46"/>
       <c r="AK656" s="46"/>
     </row>
-    <row r="657" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:37" ht="12.75">
       <c r="B657" s="47"/>
       <c r="C657" s="47"/>
       <c r="D657" s="43"/>
@@ -25718,7 +25712,7 @@
       <c r="AJ657" s="46"/>
       <c r="AK657" s="46"/>
     </row>
-    <row r="658" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:37" ht="12.75">
       <c r="B658" s="47"/>
       <c r="C658" s="47"/>
       <c r="D658" s="43"/>
@@ -25755,7 +25749,7 @@
       <c r="AJ658" s="46"/>
       <c r="AK658" s="46"/>
     </row>
-    <row r="659" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:37" ht="12.75">
       <c r="B659" s="47"/>
       <c r="C659" s="47"/>
       <c r="D659" s="43"/>
@@ -25792,7 +25786,7 @@
       <c r="AJ659" s="46"/>
       <c r="AK659" s="46"/>
     </row>
-    <row r="660" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:37" ht="12.75">
       <c r="B660" s="47"/>
       <c r="C660" s="47"/>
       <c r="D660" s="43"/>
@@ -25829,7 +25823,7 @@
       <c r="AJ660" s="46"/>
       <c r="AK660" s="46"/>
     </row>
-    <row r="661" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:37" ht="12.75">
       <c r="B661" s="47"/>
       <c r="C661" s="47"/>
       <c r="D661" s="43"/>
@@ -25866,7 +25860,7 @@
       <c r="AJ661" s="46"/>
       <c r="AK661" s="46"/>
     </row>
-    <row r="662" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:37" ht="12.75">
       <c r="B662" s="47"/>
       <c r="C662" s="47"/>
       <c r="D662" s="43"/>
@@ -25903,7 +25897,7 @@
       <c r="AJ662" s="46"/>
       <c r="AK662" s="46"/>
     </row>
-    <row r="663" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:37" ht="12.75">
       <c r="B663" s="47"/>
       <c r="C663" s="47"/>
       <c r="D663" s="43"/>
@@ -25940,7 +25934,7 @@
       <c r="AJ663" s="46"/>
       <c r="AK663" s="46"/>
     </row>
-    <row r="664" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:37" ht="12.75">
       <c r="B664" s="47"/>
       <c r="C664" s="47"/>
       <c r="D664" s="43"/>
@@ -25977,7 +25971,7 @@
       <c r="AJ664" s="46"/>
       <c r="AK664" s="46"/>
     </row>
-    <row r="665" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:37" ht="12.75">
       <c r="B665" s="47"/>
       <c r="C665" s="47"/>
       <c r="D665" s="43"/>
@@ -26014,7 +26008,7 @@
       <c r="AJ665" s="46"/>
       <c r="AK665" s="46"/>
     </row>
-    <row r="666" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:37" ht="12.75">
       <c r="B666" s="47"/>
       <c r="C666" s="47"/>
       <c r="D666" s="43"/>
@@ -26051,7 +26045,7 @@
       <c r="AJ666" s="46"/>
       <c r="AK666" s="46"/>
     </row>
-    <row r="667" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:37" ht="12.75">
       <c r="B667" s="47"/>
       <c r="C667" s="47"/>
       <c r="D667" s="43"/>
@@ -26088,7 +26082,7 @@
       <c r="AJ667" s="46"/>
       <c r="AK667" s="46"/>
     </row>
-    <row r="668" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:37" ht="12.75">
       <c r="B668" s="47"/>
       <c r="C668" s="47"/>
       <c r="D668" s="43"/>
@@ -26125,7 +26119,7 @@
       <c r="AJ668" s="46"/>
       <c r="AK668" s="46"/>
     </row>
-    <row r="669" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:37" ht="12.75">
       <c r="B669" s="47"/>
       <c r="C669" s="47"/>
       <c r="D669" s="43"/>
@@ -26162,7 +26156,7 @@
       <c r="AJ669" s="46"/>
       <c r="AK669" s="46"/>
     </row>
-    <row r="670" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:37" ht="12.75">
       <c r="B670" s="47"/>
       <c r="C670" s="47"/>
       <c r="D670" s="43"/>
@@ -26199,7 +26193,7 @@
       <c r="AJ670" s="46"/>
       <c r="AK670" s="46"/>
     </row>
-    <row r="671" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:37" ht="12.75">
       <c r="B671" s="47"/>
       <c r="C671" s="47"/>
       <c r="D671" s="43"/>
@@ -26236,7 +26230,7 @@
       <c r="AJ671" s="46"/>
       <c r="AK671" s="46"/>
     </row>
-    <row r="672" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:37" ht="12.75">
       <c r="B672" s="47"/>
       <c r="C672" s="47"/>
       <c r="D672" s="43"/>
@@ -26273,7 +26267,7 @@
       <c r="AJ672" s="46"/>
       <c r="AK672" s="46"/>
     </row>
-    <row r="673" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:37" ht="12.75">
       <c r="B673" s="47"/>
       <c r="C673" s="47"/>
       <c r="D673" s="43"/>
@@ -26310,7 +26304,7 @@
       <c r="AJ673" s="46"/>
       <c r="AK673" s="46"/>
     </row>
-    <row r="674" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:37" ht="12.75">
       <c r="B674" s="47"/>
       <c r="C674" s="47"/>
       <c r="D674" s="43"/>
@@ -26347,7 +26341,7 @@
       <c r="AJ674" s="46"/>
       <c r="AK674" s="46"/>
     </row>
-    <row r="675" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:37" ht="12.75">
       <c r="B675" s="47"/>
       <c r="C675" s="47"/>
       <c r="D675" s="43"/>
@@ -26384,7 +26378,7 @@
       <c r="AJ675" s="46"/>
       <c r="AK675" s="46"/>
     </row>
-    <row r="676" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:37" ht="12.75">
       <c r="B676" s="47"/>
       <c r="C676" s="47"/>
       <c r="D676" s="43"/>
@@ -26421,7 +26415,7 @@
       <c r="AJ676" s="46"/>
       <c r="AK676" s="46"/>
     </row>
-    <row r="677" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:37" ht="12.75">
       <c r="B677" s="47"/>
       <c r="C677" s="47"/>
       <c r="D677" s="43"/>
@@ -26458,7 +26452,7 @@
       <c r="AJ677" s="46"/>
       <c r="AK677" s="46"/>
     </row>
-    <row r="678" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:37" ht="12.75">
       <c r="B678" s="47"/>
       <c r="C678" s="47"/>
       <c r="D678" s="43"/>
@@ -26495,7 +26489,7 @@
       <c r="AJ678" s="46"/>
       <c r="AK678" s="46"/>
     </row>
-    <row r="679" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:37" ht="12.75">
       <c r="B679" s="47"/>
       <c r="C679" s="47"/>
       <c r="D679" s="43"/>
@@ -26532,7 +26526,7 @@
       <c r="AJ679" s="46"/>
       <c r="AK679" s="46"/>
     </row>
-    <row r="680" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:37" ht="12.75">
       <c r="B680" s="47"/>
       <c r="C680" s="47"/>
       <c r="D680" s="43"/>
@@ -26569,7 +26563,7 @@
       <c r="AJ680" s="46"/>
       <c r="AK680" s="46"/>
     </row>
-    <row r="681" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:37" ht="12.75">
       <c r="B681" s="47"/>
       <c r="C681" s="47"/>
       <c r="D681" s="43"/>
@@ -26606,7 +26600,7 @@
       <c r="AJ681" s="46"/>
       <c r="AK681" s="46"/>
     </row>
-    <row r="682" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:37" ht="12.75">
       <c r="B682" s="47"/>
       <c r="C682" s="47"/>
       <c r="D682" s="43"/>
@@ -26643,7 +26637,7 @@
       <c r="AJ682" s="46"/>
       <c r="AK682" s="46"/>
     </row>
-    <row r="683" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:37" ht="12.75">
       <c r="B683" s="47"/>
       <c r="C683" s="47"/>
       <c r="D683" s="43"/>
@@ -26680,7 +26674,7 @@
       <c r="AJ683" s="46"/>
       <c r="AK683" s="46"/>
     </row>
-    <row r="684" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:37" ht="12.75">
       <c r="B684" s="47"/>
       <c r="C684" s="47"/>
       <c r="D684" s="43"/>
@@ -26717,7 +26711,7 @@
       <c r="AJ684" s="46"/>
       <c r="AK684" s="46"/>
     </row>
-    <row r="685" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:37" ht="12.75">
       <c r="B685" s="47"/>
       <c r="C685" s="47"/>
       <c r="D685" s="43"/>
@@ -26754,7 +26748,7 @@
       <c r="AJ685" s="46"/>
       <c r="AK685" s="46"/>
     </row>
-    <row r="686" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:37" ht="12.75">
       <c r="B686" s="47"/>
       <c r="C686" s="47"/>
       <c r="D686" s="43"/>
@@ -26791,7 +26785,7 @@
       <c r="AJ686" s="46"/>
       <c r="AK686" s="46"/>
     </row>
-    <row r="687" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:37" ht="12.75">
       <c r="B687" s="47"/>
       <c r="C687" s="47"/>
       <c r="D687" s="43"/>
@@ -26828,7 +26822,7 @@
       <c r="AJ687" s="46"/>
       <c r="AK687" s="46"/>
     </row>
-    <row r="688" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:37" ht="12.75">
       <c r="B688" s="47"/>
       <c r="C688" s="47"/>
       <c r="D688" s="43"/>
@@ -26865,7 +26859,7 @@
       <c r="AJ688" s="46"/>
       <c r="AK688" s="46"/>
     </row>
-    <row r="689" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:37" ht="12.75">
       <c r="B689" s="47"/>
       <c r="C689" s="47"/>
       <c r="D689" s="43"/>
@@ -26902,7 +26896,7 @@
       <c r="AJ689" s="46"/>
       <c r="AK689" s="46"/>
     </row>
-    <row r="690" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:37" ht="12.75">
       <c r="B690" s="47"/>
       <c r="C690" s="47"/>
       <c r="D690" s="43"/>
@@ -26939,7 +26933,7 @@
       <c r="AJ690" s="46"/>
       <c r="AK690" s="46"/>
     </row>
-    <row r="691" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:37" ht="12.75">
       <c r="B691" s="47"/>
       <c r="C691" s="47"/>
       <c r="D691" s="43"/>
@@ -26976,7 +26970,7 @@
       <c r="AJ691" s="46"/>
       <c r="AK691" s="46"/>
     </row>
-    <row r="692" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:37" ht="12.75">
       <c r="B692" s="47"/>
       <c r="C692" s="47"/>
       <c r="D692" s="43"/>
@@ -27013,7 +27007,7 @@
       <c r="AJ692" s="46"/>
       <c r="AK692" s="46"/>
     </row>
-    <row r="693" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:37" ht="12.75">
       <c r="B693" s="47"/>
       <c r="C693" s="47"/>
       <c r="D693" s="43"/>
@@ -27050,7 +27044,7 @@
       <c r="AJ693" s="46"/>
       <c r="AK693" s="46"/>
     </row>
-    <row r="694" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:37" ht="12.75">
       <c r="B694" s="47"/>
       <c r="C694" s="47"/>
       <c r="D694" s="43"/>
@@ -27087,7 +27081,7 @@
       <c r="AJ694" s="46"/>
       <c r="AK694" s="46"/>
     </row>
-    <row r="695" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:37" ht="12.75">
       <c r="B695" s="47"/>
       <c r="C695" s="47"/>
       <c r="D695" s="43"/>
@@ -27124,7 +27118,7 @@
       <c r="AJ695" s="46"/>
       <c r="AK695" s="46"/>
     </row>
-    <row r="696" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:37" ht="12.75">
       <c r="B696" s="47"/>
       <c r="C696" s="47"/>
       <c r="D696" s="43"/>
@@ -27161,7 +27155,7 @@
       <c r="AJ696" s="46"/>
       <c r="AK696" s="46"/>
     </row>
-    <row r="697" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:37" ht="12.75">
       <c r="B697" s="47"/>
       <c r="C697" s="47"/>
       <c r="D697" s="43"/>
@@ -27198,7 +27192,7 @@
       <c r="AJ697" s="46"/>
       <c r="AK697" s="46"/>
     </row>
-    <row r="698" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:37" ht="12.75">
       <c r="B698" s="47"/>
       <c r="C698" s="47"/>
       <c r="D698" s="43"/>
@@ -27235,7 +27229,7 @@
       <c r="AJ698" s="46"/>
       <c r="AK698" s="46"/>
     </row>
-    <row r="699" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:37" ht="12.75">
       <c r="B699" s="47"/>
       <c r="C699" s="47"/>
       <c r="D699" s="43"/>
@@ -27272,7 +27266,7 @@
       <c r="AJ699" s="46"/>
       <c r="AK699" s="46"/>
     </row>
-    <row r="700" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:37" ht="12.75">
       <c r="B700" s="47"/>
       <c r="C700" s="47"/>
       <c r="D700" s="43"/>
@@ -27309,7 +27303,7 @@
       <c r="AJ700" s="46"/>
       <c r="AK700" s="46"/>
     </row>
-    <row r="701" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:37" ht="12.75">
       <c r="B701" s="47"/>
       <c r="C701" s="47"/>
       <c r="D701" s="43"/>
@@ -27346,7 +27340,7 @@
       <c r="AJ701" s="46"/>
       <c r="AK701" s="46"/>
     </row>
-    <row r="702" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:37" ht="12.75">
       <c r="B702" s="47"/>
       <c r="C702" s="47"/>
       <c r="D702" s="43"/>
@@ -27383,7 +27377,7 @@
       <c r="AJ702" s="46"/>
       <c r="AK702" s="46"/>
     </row>
-    <row r="703" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:37" ht="12.75">
       <c r="B703" s="47"/>
       <c r="C703" s="47"/>
       <c r="D703" s="43"/>
@@ -27420,7 +27414,7 @@
       <c r="AJ703" s="46"/>
       <c r="AK703" s="46"/>
     </row>
-    <row r="704" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:37" ht="12.75">
       <c r="B704" s="47"/>
       <c r="C704" s="47"/>
       <c r="D704" s="43"/>
@@ -27457,7 +27451,7 @@
       <c r="AJ704" s="46"/>
       <c r="AK704" s="46"/>
     </row>
-    <row r="705" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:37" ht="12.75">
       <c r="B705" s="47"/>
       <c r="C705" s="47"/>
       <c r="D705" s="43"/>
@@ -27494,7 +27488,7 @@
       <c r="AJ705" s="46"/>
       <c r="AK705" s="46"/>
     </row>
-    <row r="706" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:37" ht="12.75">
       <c r="B706" s="47"/>
       <c r="C706" s="47"/>
       <c r="D706" s="43"/>
@@ -27531,7 +27525,7 @@
       <c r="AJ706" s="46"/>
       <c r="AK706" s="46"/>
     </row>
-    <row r="707" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:37" ht="12.75">
       <c r="B707" s="47"/>
       <c r="C707" s="47"/>
       <c r="D707" s="43"/>
@@ -27568,7 +27562,7 @@
       <c r="AJ707" s="46"/>
       <c r="AK707" s="46"/>
     </row>
-    <row r="708" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:37" ht="12.75">
       <c r="B708" s="47"/>
       <c r="C708" s="47"/>
       <c r="D708" s="43"/>
@@ -27605,7 +27599,7 @@
       <c r="AJ708" s="46"/>
       <c r="AK708" s="46"/>
     </row>
-    <row r="709" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:37" ht="12.75">
       <c r="B709" s="47"/>
       <c r="C709" s="47"/>
       <c r="D709" s="43"/>
@@ -27642,7 +27636,7 @@
       <c r="AJ709" s="46"/>
       <c r="AK709" s="46"/>
     </row>
-    <row r="710" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:37" ht="12.75">
       <c r="B710" s="47"/>
       <c r="C710" s="47"/>
       <c r="D710" s="43"/>
@@ -27679,7 +27673,7 @@
       <c r="AJ710" s="46"/>
       <c r="AK710" s="46"/>
     </row>
-    <row r="711" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:37" ht="12.75">
       <c r="B711" s="47"/>
       <c r="C711" s="47"/>
       <c r="D711" s="43"/>
@@ -27716,7 +27710,7 @@
       <c r="AJ711" s="46"/>
       <c r="AK711" s="46"/>
     </row>
-    <row r="712" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:37" ht="12.75">
       <c r="B712" s="47"/>
       <c r="C712" s="47"/>
       <c r="D712" s="43"/>
@@ -27753,7 +27747,7 @@
       <c r="AJ712" s="46"/>
       <c r="AK712" s="46"/>
     </row>
-    <row r="713" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:37" ht="12.75">
       <c r="B713" s="47"/>
       <c r="C713" s="47"/>
       <c r="D713" s="43"/>
@@ -27790,7 +27784,7 @@
       <c r="AJ713" s="46"/>
       <c r="AK713" s="46"/>
     </row>
-    <row r="714" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:37" ht="12.75">
       <c r="B714" s="47"/>
       <c r="C714" s="47"/>
       <c r="D714" s="43"/>
@@ -27827,7 +27821,7 @@
       <c r="AJ714" s="46"/>
       <c r="AK714" s="46"/>
     </row>
-    <row r="715" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:37" ht="12.75">
       <c r="B715" s="47"/>
       <c r="C715" s="47"/>
       <c r="D715" s="43"/>
@@ -27864,7 +27858,7 @@
       <c r="AJ715" s="46"/>
       <c r="AK715" s="46"/>
     </row>
-    <row r="716" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:37" ht="12.75">
       <c r="B716" s="47"/>
       <c r="C716" s="47"/>
       <c r="D716" s="43"/>
@@ -27901,7 +27895,7 @@
       <c r="AJ716" s="46"/>
       <c r="AK716" s="46"/>
     </row>
-    <row r="717" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:37" ht="12.75">
       <c r="B717" s="47"/>
       <c r="C717" s="47"/>
       <c r="D717" s="43"/>
@@ -27938,7 +27932,7 @@
       <c r="AJ717" s="46"/>
       <c r="AK717" s="46"/>
     </row>
-    <row r="718" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:37" ht="12.75">
       <c r="B718" s="47"/>
       <c r="C718" s="47"/>
       <c r="D718" s="43"/>
@@ -27975,7 +27969,7 @@
       <c r="AJ718" s="46"/>
       <c r="AK718" s="46"/>
     </row>
-    <row r="719" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:37" ht="12.75">
       <c r="B719" s="47"/>
       <c r="C719" s="47"/>
       <c r="D719" s="43"/>
@@ -28012,7 +28006,7 @@
       <c r="AJ719" s="46"/>
       <c r="AK719" s="46"/>
     </row>
-    <row r="720" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:37" ht="12.75">
       <c r="B720" s="47"/>
       <c r="C720" s="47"/>
       <c r="D720" s="43"/>
@@ -28049,7 +28043,7 @@
       <c r="AJ720" s="46"/>
       <c r="AK720" s="46"/>
     </row>
-    <row r="721" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:37" ht="12.75">
       <c r="B721" s="47"/>
       <c r="C721" s="47"/>
       <c r="D721" s="43"/>
@@ -28086,7 +28080,7 @@
       <c r="AJ721" s="46"/>
       <c r="AK721" s="46"/>
     </row>
-    <row r="722" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:37" ht="12.75">
       <c r="B722" s="47"/>
       <c r="C722" s="47"/>
       <c r="D722" s="43"/>
@@ -28123,7 +28117,7 @@
       <c r="AJ722" s="46"/>
       <c r="AK722" s="46"/>
     </row>
-    <row r="723" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:37" ht="12.75">
       <c r="B723" s="47"/>
       <c r="C723" s="47"/>
       <c r="D723" s="43"/>
@@ -28160,7 +28154,7 @@
       <c r="AJ723" s="46"/>
       <c r="AK723" s="46"/>
     </row>
-    <row r="724" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:37" ht="12.75">
       <c r="B724" s="47"/>
       <c r="C724" s="47"/>
       <c r="D724" s="43"/>
@@ -28197,7 +28191,7 @@
       <c r="AJ724" s="46"/>
       <c r="AK724" s="46"/>
     </row>
-    <row r="725" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:37" ht="12.75">
       <c r="B725" s="47"/>
       <c r="C725" s="47"/>
       <c r="D725" s="43"/>
@@ -28234,7 +28228,7 @@
       <c r="AJ725" s="46"/>
       <c r="AK725" s="46"/>
     </row>
-    <row r="726" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:37" ht="12.75">
       <c r="B726" s="47"/>
       <c r="C726" s="47"/>
       <c r="D726" s="43"/>
@@ -28271,7 +28265,7 @@
       <c r="AJ726" s="46"/>
       <c r="AK726" s="46"/>
     </row>
-    <row r="727" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:37" ht="12.75">
       <c r="B727" s="47"/>
       <c r="C727" s="47"/>
       <c r="D727" s="43"/>
@@ -28308,7 +28302,7 @@
       <c r="AJ727" s="46"/>
       <c r="AK727" s="46"/>
     </row>
-    <row r="728" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:37" ht="12.75">
       <c r="B728" s="47"/>
       <c r="C728" s="47"/>
       <c r="D728" s="43"/>
@@ -28345,7 +28339,7 @@
       <c r="AJ728" s="46"/>
       <c r="AK728" s="46"/>
     </row>
-    <row r="729" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:37" ht="12.75">
       <c r="B729" s="47"/>
       <c r="C729" s="47"/>
       <c r="D729" s="43"/>
@@ -28382,7 +28376,7 @@
       <c r="AJ729" s="46"/>
       <c r="AK729" s="46"/>
     </row>
-    <row r="730" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:37" ht="12.75">
       <c r="B730" s="47"/>
       <c r="C730" s="47"/>
       <c r="D730" s="43"/>
@@ -28419,7 +28413,7 @@
       <c r="AJ730" s="46"/>
       <c r="AK730" s="46"/>
     </row>
-    <row r="731" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:37" ht="12.75">
       <c r="B731" s="47"/>
       <c r="C731" s="47"/>
       <c r="D731" s="43"/>
@@ -28456,7 +28450,7 @@
       <c r="AJ731" s="46"/>
       <c r="AK731" s="46"/>
     </row>
-    <row r="732" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:37" ht="12.75">
       <c r="B732" s="47"/>
       <c r="C732" s="47"/>
       <c r="D732" s="43"/>
@@ -28493,7 +28487,7 @@
       <c r="AJ732" s="46"/>
       <c r="AK732" s="46"/>
     </row>
-    <row r="733" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:37" ht="12.75">
       <c r="B733" s="47"/>
       <c r="C733" s="47"/>
       <c r="D733" s="43"/>
@@ -28530,7 +28524,7 @@
       <c r="AJ733" s="46"/>
       <c r="AK733" s="46"/>
     </row>
-    <row r="734" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:37" ht="12.75">
       <c r="B734" s="47"/>
       <c r="C734" s="47"/>
       <c r="D734" s="43"/>
@@ -28567,7 +28561,7 @@
       <c r="AJ734" s="46"/>
       <c r="AK734" s="46"/>
     </row>
-    <row r="735" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:37" ht="12.75">
       <c r="B735" s="47"/>
       <c r="C735" s="47"/>
       <c r="D735" s="43"/>
@@ -28604,7 +28598,7 @@
       <c r="AJ735" s="46"/>
       <c r="AK735" s="46"/>
     </row>
-    <row r="736" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:37" ht="12.75">
       <c r="B736" s="47"/>
       <c r="C736" s="47"/>
       <c r="D736" s="43"/>
@@ -28641,7 +28635,7 @@
       <c r="AJ736" s="46"/>
       <c r="AK736" s="46"/>
     </row>
-    <row r="737" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:37" ht="12.75">
       <c r="B737" s="47"/>
       <c r="C737" s="47"/>
       <c r="D737" s="43"/>
@@ -28678,7 +28672,7 @@
       <c r="AJ737" s="46"/>
       <c r="AK737" s="46"/>
     </row>
-    <row r="738" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:37" ht="12.75">
       <c r="B738" s="47"/>
       <c r="C738" s="47"/>
       <c r="D738" s="43"/>
@@ -28715,7 +28709,7 @@
       <c r="AJ738" s="46"/>
       <c r="AK738" s="46"/>
     </row>
-    <row r="739" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:37" ht="12.75">
       <c r="B739" s="47"/>
       <c r="C739" s="47"/>
       <c r="D739" s="43"/>
@@ -28752,7 +28746,7 @@
       <c r="AJ739" s="46"/>
       <c r="AK739" s="46"/>
     </row>
-    <row r="740" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:37" ht="12.75">
       <c r="B740" s="47"/>
       <c r="C740" s="47"/>
       <c r="D740" s="43"/>
@@ -28789,7 +28783,7 @@
       <c r="AJ740" s="46"/>
       <c r="AK740" s="46"/>
     </row>
-    <row r="741" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:37" ht="12.75">
       <c r="B741" s="47"/>
       <c r="C741" s="47"/>
       <c r="D741" s="43"/>
@@ -28826,7 +28820,7 @@
       <c r="AJ741" s="46"/>
       <c r="AK741" s="46"/>
     </row>
-    <row r="742" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:37" ht="12.75">
       <c r="B742" s="47"/>
       <c r="C742" s="47"/>
       <c r="D742" s="43"/>
@@ -28863,7 +28857,7 @@
       <c r="AJ742" s="46"/>
       <c r="AK742" s="46"/>
     </row>
-    <row r="743" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:37" ht="12.75">
       <c r="B743" s="47"/>
       <c r="C743" s="47"/>
       <c r="D743" s="43"/>
@@ -28900,7 +28894,7 @@
       <c r="AJ743" s="46"/>
       <c r="AK743" s="46"/>
     </row>
-    <row r="744" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:37" ht="12.75">
       <c r="B744" s="47"/>
       <c r="C744" s="47"/>
       <c r="D744" s="43"/>
@@ -28937,7 +28931,7 @@
       <c r="AJ744" s="46"/>
       <c r="AK744" s="46"/>
     </row>
-    <row r="745" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:37" ht="12.75">
       <c r="B745" s="47"/>
       <c r="C745" s="47"/>
       <c r="D745" s="43"/>
@@ -28974,7 +28968,7 @@
       <c r="AJ745" s="46"/>
       <c r="AK745" s="46"/>
     </row>
-    <row r="746" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:37" ht="12.75">
       <c r="B746" s="47"/>
       <c r="C746" s="47"/>
       <c r="D746" s="43"/>
@@ -29011,7 +29005,7 @@
       <c r="AJ746" s="46"/>
       <c r="AK746" s="46"/>
     </row>
-    <row r="747" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:37" ht="12.75">
       <c r="B747" s="47"/>
       <c r="C747" s="47"/>
       <c r="D747" s="43"/>
@@ -29048,7 +29042,7 @@
       <c r="AJ747" s="46"/>
       <c r="AK747" s="46"/>
     </row>
-    <row r="748" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:37" ht="12.75">
       <c r="B748" s="47"/>
       <c r="C748" s="47"/>
       <c r="D748" s="43"/>
@@ -29085,7 +29079,7 @@
       <c r="AJ748" s="46"/>
       <c r="AK748" s="46"/>
     </row>
-    <row r="749" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:37" ht="12.75">
       <c r="B749" s="47"/>
       <c r="C749" s="47"/>
       <c r="D749" s="43"/>
@@ -29122,7 +29116,7 @@
       <c r="AJ749" s="46"/>
       <c r="AK749" s="46"/>
     </row>
-    <row r="750" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:37" ht="12.75">
       <c r="B750" s="47"/>
       <c r="C750" s="47"/>
       <c r="D750" s="43"/>
@@ -29159,7 +29153,7 @@
       <c r="AJ750" s="46"/>
       <c r="AK750" s="46"/>
     </row>
-    <row r="751" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:37" ht="12.75">
       <c r="B751" s="47"/>
       <c r="C751" s="47"/>
       <c r="D751" s="43"/>
@@ -29196,7 +29190,7 @@
       <c r="AJ751" s="46"/>
       <c r="AK751" s="46"/>
     </row>
-    <row r="752" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:37" ht="12.75">
       <c r="B752" s="47"/>
       <c r="C752" s="47"/>
       <c r="D752" s="43"/>
@@ -29233,7 +29227,7 @@
       <c r="AJ752" s="46"/>
       <c r="AK752" s="46"/>
     </row>
-    <row r="753" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:37" ht="12.75">
       <c r="B753" s="47"/>
       <c r="C753" s="47"/>
       <c r="D753" s="43"/>
@@ -29270,7 +29264,7 @@
       <c r="AJ753" s="46"/>
       <c r="AK753" s="46"/>
     </row>
-    <row r="754" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:37" ht="12.75">
       <c r="B754" s="47"/>
       <c r="C754" s="47"/>
       <c r="D754" s="43"/>
@@ -29307,7 +29301,7 @@
       <c r="AJ754" s="46"/>
       <c r="AK754" s="46"/>
     </row>
-    <row r="755" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:37" ht="12.75">
       <c r="B755" s="47"/>
       <c r="C755" s="47"/>
       <c r="D755" s="43"/>
@@ -29344,7 +29338,7 @@
       <c r="AJ755" s="46"/>
       <c r="AK755" s="46"/>
     </row>
-    <row r="756" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:37" ht="12.75">
       <c r="B756" s="47"/>
       <c r="C756" s="47"/>
       <c r="D756" s="43"/>
@@ -29381,7 +29375,7 @@
       <c r="AJ756" s="46"/>
       <c r="AK756" s="46"/>
     </row>
-    <row r="757" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:37" ht="12.75">
       <c r="B757" s="47"/>
       <c r="C757" s="47"/>
       <c r="D757" s="43"/>
@@ -29418,7 +29412,7 @@
       <c r="AJ757" s="46"/>
       <c r="AK757" s="46"/>
     </row>
-    <row r="758" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:37" ht="12.75">
       <c r="B758" s="47"/>
       <c r="C758" s="47"/>
       <c r="D758" s="43"/>
@@ -29455,7 +29449,7 @@
       <c r="AJ758" s="46"/>
       <c r="AK758" s="46"/>
     </row>
-    <row r="759" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:37" ht="12.75">
       <c r="B759" s="47"/>
       <c r="C759" s="47"/>
       <c r="D759" s="43"/>
@@ -29492,7 +29486,7 @@
       <c r="AJ759" s="46"/>
       <c r="AK759" s="46"/>
     </row>
-    <row r="760" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:37" ht="12.75">
       <c r="B760" s="47"/>
       <c r="C760" s="47"/>
       <c r="D760" s="43"/>
@@ -29529,7 +29523,7 @@
       <c r="AJ760" s="46"/>
       <c r="AK760" s="46"/>
     </row>
-    <row r="761" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:37" ht="12.75">
       <c r="B761" s="47"/>
       <c r="C761" s="47"/>
       <c r="D761" s="43"/>
@@ -29566,7 +29560,7 @@
       <c r="AJ761" s="46"/>
       <c r="AK761" s="46"/>
     </row>
-    <row r="762" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:37" ht="12.75">
       <c r="B762" s="47"/>
       <c r="C762" s="47"/>
       <c r="D762" s="43"/>
@@ -29603,7 +29597,7 @@
       <c r="AJ762" s="46"/>
       <c r="AK762" s="46"/>
     </row>
-    <row r="763" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:37" ht="12.75">
       <c r="B763" s="47"/>
       <c r="C763" s="47"/>
       <c r="D763" s="43"/>
@@ -29640,7 +29634,7 @@
       <c r="AJ763" s="46"/>
       <c r="AK763" s="46"/>
     </row>
-    <row r="764" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:37" ht="12.75">
       <c r="B764" s="47"/>
       <c r="C764" s="47"/>
       <c r="D764" s="43"/>
@@ -29677,7 +29671,7 @@
       <c r="AJ764" s="46"/>
       <c r="AK764" s="46"/>
     </row>
-    <row r="765" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:37" ht="12.75">
       <c r="B765" s="47"/>
       <c r="C765" s="47"/>
       <c r="D765" s="43"/>
@@ -29714,7 +29708,7 @@
       <c r="AJ765" s="46"/>
       <c r="AK765" s="46"/>
     </row>
-    <row r="766" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:37" ht="12.75">
       <c r="B766" s="47"/>
       <c r="C766" s="47"/>
       <c r="D766" s="43"/>
@@ -29751,7 +29745,7 @@
       <c r="AJ766" s="46"/>
       <c r="AK766" s="46"/>
     </row>
-    <row r="767" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:37" ht="12.75">
       <c r="B767" s="47"/>
       <c r="C767" s="47"/>
       <c r="D767" s="43"/>
@@ -29788,7 +29782,7 @@
       <c r="AJ767" s="46"/>
       <c r="AK767" s="46"/>
     </row>
-    <row r="768" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:37" ht="12.75">
       <c r="B768" s="47"/>
       <c r="C768" s="47"/>
       <c r="D768" s="43"/>
@@ -29825,7 +29819,7 @@
       <c r="AJ768" s="46"/>
       <c r="AK768" s="46"/>
     </row>
-    <row r="769" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:37" ht="12.75">
       <c r="B769" s="47"/>
       <c r="C769" s="47"/>
       <c r="D769" s="43"/>
@@ -29862,7 +29856,7 @@
       <c r="AJ769" s="46"/>
       <c r="AK769" s="46"/>
     </row>
-    <row r="770" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:37" ht="12.75">
       <c r="B770" s="47"/>
       <c r="C770" s="47"/>
       <c r="D770" s="43"/>
@@ -29899,7 +29893,7 @@
       <c r="AJ770" s="46"/>
       <c r="AK770" s="46"/>
     </row>
-    <row r="771" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:37" ht="12.75">
       <c r="B771" s="47"/>
       <c r="C771" s="47"/>
       <c r="D771" s="43"/>
@@ -29936,7 +29930,7 @@
       <c r="AJ771" s="46"/>
       <c r="AK771" s="46"/>
     </row>
-    <row r="772" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:37" ht="12.75">
       <c r="B772" s="47"/>
       <c r="C772" s="47"/>
       <c r="D772" s="43"/>
@@ -29973,7 +29967,7 @@
       <c r="AJ772" s="46"/>
       <c r="AK772" s="46"/>
     </row>
-    <row r="773" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:37" ht="12.75">
       <c r="B773" s="47"/>
       <c r="C773" s="47"/>
       <c r="D773" s="43"/>
@@ -30010,7 +30004,7 @@
       <c r="AJ773" s="46"/>
       <c r="AK773" s="46"/>
     </row>
-    <row r="774" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:37" ht="12.75">
       <c r="B774" s="47"/>
       <c r="C774" s="47"/>
       <c r="D774" s="43"/>
@@ -30047,7 +30041,7 @@
       <c r="AJ774" s="46"/>
       <c r="AK774" s="46"/>
     </row>
-    <row r="775" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:37" ht="12.75">
       <c r="B775" s="47"/>
       <c r="C775" s="47"/>
       <c r="D775" s="43"/>
@@ -30084,7 +30078,7 @@
       <c r="AJ775" s="46"/>
       <c r="AK775" s="46"/>
     </row>
-    <row r="776" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:37" ht="12.75">
       <c r="B776" s="47"/>
       <c r="C776" s="47"/>
       <c r="D776" s="43"/>
@@ -30121,7 +30115,7 @@
       <c r="AJ776" s="46"/>
       <c r="AK776" s="46"/>
     </row>
-    <row r="777" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:37" ht="12.75">
       <c r="B777" s="47"/>
       <c r="C777" s="47"/>
       <c r="D777" s="43"/>
@@ -30158,7 +30152,7 @@
       <c r="AJ777" s="46"/>
       <c r="AK777" s="46"/>
     </row>
-    <row r="778" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:37" ht="12.75">
       <c r="B778" s="47"/>
       <c r="C778" s="47"/>
       <c r="D778" s="43"/>
@@ -30195,7 +30189,7 @@
       <c r="AJ778" s="46"/>
       <c r="AK778" s="46"/>
     </row>
-    <row r="779" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:37" ht="12.75">
       <c r="B779" s="47"/>
       <c r="C779" s="47"/>
       <c r="D779" s="43"/>
@@ -30232,7 +30226,7 @@
       <c r="AJ779" s="46"/>
       <c r="AK779" s="46"/>
     </row>
-    <row r="780" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:37" ht="12.75">
       <c r="B780" s="47"/>
       <c r="C780" s="47"/>
       <c r="D780" s="43"/>
@@ -30269,7 +30263,7 @@
       <c r="AJ780" s="46"/>
       <c r="AK780" s="46"/>
     </row>
-    <row r="781" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:37" ht="12.75">
       <c r="B781" s="47"/>
       <c r="C781" s="47"/>
       <c r="D781" s="43"/>
@@ -30306,7 +30300,7 @@
       <c r="AJ781" s="46"/>
       <c r="AK781" s="46"/>
     </row>
-    <row r="782" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:37" ht="12.75">
       <c r="B782" s="47"/>
       <c r="C782" s="47"/>
       <c r="D782" s="43"/>
@@ -30343,7 +30337,7 @@
       <c r="AJ782" s="46"/>
       <c r="AK782" s="46"/>
     </row>
-    <row r="783" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:37" ht="12.75">
       <c r="B783" s="47"/>
       <c r="C783" s="47"/>
       <c r="D783" s="43"/>
@@ -30380,7 +30374,7 @@
       <c r="AJ783" s="46"/>
       <c r="AK783" s="46"/>
     </row>
-    <row r="784" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:37" ht="12.75">
       <c r="B784" s="47"/>
       <c r="C784" s="47"/>
       <c r="D784" s="43"/>
@@ -30417,7 +30411,7 @@
       <c r="AJ784" s="46"/>
       <c r="AK784" s="46"/>
     </row>
-    <row r="785" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:37" ht="12.75">
       <c r="B785" s="47"/>
       <c r="C785" s="47"/>
       <c r="D785" s="43"/>
@@ -30454,7 +30448,7 @@
       <c r="AJ785" s="46"/>
       <c r="AK785" s="46"/>
     </row>
-    <row r="786" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:37" ht="12.75">
       <c r="B786" s="47"/>
       <c r="C786" s="47"/>
       <c r="D786" s="43"/>
@@ -30491,7 +30485,7 @@
       <c r="AJ786" s="46"/>
       <c r="AK786" s="46"/>
     </row>
-    <row r="787" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:37" ht="12.75">
       <c r="B787" s="47"/>
       <c r="C787" s="47"/>
       <c r="D787" s="43"/>
@@ -30528,7 +30522,7 @@
       <c r="AJ787" s="46"/>
       <c r="AK787" s="46"/>
     </row>
-    <row r="788" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:37" ht="12.75">
       <c r="B788" s="47"/>
       <c r="C788" s="47"/>
       <c r="D788" s="43"/>
@@ -30565,7 +30559,7 @@
       <c r="AJ788" s="46"/>
       <c r="AK788" s="46"/>
     </row>
-    <row r="789" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:37" ht="12.75">
       <c r="B789" s="47"/>
       <c r="C789" s="47"/>
       <c r="D789" s="43"/>
@@ -30602,7 +30596,7 @@
       <c r="AJ789" s="46"/>
       <c r="AK789" s="46"/>
     </row>
-    <row r="790" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:37" ht="12.75">
       <c r="B790" s="47"/>
       <c r="C790" s="47"/>
       <c r="D790" s="43"/>
@@ -30639,7 +30633,7 @@
       <c r="AJ790" s="46"/>
       <c r="AK790" s="46"/>
     </row>
-    <row r="791" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:37" ht="12.75">
       <c r="B791" s="47"/>
       <c r="C791" s="47"/>
       <c r="D791" s="43"/>
@@ -30676,7 +30670,7 @@
       <c r="AJ791" s="46"/>
       <c r="AK791" s="46"/>
     </row>
-    <row r="792" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:37" ht="12.75">
       <c r="B792" s="47"/>
       <c r="C792" s="47"/>
       <c r="D792" s="43"/>
@@ -30713,7 +30707,7 @@
       <c r="AJ792" s="46"/>
       <c r="AK792" s="46"/>
     </row>
-    <row r="793" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:37" ht="12.75">
       <c r="B793" s="47"/>
       <c r="C793" s="47"/>
       <c r="D793" s="43"/>
@@ -30750,7 +30744,7 @@
       <c r="AJ793" s="46"/>
       <c r="AK793" s="46"/>
     </row>
-    <row r="794" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:37" ht="12.75">
       <c r="B794" s="47"/>
       <c r="C794" s="47"/>
       <c r="D794" s="43"/>
@@ -30787,7 +30781,7 @@
       <c r="AJ794" s="46"/>
       <c r="AK794" s="46"/>
     </row>
-    <row r="795" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:37" ht="12.75">
       <c r="B795" s="47"/>
       <c r="C795" s="47"/>
       <c r="D795" s="43"/>
@@ -30824,7 +30818,7 @@
       <c r="AJ795" s="46"/>
       <c r="AK795" s="46"/>
     </row>
-    <row r="796" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:37" ht="12.75">
       <c r="B796" s="47"/>
       <c r="C796" s="47"/>
       <c r="D796" s="43"/>
@@ -30861,7 +30855,7 @@
       <c r="AJ796" s="46"/>
       <c r="AK796" s="46"/>
     </row>
-    <row r="797" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:37" ht="12.75">
       <c r="B797" s="47"/>
       <c r="C797" s="47"/>
       <c r="D797" s="43"/>
@@ -30898,7 +30892,7 @@
       <c r="AJ797" s="46"/>
       <c r="AK797" s="46"/>
     </row>
-    <row r="798" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:37" ht="12.75">
       <c r="B798" s="47"/>
       <c r="C798" s="47"/>
       <c r="D798" s="43"/>
@@ -30935,7 +30929,7 @@
       <c r="AJ798" s="46"/>
       <c r="AK798" s="46"/>
     </row>
-    <row r="799" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:37" ht="12.75">
       <c r="B799" s="47"/>
       <c r="C799" s="47"/>
       <c r="D799" s="43"/>
@@ -30972,7 +30966,7 @@
       <c r="AJ799" s="46"/>
       <c r="AK799" s="46"/>
     </row>
-    <row r="800" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:37" ht="12.75">
       <c r="B800" s="47"/>
       <c r="C800" s="47"/>
       <c r="D800" s="43"/>
@@ -31009,7 +31003,7 @@
       <c r="AJ800" s="46"/>
       <c r="AK800" s="46"/>
     </row>
-    <row r="801" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:37" ht="12.75">
       <c r="B801" s="47"/>
       <c r="C801" s="47"/>
       <c r="D801" s="43"/>
@@ -31046,7 +31040,7 @@
       <c r="AJ801" s="46"/>
       <c r="AK801" s="46"/>
     </row>
-    <row r="802" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:37" ht="12.75">
       <c r="B802" s="47"/>
       <c r="C802" s="47"/>
       <c r="D802" s="43"/>
@@ -31083,7 +31077,7 @@
       <c r="AJ802" s="46"/>
       <c r="AK802" s="46"/>
     </row>
-    <row r="803" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:37" ht="12.75">
       <c r="B803" s="47"/>
       <c r="C803" s="47"/>
       <c r="D803" s="43"/>
@@ -31120,7 +31114,7 @@
       <c r="AJ803" s="46"/>
       <c r="AK803" s="46"/>
     </row>
-    <row r="804" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:37" ht="12.75">
       <c r="B804" s="47"/>
       <c r="C804" s="47"/>
       <c r="D804" s="43"/>
@@ -31157,7 +31151,7 @@
       <c r="AJ804" s="46"/>
       <c r="AK804" s="46"/>
     </row>
-    <row r="805" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:37" ht="12.75">
       <c r="B805" s="47"/>
       <c r="C805" s="47"/>
       <c r="D805" s="43"/>
@@ -31194,7 +31188,7 @@
       <c r="AJ805" s="46"/>
       <c r="AK805" s="46"/>
     </row>
-    <row r="806" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:37" ht="12.75">
       <c r="B806" s="47"/>
       <c r="C806" s="47"/>
       <c r="D806" s="43"/>
@@ -31231,7 +31225,7 @@
       <c r="AJ806" s="46"/>
       <c r="AK806" s="46"/>
     </row>
-    <row r="807" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:37" ht="12.75">
       <c r="B807" s="47"/>
       <c r="C807" s="47"/>
       <c r="D807" s="43"/>
@@ -31268,7 +31262,7 @@
       <c r="AJ807" s="46"/>
       <c r="AK807" s="46"/>
     </row>
-    <row r="808" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:37" ht="12.75">
       <c r="B808" s="47"/>
       <c r="C808" s="47"/>
       <c r="D808" s="43"/>
@@ -31305,7 +31299,7 @@
       <c r="AJ808" s="46"/>
       <c r="AK808" s="46"/>
     </row>
-    <row r="809" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:37" ht="12.75">
       <c r="B809" s="47"/>
       <c r="C809" s="47"/>
       <c r="D809" s="43"/>
@@ -31342,7 +31336,7 @@
       <c r="AJ809" s="46"/>
       <c r="AK809" s="46"/>
     </row>
-    <row r="810" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:37" ht="12.75">
       <c r="B810" s="47"/>
       <c r="C810" s="47"/>
       <c r="D810" s="43"/>
@@ -31379,7 +31373,7 @@
       <c r="AJ810" s="46"/>
       <c r="AK810" s="46"/>
     </row>
-    <row r="811" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:37" ht="12.75">
       <c r="B811" s="47"/>
       <c r="C811" s="47"/>
       <c r="D811" s="43"/>
@@ -31416,7 +31410,7 @@
       <c r="AJ811" s="46"/>
       <c r="AK811" s="46"/>
     </row>
-    <row r="812" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:37" ht="12.75">
       <c r="B812" s="47"/>
       <c r="C812" s="47"/>
       <c r="D812" s="43"/>
@@ -31453,7 +31447,7 @@
       <c r="AJ812" s="46"/>
       <c r="AK812" s="46"/>
     </row>
-    <row r="813" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:37" ht="12.75">
       <c r="B813" s="47"/>
       <c r="C813" s="47"/>
       <c r="D813" s="43"/>
@@ -31490,7 +31484,7 @@
       <c r="AJ813" s="46"/>
       <c r="AK813" s="46"/>
     </row>
-    <row r="814" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:37" ht="12.75">
       <c r="B814" s="47"/>
       <c r="C814" s="47"/>
       <c r="D814" s="43"/>
@@ -31527,7 +31521,7 @@
       <c r="AJ814" s="46"/>
       <c r="AK814" s="46"/>
     </row>
-    <row r="815" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:37" ht="12.75">
       <c r="B815" s="47"/>
       <c r="C815" s="47"/>
       <c r="D815" s="43"/>
@@ -31564,7 +31558,7 @@
       <c r="AJ815" s="46"/>
       <c r="AK815" s="46"/>
     </row>
-    <row r="816" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:37" ht="12.75">
       <c r="B816" s="47"/>
       <c r="C816" s="47"/>
       <c r="D816" s="43"/>
@@ -31601,7 +31595,7 @@
       <c r="AJ816" s="46"/>
       <c r="AK816" s="46"/>
     </row>
-    <row r="817" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:37" ht="12.75">
       <c r="B817" s="47"/>
       <c r="C817" s="47"/>
       <c r="D817" s="43"/>
@@ -31638,7 +31632,7 @@
       <c r="AJ817" s="46"/>
       <c r="AK817" s="46"/>
     </row>
-    <row r="818" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:37" ht="12.75">
       <c r="B818" s="47"/>
       <c r="C818" s="47"/>
       <c r="D818" s="43"/>
@@ -31675,7 +31669,7 @@
       <c r="AJ818" s="46"/>
       <c r="AK818" s="46"/>
     </row>
-    <row r="819" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:37" ht="12.75">
       <c r="B819" s="47"/>
       <c r="C819" s="47"/>
       <c r="D819" s="43"/>
@@ -31712,7 +31706,7 @@
       <c r="AJ819" s="46"/>
       <c r="AK819" s="46"/>
     </row>
-    <row r="820" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:37" ht="12.75">
       <c r="B820" s="47"/>
       <c r="C820" s="47"/>
       <c r="D820" s="43"/>
@@ -31749,7 +31743,7 @@
       <c r="AJ820" s="46"/>
       <c r="AK820" s="46"/>
     </row>
-    <row r="821" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:37" ht="12.75">
       <c r="B821" s="47"/>
       <c r="C821" s="47"/>
       <c r="D821" s="43"/>
@@ -31786,7 +31780,7 @@
       <c r="AJ821" s="46"/>
       <c r="AK821" s="46"/>
     </row>
-    <row r="822" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:37" ht="12.75">
       <c r="B822" s="47"/>
       <c r="C822" s="47"/>
       <c r="D822" s="43"/>
@@ -31823,7 +31817,7 @@
       <c r="AJ822" s="46"/>
       <c r="AK822" s="46"/>
     </row>
-    <row r="823" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:37" ht="12.75">
       <c r="B823" s="47"/>
       <c r="C823" s="47"/>
       <c r="D823" s="43"/>
@@ -31860,7 +31854,7 @@
       <c r="AJ823" s="46"/>
       <c r="AK823" s="46"/>
     </row>
-    <row r="824" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:37" ht="12.75">
       <c r="B824" s="47"/>
       <c r="C824" s="47"/>
       <c r="D824" s="43"/>
@@ -31897,7 +31891,7 @@
       <c r="AJ824" s="46"/>
       <c r="AK824" s="46"/>
     </row>
-    <row r="825" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:37" ht="12.75">
       <c r="B825" s="47"/>
       <c r="C825" s="47"/>
       <c r="D825" s="43"/>
@@ -31934,7 +31928,7 @@
       <c r="AJ825" s="46"/>
       <c r="AK825" s="46"/>
     </row>
-    <row r="826" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:37" ht="12.75">
       <c r="B826" s="47"/>
       <c r="C826" s="47"/>
       <c r="D826" s="43"/>
@@ -31971,7 +31965,7 @@
       <c r="AJ826" s="46"/>
       <c r="AK826" s="46"/>
     </row>
-    <row r="827" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:37" ht="12.75">
       <c r="B827" s="47"/>
       <c r="C827" s="47"/>
       <c r="D827" s="43"/>
@@ -32008,7 +32002,7 @@
       <c r="AJ827" s="46"/>
       <c r="AK827" s="46"/>
     </row>
-    <row r="828" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:37" ht="12.75">
       <c r="B828" s="47"/>
       <c r="C828" s="47"/>
       <c r="D828" s="43"/>
@@ -32045,7 +32039,7 @@
       <c r="AJ828" s="46"/>
       <c r="AK828" s="46"/>
     </row>
-    <row r="829" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:37" ht="12.75">
       <c r="B829" s="47"/>
       <c r="C829" s="47"/>
       <c r="D829" s="43"/>
@@ -32082,7 +32076,7 @@
       <c r="AJ829" s="46"/>
       <c r="AK829" s="46"/>
     </row>
-    <row r="830" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:37" ht="12.75">
       <c r="B830" s="47"/>
       <c r="C830" s="47"/>
       <c r="D830" s="43"/>
@@ -32119,7 +32113,7 @@
       <c r="AJ830" s="46"/>
       <c r="AK830" s="46"/>
     </row>
-    <row r="831" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:37" ht="12.75">
       <c r="B831" s="47"/>
       <c r="C831" s="47"/>
       <c r="D831" s="43"/>
@@ -32156,7 +32150,7 @@
       <c r="AJ831" s="46"/>
       <c r="AK831" s="46"/>
     </row>
-    <row r="832" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:37" ht="12.75">
       <c r="B832" s="47"/>
       <c r="C832" s="47"/>
       <c r="D832" s="43"/>
@@ -32193,7 +32187,7 @@
       <c r="AJ832" s="46"/>
       <c r="AK832" s="46"/>
     </row>
-    <row r="833" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:37" ht="12.75">
       <c r="B833" s="47"/>
       <c r="C833" s="47"/>
       <c r="D833" s="43"/>
@@ -32230,7 +32224,7 @@
       <c r="AJ833" s="46"/>
       <c r="AK833" s="46"/>
     </row>
-    <row r="834" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:37" ht="12.75">
       <c r="B834" s="47"/>
       <c r="C834" s="47"/>
       <c r="D834" s="43"/>
@@ -32267,7 +32261,7 @@
       <c r="AJ834" s="46"/>
       <c r="AK834" s="46"/>
     </row>
-    <row r="835" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:37" ht="12.75">
       <c r="B835" s="47"/>
       <c r="C835" s="47"/>
       <c r="D835" s="43"/>
@@ -32304,7 +32298,7 @@
       <c r="AJ835" s="46"/>
       <c r="AK835" s="46"/>
     </row>
-    <row r="836" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:37" ht="12.75">
       <c r="B836" s="47"/>
       <c r="C836" s="47"/>
       <c r="D836" s="43"/>
@@ -32341,7 +32335,7 @@
       <c r="AJ836" s="46"/>
       <c r="AK836" s="46"/>
     </row>
-    <row r="837" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:37" ht="12.75">
       <c r="B837" s="47"/>
       <c r="C837" s="47"/>
       <c r="D837" s="43"/>
@@ -32378,7 +32372,7 @@
       <c r="AJ837" s="46"/>
       <c r="AK837" s="46"/>
     </row>
-    <row r="838" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:37" ht="12.75">
       <c r="B838" s="47"/>
       <c r="C838" s="47"/>
       <c r="D838" s="43"/>
@@ -32415,7 +32409,7 @@
       <c r="AJ838" s="46"/>
       <c r="AK838" s="46"/>
     </row>
-    <row r="839" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:37" ht="12.75">
       <c r="B839" s="47"/>
       <c r="C839" s="47"/>
       <c r="D839" s="43"/>
@@ -32452,7 +32446,7 @@
       <c r="AJ839" s="46"/>
       <c r="AK839" s="46"/>
     </row>
-    <row r="840" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:37" ht="12.75">
       <c r="B840" s="47"/>
       <c r="C840" s="47"/>
       <c r="D840" s="43"/>
@@ -32489,7 +32483,7 @@
       <c r="AJ840" s="46"/>
       <c r="AK840" s="46"/>
     </row>
-    <row r="841" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:37" ht="12.75">
       <c r="B841" s="47"/>
       <c r="C841" s="47"/>
       <c r="D841" s="43"/>
@@ -32526,7 +32520,7 @@
       <c r="AJ841" s="46"/>
       <c r="AK841" s="46"/>
     </row>
-    <row r="842" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:37" ht="12.75">
       <c r="B842" s="47"/>
       <c r="C842" s="47"/>
       <c r="D842" s="43"/>
@@ -32563,7 +32557,7 @@
       <c r="AJ842" s="46"/>
       <c r="AK842" s="46"/>
     </row>
-    <row r="843" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:37" ht="12.75">
       <c r="B843" s="47"/>
       <c r="C843" s="47"/>
       <c r="D843" s="43"/>
@@ -32600,7 +32594,7 @@
       <c r="AJ843" s="46"/>
       <c r="AK843" s="46"/>
     </row>
-    <row r="844" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:37" ht="12.75">
       <c r="B844" s="47"/>
       <c r="C844" s="47"/>
       <c r="D844" s="43"/>
@@ -32637,7 +32631,7 @@
       <c r="AJ844" s="46"/>
       <c r="AK844" s="46"/>
     </row>
-    <row r="845" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:37" ht="12.75">
       <c r="B845" s="47"/>
       <c r="C845" s="47"/>
       <c r="D845" s="43"/>
@@ -32674,7 +32668,7 @@
       <c r="AJ845" s="46"/>
       <c r="AK845" s="46"/>
     </row>
-    <row r="846" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:37" ht="12.75">
       <c r="B846" s="47"/>
       <c r="C846" s="47"/>
       <c r="D846" s="43"/>
@@ -32711,7 +32705,7 @@
       <c r="AJ846" s="46"/>
       <c r="AK846" s="46"/>
     </row>
-    <row r="847" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:37" ht="12.75">
       <c r="B847" s="47"/>
       <c r="C847" s="47"/>
       <c r="D847" s="43"/>
@@ -32748,7 +32742,7 @@
       <c r="AJ847" s="46"/>
       <c r="AK847" s="46"/>
     </row>
-    <row r="848" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:37" ht="12.75">
       <c r="B848" s="47"/>
       <c r="C848" s="47"/>
       <c r="D848" s="43"/>
@@ -32785,7 +32779,7 @@
       <c r="AJ848" s="46"/>
       <c r="AK848" s="46"/>
     </row>
-    <row r="849" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:37" ht="12.75">
       <c r="B849" s="47"/>
       <c r="C849" s="47"/>
       <c r="D849" s="43"/>
@@ -32822,7 +32816,7 @@
       <c r="AJ849" s="46"/>
       <c r="AK849" s="46"/>
     </row>
-    <row r="850" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:37" ht="12.75">
       <c r="B850" s="47"/>
       <c r="C850" s="47"/>
       <c r="D850" s="43"/>
@@ -32859,7 +32853,7 @@
       <c r="AJ850" s="46"/>
       <c r="AK850" s="46"/>
     </row>
-    <row r="851" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:37" ht="12.75">
       <c r="B851" s="47"/>
       <c r="C851" s="47"/>
       <c r="D851" s="43"/>
@@ -32896,7 +32890,7 @@
       <c r="AJ851" s="46"/>
       <c r="AK851" s="46"/>
     </row>
-    <row r="852" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:37" ht="12.75">
       <c r="B852" s="47"/>
       <c r="C852" s="47"/>
       <c r="D852" s="43"/>
@@ -32933,7 +32927,7 @@
       <c r="AJ852" s="46"/>
       <c r="AK852" s="46"/>
     </row>
-    <row r="853" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:37" ht="12.75">
       <c r="B853" s="47"/>
       <c r="C853" s="47"/>
       <c r="D853" s="43"/>
@@ -32970,7 +32964,7 @@
       <c r="AJ853" s="46"/>
       <c r="AK853" s="46"/>
     </row>
-    <row r="854" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:37" ht="12.75">
       <c r="B854" s="47"/>
       <c r="C854" s="47"/>
       <c r="D854" s="43"/>
@@ -33007,7 +33001,7 @@
       <c r="AJ854" s="46"/>
       <c r="AK854" s="46"/>
     </row>
-    <row r="855" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:37" ht="12.75">
       <c r="B855" s="47"/>
       <c r="C855" s="47"/>
       <c r="D855" s="43"/>
@@ -33044,7 +33038,7 @@
       <c r="AJ855" s="46"/>
       <c r="AK855" s="46"/>
     </row>
-    <row r="856" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:37" ht="12.75">
       <c r="B856" s="47"/>
       <c r="C856" s="47"/>
       <c r="D856" s="43"/>
@@ -33081,7 +33075,7 @@
       <c r="AJ856" s="46"/>
       <c r="AK856" s="46"/>
     </row>
-    <row r="857" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:37" ht="12.75">
       <c r="B857" s="47"/>
       <c r="C857" s="47"/>
       <c r="D857" s="43"/>
@@ -33118,7 +33112,7 @@
       <c r="AJ857" s="46"/>
       <c r="AK857" s="46"/>
     </row>
-    <row r="858" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:37" ht="12.75">
       <c r="B858" s="47"/>
       <c r="C858" s="47"/>
       <c r="D858" s="43"/>
@@ -33155,7 +33149,7 @@
       <c r="AJ858" s="46"/>
       <c r="AK858" s="46"/>
     </row>
-    <row r="859" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:37" ht="12.75">
       <c r="B859" s="47"/>
       <c r="C859" s="47"/>
       <c r="D859" s="43"/>
@@ -33192,7 +33186,7 @@
       <c r="AJ859" s="46"/>
       <c r="AK859" s="46"/>
     </row>
-    <row r="860" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:37" ht="12.75">
       <c r="B860" s="47"/>
       <c r="C860" s="47"/>
       <c r="D860" s="43"/>
@@ -33229,7 +33223,7 @@
       <c r="AJ860" s="46"/>
       <c r="AK860" s="46"/>
     </row>
-    <row r="861" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:37" ht="12.75">
       <c r="B861" s="47"/>
       <c r="C861" s="47"/>
       <c r="D861" s="43"/>
@@ -33266,7 +33260,7 @@
       <c r="AJ861" s="46"/>
       <c r="AK861" s="46"/>
     </row>
-    <row r="862" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:37" ht="12.75">
       <c r="B862" s="47"/>
       <c r="C862" s="47"/>
       <c r="D862" s="43"/>
@@ -33303,7 +33297,7 @@
       <c r="AJ862" s="46"/>
       <c r="AK862" s="46"/>
     </row>
-    <row r="863" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:37" ht="12.75">
       <c r="B863" s="47"/>
       <c r="C863" s="47"/>
       <c r="D863" s="43"/>
@@ -33340,7 +33334,7 @@
       <c r="AJ863" s="46"/>
       <c r="AK863" s="46"/>
     </row>
-    <row r="864" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:37" ht="12.75">
       <c r="B864" s="47"/>
       <c r="C864" s="47"/>
       <c r="D864" s="43"/>
@@ -33377,7 +33371,7 @@
       <c r="AJ864" s="46"/>
       <c r="AK864" s="46"/>
     </row>
-    <row r="865" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:37" ht="12.75">
       <c r="B865" s="47"/>
       <c r="C865" s="47"/>
       <c r="D865" s="43"/>
@@ -33414,7 +33408,7 @@
       <c r="AJ865" s="46"/>
       <c r="AK865" s="46"/>
     </row>
-    <row r="866" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:37" ht="12.75">
       <c r="B866" s="47"/>
       <c r="C866" s="47"/>
       <c r="D866" s="43"/>
@@ -33451,7 +33445,7 @@
       <c r="AJ866" s="46"/>
       <c r="AK866" s="46"/>
     </row>
-    <row r="867" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:37" ht="12.75">
       <c r="B867" s="47"/>
       <c r="C867" s="47"/>
       <c r="D867" s="43"/>
@@ -33488,7 +33482,7 @@
       <c r="AJ867" s="46"/>
       <c r="AK867" s="46"/>
     </row>
-    <row r="868" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:37" ht="12.75">
       <c r="B868" s="47"/>
       <c r="C868" s="47"/>
       <c r="D868" s="43"/>
@@ -33525,7 +33519,7 @@
       <c r="AJ868" s="46"/>
       <c r="AK868" s="46"/>
     </row>
-    <row r="869" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:37" ht="12.75">
       <c r="B869" s="47"/>
       <c r="C869" s="47"/>
       <c r="D869" s="43"/>
@@ -33562,7 +33556,7 @@
       <c r="AJ869" s="46"/>
       <c r="AK869" s="46"/>
     </row>
-    <row r="870" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:37" ht="12.75">
       <c r="B870" s="47"/>
       <c r="C870" s="47"/>
       <c r="D870" s="43"/>
@@ -33599,7 +33593,7 @@
       <c r="AJ870" s="46"/>
       <c r="AK870" s="46"/>
     </row>
-    <row r="871" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:37" ht="12.75">
       <c r="B871" s="47"/>
       <c r="C871" s="47"/>
       <c r="D871" s="43"/>
@@ -33636,7 +33630,7 @@
       <c r="AJ871" s="46"/>
       <c r="AK871" s="46"/>
     </row>
-    <row r="872" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:37" ht="12.75">
       <c r="B872" s="47"/>
       <c r="C872" s="47"/>
       <c r="D872" s="43"/>
@@ -33673,7 +33667,7 @@
       <c r="AJ872" s="46"/>
       <c r="AK872" s="46"/>
     </row>
-    <row r="873" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:37" ht="12.75">
       <c r="B873" s="47"/>
       <c r="C873" s="47"/>
       <c r="D873" s="43"/>
@@ -33710,7 +33704,7 @@
       <c r="AJ873" s="46"/>
       <c r="AK873" s="46"/>
     </row>
-    <row r="874" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:37" ht="12.75">
       <c r="B874" s="47"/>
       <c r="C874" s="47"/>
       <c r="D874" s="43"/>
@@ -33747,7 +33741,7 @@
       <c r="AJ874" s="46"/>
       <c r="AK874" s="46"/>
     </row>
-    <row r="875" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:37" ht="12.75">
       <c r="B875" s="47"/>
       <c r="C875" s="47"/>
       <c r="D875" s="43"/>
@@ -33784,7 +33778,7 @@
       <c r="AJ875" s="46"/>
       <c r="AK875" s="46"/>
     </row>
-    <row r="876" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:37" ht="12.75">
       <c r="B876" s="47"/>
       <c r="C876" s="47"/>
       <c r="D876" s="43"/>
@@ -33821,7 +33815,7 @@
       <c r="AJ876" s="46"/>
       <c r="AK876" s="46"/>
     </row>
-    <row r="877" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:37" ht="12.75">
       <c r="B877" s="47"/>
       <c r="C877" s="47"/>
       <c r="D877" s="43"/>
@@ -33858,7 +33852,7 @@
       <c r="AJ877" s="46"/>
       <c r="AK877" s="46"/>
     </row>
-    <row r="878" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:37" ht="12.75">
       <c r="B878" s="47"/>
       <c r="C878" s="47"/>
       <c r="D878" s="43"/>
@@ -33895,7 +33889,7 @@
       <c r="AJ878" s="46"/>
       <c r="AK878" s="46"/>
     </row>
-    <row r="879" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:37" ht="12.75">
       <c r="B879" s="47"/>
       <c r="C879" s="47"/>
       <c r="D879" s="43"/>
@@ -33932,7 +33926,7 @@
       <c r="AJ879" s="46"/>
       <c r="AK879" s="46"/>
     </row>
-    <row r="880" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:37" ht="12.75">
       <c r="B880" s="47"/>
       <c r="C880" s="47"/>
       <c r="D880" s="43"/>
@@ -33969,7 +33963,7 @@
       <c r="AJ880" s="46"/>
       <c r="AK880" s="46"/>
     </row>
-    <row r="881" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:37" ht="12.75">
       <c r="B881" s="47"/>
       <c r="C881" s="47"/>
       <c r="D881" s="43"/>
@@ -34006,7 +34000,7 @@
       <c r="AJ881" s="46"/>
       <c r="AK881" s="46"/>
     </row>
-    <row r="882" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:37" ht="12.75">
       <c r="B882" s="47"/>
       <c r="C882" s="47"/>
       <c r="D882" s="43"/>
@@ -34043,7 +34037,7 @@
       <c r="AJ882" s="46"/>
       <c r="AK882" s="46"/>
     </row>
-    <row r="883" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:37" ht="12.75">
       <c r="B883" s="47"/>
       <c r="C883" s="47"/>
       <c r="D883" s="43"/>
@@ -34080,7 +34074,7 @@
       <c r="AJ883" s="46"/>
       <c r="AK883" s="46"/>
     </row>
-    <row r="884" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:37" ht="12.75">
       <c r="B884" s="47"/>
       <c r="C884" s="47"/>
       <c r="D884" s="43"/>
@@ -34117,7 +34111,7 @@
       <c r="AJ884" s="46"/>
       <c r="AK884" s="46"/>
     </row>
-    <row r="885" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:37" ht="12.75">
       <c r="B885" s="47"/>
       <c r="C885" s="47"/>
       <c r="D885" s="43"/>
@@ -34154,7 +34148,7 @@
       <c r="AJ885" s="46"/>
       <c r="AK885" s="46"/>
     </row>
-    <row r="886" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:37" ht="12.75">
       <c r="B886" s="47"/>
       <c r="C886" s="47"/>
       <c r="D886" s="43"/>
@@ -34191,7 +34185,7 @@
       <c r="AJ886" s="46"/>
       <c r="AK886" s="46"/>
     </row>
-    <row r="887" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:37" ht="12.75">
       <c r="B887" s="47"/>
       <c r="C887" s="47"/>
       <c r="D887" s="43"/>
@@ -34228,7 +34222,7 @@
       <c r="AJ887" s="46"/>
       <c r="AK887" s="46"/>
     </row>
-    <row r="888" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:37" ht="12.75">
       <c r="B888" s="47"/>
       <c r="C888" s="47"/>
       <c r="D888" s="43"/>
@@ -34265,7 +34259,7 @@
       <c r="AJ888" s="46"/>
       <c r="AK888" s="46"/>
     </row>
-    <row r="889" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:37" ht="12.75">
       <c r="B889" s="47"/>
       <c r="C889" s="47"/>
       <c r="D889" s="43"/>
@@ -34302,7 +34296,7 @@
       <c r="AJ889" s="46"/>
       <c r="AK889" s="46"/>
     </row>
-    <row r="890" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:37" ht="12.75">
       <c r="B890" s="47"/>
       <c r="C890" s="47"/>
       <c r="D890" s="43"/>
@@ -34339,7 +34333,7 @@
       <c r="AJ890" s="46"/>
       <c r="AK890" s="46"/>
     </row>
-    <row r="891" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:37" ht="12.75">
       <c r="B891" s="47"/>
       <c r="C891" s="47"/>
       <c r="D891" s="43"/>
@@ -34376,7 +34370,7 @@
       <c r="AJ891" s="46"/>
       <c r="AK891" s="46"/>
     </row>
-    <row r="892" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:37" ht="12.75">
       <c r="B892" s="47"/>
       <c r="C892" s="47"/>
       <c r="D892" s="43"/>
@@ -34413,7 +34407,7 @@
       <c r="AJ892" s="46"/>
       <c r="AK892" s="46"/>
     </row>
-    <row r="893" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:37" ht="12.75">
       <c r="B893" s="47"/>
       <c r="C893" s="47"/>
       <c r="D893" s="43"/>
@@ -34450,7 +34444,7 @@
       <c r="AJ893" s="46"/>
       <c r="AK893" s="46"/>
     </row>
-    <row r="894" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:37" ht="12.75">
       <c r="B894" s="47"/>
       <c r="C894" s="47"/>
       <c r="D894" s="43"/>
@@ -34487,7 +34481,7 @@
       <c r="AJ894" s="46"/>
       <c r="AK894" s="46"/>
     </row>
-    <row r="895" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:37" ht="12.75">
       <c r="B895" s="47"/>
       <c r="C895" s="47"/>
       <c r="D895" s="43"/>
@@ -34524,7 +34518,7 @@
       <c r="AJ895" s="46"/>
       <c r="AK895" s="46"/>
     </row>
-    <row r="896" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:37" ht="12.75">
       <c r="B896" s="47"/>
       <c r="C896" s="47"/>
       <c r="D896" s="43"/>
@@ -34561,7 +34555,7 @@
       <c r="AJ896" s="46"/>
       <c r="AK896" s="46"/>
     </row>
-    <row r="897" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:37" ht="12.75">
       <c r="B897" s="47"/>
       <c r="C897" s="47"/>
       <c r="D897" s="43"/>
@@ -34598,7 +34592,7 @@
       <c r="AJ897" s="46"/>
       <c r="AK897" s="46"/>
     </row>
-    <row r="898" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:37" ht="12.75">
       <c r="B898" s="47"/>
       <c r="C898" s="47"/>
       <c r="D898" s="43"/>
@@ -34635,7 +34629,7 @@
       <c r="AJ898" s="46"/>
       <c r="AK898" s="46"/>
     </row>
-    <row r="899" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:37" ht="12.75">
       <c r="B899" s="47"/>
       <c r="C899" s="47"/>
       <c r="D899" s="43"/>
@@ -34672,7 +34666,7 @@
       <c r="AJ899" s="46"/>
       <c r="AK899" s="46"/>
     </row>
-    <row r="900" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:37" ht="12.75">
       <c r="B900" s="47"/>
       <c r="C900" s="47"/>
       <c r="D900" s="43"/>
@@ -34709,7 +34703,7 @@
       <c r="AJ900" s="46"/>
       <c r="AK900" s="46"/>
     </row>
-    <row r="901" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:37" ht="12.75">
       <c r="B901" s="47"/>
       <c r="C901" s="47"/>
       <c r="D901" s="43"/>
@@ -34746,7 +34740,7 @@
       <c r="AJ901" s="46"/>
       <c r="AK901" s="46"/>
     </row>
-    <row r="902" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:37" ht="12.75">
       <c r="B902" s="47"/>
       <c r="C902" s="47"/>
       <c r="D902" s="43"/>
@@ -34783,7 +34777,7 @@
       <c r="AJ902" s="46"/>
       <c r="AK902" s="46"/>
     </row>
-    <row r="903" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:37" ht="12.75">
       <c r="B903" s="47"/>
       <c r="C903" s="47"/>
       <c r="D903" s="43"/>
@@ -34820,7 +34814,7 @@
       <c r="AJ903" s="46"/>
       <c r="AK903" s="46"/>
     </row>
-    <row r="904" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:37" ht="12.75">
       <c r="B904" s="47"/>
       <c r="C904" s="47"/>
       <c r="D904" s="43"/>
@@ -34857,7 +34851,7 @@
       <c r="AJ904" s="46"/>
       <c r="AK904" s="46"/>
     </row>
-    <row r="905" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:37" ht="12.75">
       <c r="B905" s="47"/>
       <c r="C905" s="47"/>
       <c r="D905" s="43"/>
@@ -34894,7 +34888,7 @@
       <c r="AJ905" s="46"/>
       <c r="AK905" s="46"/>
     </row>
-    <row r="906" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:37" ht="12.75">
       <c r="B906" s="47"/>
       <c r="C906" s="47"/>
       <c r="D906" s="43"/>
@@ -34931,7 +34925,7 @@
       <c r="AJ906" s="46"/>
       <c r="AK906" s="46"/>
     </row>
-    <row r="907" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:37" ht="12.75">
       <c r="B907" s="47"/>
       <c r="C907" s="47"/>
       <c r="D907" s="43"/>
@@ -34968,7 +34962,7 @@
       <c r="AJ907" s="46"/>
       <c r="AK907" s="46"/>
     </row>
-    <row r="908" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:37" ht="12.75">
       <c r="B908" s="47"/>
       <c r="C908" s="47"/>
       <c r="D908" s="43"/>
@@ -35005,7 +34999,7 @@
       <c r="AJ908" s="46"/>
       <c r="AK908" s="46"/>
     </row>
-    <row r="909" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:37" ht="12.75">
       <c r="B909" s="47"/>
       <c r="C909" s="47"/>
       <c r="D909" s="43"/>
@@ -35042,7 +35036,7 @@
       <c r="AJ909" s="46"/>
       <c r="AK909" s="46"/>
     </row>
-    <row r="910" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:37" ht="12.75">
       <c r="B910" s="47"/>
       <c r="C910" s="47"/>
       <c r="D910" s="43"/>
@@ -35079,7 +35073,7 @@
       <c r="AJ910" s="46"/>
       <c r="AK910" s="46"/>
     </row>
-    <row r="911" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:37" ht="12.75">
       <c r="B911" s="47"/>
       <c r="C911" s="47"/>
       <c r="D911" s="43"/>
@@ -35116,7 +35110,7 @@
       <c r="AJ911" s="46"/>
       <c r="AK911" s="46"/>
     </row>
-    <row r="912" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:37" ht="12.75">
       <c r="B912" s="47"/>
       <c r="C912" s="47"/>
       <c r="D912" s="43"/>
@@ -35153,7 +35147,7 @@
       <c r="AJ912" s="46"/>
       <c r="AK912" s="46"/>
     </row>
-    <row r="913" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:37" ht="12.75">
       <c r="B913" s="47"/>
       <c r="C913" s="47"/>
       <c r="D913" s="43"/>
@@ -35190,7 +35184,7 @@
       <c r="AJ913" s="46"/>
       <c r="AK913" s="46"/>
     </row>
-    <row r="914" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:37" ht="12.75">
       <c r="B914" s="47"/>
       <c r="C914" s="47"/>
       <c r="D914" s="43"/>
@@ -35227,7 +35221,7 @@
       <c r="AJ914" s="46"/>
       <c r="AK914" s="46"/>
     </row>
-    <row r="915" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:37" ht="12.75">
       <c r="B915" s="47"/>
       <c r="C915" s="47"/>
       <c r="D915" s="43"/>
@@ -35264,7 +35258,7 @@
       <c r="AJ915" s="46"/>
       <c r="AK915" s="46"/>
     </row>
-    <row r="916" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:37" ht="12.75">
       <c r="B916" s="47"/>
       <c r="C916" s="47"/>
       <c r="D916" s="43"/>
@@ -35301,7 +35295,7 @@
       <c r="AJ916" s="46"/>
       <c r="AK916" s="46"/>
     </row>
-    <row r="917" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:37" ht="12.75">
       <c r="B917" s="47"/>
       <c r="C917" s="47"/>
       <c r="D917" s="43"/>
@@ -35338,7 +35332,7 @@
       <c r="AJ917" s="46"/>
       <c r="AK917" s="46"/>
     </row>
-    <row r="918" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:37" ht="12.75">
       <c r="B918" s="47"/>
       <c r="C918" s="47"/>
       <c r="D918" s="43"/>
@@ -35375,7 +35369,7 @@
       <c r="AJ918" s="46"/>
       <c r="AK918" s="46"/>
     </row>
-    <row r="919" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:37" ht="12.75">
       <c r="B919" s="47"/>
       <c r="C919" s="47"/>
       <c r="D919" s="43"/>
@@ -35412,7 +35406,7 @@
       <c r="AJ919" s="46"/>
       <c r="AK919" s="46"/>
     </row>
-    <row r="920" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:37" ht="12.75">
       <c r="B920" s="47"/>
       <c r="C920" s="47"/>
       <c r="D920" s="43"/>
@@ -35449,7 +35443,7 @@
       <c r="AJ920" s="46"/>
       <c r="AK920" s="46"/>
     </row>
-    <row r="921" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:37" ht="12.75">
       <c r="B921" s="47"/>
       <c r="C921" s="47"/>
       <c r="D921" s="43"/>
@@ -35486,7 +35480,7 @@
       <c r="AJ921" s="46"/>
       <c r="AK921" s="46"/>
     </row>
-    <row r="922" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:37" ht="12.75">
       <c r="B922" s="47"/>
       <c r="C922" s="47"/>
       <c r="D922" s="43"/>
@@ -35523,7 +35517,7 @@
       <c r="AJ922" s="46"/>
       <c r="AK922" s="46"/>
     </row>
-    <row r="923" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:37" ht="12.75">
       <c r="B923" s="47"/>
       <c r="C923" s="47"/>
       <c r="D923" s="43"/>
@@ -35560,7 +35554,7 @@
       <c r="AJ923" s="46"/>
       <c r="AK923" s="46"/>
     </row>
-    <row r="924" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:37" ht="12.75">
       <c r="B924" s="47"/>
       <c r="C924" s="47"/>
       <c r="D924" s="43"/>
@@ -35597,7 +35591,7 @@
       <c r="AJ924" s="46"/>
       <c r="AK924" s="46"/>
     </row>
-    <row r="925" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:37" ht="12.75">
       <c r="B925" s="47"/>
       <c r="C925" s="47"/>
       <c r="D925" s="43"/>
@@ -35634,7 +35628,7 @@
       <c r="AJ925" s="46"/>
       <c r="AK925" s="46"/>
     </row>
-    <row r="926" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:37" ht="12.75">
       <c r="B926" s="47"/>
       <c r="C926" s="47"/>
       <c r="D926" s="43"/>
@@ -35671,7 +35665,7 @@
       <c r="AJ926" s="46"/>
       <c r="AK926" s="46"/>
     </row>
-    <row r="927" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:37" ht="12.75">
       <c r="B927" s="47"/>
       <c r="C927" s="47"/>
       <c r="D927" s="43"/>
@@ -35708,7 +35702,7 @@
       <c r="AJ927" s="46"/>
       <c r="AK927" s="46"/>
     </row>
-    <row r="928" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:37" ht="12.75">
       <c r="B928" s="47"/>
       <c r="C928" s="47"/>
       <c r="D928" s="43"/>
@@ -35745,7 +35739,7 @@
       <c r="AJ928" s="46"/>
       <c r="AK928" s="46"/>
     </row>
-    <row r="929" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:37" ht="12.75">
       <c r="B929" s="47"/>
       <c r="C929" s="47"/>
       <c r="D929" s="43"/>
@@ -35782,7 +35776,7 @@
       <c r="AJ929" s="46"/>
       <c r="AK929" s="46"/>
     </row>
-    <row r="930" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:37" ht="12.75">
       <c r="B930" s="47"/>
       <c r="C930" s="47"/>
       <c r="D930" s="43"/>
@@ -35819,7 +35813,7 @@
       <c r="AJ930" s="46"/>
       <c r="AK930" s="46"/>
     </row>
-    <row r="931" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:37" ht="12.75">
       <c r="B931" s="47"/>
       <c r="C931" s="47"/>
       <c r="D931" s="43"/>
@@ -35856,7 +35850,7 @@
       <c r="AJ931" s="46"/>
       <c r="AK931" s="46"/>
     </row>
-    <row r="932" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:37" ht="12.75">
       <c r="B932" s="47"/>
       <c r="C932" s="47"/>
       <c r="D932" s="43"/>
@@ -35893,7 +35887,7 @@
       <c r="AJ932" s="46"/>
       <c r="AK932" s="46"/>
     </row>
-    <row r="933" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:37" ht="12.75">
       <c r="B933" s="47"/>
       <c r="C933" s="47"/>
       <c r="D933" s="43"/>
@@ -35930,7 +35924,7 @@
       <c r="AJ933" s="46"/>
       <c r="AK933" s="46"/>
     </row>
-    <row r="934" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:37" ht="12.75">
       <c r="B934" s="47"/>
       <c r="C934" s="47"/>
       <c r="D934" s="43"/>
@@ -35967,7 +35961,7 @@
       <c r="AJ934" s="46"/>
       <c r="AK934" s="46"/>
     </row>
-    <row r="935" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:37" ht="12.75">
       <c r="B935" s="47"/>
       <c r="C935" s="47"/>
       <c r="D935" s="43"/>
@@ -36004,7 +35998,7 @@
       <c r="AJ935" s="46"/>
       <c r="AK935" s="46"/>
     </row>
-    <row r="936" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:37" ht="12.75">
       <c r="B936" s="47"/>
       <c r="C936" s="47"/>
       <c r="D936" s="43"/>
@@ -36041,7 +36035,7 @@
       <c r="AJ936" s="46"/>
       <c r="AK936" s="46"/>
     </row>
-    <row r="937" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:37" ht="12.75">
       <c r="B937" s="47"/>
       <c r="C937" s="47"/>
       <c r="D937" s="43"/>
@@ -36078,7 +36072,7 @@
       <c r="AJ937" s="46"/>
       <c r="AK937" s="46"/>
     </row>
-    <row r="938" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:37" ht="12.75">
       <c r="B938" s="47"/>
       <c r="C938" s="47"/>
       <c r="D938" s="43"/>
@@ -36115,7 +36109,7 @@
       <c r="AJ938" s="46"/>
       <c r="AK938" s="46"/>
     </row>
-    <row r="939" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:37" ht="12.75">
       <c r="B939" s="47"/>
       <c r="C939" s="47"/>
       <c r="D939" s="43"/>
@@ -36152,7 +36146,7 @@
       <c r="AJ939" s="46"/>
       <c r="AK939" s="46"/>
     </row>
-    <row r="940" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:37" ht="12.75">
       <c r="B940" s="47"/>
       <c r="C940" s="47"/>
       <c r="D940" s="43"/>
@@ -36189,7 +36183,7 @@
       <c r="AJ940" s="46"/>
       <c r="AK940" s="46"/>
     </row>
-    <row r="941" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:37" ht="12.75">
       <c r="B941" s="47"/>
       <c r="C941" s="47"/>
       <c r="D941" s="43"/>
@@ -36226,7 +36220,7 @@
       <c r="AJ941" s="46"/>
       <c r="AK941" s="46"/>
     </row>
-    <row r="942" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:37" ht="12.75">
       <c r="B942" s="47"/>
       <c r="C942" s="47"/>
       <c r="D942" s="43"/>
@@ -36263,7 +36257,7 @@
       <c r="AJ942" s="46"/>
       <c r="AK942" s="46"/>
     </row>
-    <row r="943" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:37" ht="12.75">
       <c r="B943" s="47"/>
       <c r="C943" s="47"/>
       <c r="D943" s="43"/>
@@ -36300,7 +36294,7 @@
       <c r="AJ943" s="46"/>
       <c r="AK943" s="46"/>
     </row>
-    <row r="944" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:37" ht="12.75">
       <c r="B944" s="47"/>
       <c r="C944" s="47"/>
       <c r="D944" s="43"/>
@@ -36337,7 +36331,7 @@
       <c r="AJ944" s="46"/>
       <c r="AK944" s="46"/>
     </row>
-    <row r="945" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:37" ht="12.75">
       <c r="B945" s="47"/>
       <c r="C945" s="47"/>
       <c r="D945" s="43"/>
@@ -36374,7 +36368,7 @@
       <c r="AJ945" s="46"/>
       <c r="AK945" s="46"/>
     </row>
-    <row r="946" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:37" ht="12.75">
       <c r="B946" s="47"/>
       <c r="C946" s="47"/>
       <c r="D946" s="43"/>
@@ -36411,7 +36405,7 @@
       <c r="AJ946" s="46"/>
       <c r="AK946" s="46"/>
     </row>
-    <row r="947" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:37" ht="12.75">
       <c r="B947" s="47"/>
       <c r="C947" s="47"/>
       <c r="D947" s="43"/>
@@ -36448,7 +36442,7 @@
       <c r="AJ947" s="46"/>
       <c r="AK947" s="46"/>
     </row>
-    <row r="948" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:37" ht="12.75">
       <c r="B948" s="47"/>
       <c r="C948" s="47"/>
       <c r="D948" s="43"/>
@@ -36485,7 +36479,7 @@
       <c r="AJ948" s="46"/>
       <c r="AK948" s="46"/>
     </row>
-    <row r="949" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:37" ht="12.75">
       <c r="B949" s="47"/>
       <c r="C949" s="47"/>
       <c r="D949" s="43"/>
@@ -36522,7 +36516,7 @@
       <c r="AJ949" s="46"/>
       <c r="AK949" s="46"/>
     </row>
-    <row r="950" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:37" ht="12.75">
       <c r="B950" s="47"/>
       <c r="C950" s="47"/>
       <c r="D950" s="43"/>
@@ -36559,7 +36553,7 @@
       <c r="AJ950" s="46"/>
       <c r="AK950" s="46"/>
     </row>
-    <row r="951" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:37" ht="12.75">
       <c r="B951" s="47"/>
       <c r="C951" s="47"/>
       <c r="D951" s="43"/>
@@ -36596,7 +36590,7 @@
       <c r="AJ951" s="46"/>
       <c r="AK951" s="46"/>
     </row>
-    <row r="952" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:37" ht="12.75">
       <c r="B952" s="47"/>
       <c r="C952" s="47"/>
       <c r="D952" s="43"/>
@@ -36633,7 +36627,7 @@
       <c r="AJ952" s="46"/>
       <c r="AK952" s="46"/>
     </row>
-    <row r="953" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:37" ht="12.75">
       <c r="B953" s="47"/>
       <c r="C953" s="47"/>
       <c r="D953" s="43"/>
@@ -36670,7 +36664,7 @@
       <c r="AJ953" s="46"/>
       <c r="AK953" s="46"/>
     </row>
-    <row r="954" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:37" ht="12.75">
       <c r="B954" s="47"/>
       <c r="C954" s="47"/>
       <c r="D954" s="43"/>
@@ -36707,7 +36701,7 @@
       <c r="AJ954" s="46"/>
       <c r="AK954" s="46"/>
     </row>
-    <row r="955" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:37" ht="12.75">
       <c r="B955" s="47"/>
       <c r="C955" s="47"/>
       <c r="D955" s="43"/>
@@ -36744,7 +36738,7 @@
       <c r="AJ955" s="46"/>
       <c r="AK955" s="46"/>
     </row>
-    <row r="956" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:37" ht="12.75">
       <c r="B956" s="47"/>
       <c r="C956" s="47"/>
       <c r="D956" s="43"/>
@@ -36781,7 +36775,7 @@
       <c r="AJ956" s="46"/>
       <c r="AK956" s="46"/>
     </row>
-    <row r="957" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:37" ht="12.75">
       <c r="B957" s="47"/>
       <c r="C957" s="47"/>
       <c r="D957" s="43"/>
@@ -36818,7 +36812,7 @@
       <c r="AJ957" s="46"/>
       <c r="AK957" s="46"/>
     </row>
-    <row r="958" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:37" ht="12.75">
       <c r="B958" s="47"/>
       <c r="C958" s="47"/>
       <c r="D958" s="43"/>
@@ -36855,7 +36849,7 @@
       <c r="AJ958" s="46"/>
       <c r="AK958" s="46"/>
     </row>
-    <row r="959" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:37" ht="12.75">
       <c r="B959" s="47"/>
       <c r="C959" s="47"/>
       <c r="D959" s="43"/>
@@ -36892,7 +36886,7 @@
       <c r="AJ959" s="46"/>
       <c r="AK959" s="46"/>
     </row>
-    <row r="960" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:37" ht="12.75">
       <c r="B960" s="47"/>
       <c r="C960" s="47"/>
       <c r="D960" s="43"/>
@@ -36929,7 +36923,7 @@
       <c r="AJ960" s="46"/>
       <c r="AK960" s="46"/>
     </row>
-    <row r="961" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:37" ht="12.75">
       <c r="B961" s="47"/>
       <c r="C961" s="47"/>
       <c r="D961" s="43"/>
@@ -36966,7 +36960,7 @@
       <c r="AJ961" s="46"/>
       <c r="AK961" s="46"/>
     </row>
-    <row r="962" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:37" ht="12.75">
       <c r="B962" s="47"/>
       <c r="C962" s="47"/>
       <c r="D962" s="43"/>
@@ -37003,7 +36997,7 @@
       <c r="AJ962" s="46"/>
       <c r="AK962" s="46"/>
     </row>
-    <row r="963" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:37" ht="12.75">
       <c r="B963" s="47"/>
       <c r="C963" s="47"/>
       <c r="D963" s="43"/>
@@ -37040,7 +37034,7 @@
       <c r="AJ963" s="46"/>
       <c r="AK963" s="46"/>
     </row>
-    <row r="964" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:37" ht="12.75">
       <c r="B964" s="47"/>
       <c r="C964" s="47"/>
       <c r="D964" s="43"/>
@@ -37077,7 +37071,7 @@
       <c r="AJ964" s="46"/>
       <c r="AK964" s="46"/>
     </row>
-    <row r="965" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:37" ht="12.75">
       <c r="B965" s="47"/>
       <c r="C965" s="47"/>
       <c r="D965" s="43"/>
@@ -37114,7 +37108,7 @@
       <c r="AJ965" s="46"/>
       <c r="AK965" s="46"/>
     </row>
-    <row r="966" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:37" ht="12.75">
       <c r="B966" s="47"/>
       <c r="C966" s="47"/>
       <c r="D966" s="43"/>
@@ -37151,7 +37145,7 @@
       <c r="AJ966" s="46"/>
       <c r="AK966" s="46"/>
     </row>
-    <row r="967" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:37" ht="12.75">
       <c r="B967" s="47"/>
       <c r="C967" s="47"/>
       <c r="D967" s="43"/>
@@ -37188,7 +37182,7 @@
       <c r="AJ967" s="46"/>
       <c r="AK967" s="46"/>
     </row>
-    <row r="968" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:37" ht="12.75">
       <c r="B968" s="47"/>
       <c r="C968" s="47"/>
       <c r="D968" s="43"/>
@@ -37225,7 +37219,7 @@
       <c r="AJ968" s="46"/>
       <c r="AK968" s="46"/>
     </row>
-    <row r="969" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:37" ht="12.75">
       <c r="B969" s="47"/>
       <c r="C969" s="47"/>
       <c r="D969" s="43"/>
@@ -37262,7 +37256,7 @@
       <c r="AJ969" s="46"/>
       <c r="AK969" s="46"/>
     </row>
-    <row r="970" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:37" ht="12.75">
       <c r="B970" s="47"/>
       <c r="C970" s="47"/>
       <c r="D970" s="43"/>
@@ -37299,7 +37293,7 @@
       <c r="AJ970" s="46"/>
       <c r="AK970" s="46"/>
     </row>
-    <row r="971" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:37" ht="12.75">
       <c r="B971" s="47"/>
       <c r="C971" s="47"/>
       <c r="D971" s="43"/>
@@ -37336,7 +37330,7 @@
       <c r="AJ971" s="46"/>
       <c r="AK971" s="46"/>
     </row>
-    <row r="972" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:37" ht="12.75">
       <c r="B972" s="47"/>
       <c r="C972" s="47"/>
       <c r="D972" s="43"/>
@@ -37373,7 +37367,7 @@
       <c r="AJ972" s="46"/>
       <c r="AK972" s="46"/>
     </row>
-    <row r="973" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="2:37" ht="12.75">
       <c r="B973" s="47"/>
       <c r="C973" s="47"/>
       <c r="D973" s="43"/>
@@ -37410,7 +37404,7 @@
       <c r="AJ973" s="46"/>
       <c r="AK973" s="46"/>
     </row>
-    <row r="974" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="2:37" ht="12.75">
       <c r="B974" s="47"/>
       <c r="C974" s="47"/>
       <c r="D974" s="43"/>
@@ -37447,7 +37441,7 @@
       <c r="AJ974" s="46"/>
       <c r="AK974" s="46"/>
     </row>
-    <row r="975" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="2:37" ht="12.75">
       <c r="B975" s="47"/>
       <c r="C975" s="47"/>
       <c r="D975" s="43"/>
@@ -37484,7 +37478,7 @@
       <c r="AJ975" s="46"/>
       <c r="AK975" s="46"/>
     </row>
-    <row r="976" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="2:37" ht="12.75">
       <c r="B976" s="47"/>
       <c r="C976" s="47"/>
       <c r="D976" s="43"/>
@@ -37521,7 +37515,7 @@
       <c r="AJ976" s="46"/>
       <c r="AK976" s="46"/>
     </row>
-    <row r="977" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="2:37" ht="12.75">
       <c r="B977" s="47"/>
       <c r="C977" s="47"/>
       <c r="D977" s="43"/>
@@ -37558,7 +37552,7 @@
       <c r="AJ977" s="46"/>
       <c r="AK977" s="46"/>
     </row>
-    <row r="978" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:37" ht="12.75">
       <c r="B978" s="47"/>
       <c r="C978" s="47"/>
       <c r="D978" s="43"/>
@@ -37595,7 +37589,7 @@
       <c r="AJ978" s="46"/>
       <c r="AK978" s="46"/>
     </row>
-    <row r="979" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="2:37" ht="12.75">
       <c r="B979" s="47"/>
       <c r="C979" s="47"/>
       <c r="D979" s="43"/>
@@ -37632,7 +37626,7 @@
       <c r="AJ979" s="46"/>
       <c r="AK979" s="46"/>
     </row>
-    <row r="980" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="2:37" ht="12.75">
       <c r="B980" s="47"/>
       <c r="C980" s="47"/>
       <c r="D980" s="43"/>
@@ -37669,7 +37663,7 @@
       <c r="AJ980" s="46"/>
       <c r="AK980" s="46"/>
     </row>
-    <row r="981" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="2:37" ht="12.75">
       <c r="B981" s="47"/>
       <c r="C981" s="47"/>
       <c r="D981" s="43"/>
@@ -37706,7 +37700,7 @@
       <c r="AJ981" s="46"/>
       <c r="AK981" s="46"/>
     </row>
-    <row r="982" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="2:37" ht="12.75">
       <c r="B982" s="47"/>
       <c r="C982" s="47"/>
       <c r="D982" s="43"/>
@@ -37743,7 +37737,7 @@
       <c r="AJ982" s="46"/>
       <c r="AK982" s="46"/>
     </row>
-    <row r="983" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="2:37" ht="12.75">
       <c r="B983" s="47"/>
       <c r="C983" s="47"/>
       <c r="D983" s="43"/>
@@ -37780,7 +37774,7 @@
       <c r="AJ983" s="46"/>
       <c r="AK983" s="46"/>
     </row>
-    <row r="984" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="2:37" ht="12.75">
       <c r="B984" s="47"/>
       <c r="C984" s="47"/>
       <c r="D984" s="43"/>
@@ -37817,7 +37811,7 @@
       <c r="AJ984" s="46"/>
       <c r="AK984" s="46"/>
     </row>
-    <row r="985" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="2:37" ht="12.75">
       <c r="B985" s="47"/>
       <c r="C985" s="47"/>
       <c r="D985" s="43"/>
@@ -37854,7 +37848,7 @@
       <c r="AJ985" s="46"/>
       <c r="AK985" s="46"/>
     </row>
-    <row r="986" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="2:37" ht="12.75">
       <c r="B986" s="47"/>
       <c r="C986" s="47"/>
       <c r="D986" s="43"/>
@@ -37891,7 +37885,7 @@
       <c r="AJ986" s="46"/>
       <c r="AK986" s="46"/>
     </row>
-    <row r="987" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="2:37" ht="12.75">
       <c r="B987" s="47"/>
       <c r="C987" s="47"/>
       <c r="D987" s="43"/>
@@ -37928,7 +37922,7 @@
       <c r="AJ987" s="46"/>
       <c r="AK987" s="46"/>
     </row>
-    <row r="988" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="2:37" ht="12.75">
       <c r="B988" s="47"/>
       <c r="C988" s="47"/>
       <c r="D988" s="43"/>
@@ -37965,7 +37959,7 @@
       <c r="AJ988" s="46"/>
       <c r="AK988" s="46"/>
     </row>
-    <row r="989" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:37" ht="12.75">
       <c r="B989" s="47"/>
       <c r="C989" s="47"/>
       <c r="D989" s="43"/>
@@ -38002,7 +37996,7 @@
       <c r="AJ989" s="46"/>
       <c r="AK989" s="46"/>
     </row>
-    <row r="990" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="2:37" ht="12.75">
       <c r="B990" s="47"/>
       <c r="C990" s="47"/>
       <c r="D990" s="43"/>
@@ -38039,7 +38033,7 @@
       <c r="AJ990" s="46"/>
       <c r="AK990" s="46"/>
     </row>
-    <row r="991" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="2:37" ht="12.75">
       <c r="B991" s="47"/>
       <c r="C991" s="47"/>
       <c r="D991" s="43"/>
@@ -38076,7 +38070,7 @@
       <c r="AJ991" s="46"/>
       <c r="AK991" s="46"/>
     </row>
-    <row r="992" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="2:37" ht="12.75">
       <c r="B992" s="47"/>
       <c r="C992" s="47"/>
       <c r="D992" s="43"/>
@@ -38113,7 +38107,7 @@
       <c r="AJ992" s="46"/>
       <c r="AK992" s="46"/>
     </row>
-    <row r="993" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="2:37" ht="12.75">
       <c r="B993" s="47"/>
       <c r="C993" s="47"/>
       <c r="D993" s="43"/>
@@ -38150,7 +38144,7 @@
       <c r="AJ993" s="46"/>
       <c r="AK993" s="46"/>
     </row>
-    <row r="994" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="2:37" ht="12.75">
       <c r="B994" s="47"/>
       <c r="C994" s="47"/>
       <c r="D994" s="43"/>
@@ -38187,7 +38181,7 @@
       <c r="AJ994" s="46"/>
       <c r="AK994" s="46"/>
     </row>
-    <row r="995" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="2:37" ht="12.75">
       <c r="B995" s="47"/>
       <c r="C995" s="47"/>
       <c r="D995" s="43"/>
@@ -38224,7 +38218,7 @@
       <c r="AJ995" s="46"/>
       <c r="AK995" s="46"/>
     </row>
-    <row r="996" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="2:37" ht="12.75">
       <c r="B996" s="47"/>
       <c r="C996" s="47"/>
       <c r="D996" s="43"/>
@@ -38261,7 +38255,7 @@
       <c r="AJ996" s="46"/>
       <c r="AK996" s="46"/>
     </row>
-    <row r="997" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="2:37" ht="12.75">
       <c r="B997" s="47"/>
       <c r="C997" s="47"/>
       <c r="D997" s="43"/>
@@ -38298,7 +38292,7 @@
       <c r="AJ997" s="46"/>
       <c r="AK997" s="46"/>
     </row>
-    <row r="998" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="2:37" ht="12.75">
       <c r="B998" s="47"/>
       <c r="C998" s="47"/>
       <c r="D998" s="43"/>
@@ -38335,7 +38329,7 @@
       <c r="AJ998" s="46"/>
       <c r="AK998" s="46"/>
     </row>
-    <row r="999" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="2:37" ht="12.75">
       <c r="B999" s="47"/>
       <c r="C999" s="47"/>
       <c r="D999" s="43"/>
@@ -38372,7 +38366,7 @@
       <c r="AJ999" s="46"/>
       <c r="AK999" s="46"/>
     </row>
-    <row r="1000" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="2:37" ht="12.75">
       <c r="B1000" s="47"/>
       <c r="C1000" s="47"/>
       <c r="D1000" s="43"/>
@@ -38409,7 +38403,7 @@
       <c r="AJ1000" s="46"/>
       <c r="AK1000" s="46"/>
     </row>
-    <row r="1001" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="2:37" ht="12.75">
       <c r="B1001" s="47"/>
       <c r="C1001" s="47"/>
       <c r="D1001" s="43"/>
@@ -38446,7 +38440,7 @@
       <c r="AJ1001" s="46"/>
       <c r="AK1001" s="46"/>
     </row>
-    <row r="1002" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="2:37" ht="12.75">
       <c r="B1002" s="47"/>
       <c r="C1002" s="47"/>
       <c r="D1002" s="43"/>
@@ -38483,7 +38477,7 @@
       <c r="AJ1002" s="46"/>
       <c r="AK1002" s="46"/>
     </row>
-    <row r="1003" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="2:37" ht="12.75">
       <c r="B1003" s="47"/>
       <c r="C1003" s="47"/>
       <c r="D1003" s="43"/>
@@ -38520,7 +38514,7 @@
       <c r="AJ1003" s="46"/>
       <c r="AK1003" s="46"/>
     </row>
-    <row r="1004" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="2:37" ht="12.75">
       <c r="B1004" s="47"/>
       <c r="C1004" s="47"/>
       <c r="D1004" s="43"/>
@@ -38557,7 +38551,7 @@
       <c r="AJ1004" s="46"/>
       <c r="AK1004" s="46"/>
     </row>
-    <row r="1005" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1005" spans="2:37" ht="12.75">
       <c r="B1005" s="47"/>
       <c r="C1005" s="47"/>
       <c r="D1005" s="43"/>
@@ -38594,7 +38588,7 @@
       <c r="AJ1005" s="46"/>
       <c r="AK1005" s="46"/>
     </row>
-    <row r="1006" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1006" spans="2:37" ht="12.75">
       <c r="B1006" s="47"/>
       <c r="C1006" s="47"/>
       <c r="D1006" s="43"/>
@@ -38631,7 +38625,7 @@
       <c r="AJ1006" s="46"/>
       <c r="AK1006" s="46"/>
     </row>
-    <row r="1007" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1007" spans="2:37" ht="12.75">
       <c r="B1007" s="47"/>
       <c r="C1007" s="47"/>
       <c r="D1007" s="43"/>
@@ -38668,7 +38662,7 @@
       <c r="AJ1007" s="46"/>
       <c r="AK1007" s="46"/>
     </row>
-    <row r="1008" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1008" spans="2:37" ht="12.75">
       <c r="B1008" s="47"/>
       <c r="C1008" s="47"/>
       <c r="D1008" s="43"/>
@@ -38705,7 +38699,7 @@
       <c r="AJ1008" s="46"/>
       <c r="AK1008" s="46"/>
     </row>
-    <row r="1009" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1009" spans="2:37" ht="12.75">
       <c r="B1009" s="47"/>
       <c r="C1009" s="47"/>
       <c r="D1009" s="43"/>
@@ -38742,7 +38736,7 @@
       <c r="AJ1009" s="46"/>
       <c r="AK1009" s="46"/>
     </row>
-    <row r="1010" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1010" spans="2:37" ht="12.75">
       <c r="B1010" s="47"/>
       <c r="C1010" s="47"/>
       <c r="D1010" s="43"/>
@@ -38779,7 +38773,7 @@
       <c r="AJ1010" s="46"/>
       <c r="AK1010" s="46"/>
     </row>
-    <row r="1011" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1011" spans="2:37" ht="12.75">
       <c r="B1011" s="47"/>
       <c r="C1011" s="47"/>
       <c r="D1011" s="43"/>
@@ -38816,7 +38810,7 @@
       <c r="AJ1011" s="46"/>
       <c r="AK1011" s="46"/>
     </row>
-    <row r="1012" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1012" spans="2:37" ht="12.75">
       <c r="B1012" s="47"/>
       <c r="C1012" s="47"/>
       <c r="D1012" s="43"/>
@@ -38853,7 +38847,7 @@
       <c r="AJ1012" s="46"/>
       <c r="AK1012" s="46"/>
     </row>
-    <row r="1013" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1013" spans="2:37" ht="12.75">
       <c r="B1013" s="47"/>
       <c r="C1013" s="47"/>
       <c r="D1013" s="43"/>
@@ -38890,7 +38884,7 @@
       <c r="AJ1013" s="46"/>
       <c r="AK1013" s="46"/>
     </row>
-    <row r="1014" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1014" spans="2:37" ht="12.75">
       <c r="B1014" s="47"/>
       <c r="C1014" s="47"/>
       <c r="D1014" s="43"/>
@@ -38927,7 +38921,7 @@
       <c r="AJ1014" s="46"/>
       <c r="AK1014" s="46"/>
     </row>
-    <row r="1015" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1015" spans="2:37" ht="12.75">
       <c r="B1015" s="47"/>
       <c r="C1015" s="47"/>
       <c r="D1015" s="43"/>
@@ -38964,7 +38958,7 @@
       <c r="AJ1015" s="46"/>
       <c r="AK1015" s="46"/>
     </row>
-    <row r="1016" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1016" spans="2:37" ht="12.75">
       <c r="B1016" s="47"/>
       <c r="C1016" s="47"/>
       <c r="D1016" s="43"/>
@@ -39001,7 +38995,7 @@
       <c r="AJ1016" s="46"/>
       <c r="AK1016" s="46"/>
     </row>
-    <row r="1017" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1017" spans="2:37" ht="12.75">
       <c r="B1017" s="47"/>
       <c r="C1017" s="47"/>
       <c r="D1017" s="43"/>
@@ -39038,7 +39032,7 @@
       <c r="AJ1017" s="46"/>
       <c r="AK1017" s="46"/>
     </row>
-    <row r="1018" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1018" spans="2:37" ht="12.75">
       <c r="B1018" s="47"/>
       <c r="C1018" s="47"/>
       <c r="D1018" s="43"/>
@@ -39075,7 +39069,7 @@
       <c r="AJ1018" s="46"/>
       <c r="AK1018" s="46"/>
     </row>
-    <row r="1019" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1019" spans="2:37" ht="12.75">
       <c r="B1019" s="47"/>
       <c r="C1019" s="47"/>
       <c r="D1019" s="43"/>
@@ -39112,7 +39106,7 @@
       <c r="AJ1019" s="46"/>
       <c r="AK1019" s="46"/>
     </row>
-    <row r="1020" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1020" spans="2:37" ht="12.75">
       <c r="B1020" s="47"/>
       <c r="C1020" s="47"/>
       <c r="D1020" s="43"/>
@@ -39149,7 +39143,7 @@
       <c r="AJ1020" s="46"/>
       <c r="AK1020" s="46"/>
     </row>
-    <row r="1021" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1021" spans="2:37" ht="12.75">
       <c r="B1021" s="47"/>
       <c r="C1021" s="47"/>
       <c r="D1021" s="43"/>
@@ -39186,7 +39180,7 @@
       <c r="AJ1021" s="46"/>
       <c r="AK1021" s="46"/>
     </row>
-    <row r="1022" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1022" spans="2:37" ht="12.75">
       <c r="B1022" s="47"/>
       <c r="C1022" s="47"/>
       <c r="D1022" s="43"/>
@@ -39223,7 +39217,7 @@
       <c r="AJ1022" s="46"/>
       <c r="AK1022" s="46"/>
     </row>
-    <row r="1023" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1023" spans="2:37" ht="12.75">
       <c r="B1023" s="47"/>
       <c r="C1023" s="47"/>
       <c r="D1023" s="43"/>
@@ -39260,7 +39254,7 @@
       <c r="AJ1023" s="46"/>
       <c r="AK1023" s="46"/>
     </row>
-    <row r="1024" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1024" spans="2:37" ht="12.75">
       <c r="B1024" s="47"/>
       <c r="C1024" s="47"/>
       <c r="D1024" s="43"/>
@@ -39297,7 +39291,7 @@
       <c r="AJ1024" s="46"/>
       <c r="AK1024" s="46"/>
     </row>
-    <row r="1025" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1025" spans="2:37" ht="12.75">
       <c r="B1025" s="47"/>
       <c r="C1025" s="47"/>
       <c r="D1025" s="43"/>
@@ -39334,7 +39328,7 @@
       <c r="AJ1025" s="46"/>
       <c r="AK1025" s="46"/>
     </row>
-    <row r="1026" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1026" spans="2:37" ht="12.75">
       <c r="B1026" s="47"/>
       <c r="C1026" s="47"/>
       <c r="D1026" s="43"/>
@@ -39373,17 +39367,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="I15:O15"/>
     <mergeCell ref="L14:O14"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="K7:O7"/>
     <mergeCell ref="K8:O8"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="L13:O13"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="I15:O15"/>
   </mergeCells>
   <conditionalFormatting sqref="Z4:Z21">
     <cfRule type="dataBar" priority="41">
@@ -39392,8 +39386,8 @@
         <cfvo type="percent" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{02421D34-3FF4-4E4B-8338-D294617122F9}</x14:id>
         </ext>
       </extLst>
@@ -39406,8 +39400,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FFFF3300"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{41E71259-AF6A-41D2-8DF0-1A80C57AC258}</x14:id>
         </ext>
       </extLst>
@@ -39420,8 +39414,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FFFF3300"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{B86CBE0C-1B83-469F-824A-26743D987674}</x14:id>
         </ext>
       </extLst>
@@ -39434,8 +39428,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{582894E3-AD2D-42C9-9F18-B68D5BE107D0}</x14:id>
         </ext>
       </extLst>
@@ -39448,8 +39442,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7912CB7E-4D2E-488F-995A-942031381F56}</x14:id>
         </ext>
       </extLst>
@@ -39462,8 +39456,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8E67AE67-FBB7-4871-8F03-CEC4175BAEAB}</x14:id>
         </ext>
       </extLst>
@@ -39476,8 +39470,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F15BD1E8-794D-4711-998C-7D4D1F9CB743}</x14:id>
         </ext>
       </extLst>
@@ -39490,22 +39484,22 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{42570DEA-F2E7-4DAC-B0FA-58C3E15F811B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V16 P18 M18">
+  <conditionalFormatting sqref="P18 V16 M18">
     <cfRule type="dataBar" priority="31">
       <dataBar showValue="0">
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{85496C07-6E13-4262-972B-FF0193C2C502}</x14:id>
         </ext>
       </extLst>
@@ -39518,8 +39512,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F88029B5-8C15-4841-B46C-6A454746C9A7}</x14:id>
         </ext>
       </extLst>
@@ -39532,8 +39526,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F11BC74E-AB68-4366-92EC-C68BA9A2CD2C}</x14:id>
         </ext>
       </extLst>
@@ -39546,8 +39540,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BD1E7A44-317C-49A0-86E3-0062403EF0CB}</x14:id>
         </ext>
       </extLst>
@@ -39560,8 +39554,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8CA4C410-FAB2-4DED-B78A-A16AD896ACCB}</x14:id>
         </ext>
       </extLst>
@@ -39574,8 +39568,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FFFF3300"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FCC23F07-C4BB-4610-AAED-5E9EA527DD31}</x14:id>
         </ext>
       </extLst>
@@ -39588,8 +39582,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BCEB0C8A-6315-4D32-AF3C-6ADE5B2EF5CD}</x14:id>
         </ext>
       </extLst>
@@ -39602,8 +39596,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{1B1C2A96-C4F5-4CBF-8E0B-616DBD034389}</x14:id>
         </ext>
       </extLst>
@@ -39616,8 +39610,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{5E304328-A3E6-42CA-BFA0-18DCF847369B}</x14:id>
         </ext>
       </extLst>
@@ -39630,8 +39624,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{ED66A3D9-A0A9-4C02-B91E-3A26F0C8C92D}</x14:id>
         </ext>
       </extLst>
@@ -39644,8 +39638,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A706FDAD-B19A-4471-A213-127CF466C0D2}</x14:id>
         </ext>
       </extLst>
@@ -39658,8 +39652,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{550695BD-59A9-4490-9A4C-27A6ECF36274}</x14:id>
         </ext>
       </extLst>
@@ -39672,8 +39666,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{1E7CB623-7609-4A33-85F2-B95ACAC70984}</x14:id>
         </ext>
       </extLst>
@@ -39686,8 +39680,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FE93241A-C519-4B78-8708-24F0DAB01459}</x14:id>
         </ext>
       </extLst>
@@ -39700,8 +39694,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{2AF517B7-2E2E-4261-862A-86C721BFB5BA}</x14:id>
         </ext>
       </extLst>
@@ -39714,8 +39708,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BAC0BEF6-6297-4301-B658-FFBA33AE6A8C}</x14:id>
         </ext>
       </extLst>
@@ -39728,8 +39722,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{D9421341-F511-4100-926A-02520601D817}</x14:id>
         </ext>
       </extLst>
@@ -39742,8 +39736,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{6B97ED3C-2B23-4EDD-B5BE-A29D7B9C8399}</x14:id>
         </ext>
       </extLst>
@@ -39756,8 +39750,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FA25B196-18B1-475F-A5FE-9E580B982772}</x14:id>
         </ext>
       </extLst>
@@ -39770,8 +39764,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7574D377-696A-43DD-ACAA-C278E58F811E}</x14:id>
         </ext>
       </extLst>
@@ -39784,8 +39778,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{0867C136-9BE9-4A30-A79B-BF7EF60AAB40}</x14:id>
         </ext>
       </extLst>
@@ -39798,8 +39792,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{491399FF-6471-4F7C-B94D-9ADBD108AD99}</x14:id>
         </ext>
       </extLst>
@@ -39812,8 +39806,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9009538C-6B30-475A-8672-1FD9A00A4224}</x14:id>
         </ext>
       </extLst>
@@ -39826,8 +39820,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{C4D518D9-74DC-4FFC-BE58-0BB3C5F5A87C}</x14:id>
         </ext>
       </extLst>
@@ -39840,8 +39834,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{6D119486-B921-4B90-8DFB-9964BAE3C6C5}</x14:id>
         </ext>
       </extLst>
@@ -39854,8 +39848,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{314F4969-2B26-46CB-A448-4CAB642C2FD1}</x14:id>
         </ext>
       </extLst>
@@ -39868,8 +39862,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8CCC4B7B-169A-4D89-A309-803F6E4BCC39}</x14:id>
         </ext>
       </extLst>
@@ -39882,8 +39876,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{47C64CA7-5009-4E17-89B9-52DC380D9E73}</x14:id>
         </ext>
       </extLst>
@@ -39892,8 +39886,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{02421D34-3FF4-4E4B-8338-D294617122F9}">

--- a/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
+++ b/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/217fb073e6d8a319/Fichiers/Cours/BTS02_Efficom_2019_2020/Projet_BTS/M2L_R2S/Documentation/Ecrit/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="114_{074EDE54-CA02-4F47-8DB6-9602ACACD8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6DDC20C8-86FD-4BBB-9863-1FA9D26ADD9E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template GANTT Chart" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="mmm&quot;-&quot;d&quot;-&quot;yy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
@@ -259,7 +265,7 @@
     <numFmt numFmtId="168" formatCode="0&quot;%&quot;"/>
     <numFmt numFmtId="169" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -910,24 +916,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AK1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -950,7 +956,7 @@
     <col min="35" max="37" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12.75">
+    <row r="1" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +1008,7 @@
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
     </row>
-    <row r="2" spans="1:37" ht="22.5">
+    <row r="2" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="12.75">
+    <row r="3" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1197,7 @@
       <c r="AJ3" s="19"/>
       <c r="AK3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="13.15" customHeight="1">
+    <row r="4" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1254,7 @@
       <c r="AJ4" s="27"/>
       <c r="AK4" s="20"/>
     </row>
-    <row r="5" spans="1:37" ht="12.75">
+    <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
@@ -1305,7 +1311,7 @@
       <c r="AJ5" s="27"/>
       <c r="AK5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="12.75">
+    <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1327,7 @@
       </c>
       <c r="E6" s="29">
         <f>(E7+E8)/2</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
@@ -1332,7 +1338,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="57">
         <f>E6</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="57"/>
@@ -1359,7 +1365,7 @@
       <c r="AJ6" s="30"/>
       <c r="AK6" s="20"/>
     </row>
-    <row r="7" spans="1:37" ht="25.5">
+    <row r="7" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1414,7 +1420,7 @@
       <c r="AJ7" s="27"/>
       <c r="AK7" s="20"/>
     </row>
-    <row r="8" spans="1:37" ht="12.75">
+    <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>22</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="25">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>33</v>
@@ -1442,7 +1448,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="57">
         <f>$E$8</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
@@ -1469,7 +1475,7 @@
       <c r="AJ8" s="27"/>
       <c r="AK8" s="20"/>
     </row>
-    <row r="9" spans="1:37" ht="12.75">
+    <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1491,7 @@
       </c>
       <c r="E9" s="15">
         <f>(E10+E11+E12+E13+E14)/5</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
@@ -1493,7 +1499,7 @@
       </c>
       <c r="H9" s="57">
         <f>E9</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
@@ -1523,7 +1529,7 @@
       <c r="AJ9" s="27"/>
       <c r="AK9" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="12.75">
+    <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
         <v>21</v>
       </c>
@@ -1578,7 +1584,7 @@
       <c r="AJ10" s="27"/>
       <c r="AK10" s="20"/>
     </row>
-    <row r="11" spans="1:37" ht="12.75">
+    <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
         <v>24</v>
       </c>
@@ -1633,7 +1639,7 @@
       <c r="AJ11" s="27"/>
       <c r="AK11" s="20"/>
     </row>
-    <row r="12" spans="1:37" ht="14.25" customHeight="1">
+    <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
         <v>36</v>
       </c>
@@ -1688,7 +1694,7 @@
       <c r="AJ12" s="27"/>
       <c r="AK12" s="20"/>
     </row>
-    <row r="13" spans="1:37" ht="12.75">
+    <row r="13" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="49" t="s">
         <v>25</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="25">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -1717,7 +1723,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="57">
         <f>E13</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -1743,7 +1749,7 @@
       <c r="AJ13" s="27"/>
       <c r="AK13" s="20"/>
     </row>
-    <row r="14" spans="1:37" ht="25.5">
+    <row r="14" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="49" t="s">
         <v>26</v>
       </c>
@@ -1798,7 +1804,7 @@
       <c r="AJ14" s="27"/>
       <c r="AK14" s="20"/>
     </row>
-    <row r="15" spans="1:37" ht="12.75">
+    <row r="15" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1859,7 @@
       <c r="AJ15" s="32"/>
       <c r="AK15" s="40"/>
     </row>
-    <row r="16" spans="1:37" ht="25.5">
+    <row r="16" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>27</v>
       </c>
@@ -1908,7 +1914,7 @@
       <c r="AJ16" s="27"/>
       <c r="AK16" s="20"/>
     </row>
-    <row r="17" spans="1:37" ht="30" customHeight="1">
+    <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="49" t="s">
         <v>30</v>
       </c>
@@ -1963,7 +1969,7 @@
       <c r="AJ17" s="27"/>
       <c r="AK17" s="20"/>
     </row>
-    <row r="18" spans="1:37" ht="12.75">
+    <row r="18" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
         <v>29</v>
       </c>
@@ -2018,7 +2024,7 @@
       <c r="AJ18" s="27"/>
       <c r="AK18" s="20"/>
     </row>
-    <row r="19" spans="1:37" ht="12.75">
+    <row r="19" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
         <v>28</v>
       </c>
@@ -2071,7 +2077,7 @@
       <c r="AJ19" s="27"/>
       <c r="AK19" s="20"/>
     </row>
-    <row r="20" spans="1:37" ht="12.75">
+    <row r="20" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>15</v>
       </c>
@@ -2127,7 +2133,7 @@
       <c r="AJ20" s="32"/>
       <c r="AK20" s="40"/>
     </row>
-    <row r="21" spans="1:37" ht="25.5">
+    <row r="21" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
         <v>31</v>
       </c>
@@ -2182,7 +2188,7 @@
       <c r="AJ21" s="27"/>
       <c r="AK21" s="20"/>
     </row>
-    <row r="22" spans="1:37" ht="12.75">
+    <row r="22" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="18"/>
       <c r="C22" s="42"/>
@@ -2217,7 +2223,7 @@
       <c r="AJ22" s="45"/>
       <c r="AK22" s="46"/>
     </row>
-    <row r="23" spans="1:37" ht="18">
+    <row r="23" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2260,7 @@
       <c r="AJ23" s="45"/>
       <c r="AK23" s="46"/>
     </row>
-    <row r="24" spans="1:37" ht="12.75">
+    <row r="24" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
       <c r="D24" s="43"/>
@@ -2291,7 +2297,7 @@
       <c r="AJ24" s="46"/>
       <c r="AK24" s="46"/>
     </row>
-    <row r="25" spans="1:37" ht="12.75">
+    <row r="25" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
       <c r="D25" s="43"/>
@@ -2328,7 +2334,7 @@
       <c r="AJ25" s="46"/>
       <c r="AK25" s="46"/>
     </row>
-    <row r="26" spans="1:37" ht="12.75">
+    <row r="26" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
       <c r="D26" s="43"/>
@@ -2365,7 +2371,7 @@
       <c r="AJ26" s="46"/>
       <c r="AK26" s="46"/>
     </row>
-    <row r="27" spans="1:37" ht="12.75">
+    <row r="27" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
       <c r="D27" s="43"/>
@@ -2402,7 +2408,7 @@
       <c r="AJ27" s="46"/>
       <c r="AK27" s="46"/>
     </row>
-    <row r="28" spans="1:37" ht="12.75">
+    <row r="28" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="43"/>
@@ -2439,7 +2445,7 @@
       <c r="AJ28" s="46"/>
       <c r="AK28" s="46"/>
     </row>
-    <row r="29" spans="1:37" ht="12.75">
+    <row r="29" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
       <c r="D29" s="43"/>
@@ -2476,7 +2482,7 @@
       <c r="AJ29" s="46"/>
       <c r="AK29" s="46"/>
     </row>
-    <row r="30" spans="1:37" ht="12.75">
+    <row r="30" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="43"/>
@@ -2513,7 +2519,7 @@
       <c r="AJ30" s="46"/>
       <c r="AK30" s="46"/>
     </row>
-    <row r="31" spans="1:37" ht="12.75">
+    <row r="31" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="43"/>
@@ -2550,7 +2556,7 @@
       <c r="AJ31" s="46"/>
       <c r="AK31" s="46"/>
     </row>
-    <row r="32" spans="1:37" ht="12.75">
+    <row r="32" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="D32" s="43"/>
@@ -2587,7 +2593,7 @@
       <c r="AJ32" s="46"/>
       <c r="AK32" s="46"/>
     </row>
-    <row r="33" spans="2:37" ht="12.75">
+    <row r="33" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="43"/>
@@ -2624,7 +2630,7 @@
       <c r="AJ33" s="46"/>
       <c r="AK33" s="46"/>
     </row>
-    <row r="34" spans="2:37" ht="12.75">
+    <row r="34" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="D34" s="43"/>
@@ -2661,7 +2667,7 @@
       <c r="AJ34" s="46"/>
       <c r="AK34" s="46"/>
     </row>
-    <row r="35" spans="2:37" ht="12.75">
+    <row r="35" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="D35" s="43"/>
@@ -2698,7 +2704,7 @@
       <c r="AJ35" s="46"/>
       <c r="AK35" s="46"/>
     </row>
-    <row r="36" spans="2:37" ht="12.75">
+    <row r="36" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
       <c r="D36" s="43"/>
@@ -2735,7 +2741,7 @@
       <c r="AJ36" s="46"/>
       <c r="AK36" s="46"/>
     </row>
-    <row r="37" spans="2:37" ht="12.75">
+    <row r="37" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
       <c r="D37" s="43"/>
@@ -2772,7 +2778,7 @@
       <c r="AJ37" s="46"/>
       <c r="AK37" s="46"/>
     </row>
-    <row r="38" spans="2:37" ht="12.75">
+    <row r="38" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
       <c r="D38" s="43"/>
@@ -2809,7 +2815,7 @@
       <c r="AJ38" s="46"/>
       <c r="AK38" s="46"/>
     </row>
-    <row r="39" spans="2:37" ht="12.75">
+    <row r="39" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
       <c r="D39" s="43"/>
@@ -2846,7 +2852,7 @@
       <c r="AJ39" s="46"/>
       <c r="AK39" s="46"/>
     </row>
-    <row r="40" spans="2:37" ht="12.75">
+    <row r="40" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
       <c r="D40" s="43"/>
@@ -2883,7 +2889,7 @@
       <c r="AJ40" s="46"/>
       <c r="AK40" s="46"/>
     </row>
-    <row r="41" spans="2:37" ht="12.75">
+    <row r="41" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
       <c r="D41" s="43"/>
@@ -2920,7 +2926,7 @@
       <c r="AJ41" s="46"/>
       <c r="AK41" s="46"/>
     </row>
-    <row r="42" spans="2:37" ht="12.75">
+    <row r="42" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
       <c r="D42" s="43"/>
@@ -2957,7 +2963,7 @@
       <c r="AJ42" s="46"/>
       <c r="AK42" s="46"/>
     </row>
-    <row r="43" spans="2:37" ht="12.75">
+    <row r="43" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
       <c r="D43" s="43"/>
@@ -2994,7 +3000,7 @@
       <c r="AJ43" s="46"/>
       <c r="AK43" s="46"/>
     </row>
-    <row r="44" spans="2:37" ht="12.75">
+    <row r="44" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
       <c r="D44" s="43"/>
@@ -3031,7 +3037,7 @@
       <c r="AJ44" s="46"/>
       <c r="AK44" s="46"/>
     </row>
-    <row r="45" spans="2:37" ht="12.75">
+    <row r="45" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
       <c r="D45" s="43"/>
@@ -3068,7 +3074,7 @@
       <c r="AJ45" s="46"/>
       <c r="AK45" s="46"/>
     </row>
-    <row r="46" spans="2:37" ht="12.75">
+    <row r="46" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
       <c r="D46" s="43"/>
@@ -3105,7 +3111,7 @@
       <c r="AJ46" s="46"/>
       <c r="AK46" s="46"/>
     </row>
-    <row r="47" spans="2:37" ht="12.75">
+    <row r="47" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
       <c r="D47" s="43"/>
@@ -3142,7 +3148,7 @@
       <c r="AJ47" s="46"/>
       <c r="AK47" s="46"/>
     </row>
-    <row r="48" spans="2:37" ht="12.75">
+    <row r="48" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
       <c r="D48" s="43"/>
@@ -3179,7 +3185,7 @@
       <c r="AJ48" s="46"/>
       <c r="AK48" s="46"/>
     </row>
-    <row r="49" spans="2:37" ht="12.75">
+    <row r="49" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
       <c r="D49" s="43"/>
@@ -3216,7 +3222,7 @@
       <c r="AJ49" s="46"/>
       <c r="AK49" s="46"/>
     </row>
-    <row r="50" spans="2:37" ht="12.75">
+    <row r="50" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
       <c r="D50" s="43"/>
@@ -3253,7 +3259,7 @@
       <c r="AJ50" s="46"/>
       <c r="AK50" s="46"/>
     </row>
-    <row r="51" spans="2:37" ht="12.75">
+    <row r="51" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
       <c r="D51" s="43"/>
@@ -3290,7 +3296,7 @@
       <c r="AJ51" s="46"/>
       <c r="AK51" s="46"/>
     </row>
-    <row r="52" spans="2:37" ht="12.75">
+    <row r="52" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
       <c r="D52" s="43"/>
@@ -3327,7 +3333,7 @@
       <c r="AJ52" s="46"/>
       <c r="AK52" s="46"/>
     </row>
-    <row r="53" spans="2:37" ht="12.75">
+    <row r="53" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
       <c r="D53" s="43"/>
@@ -3364,7 +3370,7 @@
       <c r="AJ53" s="46"/>
       <c r="AK53" s="46"/>
     </row>
-    <row r="54" spans="2:37" ht="12.75">
+    <row r="54" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
       <c r="D54" s="43"/>
@@ -3401,7 +3407,7 @@
       <c r="AJ54" s="46"/>
       <c r="AK54" s="46"/>
     </row>
-    <row r="55" spans="2:37" ht="12.75">
+    <row r="55" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
       <c r="D55" s="43"/>
@@ -3438,7 +3444,7 @@
       <c r="AJ55" s="46"/>
       <c r="AK55" s="46"/>
     </row>
-    <row r="56" spans="2:37" ht="12.75">
+    <row r="56" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
       <c r="D56" s="43"/>
@@ -3475,7 +3481,7 @@
       <c r="AJ56" s="46"/>
       <c r="AK56" s="46"/>
     </row>
-    <row r="57" spans="2:37" ht="12.75">
+    <row r="57" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
       <c r="D57" s="43"/>
@@ -3512,7 +3518,7 @@
       <c r="AJ57" s="46"/>
       <c r="AK57" s="46"/>
     </row>
-    <row r="58" spans="2:37" ht="12.75">
+    <row r="58" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
       <c r="D58" s="43"/>
@@ -3549,7 +3555,7 @@
       <c r="AJ58" s="46"/>
       <c r="AK58" s="46"/>
     </row>
-    <row r="59" spans="2:37" ht="12.75">
+    <row r="59" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
       <c r="D59" s="43"/>
@@ -3586,7 +3592,7 @@
       <c r="AJ59" s="46"/>
       <c r="AK59" s="46"/>
     </row>
-    <row r="60" spans="2:37" ht="12.75">
+    <row r="60" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
       <c r="D60" s="43"/>
@@ -3623,7 +3629,7 @@
       <c r="AJ60" s="46"/>
       <c r="AK60" s="46"/>
     </row>
-    <row r="61" spans="2:37" ht="12.75">
+    <row r="61" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
       <c r="D61" s="43"/>
@@ -3660,7 +3666,7 @@
       <c r="AJ61" s="46"/>
       <c r="AK61" s="46"/>
     </row>
-    <row r="62" spans="2:37" ht="12.75">
+    <row r="62" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
       <c r="D62" s="43"/>
@@ -3697,7 +3703,7 @@
       <c r="AJ62" s="46"/>
       <c r="AK62" s="46"/>
     </row>
-    <row r="63" spans="2:37" ht="12.75">
+    <row r="63" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
       <c r="D63" s="43"/>
@@ -3734,7 +3740,7 @@
       <c r="AJ63" s="46"/>
       <c r="AK63" s="46"/>
     </row>
-    <row r="64" spans="2:37" ht="12.75">
+    <row r="64" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
       <c r="D64" s="43"/>
@@ -3771,7 +3777,7 @@
       <c r="AJ64" s="46"/>
       <c r="AK64" s="46"/>
     </row>
-    <row r="65" spans="2:37" ht="12.75">
+    <row r="65" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
       <c r="D65" s="43"/>
@@ -3808,7 +3814,7 @@
       <c r="AJ65" s="46"/>
       <c r="AK65" s="46"/>
     </row>
-    <row r="66" spans="2:37" ht="12.75">
+    <row r="66" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="47"/>
       <c r="C66" s="47"/>
       <c r="D66" s="43"/>
@@ -3845,7 +3851,7 @@
       <c r="AJ66" s="46"/>
       <c r="AK66" s="46"/>
     </row>
-    <row r="67" spans="2:37" ht="12.75">
+    <row r="67" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
       <c r="D67" s="43"/>
@@ -3882,7 +3888,7 @@
       <c r="AJ67" s="46"/>
       <c r="AK67" s="46"/>
     </row>
-    <row r="68" spans="2:37" ht="12.75">
+    <row r="68" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
       <c r="D68" s="43"/>
@@ -3919,7 +3925,7 @@
       <c r="AJ68" s="46"/>
       <c r="AK68" s="46"/>
     </row>
-    <row r="69" spans="2:37" ht="12.75">
+    <row r="69" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
       <c r="D69" s="43"/>
@@ -3956,7 +3962,7 @@
       <c r="AJ69" s="46"/>
       <c r="AK69" s="46"/>
     </row>
-    <row r="70" spans="2:37" ht="12.75">
+    <row r="70" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
       <c r="D70" s="43"/>
@@ -3993,7 +3999,7 @@
       <c r="AJ70" s="46"/>
       <c r="AK70" s="46"/>
     </row>
-    <row r="71" spans="2:37" ht="12.75">
+    <row r="71" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
       <c r="D71" s="43"/>
@@ -4030,7 +4036,7 @@
       <c r="AJ71" s="46"/>
       <c r="AK71" s="46"/>
     </row>
-    <row r="72" spans="2:37" ht="12.75">
+    <row r="72" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
       <c r="D72" s="43"/>
@@ -4067,7 +4073,7 @@
       <c r="AJ72" s="46"/>
       <c r="AK72" s="46"/>
     </row>
-    <row r="73" spans="2:37" ht="12.75">
+    <row r="73" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
       <c r="D73" s="43"/>
@@ -4104,7 +4110,7 @@
       <c r="AJ73" s="46"/>
       <c r="AK73" s="46"/>
     </row>
-    <row r="74" spans="2:37" ht="12.75">
+    <row r="74" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
       <c r="D74" s="43"/>
@@ -4141,7 +4147,7 @@
       <c r="AJ74" s="46"/>
       <c r="AK74" s="46"/>
     </row>
-    <row r="75" spans="2:37" ht="12.75">
+    <row r="75" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
       <c r="D75" s="43"/>
@@ -4178,7 +4184,7 @@
       <c r="AJ75" s="46"/>
       <c r="AK75" s="46"/>
     </row>
-    <row r="76" spans="2:37" ht="12.75">
+    <row r="76" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
       <c r="D76" s="43"/>
@@ -4215,7 +4221,7 @@
       <c r="AJ76" s="46"/>
       <c r="AK76" s="46"/>
     </row>
-    <row r="77" spans="2:37" ht="12.75">
+    <row r="77" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
       <c r="D77" s="43"/>
@@ -4252,7 +4258,7 @@
       <c r="AJ77" s="46"/>
       <c r="AK77" s="46"/>
     </row>
-    <row r="78" spans="2:37" ht="12.75">
+    <row r="78" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
       <c r="D78" s="43"/>
@@ -4289,7 +4295,7 @@
       <c r="AJ78" s="46"/>
       <c r="AK78" s="46"/>
     </row>
-    <row r="79" spans="2:37" ht="12.75">
+    <row r="79" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
       <c r="D79" s="43"/>
@@ -4326,7 +4332,7 @@
       <c r="AJ79" s="46"/>
       <c r="AK79" s="46"/>
     </row>
-    <row r="80" spans="2:37" ht="12.75">
+    <row r="80" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
       <c r="D80" s="43"/>
@@ -4363,7 +4369,7 @@
       <c r="AJ80" s="46"/>
       <c r="AK80" s="46"/>
     </row>
-    <row r="81" spans="2:37" ht="12.75">
+    <row r="81" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
       <c r="D81" s="43"/>
@@ -4400,7 +4406,7 @@
       <c r="AJ81" s="46"/>
       <c r="AK81" s="46"/>
     </row>
-    <row r="82" spans="2:37" ht="12.75">
+    <row r="82" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
       <c r="D82" s="43"/>
@@ -4437,7 +4443,7 @@
       <c r="AJ82" s="46"/>
       <c r="AK82" s="46"/>
     </row>
-    <row r="83" spans="2:37" ht="12.75">
+    <row r="83" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="47"/>
       <c r="C83" s="47"/>
       <c r="D83" s="43"/>
@@ -4474,7 +4480,7 @@
       <c r="AJ83" s="46"/>
       <c r="AK83" s="46"/>
     </row>
-    <row r="84" spans="2:37" ht="12.75">
+    <row r="84" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
       <c r="D84" s="43"/>
@@ -4511,7 +4517,7 @@
       <c r="AJ84" s="46"/>
       <c r="AK84" s="46"/>
     </row>
-    <row r="85" spans="2:37" ht="12.75">
+    <row r="85" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
       <c r="D85" s="43"/>
@@ -4548,7 +4554,7 @@
       <c r="AJ85" s="46"/>
       <c r="AK85" s="46"/>
     </row>
-    <row r="86" spans="2:37" ht="12.75">
+    <row r="86" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="47"/>
       <c r="C86" s="47"/>
       <c r="D86" s="43"/>
@@ -4585,7 +4591,7 @@
       <c r="AJ86" s="46"/>
       <c r="AK86" s="46"/>
     </row>
-    <row r="87" spans="2:37" ht="12.75">
+    <row r="87" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
       <c r="D87" s="43"/>
@@ -4622,7 +4628,7 @@
       <c r="AJ87" s="46"/>
       <c r="AK87" s="46"/>
     </row>
-    <row r="88" spans="2:37" ht="12.75">
+    <row r="88" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="47"/>
       <c r="C88" s="47"/>
       <c r="D88" s="43"/>
@@ -4659,7 +4665,7 @@
       <c r="AJ88" s="46"/>
       <c r="AK88" s="46"/>
     </row>
-    <row r="89" spans="2:37" ht="12.75">
+    <row r="89" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
       <c r="D89" s="43"/>
@@ -4696,7 +4702,7 @@
       <c r="AJ89" s="46"/>
       <c r="AK89" s="46"/>
     </row>
-    <row r="90" spans="2:37" ht="12.75">
+    <row r="90" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="47"/>
       <c r="C90" s="47"/>
       <c r="D90" s="43"/>
@@ -4733,7 +4739,7 @@
       <c r="AJ90" s="46"/>
       <c r="AK90" s="46"/>
     </row>
-    <row r="91" spans="2:37" ht="12.75">
+    <row r="91" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="47"/>
       <c r="C91" s="47"/>
       <c r="D91" s="43"/>
@@ -4770,7 +4776,7 @@
       <c r="AJ91" s="46"/>
       <c r="AK91" s="46"/>
     </row>
-    <row r="92" spans="2:37" ht="12.75">
+    <row r="92" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
       <c r="D92" s="43"/>
@@ -4807,7 +4813,7 @@
       <c r="AJ92" s="46"/>
       <c r="AK92" s="46"/>
     </row>
-    <row r="93" spans="2:37" ht="12.75">
+    <row r="93" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="47"/>
       <c r="C93" s="47"/>
       <c r="D93" s="43"/>
@@ -4844,7 +4850,7 @@
       <c r="AJ93" s="46"/>
       <c r="AK93" s="46"/>
     </row>
-    <row r="94" spans="2:37" ht="12.75">
+    <row r="94" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="47"/>
       <c r="C94" s="47"/>
       <c r="D94" s="43"/>
@@ -4881,7 +4887,7 @@
       <c r="AJ94" s="46"/>
       <c r="AK94" s="46"/>
     </row>
-    <row r="95" spans="2:37" ht="12.75">
+    <row r="95" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="47"/>
       <c r="C95" s="47"/>
       <c r="D95" s="43"/>
@@ -4918,7 +4924,7 @@
       <c r="AJ95" s="46"/>
       <c r="AK95" s="46"/>
     </row>
-    <row r="96" spans="2:37" ht="12.75">
+    <row r="96" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="47"/>
       <c r="C96" s="47"/>
       <c r="D96" s="43"/>
@@ -4955,7 +4961,7 @@
       <c r="AJ96" s="46"/>
       <c r="AK96" s="46"/>
     </row>
-    <row r="97" spans="2:37" ht="12.75">
+    <row r="97" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="47"/>
       <c r="C97" s="47"/>
       <c r="D97" s="43"/>
@@ -4992,7 +4998,7 @@
       <c r="AJ97" s="46"/>
       <c r="AK97" s="46"/>
     </row>
-    <row r="98" spans="2:37" ht="12.75">
+    <row r="98" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="47"/>
       <c r="C98" s="47"/>
       <c r="D98" s="43"/>
@@ -5029,7 +5035,7 @@
       <c r="AJ98" s="46"/>
       <c r="AK98" s="46"/>
     </row>
-    <row r="99" spans="2:37" ht="12.75">
+    <row r="99" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
       <c r="D99" s="43"/>
@@ -5066,7 +5072,7 @@
       <c r="AJ99" s="46"/>
       <c r="AK99" s="46"/>
     </row>
-    <row r="100" spans="2:37" ht="12.75">
+    <row r="100" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="47"/>
       <c r="C100" s="47"/>
       <c r="D100" s="43"/>
@@ -5103,7 +5109,7 @@
       <c r="AJ100" s="46"/>
       <c r="AK100" s="46"/>
     </row>
-    <row r="101" spans="2:37" ht="12.75">
+    <row r="101" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
       <c r="D101" s="43"/>
@@ -5140,7 +5146,7 @@
       <c r="AJ101" s="46"/>
       <c r="AK101" s="46"/>
     </row>
-    <row r="102" spans="2:37" ht="12.75">
+    <row r="102" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="47"/>
       <c r="C102" s="47"/>
       <c r="D102" s="43"/>
@@ -5177,7 +5183,7 @@
       <c r="AJ102" s="46"/>
       <c r="AK102" s="46"/>
     </row>
-    <row r="103" spans="2:37" ht="12.75">
+    <row r="103" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="47"/>
       <c r="C103" s="47"/>
       <c r="D103" s="43"/>
@@ -5214,7 +5220,7 @@
       <c r="AJ103" s="46"/>
       <c r="AK103" s="46"/>
     </row>
-    <row r="104" spans="2:37" ht="12.75">
+    <row r="104" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="47"/>
       <c r="C104" s="47"/>
       <c r="D104" s="43"/>
@@ -5251,7 +5257,7 @@
       <c r="AJ104" s="46"/>
       <c r="AK104" s="46"/>
     </row>
-    <row r="105" spans="2:37" ht="12.75">
+    <row r="105" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
       <c r="D105" s="43"/>
@@ -5288,7 +5294,7 @@
       <c r="AJ105" s="46"/>
       <c r="AK105" s="46"/>
     </row>
-    <row r="106" spans="2:37" ht="12.75">
+    <row r="106" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="47"/>
       <c r="C106" s="47"/>
       <c r="D106" s="43"/>
@@ -5325,7 +5331,7 @@
       <c r="AJ106" s="46"/>
       <c r="AK106" s="46"/>
     </row>
-    <row r="107" spans="2:37" ht="12.75">
+    <row r="107" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="47"/>
       <c r="C107" s="47"/>
       <c r="D107" s="43"/>
@@ -5362,7 +5368,7 @@
       <c r="AJ107" s="46"/>
       <c r="AK107" s="46"/>
     </row>
-    <row r="108" spans="2:37" ht="12.75">
+    <row r="108" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
       <c r="D108" s="43"/>
@@ -5399,7 +5405,7 @@
       <c r="AJ108" s="46"/>
       <c r="AK108" s="46"/>
     </row>
-    <row r="109" spans="2:37" ht="12.75">
+    <row r="109" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="47"/>
       <c r="C109" s="47"/>
       <c r="D109" s="43"/>
@@ -5436,7 +5442,7 @@
       <c r="AJ109" s="46"/>
       <c r="AK109" s="46"/>
     </row>
-    <row r="110" spans="2:37" ht="12.75">
+    <row r="110" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="47"/>
       <c r="C110" s="47"/>
       <c r="D110" s="43"/>
@@ -5473,7 +5479,7 @@
       <c r="AJ110" s="46"/>
       <c r="AK110" s="46"/>
     </row>
-    <row r="111" spans="2:37" ht="12.75">
+    <row r="111" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="47"/>
       <c r="C111" s="47"/>
       <c r="D111" s="43"/>
@@ -5510,7 +5516,7 @@
       <c r="AJ111" s="46"/>
       <c r="AK111" s="46"/>
     </row>
-    <row r="112" spans="2:37" ht="12.75">
+    <row r="112" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="47"/>
       <c r="C112" s="47"/>
       <c r="D112" s="43"/>
@@ -5547,7 +5553,7 @@
       <c r="AJ112" s="46"/>
       <c r="AK112" s="46"/>
     </row>
-    <row r="113" spans="2:37" ht="12.75">
+    <row r="113" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="47"/>
       <c r="C113" s="47"/>
       <c r="D113" s="43"/>
@@ -5584,7 +5590,7 @@
       <c r="AJ113" s="46"/>
       <c r="AK113" s="46"/>
     </row>
-    <row r="114" spans="2:37" ht="12.75">
+    <row r="114" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="47"/>
       <c r="C114" s="47"/>
       <c r="D114" s="43"/>
@@ -5621,7 +5627,7 @@
       <c r="AJ114" s="46"/>
       <c r="AK114" s="46"/>
     </row>
-    <row r="115" spans="2:37" ht="12.75">
+    <row r="115" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="47"/>
       <c r="C115" s="47"/>
       <c r="D115" s="43"/>
@@ -5658,7 +5664,7 @@
       <c r="AJ115" s="46"/>
       <c r="AK115" s="46"/>
     </row>
-    <row r="116" spans="2:37" ht="12.75">
+    <row r="116" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="47"/>
       <c r="C116" s="47"/>
       <c r="D116" s="43"/>
@@ -5695,7 +5701,7 @@
       <c r="AJ116" s="46"/>
       <c r="AK116" s="46"/>
     </row>
-    <row r="117" spans="2:37" ht="12.75">
+    <row r="117" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="47"/>
       <c r="C117" s="47"/>
       <c r="D117" s="43"/>
@@ -5732,7 +5738,7 @@
       <c r="AJ117" s="46"/>
       <c r="AK117" s="46"/>
     </row>
-    <row r="118" spans="2:37" ht="12.75">
+    <row r="118" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="47"/>
       <c r="C118" s="47"/>
       <c r="D118" s="43"/>
@@ -5769,7 +5775,7 @@
       <c r="AJ118" s="46"/>
       <c r="AK118" s="46"/>
     </row>
-    <row r="119" spans="2:37" ht="12.75">
+    <row r="119" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="47"/>
       <c r="C119" s="47"/>
       <c r="D119" s="43"/>
@@ -5806,7 +5812,7 @@
       <c r="AJ119" s="46"/>
       <c r="AK119" s="46"/>
     </row>
-    <row r="120" spans="2:37" ht="12.75">
+    <row r="120" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="47"/>
       <c r="C120" s="47"/>
       <c r="D120" s="43"/>
@@ -5843,7 +5849,7 @@
       <c r="AJ120" s="46"/>
       <c r="AK120" s="46"/>
     </row>
-    <row r="121" spans="2:37" ht="12.75">
+    <row r="121" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="47"/>
       <c r="C121" s="47"/>
       <c r="D121" s="43"/>
@@ -5880,7 +5886,7 @@
       <c r="AJ121" s="46"/>
       <c r="AK121" s="46"/>
     </row>
-    <row r="122" spans="2:37" ht="12.75">
+    <row r="122" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="47"/>
       <c r="C122" s="47"/>
       <c r="D122" s="43"/>
@@ -5917,7 +5923,7 @@
       <c r="AJ122" s="46"/>
       <c r="AK122" s="46"/>
     </row>
-    <row r="123" spans="2:37" ht="12.75">
+    <row r="123" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="47"/>
       <c r="C123" s="47"/>
       <c r="D123" s="43"/>
@@ -5954,7 +5960,7 @@
       <c r="AJ123" s="46"/>
       <c r="AK123" s="46"/>
     </row>
-    <row r="124" spans="2:37" ht="12.75">
+    <row r="124" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="47"/>
       <c r="C124" s="47"/>
       <c r="D124" s="43"/>
@@ -5991,7 +5997,7 @@
       <c r="AJ124" s="46"/>
       <c r="AK124" s="46"/>
     </row>
-    <row r="125" spans="2:37" ht="12.75">
+    <row r="125" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="47"/>
       <c r="C125" s="47"/>
       <c r="D125" s="43"/>
@@ -6028,7 +6034,7 @@
       <c r="AJ125" s="46"/>
       <c r="AK125" s="46"/>
     </row>
-    <row r="126" spans="2:37" ht="12.75">
+    <row r="126" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="47"/>
       <c r="C126" s="47"/>
       <c r="D126" s="43"/>
@@ -6065,7 +6071,7 @@
       <c r="AJ126" s="46"/>
       <c r="AK126" s="46"/>
     </row>
-    <row r="127" spans="2:37" ht="12.75">
+    <row r="127" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="47"/>
       <c r="C127" s="47"/>
       <c r="D127" s="43"/>
@@ -6102,7 +6108,7 @@
       <c r="AJ127" s="46"/>
       <c r="AK127" s="46"/>
     </row>
-    <row r="128" spans="2:37" ht="12.75">
+    <row r="128" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="47"/>
       <c r="C128" s="47"/>
       <c r="D128" s="43"/>
@@ -6139,7 +6145,7 @@
       <c r="AJ128" s="46"/>
       <c r="AK128" s="46"/>
     </row>
-    <row r="129" spans="2:37" ht="12.75">
+    <row r="129" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="47"/>
       <c r="C129" s="47"/>
       <c r="D129" s="43"/>
@@ -6176,7 +6182,7 @@
       <c r="AJ129" s="46"/>
       <c r="AK129" s="46"/>
     </row>
-    <row r="130" spans="2:37" ht="12.75">
+    <row r="130" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="47"/>
       <c r="C130" s="47"/>
       <c r="D130" s="43"/>
@@ -6213,7 +6219,7 @@
       <c r="AJ130" s="46"/>
       <c r="AK130" s="46"/>
     </row>
-    <row r="131" spans="2:37" ht="12.75">
+    <row r="131" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="47"/>
       <c r="C131" s="47"/>
       <c r="D131" s="43"/>
@@ -6250,7 +6256,7 @@
       <c r="AJ131" s="46"/>
       <c r="AK131" s="46"/>
     </row>
-    <row r="132" spans="2:37" ht="12.75">
+    <row r="132" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="47"/>
       <c r="C132" s="47"/>
       <c r="D132" s="43"/>
@@ -6287,7 +6293,7 @@
       <c r="AJ132" s="46"/>
       <c r="AK132" s="46"/>
     </row>
-    <row r="133" spans="2:37" ht="12.75">
+    <row r="133" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="47"/>
       <c r="C133" s="47"/>
       <c r="D133" s="43"/>
@@ -6324,7 +6330,7 @@
       <c r="AJ133" s="46"/>
       <c r="AK133" s="46"/>
     </row>
-    <row r="134" spans="2:37" ht="12.75">
+    <row r="134" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="47"/>
       <c r="C134" s="47"/>
       <c r="D134" s="43"/>
@@ -6361,7 +6367,7 @@
       <c r="AJ134" s="46"/>
       <c r="AK134" s="46"/>
     </row>
-    <row r="135" spans="2:37" ht="12.75">
+    <row r="135" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="47"/>
       <c r="C135" s="47"/>
       <c r="D135" s="43"/>
@@ -6398,7 +6404,7 @@
       <c r="AJ135" s="46"/>
       <c r="AK135" s="46"/>
     </row>
-    <row r="136" spans="2:37" ht="12.75">
+    <row r="136" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="47"/>
       <c r="C136" s="47"/>
       <c r="D136" s="43"/>
@@ -6435,7 +6441,7 @@
       <c r="AJ136" s="46"/>
       <c r="AK136" s="46"/>
     </row>
-    <row r="137" spans="2:37" ht="12.75">
+    <row r="137" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="47"/>
       <c r="C137" s="47"/>
       <c r="D137" s="43"/>
@@ -6472,7 +6478,7 @@
       <c r="AJ137" s="46"/>
       <c r="AK137" s="46"/>
     </row>
-    <row r="138" spans="2:37" ht="12.75">
+    <row r="138" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="47"/>
       <c r="C138" s="47"/>
       <c r="D138" s="43"/>
@@ -6509,7 +6515,7 @@
       <c r="AJ138" s="46"/>
       <c r="AK138" s="46"/>
     </row>
-    <row r="139" spans="2:37" ht="12.75">
+    <row r="139" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="47"/>
       <c r="C139" s="47"/>
       <c r="D139" s="43"/>
@@ -6546,7 +6552,7 @@
       <c r="AJ139" s="46"/>
       <c r="AK139" s="46"/>
     </row>
-    <row r="140" spans="2:37" ht="12.75">
+    <row r="140" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="47"/>
       <c r="C140" s="47"/>
       <c r="D140" s="43"/>
@@ -6583,7 +6589,7 @@
       <c r="AJ140" s="46"/>
       <c r="AK140" s="46"/>
     </row>
-    <row r="141" spans="2:37" ht="12.75">
+    <row r="141" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="47"/>
       <c r="C141" s="47"/>
       <c r="D141" s="43"/>
@@ -6620,7 +6626,7 @@
       <c r="AJ141" s="46"/>
       <c r="AK141" s="46"/>
     </row>
-    <row r="142" spans="2:37" ht="12.75">
+    <row r="142" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="47"/>
       <c r="C142" s="47"/>
       <c r="D142" s="43"/>
@@ -6657,7 +6663,7 @@
       <c r="AJ142" s="46"/>
       <c r="AK142" s="46"/>
     </row>
-    <row r="143" spans="2:37" ht="12.75">
+    <row r="143" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="47"/>
       <c r="C143" s="47"/>
       <c r="D143" s="43"/>
@@ -6694,7 +6700,7 @@
       <c r="AJ143" s="46"/>
       <c r="AK143" s="46"/>
     </row>
-    <row r="144" spans="2:37" ht="12.75">
+    <row r="144" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="47"/>
       <c r="C144" s="47"/>
       <c r="D144" s="43"/>
@@ -6731,7 +6737,7 @@
       <c r="AJ144" s="46"/>
       <c r="AK144" s="46"/>
     </row>
-    <row r="145" spans="2:37" ht="12.75">
+    <row r="145" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="47"/>
       <c r="C145" s="47"/>
       <c r="D145" s="43"/>
@@ -6768,7 +6774,7 @@
       <c r="AJ145" s="46"/>
       <c r="AK145" s="46"/>
     </row>
-    <row r="146" spans="2:37" ht="12.75">
+    <row r="146" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="47"/>
       <c r="C146" s="47"/>
       <c r="D146" s="43"/>
@@ -6805,7 +6811,7 @@
       <c r="AJ146" s="46"/>
       <c r="AK146" s="46"/>
     </row>
-    <row r="147" spans="2:37" ht="12.75">
+    <row r="147" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="47"/>
       <c r="C147" s="47"/>
       <c r="D147" s="43"/>
@@ -6842,7 +6848,7 @@
       <c r="AJ147" s="46"/>
       <c r="AK147" s="46"/>
     </row>
-    <row r="148" spans="2:37" ht="12.75">
+    <row r="148" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="47"/>
       <c r="C148" s="47"/>
       <c r="D148" s="43"/>
@@ -6879,7 +6885,7 @@
       <c r="AJ148" s="46"/>
       <c r="AK148" s="46"/>
     </row>
-    <row r="149" spans="2:37" ht="12.75">
+    <row r="149" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="47"/>
       <c r="C149" s="47"/>
       <c r="D149" s="43"/>
@@ -6916,7 +6922,7 @@
       <c r="AJ149" s="46"/>
       <c r="AK149" s="46"/>
     </row>
-    <row r="150" spans="2:37" ht="12.75">
+    <row r="150" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="47"/>
       <c r="C150" s="47"/>
       <c r="D150" s="43"/>
@@ -6953,7 +6959,7 @@
       <c r="AJ150" s="46"/>
       <c r="AK150" s="46"/>
     </row>
-    <row r="151" spans="2:37" ht="12.75">
+    <row r="151" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="47"/>
       <c r="C151" s="47"/>
       <c r="D151" s="43"/>
@@ -6990,7 +6996,7 @@
       <c r="AJ151" s="46"/>
       <c r="AK151" s="46"/>
     </row>
-    <row r="152" spans="2:37" ht="12.75">
+    <row r="152" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="47"/>
       <c r="C152" s="47"/>
       <c r="D152" s="43"/>
@@ -7027,7 +7033,7 @@
       <c r="AJ152" s="46"/>
       <c r="AK152" s="46"/>
     </row>
-    <row r="153" spans="2:37" ht="12.75">
+    <row r="153" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="47"/>
       <c r="C153" s="47"/>
       <c r="D153" s="43"/>
@@ -7064,7 +7070,7 @@
       <c r="AJ153" s="46"/>
       <c r="AK153" s="46"/>
     </row>
-    <row r="154" spans="2:37" ht="12.75">
+    <row r="154" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="47"/>
       <c r="C154" s="47"/>
       <c r="D154" s="43"/>
@@ -7101,7 +7107,7 @@
       <c r="AJ154" s="46"/>
       <c r="AK154" s="46"/>
     </row>
-    <row r="155" spans="2:37" ht="12.75">
+    <row r="155" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="47"/>
       <c r="C155" s="47"/>
       <c r="D155" s="43"/>
@@ -7138,7 +7144,7 @@
       <c r="AJ155" s="46"/>
       <c r="AK155" s="46"/>
     </row>
-    <row r="156" spans="2:37" ht="12.75">
+    <row r="156" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="47"/>
       <c r="C156" s="47"/>
       <c r="D156" s="43"/>
@@ -7175,7 +7181,7 @@
       <c r="AJ156" s="46"/>
       <c r="AK156" s="46"/>
     </row>
-    <row r="157" spans="2:37" ht="12.75">
+    <row r="157" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="47"/>
       <c r="C157" s="47"/>
       <c r="D157" s="43"/>
@@ -7212,7 +7218,7 @@
       <c r="AJ157" s="46"/>
       <c r="AK157" s="46"/>
     </row>
-    <row r="158" spans="2:37" ht="12.75">
+    <row r="158" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="47"/>
       <c r="C158" s="47"/>
       <c r="D158" s="43"/>
@@ -7249,7 +7255,7 @@
       <c r="AJ158" s="46"/>
       <c r="AK158" s="46"/>
     </row>
-    <row r="159" spans="2:37" ht="12.75">
+    <row r="159" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="47"/>
       <c r="C159" s="47"/>
       <c r="D159" s="43"/>
@@ -7286,7 +7292,7 @@
       <c r="AJ159" s="46"/>
       <c r="AK159" s="46"/>
     </row>
-    <row r="160" spans="2:37" ht="12.75">
+    <row r="160" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="47"/>
       <c r="C160" s="47"/>
       <c r="D160" s="43"/>
@@ -7323,7 +7329,7 @@
       <c r="AJ160" s="46"/>
       <c r="AK160" s="46"/>
     </row>
-    <row r="161" spans="2:37" ht="12.75">
+    <row r="161" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="47"/>
       <c r="C161" s="47"/>
       <c r="D161" s="43"/>
@@ -7360,7 +7366,7 @@
       <c r="AJ161" s="46"/>
       <c r="AK161" s="46"/>
     </row>
-    <row r="162" spans="2:37" ht="12.75">
+    <row r="162" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="47"/>
       <c r="C162" s="47"/>
       <c r="D162" s="43"/>
@@ -7397,7 +7403,7 @@
       <c r="AJ162" s="46"/>
       <c r="AK162" s="46"/>
     </row>
-    <row r="163" spans="2:37" ht="12.75">
+    <row r="163" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="47"/>
       <c r="C163" s="47"/>
       <c r="D163" s="43"/>
@@ -7434,7 +7440,7 @@
       <c r="AJ163" s="46"/>
       <c r="AK163" s="46"/>
     </row>
-    <row r="164" spans="2:37" ht="12.75">
+    <row r="164" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="47"/>
       <c r="C164" s="47"/>
       <c r="D164" s="43"/>
@@ -7471,7 +7477,7 @@
       <c r="AJ164" s="46"/>
       <c r="AK164" s="46"/>
     </row>
-    <row r="165" spans="2:37" ht="12.75">
+    <row r="165" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="47"/>
       <c r="C165" s="47"/>
       <c r="D165" s="43"/>
@@ -7508,7 +7514,7 @@
       <c r="AJ165" s="46"/>
       <c r="AK165" s="46"/>
     </row>
-    <row r="166" spans="2:37" ht="12.75">
+    <row r="166" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="47"/>
       <c r="C166" s="47"/>
       <c r="D166" s="43"/>
@@ -7545,7 +7551,7 @@
       <c r="AJ166" s="46"/>
       <c r="AK166" s="46"/>
     </row>
-    <row r="167" spans="2:37" ht="12.75">
+    <row r="167" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="47"/>
       <c r="C167" s="47"/>
       <c r="D167" s="43"/>
@@ -7582,7 +7588,7 @@
       <c r="AJ167" s="46"/>
       <c r="AK167" s="46"/>
     </row>
-    <row r="168" spans="2:37" ht="12.75">
+    <row r="168" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="47"/>
       <c r="C168" s="47"/>
       <c r="D168" s="43"/>
@@ -7619,7 +7625,7 @@
       <c r="AJ168" s="46"/>
       <c r="AK168" s="46"/>
     </row>
-    <row r="169" spans="2:37" ht="12.75">
+    <row r="169" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="47"/>
       <c r="C169" s="47"/>
       <c r="D169" s="43"/>
@@ -7656,7 +7662,7 @@
       <c r="AJ169" s="46"/>
       <c r="AK169" s="46"/>
     </row>
-    <row r="170" spans="2:37" ht="12.75">
+    <row r="170" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="47"/>
       <c r="C170" s="47"/>
       <c r="D170" s="43"/>
@@ -7693,7 +7699,7 @@
       <c r="AJ170" s="46"/>
       <c r="AK170" s="46"/>
     </row>
-    <row r="171" spans="2:37" ht="12.75">
+    <row r="171" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="47"/>
       <c r="C171" s="47"/>
       <c r="D171" s="43"/>
@@ -7730,7 +7736,7 @@
       <c r="AJ171" s="46"/>
       <c r="AK171" s="46"/>
     </row>
-    <row r="172" spans="2:37" ht="12.75">
+    <row r="172" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="47"/>
       <c r="C172" s="47"/>
       <c r="D172" s="43"/>
@@ -7767,7 +7773,7 @@
       <c r="AJ172" s="46"/>
       <c r="AK172" s="46"/>
     </row>
-    <row r="173" spans="2:37" ht="12.75">
+    <row r="173" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="47"/>
       <c r="C173" s="47"/>
       <c r="D173" s="43"/>
@@ -7804,7 +7810,7 @@
       <c r="AJ173" s="46"/>
       <c r="AK173" s="46"/>
     </row>
-    <row r="174" spans="2:37" ht="12.75">
+    <row r="174" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="47"/>
       <c r="C174" s="47"/>
       <c r="D174" s="43"/>
@@ -7841,7 +7847,7 @@
       <c r="AJ174" s="46"/>
       <c r="AK174" s="46"/>
     </row>
-    <row r="175" spans="2:37" ht="12.75">
+    <row r="175" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="47"/>
       <c r="C175" s="47"/>
       <c r="D175" s="43"/>
@@ -7878,7 +7884,7 @@
       <c r="AJ175" s="46"/>
       <c r="AK175" s="46"/>
     </row>
-    <row r="176" spans="2:37" ht="12.75">
+    <row r="176" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="47"/>
       <c r="C176" s="47"/>
       <c r="D176" s="43"/>
@@ -7915,7 +7921,7 @@
       <c r="AJ176" s="46"/>
       <c r="AK176" s="46"/>
     </row>
-    <row r="177" spans="2:37" ht="12.75">
+    <row r="177" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="47"/>
       <c r="C177" s="47"/>
       <c r="D177" s="43"/>
@@ -7952,7 +7958,7 @@
       <c r="AJ177" s="46"/>
       <c r="AK177" s="46"/>
     </row>
-    <row r="178" spans="2:37" ht="12.75">
+    <row r="178" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="47"/>
       <c r="C178" s="47"/>
       <c r="D178" s="43"/>
@@ -7989,7 +7995,7 @@
       <c r="AJ178" s="46"/>
       <c r="AK178" s="46"/>
     </row>
-    <row r="179" spans="2:37" ht="12.75">
+    <row r="179" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="47"/>
       <c r="C179" s="47"/>
       <c r="D179" s="43"/>
@@ -8026,7 +8032,7 @@
       <c r="AJ179" s="46"/>
       <c r="AK179" s="46"/>
     </row>
-    <row r="180" spans="2:37" ht="12.75">
+    <row r="180" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="47"/>
       <c r="C180" s="47"/>
       <c r="D180" s="43"/>
@@ -8063,7 +8069,7 @@
       <c r="AJ180" s="46"/>
       <c r="AK180" s="46"/>
     </row>
-    <row r="181" spans="2:37" ht="12.75">
+    <row r="181" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="47"/>
       <c r="C181" s="47"/>
       <c r="D181" s="43"/>
@@ -8100,7 +8106,7 @@
       <c r="AJ181" s="46"/>
       <c r="AK181" s="46"/>
     </row>
-    <row r="182" spans="2:37" ht="12.75">
+    <row r="182" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="47"/>
       <c r="C182" s="47"/>
       <c r="D182" s="43"/>
@@ -8137,7 +8143,7 @@
       <c r="AJ182" s="46"/>
       <c r="AK182" s="46"/>
     </row>
-    <row r="183" spans="2:37" ht="12.75">
+    <row r="183" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="47"/>
       <c r="C183" s="47"/>
       <c r="D183" s="43"/>
@@ -8174,7 +8180,7 @@
       <c r="AJ183" s="46"/>
       <c r="AK183" s="46"/>
     </row>
-    <row r="184" spans="2:37" ht="12.75">
+    <row r="184" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="47"/>
       <c r="C184" s="47"/>
       <c r="D184" s="43"/>
@@ -8211,7 +8217,7 @@
       <c r="AJ184" s="46"/>
       <c r="AK184" s="46"/>
     </row>
-    <row r="185" spans="2:37" ht="12.75">
+    <row r="185" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="47"/>
       <c r="C185" s="47"/>
       <c r="D185" s="43"/>
@@ -8248,7 +8254,7 @@
       <c r="AJ185" s="46"/>
       <c r="AK185" s="46"/>
     </row>
-    <row r="186" spans="2:37" ht="12.75">
+    <row r="186" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="47"/>
       <c r="C186" s="47"/>
       <c r="D186" s="43"/>
@@ -8285,7 +8291,7 @@
       <c r="AJ186" s="46"/>
       <c r="AK186" s="46"/>
     </row>
-    <row r="187" spans="2:37" ht="12.75">
+    <row r="187" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="47"/>
       <c r="C187" s="47"/>
       <c r="D187" s="43"/>
@@ -8322,7 +8328,7 @@
       <c r="AJ187" s="46"/>
       <c r="AK187" s="46"/>
     </row>
-    <row r="188" spans="2:37" ht="12.75">
+    <row r="188" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="47"/>
       <c r="C188" s="47"/>
       <c r="D188" s="43"/>
@@ -8359,7 +8365,7 @@
       <c r="AJ188" s="46"/>
       <c r="AK188" s="46"/>
     </row>
-    <row r="189" spans="2:37" ht="12.75">
+    <row r="189" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="47"/>
       <c r="C189" s="47"/>
       <c r="D189" s="43"/>
@@ -8396,7 +8402,7 @@
       <c r="AJ189" s="46"/>
       <c r="AK189" s="46"/>
     </row>
-    <row r="190" spans="2:37" ht="12.75">
+    <row r="190" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="47"/>
       <c r="C190" s="47"/>
       <c r="D190" s="43"/>
@@ -8433,7 +8439,7 @@
       <c r="AJ190" s="46"/>
       <c r="AK190" s="46"/>
     </row>
-    <row r="191" spans="2:37" ht="12.75">
+    <row r="191" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="47"/>
       <c r="C191" s="47"/>
       <c r="D191" s="43"/>
@@ -8470,7 +8476,7 @@
       <c r="AJ191" s="46"/>
       <c r="AK191" s="46"/>
     </row>
-    <row r="192" spans="2:37" ht="12.75">
+    <row r="192" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="47"/>
       <c r="C192" s="47"/>
       <c r="D192" s="43"/>
@@ -8507,7 +8513,7 @@
       <c r="AJ192" s="46"/>
       <c r="AK192" s="46"/>
     </row>
-    <row r="193" spans="2:37" ht="12.75">
+    <row r="193" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="47"/>
       <c r="C193" s="47"/>
       <c r="D193" s="43"/>
@@ -8544,7 +8550,7 @@
       <c r="AJ193" s="46"/>
       <c r="AK193" s="46"/>
     </row>
-    <row r="194" spans="2:37" ht="12.75">
+    <row r="194" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="47"/>
       <c r="C194" s="47"/>
       <c r="D194" s="43"/>
@@ -8581,7 +8587,7 @@
       <c r="AJ194" s="46"/>
       <c r="AK194" s="46"/>
     </row>
-    <row r="195" spans="2:37" ht="12.75">
+    <row r="195" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="47"/>
       <c r="C195" s="47"/>
       <c r="D195" s="43"/>
@@ -8618,7 +8624,7 @@
       <c r="AJ195" s="46"/>
       <c r="AK195" s="46"/>
     </row>
-    <row r="196" spans="2:37" ht="12.75">
+    <row r="196" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="47"/>
       <c r="C196" s="47"/>
       <c r="D196" s="43"/>
@@ -8655,7 +8661,7 @@
       <c r="AJ196" s="46"/>
       <c r="AK196" s="46"/>
     </row>
-    <row r="197" spans="2:37" ht="12.75">
+    <row r="197" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="47"/>
       <c r="C197" s="47"/>
       <c r="D197" s="43"/>
@@ -8692,7 +8698,7 @@
       <c r="AJ197" s="46"/>
       <c r="AK197" s="46"/>
     </row>
-    <row r="198" spans="2:37" ht="12.75">
+    <row r="198" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="47"/>
       <c r="C198" s="47"/>
       <c r="D198" s="43"/>
@@ -8729,7 +8735,7 @@
       <c r="AJ198" s="46"/>
       <c r="AK198" s="46"/>
     </row>
-    <row r="199" spans="2:37" ht="12.75">
+    <row r="199" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
       <c r="D199" s="43"/>
@@ -8766,7 +8772,7 @@
       <c r="AJ199" s="46"/>
       <c r="AK199" s="46"/>
     </row>
-    <row r="200" spans="2:37" ht="12.75">
+    <row r="200" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="47"/>
       <c r="C200" s="47"/>
       <c r="D200" s="43"/>
@@ -8803,7 +8809,7 @@
       <c r="AJ200" s="46"/>
       <c r="AK200" s="46"/>
     </row>
-    <row r="201" spans="2:37" ht="12.75">
+    <row r="201" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="47"/>
       <c r="C201" s="47"/>
       <c r="D201" s="43"/>
@@ -8840,7 +8846,7 @@
       <c r="AJ201" s="46"/>
       <c r="AK201" s="46"/>
     </row>
-    <row r="202" spans="2:37" ht="12.75">
+    <row r="202" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="47"/>
       <c r="C202" s="47"/>
       <c r="D202" s="43"/>
@@ -8877,7 +8883,7 @@
       <c r="AJ202" s="46"/>
       <c r="AK202" s="46"/>
     </row>
-    <row r="203" spans="2:37" ht="12.75">
+    <row r="203" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="47"/>
       <c r="C203" s="47"/>
       <c r="D203" s="43"/>
@@ -8914,7 +8920,7 @@
       <c r="AJ203" s="46"/>
       <c r="AK203" s="46"/>
     </row>
-    <row r="204" spans="2:37" ht="12.75">
+    <row r="204" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="47"/>
       <c r="C204" s="47"/>
       <c r="D204" s="43"/>
@@ -8951,7 +8957,7 @@
       <c r="AJ204" s="46"/>
       <c r="AK204" s="46"/>
     </row>
-    <row r="205" spans="2:37" ht="12.75">
+    <row r="205" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="47"/>
       <c r="C205" s="47"/>
       <c r="D205" s="43"/>
@@ -8988,7 +8994,7 @@
       <c r="AJ205" s="46"/>
       <c r="AK205" s="46"/>
     </row>
-    <row r="206" spans="2:37" ht="12.75">
+    <row r="206" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="47"/>
       <c r="C206" s="47"/>
       <c r="D206" s="43"/>
@@ -9025,7 +9031,7 @@
       <c r="AJ206" s="46"/>
       <c r="AK206" s="46"/>
     </row>
-    <row r="207" spans="2:37" ht="12.75">
+    <row r="207" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="47"/>
       <c r="C207" s="47"/>
       <c r="D207" s="43"/>
@@ -9062,7 +9068,7 @@
       <c r="AJ207" s="46"/>
       <c r="AK207" s="46"/>
     </row>
-    <row r="208" spans="2:37" ht="12.75">
+    <row r="208" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="47"/>
       <c r="C208" s="47"/>
       <c r="D208" s="43"/>
@@ -9099,7 +9105,7 @@
       <c r="AJ208" s="46"/>
       <c r="AK208" s="46"/>
     </row>
-    <row r="209" spans="2:37" ht="12.75">
+    <row r="209" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="47"/>
       <c r="C209" s="47"/>
       <c r="D209" s="43"/>
@@ -9136,7 +9142,7 @@
       <c r="AJ209" s="46"/>
       <c r="AK209" s="46"/>
     </row>
-    <row r="210" spans="2:37" ht="12.75">
+    <row r="210" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="47"/>
       <c r="C210" s="47"/>
       <c r="D210" s="43"/>
@@ -9173,7 +9179,7 @@
       <c r="AJ210" s="46"/>
       <c r="AK210" s="46"/>
     </row>
-    <row r="211" spans="2:37" ht="12.75">
+    <row r="211" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="47"/>
       <c r="C211" s="47"/>
       <c r="D211" s="43"/>
@@ -9210,7 +9216,7 @@
       <c r="AJ211" s="46"/>
       <c r="AK211" s="46"/>
     </row>
-    <row r="212" spans="2:37" ht="12.75">
+    <row r="212" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="47"/>
       <c r="C212" s="47"/>
       <c r="D212" s="43"/>
@@ -9247,7 +9253,7 @@
       <c r="AJ212" s="46"/>
       <c r="AK212" s="46"/>
     </row>
-    <row r="213" spans="2:37" ht="12.75">
+    <row r="213" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="47"/>
       <c r="C213" s="47"/>
       <c r="D213" s="43"/>
@@ -9284,7 +9290,7 @@
       <c r="AJ213" s="46"/>
       <c r="AK213" s="46"/>
     </row>
-    <row r="214" spans="2:37" ht="12.75">
+    <row r="214" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="47"/>
       <c r="C214" s="47"/>
       <c r="D214" s="43"/>
@@ -9321,7 +9327,7 @@
       <c r="AJ214" s="46"/>
       <c r="AK214" s="46"/>
     </row>
-    <row r="215" spans="2:37" ht="12.75">
+    <row r="215" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="47"/>
       <c r="C215" s="47"/>
       <c r="D215" s="43"/>
@@ -9358,7 +9364,7 @@
       <c r="AJ215" s="46"/>
       <c r="AK215" s="46"/>
     </row>
-    <row r="216" spans="2:37" ht="12.75">
+    <row r="216" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="47"/>
       <c r="C216" s="47"/>
       <c r="D216" s="43"/>
@@ -9395,7 +9401,7 @@
       <c r="AJ216" s="46"/>
       <c r="AK216" s="46"/>
     </row>
-    <row r="217" spans="2:37" ht="12.75">
+    <row r="217" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="47"/>
       <c r="C217" s="47"/>
       <c r="D217" s="43"/>
@@ -9432,7 +9438,7 @@
       <c r="AJ217" s="46"/>
       <c r="AK217" s="46"/>
     </row>
-    <row r="218" spans="2:37" ht="12.75">
+    <row r="218" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="47"/>
       <c r="C218" s="47"/>
       <c r="D218" s="43"/>
@@ -9469,7 +9475,7 @@
       <c r="AJ218" s="46"/>
       <c r="AK218" s="46"/>
     </row>
-    <row r="219" spans="2:37" ht="12.75">
+    <row r="219" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="47"/>
       <c r="C219" s="47"/>
       <c r="D219" s="43"/>
@@ -9506,7 +9512,7 @@
       <c r="AJ219" s="46"/>
       <c r="AK219" s="46"/>
     </row>
-    <row r="220" spans="2:37" ht="12.75">
+    <row r="220" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="47"/>
       <c r="C220" s="47"/>
       <c r="D220" s="43"/>
@@ -9543,7 +9549,7 @@
       <c r="AJ220" s="46"/>
       <c r="AK220" s="46"/>
     </row>
-    <row r="221" spans="2:37" ht="12.75">
+    <row r="221" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="47"/>
       <c r="C221" s="47"/>
       <c r="D221" s="43"/>
@@ -9580,7 +9586,7 @@
       <c r="AJ221" s="46"/>
       <c r="AK221" s="46"/>
     </row>
-    <row r="222" spans="2:37" ht="12.75">
+    <row r="222" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="47"/>
       <c r="C222" s="47"/>
       <c r="D222" s="43"/>
@@ -9617,7 +9623,7 @@
       <c r="AJ222" s="46"/>
       <c r="AK222" s="46"/>
     </row>
-    <row r="223" spans="2:37" ht="12.75">
+    <row r="223" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="47"/>
       <c r="C223" s="47"/>
       <c r="D223" s="43"/>
@@ -9654,7 +9660,7 @@
       <c r="AJ223" s="46"/>
       <c r="AK223" s="46"/>
     </row>
-    <row r="224" spans="2:37" ht="12.75">
+    <row r="224" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="47"/>
       <c r="C224" s="47"/>
       <c r="D224" s="43"/>
@@ -9691,7 +9697,7 @@
       <c r="AJ224" s="46"/>
       <c r="AK224" s="46"/>
     </row>
-    <row r="225" spans="2:37" ht="12.75">
+    <row r="225" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="47"/>
       <c r="C225" s="47"/>
       <c r="D225" s="43"/>
@@ -9728,7 +9734,7 @@
       <c r="AJ225" s="46"/>
       <c r="AK225" s="46"/>
     </row>
-    <row r="226" spans="2:37" ht="12.75">
+    <row r="226" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="47"/>
       <c r="C226" s="47"/>
       <c r="D226" s="43"/>
@@ -9765,7 +9771,7 @@
       <c r="AJ226" s="46"/>
       <c r="AK226" s="46"/>
     </row>
-    <row r="227" spans="2:37" ht="12.75">
+    <row r="227" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="47"/>
       <c r="C227" s="47"/>
       <c r="D227" s="43"/>
@@ -9802,7 +9808,7 @@
       <c r="AJ227" s="46"/>
       <c r="AK227" s="46"/>
     </row>
-    <row r="228" spans="2:37" ht="12.75">
+    <row r="228" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="47"/>
       <c r="C228" s="47"/>
       <c r="D228" s="43"/>
@@ -9839,7 +9845,7 @@
       <c r="AJ228" s="46"/>
       <c r="AK228" s="46"/>
     </row>
-    <row r="229" spans="2:37" ht="12.75">
+    <row r="229" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="47"/>
       <c r="C229" s="47"/>
       <c r="D229" s="43"/>
@@ -9876,7 +9882,7 @@
       <c r="AJ229" s="46"/>
       <c r="AK229" s="46"/>
     </row>
-    <row r="230" spans="2:37" ht="12.75">
+    <row r="230" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="47"/>
       <c r="C230" s="47"/>
       <c r="D230" s="43"/>
@@ -9913,7 +9919,7 @@
       <c r="AJ230" s="46"/>
       <c r="AK230" s="46"/>
     </row>
-    <row r="231" spans="2:37" ht="12.75">
+    <row r="231" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="47"/>
       <c r="C231" s="47"/>
       <c r="D231" s="43"/>
@@ -9950,7 +9956,7 @@
       <c r="AJ231" s="46"/>
       <c r="AK231" s="46"/>
     </row>
-    <row r="232" spans="2:37" ht="12.75">
+    <row r="232" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="47"/>
       <c r="C232" s="47"/>
       <c r="D232" s="43"/>
@@ -9987,7 +9993,7 @@
       <c r="AJ232" s="46"/>
       <c r="AK232" s="46"/>
     </row>
-    <row r="233" spans="2:37" ht="12.75">
+    <row r="233" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="47"/>
       <c r="C233" s="47"/>
       <c r="D233" s="43"/>
@@ -10024,7 +10030,7 @@
       <c r="AJ233" s="46"/>
       <c r="AK233" s="46"/>
     </row>
-    <row r="234" spans="2:37" ht="12.75">
+    <row r="234" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="47"/>
       <c r="C234" s="47"/>
       <c r="D234" s="43"/>
@@ -10061,7 +10067,7 @@
       <c r="AJ234" s="46"/>
       <c r="AK234" s="46"/>
     </row>
-    <row r="235" spans="2:37" ht="12.75">
+    <row r="235" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="47"/>
       <c r="C235" s="47"/>
       <c r="D235" s="43"/>
@@ -10098,7 +10104,7 @@
       <c r="AJ235" s="46"/>
       <c r="AK235" s="46"/>
     </row>
-    <row r="236" spans="2:37" ht="12.75">
+    <row r="236" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="47"/>
       <c r="C236" s="47"/>
       <c r="D236" s="43"/>
@@ -10135,7 +10141,7 @@
       <c r="AJ236" s="46"/>
       <c r="AK236" s="46"/>
     </row>
-    <row r="237" spans="2:37" ht="12.75">
+    <row r="237" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="47"/>
       <c r="C237" s="47"/>
       <c r="D237" s="43"/>
@@ -10172,7 +10178,7 @@
       <c r="AJ237" s="46"/>
       <c r="AK237" s="46"/>
     </row>
-    <row r="238" spans="2:37" ht="12.75">
+    <row r="238" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="47"/>
       <c r="C238" s="47"/>
       <c r="D238" s="43"/>
@@ -10209,7 +10215,7 @@
       <c r="AJ238" s="46"/>
       <c r="AK238" s="46"/>
     </row>
-    <row r="239" spans="2:37" ht="12.75">
+    <row r="239" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="47"/>
       <c r="C239" s="47"/>
       <c r="D239" s="43"/>
@@ -10246,7 +10252,7 @@
       <c r="AJ239" s="46"/>
       <c r="AK239" s="46"/>
     </row>
-    <row r="240" spans="2:37" ht="12.75">
+    <row r="240" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="47"/>
       <c r="C240" s="47"/>
       <c r="D240" s="43"/>
@@ -10283,7 +10289,7 @@
       <c r="AJ240" s="46"/>
       <c r="AK240" s="46"/>
     </row>
-    <row r="241" spans="2:37" ht="12.75">
+    <row r="241" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="47"/>
       <c r="C241" s="47"/>
       <c r="D241" s="43"/>
@@ -10320,7 +10326,7 @@
       <c r="AJ241" s="46"/>
       <c r="AK241" s="46"/>
     </row>
-    <row r="242" spans="2:37" ht="12.75">
+    <row r="242" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="47"/>
       <c r="C242" s="47"/>
       <c r="D242" s="43"/>
@@ -10357,7 +10363,7 @@
       <c r="AJ242" s="46"/>
       <c r="AK242" s="46"/>
     </row>
-    <row r="243" spans="2:37" ht="12.75">
+    <row r="243" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="47"/>
       <c r="C243" s="47"/>
       <c r="D243" s="43"/>
@@ -10394,7 +10400,7 @@
       <c r="AJ243" s="46"/>
       <c r="AK243" s="46"/>
     </row>
-    <row r="244" spans="2:37" ht="12.75">
+    <row r="244" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="47"/>
       <c r="C244" s="47"/>
       <c r="D244" s="43"/>
@@ -10431,7 +10437,7 @@
       <c r="AJ244" s="46"/>
       <c r="AK244" s="46"/>
     </row>
-    <row r="245" spans="2:37" ht="12.75">
+    <row r="245" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="47"/>
       <c r="C245" s="47"/>
       <c r="D245" s="43"/>
@@ -10468,7 +10474,7 @@
       <c r="AJ245" s="46"/>
       <c r="AK245" s="46"/>
     </row>
-    <row r="246" spans="2:37" ht="12.75">
+    <row r="246" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="47"/>
       <c r="C246" s="47"/>
       <c r="D246" s="43"/>
@@ -10505,7 +10511,7 @@
       <c r="AJ246" s="46"/>
       <c r="AK246" s="46"/>
     </row>
-    <row r="247" spans="2:37" ht="12.75">
+    <row r="247" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="47"/>
       <c r="C247" s="47"/>
       <c r="D247" s="43"/>
@@ -10542,7 +10548,7 @@
       <c r="AJ247" s="46"/>
       <c r="AK247" s="46"/>
     </row>
-    <row r="248" spans="2:37" ht="12.75">
+    <row r="248" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="47"/>
       <c r="C248" s="47"/>
       <c r="D248" s="43"/>
@@ -10579,7 +10585,7 @@
       <c r="AJ248" s="46"/>
       <c r="AK248" s="46"/>
     </row>
-    <row r="249" spans="2:37" ht="12.75">
+    <row r="249" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="47"/>
       <c r="C249" s="47"/>
       <c r="D249" s="43"/>
@@ -10616,7 +10622,7 @@
       <c r="AJ249" s="46"/>
       <c r="AK249" s="46"/>
     </row>
-    <row r="250" spans="2:37" ht="12.75">
+    <row r="250" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="47"/>
       <c r="C250" s="47"/>
       <c r="D250" s="43"/>
@@ -10653,7 +10659,7 @@
       <c r="AJ250" s="46"/>
       <c r="AK250" s="46"/>
     </row>
-    <row r="251" spans="2:37" ht="12.75">
+    <row r="251" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="47"/>
       <c r="C251" s="47"/>
       <c r="D251" s="43"/>
@@ -10690,7 +10696,7 @@
       <c r="AJ251" s="46"/>
       <c r="AK251" s="46"/>
     </row>
-    <row r="252" spans="2:37" ht="12.75">
+    <row r="252" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="47"/>
       <c r="C252" s="47"/>
       <c r="D252" s="43"/>
@@ -10727,7 +10733,7 @@
       <c r="AJ252" s="46"/>
       <c r="AK252" s="46"/>
     </row>
-    <row r="253" spans="2:37" ht="12.75">
+    <row r="253" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="47"/>
       <c r="C253" s="47"/>
       <c r="D253" s="43"/>
@@ -10764,7 +10770,7 @@
       <c r="AJ253" s="46"/>
       <c r="AK253" s="46"/>
     </row>
-    <row r="254" spans="2:37" ht="12.75">
+    <row r="254" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="47"/>
       <c r="C254" s="47"/>
       <c r="D254" s="43"/>
@@ -10801,7 +10807,7 @@
       <c r="AJ254" s="46"/>
       <c r="AK254" s="46"/>
     </row>
-    <row r="255" spans="2:37" ht="12.75">
+    <row r="255" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="47"/>
       <c r="C255" s="47"/>
       <c r="D255" s="43"/>
@@ -10838,7 +10844,7 @@
       <c r="AJ255" s="46"/>
       <c r="AK255" s="46"/>
     </row>
-    <row r="256" spans="2:37" ht="12.75">
+    <row r="256" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="47"/>
       <c r="C256" s="47"/>
       <c r="D256" s="43"/>
@@ -10875,7 +10881,7 @@
       <c r="AJ256" s="46"/>
       <c r="AK256" s="46"/>
     </row>
-    <row r="257" spans="2:37" ht="12.75">
+    <row r="257" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="47"/>
       <c r="C257" s="47"/>
       <c r="D257" s="43"/>
@@ -10912,7 +10918,7 @@
       <c r="AJ257" s="46"/>
       <c r="AK257" s="46"/>
     </row>
-    <row r="258" spans="2:37" ht="12.75">
+    <row r="258" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="47"/>
       <c r="C258" s="47"/>
       <c r="D258" s="43"/>
@@ -10949,7 +10955,7 @@
       <c r="AJ258" s="46"/>
       <c r="AK258" s="46"/>
     </row>
-    <row r="259" spans="2:37" ht="12.75">
+    <row r="259" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="47"/>
       <c r="C259" s="47"/>
       <c r="D259" s="43"/>
@@ -10986,7 +10992,7 @@
       <c r="AJ259" s="46"/>
       <c r="AK259" s="46"/>
     </row>
-    <row r="260" spans="2:37" ht="12.75">
+    <row r="260" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="47"/>
       <c r="C260" s="47"/>
       <c r="D260" s="43"/>
@@ -11023,7 +11029,7 @@
       <c r="AJ260" s="46"/>
       <c r="AK260" s="46"/>
     </row>
-    <row r="261" spans="2:37" ht="12.75">
+    <row r="261" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="47"/>
       <c r="C261" s="47"/>
       <c r="D261" s="43"/>
@@ -11060,7 +11066,7 @@
       <c r="AJ261" s="46"/>
       <c r="AK261" s="46"/>
     </row>
-    <row r="262" spans="2:37" ht="12.75">
+    <row r="262" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="47"/>
       <c r="C262" s="47"/>
       <c r="D262" s="43"/>
@@ -11097,7 +11103,7 @@
       <c r="AJ262" s="46"/>
       <c r="AK262" s="46"/>
     </row>
-    <row r="263" spans="2:37" ht="12.75">
+    <row r="263" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="47"/>
       <c r="C263" s="47"/>
       <c r="D263" s="43"/>
@@ -11134,7 +11140,7 @@
       <c r="AJ263" s="46"/>
       <c r="AK263" s="46"/>
     </row>
-    <row r="264" spans="2:37" ht="12.75">
+    <row r="264" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="47"/>
       <c r="C264" s="47"/>
       <c r="D264" s="43"/>
@@ -11171,7 +11177,7 @@
       <c r="AJ264" s="46"/>
       <c r="AK264" s="46"/>
     </row>
-    <row r="265" spans="2:37" ht="12.75">
+    <row r="265" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="47"/>
       <c r="C265" s="47"/>
       <c r="D265" s="43"/>
@@ -11208,7 +11214,7 @@
       <c r="AJ265" s="46"/>
       <c r="AK265" s="46"/>
     </row>
-    <row r="266" spans="2:37" ht="12.75">
+    <row r="266" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="47"/>
       <c r="C266" s="47"/>
       <c r="D266" s="43"/>
@@ -11245,7 +11251,7 @@
       <c r="AJ266" s="46"/>
       <c r="AK266" s="46"/>
     </row>
-    <row r="267" spans="2:37" ht="12.75">
+    <row r="267" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="47"/>
       <c r="C267" s="47"/>
       <c r="D267" s="43"/>
@@ -11282,7 +11288,7 @@
       <c r="AJ267" s="46"/>
       <c r="AK267" s="46"/>
     </row>
-    <row r="268" spans="2:37" ht="12.75">
+    <row r="268" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="47"/>
       <c r="C268" s="47"/>
       <c r="D268" s="43"/>
@@ -11319,7 +11325,7 @@
       <c r="AJ268" s="46"/>
       <c r="AK268" s="46"/>
     </row>
-    <row r="269" spans="2:37" ht="12.75">
+    <row r="269" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="47"/>
       <c r="C269" s="47"/>
       <c r="D269" s="43"/>
@@ -11356,7 +11362,7 @@
       <c r="AJ269" s="46"/>
       <c r="AK269" s="46"/>
     </row>
-    <row r="270" spans="2:37" ht="12.75">
+    <row r="270" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="47"/>
       <c r="C270" s="47"/>
       <c r="D270" s="43"/>
@@ -11393,7 +11399,7 @@
       <c r="AJ270" s="46"/>
       <c r="AK270" s="46"/>
     </row>
-    <row r="271" spans="2:37" ht="12.75">
+    <row r="271" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="47"/>
       <c r="C271" s="47"/>
       <c r="D271" s="43"/>
@@ -11430,7 +11436,7 @@
       <c r="AJ271" s="46"/>
       <c r="AK271" s="46"/>
     </row>
-    <row r="272" spans="2:37" ht="12.75">
+    <row r="272" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="47"/>
       <c r="C272" s="47"/>
       <c r="D272" s="43"/>
@@ -11467,7 +11473,7 @@
       <c r="AJ272" s="46"/>
       <c r="AK272" s="46"/>
     </row>
-    <row r="273" spans="2:37" ht="12.75">
+    <row r="273" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="47"/>
       <c r="C273" s="47"/>
       <c r="D273" s="43"/>
@@ -11504,7 +11510,7 @@
       <c r="AJ273" s="46"/>
       <c r="AK273" s="46"/>
     </row>
-    <row r="274" spans="2:37" ht="12.75">
+    <row r="274" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="47"/>
       <c r="C274" s="47"/>
       <c r="D274" s="43"/>
@@ -11541,7 +11547,7 @@
       <c r="AJ274" s="46"/>
       <c r="AK274" s="46"/>
     </row>
-    <row r="275" spans="2:37" ht="12.75">
+    <row r="275" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="47"/>
       <c r="C275" s="47"/>
       <c r="D275" s="43"/>
@@ -11578,7 +11584,7 @@
       <c r="AJ275" s="46"/>
       <c r="AK275" s="46"/>
     </row>
-    <row r="276" spans="2:37" ht="12.75">
+    <row r="276" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="47"/>
       <c r="C276" s="47"/>
       <c r="D276" s="43"/>
@@ -11615,7 +11621,7 @@
       <c r="AJ276" s="46"/>
       <c r="AK276" s="46"/>
     </row>
-    <row r="277" spans="2:37" ht="12.75">
+    <row r="277" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="47"/>
       <c r="C277" s="47"/>
       <c r="D277" s="43"/>
@@ -11652,7 +11658,7 @@
       <c r="AJ277" s="46"/>
       <c r="AK277" s="46"/>
     </row>
-    <row r="278" spans="2:37" ht="12.75">
+    <row r="278" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="47"/>
       <c r="C278" s="47"/>
       <c r="D278" s="43"/>
@@ -11689,7 +11695,7 @@
       <c r="AJ278" s="46"/>
       <c r="AK278" s="46"/>
     </row>
-    <row r="279" spans="2:37" ht="12.75">
+    <row r="279" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="47"/>
       <c r="C279" s="47"/>
       <c r="D279" s="43"/>
@@ -11726,7 +11732,7 @@
       <c r="AJ279" s="46"/>
       <c r="AK279" s="46"/>
     </row>
-    <row r="280" spans="2:37" ht="12.75">
+    <row r="280" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="47"/>
       <c r="C280" s="47"/>
       <c r="D280" s="43"/>
@@ -11763,7 +11769,7 @@
       <c r="AJ280" s="46"/>
       <c r="AK280" s="46"/>
     </row>
-    <row r="281" spans="2:37" ht="12.75">
+    <row r="281" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="47"/>
       <c r="C281" s="47"/>
       <c r="D281" s="43"/>
@@ -11800,7 +11806,7 @@
       <c r="AJ281" s="46"/>
       <c r="AK281" s="46"/>
     </row>
-    <row r="282" spans="2:37" ht="12.75">
+    <row r="282" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="47"/>
       <c r="C282" s="47"/>
       <c r="D282" s="43"/>
@@ -11837,7 +11843,7 @@
       <c r="AJ282" s="46"/>
       <c r="AK282" s="46"/>
     </row>
-    <row r="283" spans="2:37" ht="12.75">
+    <row r="283" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="47"/>
       <c r="C283" s="47"/>
       <c r="D283" s="43"/>
@@ -11874,7 +11880,7 @@
       <c r="AJ283" s="46"/>
       <c r="AK283" s="46"/>
     </row>
-    <row r="284" spans="2:37" ht="12.75">
+    <row r="284" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="47"/>
       <c r="C284" s="47"/>
       <c r="D284" s="43"/>
@@ -11911,7 +11917,7 @@
       <c r="AJ284" s="46"/>
       <c r="AK284" s="46"/>
     </row>
-    <row r="285" spans="2:37" ht="12.75">
+    <row r="285" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="47"/>
       <c r="C285" s="47"/>
       <c r="D285" s="43"/>
@@ -11948,7 +11954,7 @@
       <c r="AJ285" s="46"/>
       <c r="AK285" s="46"/>
     </row>
-    <row r="286" spans="2:37" ht="12.75">
+    <row r="286" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="47"/>
       <c r="C286" s="47"/>
       <c r="D286" s="43"/>
@@ -11985,7 +11991,7 @@
       <c r="AJ286" s="46"/>
       <c r="AK286" s="46"/>
     </row>
-    <row r="287" spans="2:37" ht="12.75">
+    <row r="287" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="47"/>
       <c r="C287" s="47"/>
       <c r="D287" s="43"/>
@@ -12022,7 +12028,7 @@
       <c r="AJ287" s="46"/>
       <c r="AK287" s="46"/>
     </row>
-    <row r="288" spans="2:37" ht="12.75">
+    <row r="288" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="47"/>
       <c r="C288" s="47"/>
       <c r="D288" s="43"/>
@@ -12059,7 +12065,7 @@
       <c r="AJ288" s="46"/>
       <c r="AK288" s="46"/>
     </row>
-    <row r="289" spans="2:37" ht="12.75">
+    <row r="289" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="47"/>
       <c r="C289" s="47"/>
       <c r="D289" s="43"/>
@@ -12096,7 +12102,7 @@
       <c r="AJ289" s="46"/>
       <c r="AK289" s="46"/>
     </row>
-    <row r="290" spans="2:37" ht="12.75">
+    <row r="290" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="47"/>
       <c r="C290" s="47"/>
       <c r="D290" s="43"/>
@@ -12133,7 +12139,7 @@
       <c r="AJ290" s="46"/>
       <c r="AK290" s="46"/>
     </row>
-    <row r="291" spans="2:37" ht="12.75">
+    <row r="291" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="47"/>
       <c r="C291" s="47"/>
       <c r="D291" s="43"/>
@@ -12170,7 +12176,7 @@
       <c r="AJ291" s="46"/>
       <c r="AK291" s="46"/>
     </row>
-    <row r="292" spans="2:37" ht="12.75">
+    <row r="292" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="47"/>
       <c r="C292" s="47"/>
       <c r="D292" s="43"/>
@@ -12207,7 +12213,7 @@
       <c r="AJ292" s="46"/>
       <c r="AK292" s="46"/>
     </row>
-    <row r="293" spans="2:37" ht="12.75">
+    <row r="293" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="47"/>
       <c r="C293" s="47"/>
       <c r="D293" s="43"/>
@@ -12244,7 +12250,7 @@
       <c r="AJ293" s="46"/>
       <c r="AK293" s="46"/>
     </row>
-    <row r="294" spans="2:37" ht="12.75">
+    <row r="294" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="47"/>
       <c r="C294" s="47"/>
       <c r="D294" s="43"/>
@@ -12281,7 +12287,7 @@
       <c r="AJ294" s="46"/>
       <c r="AK294" s="46"/>
     </row>
-    <row r="295" spans="2:37" ht="12.75">
+    <row r="295" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="47"/>
       <c r="C295" s="47"/>
       <c r="D295" s="43"/>
@@ -12318,7 +12324,7 @@
       <c r="AJ295" s="46"/>
       <c r="AK295" s="46"/>
     </row>
-    <row r="296" spans="2:37" ht="12.75">
+    <row r="296" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="47"/>
       <c r="C296" s="47"/>
       <c r="D296" s="43"/>
@@ -12355,7 +12361,7 @@
       <c r="AJ296" s="46"/>
       <c r="AK296" s="46"/>
     </row>
-    <row r="297" spans="2:37" ht="12.75">
+    <row r="297" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="47"/>
       <c r="C297" s="47"/>
       <c r="D297" s="43"/>
@@ -12392,7 +12398,7 @@
       <c r="AJ297" s="46"/>
       <c r="AK297" s="46"/>
     </row>
-    <row r="298" spans="2:37" ht="12.75">
+    <row r="298" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="47"/>
       <c r="C298" s="47"/>
       <c r="D298" s="43"/>
@@ -12429,7 +12435,7 @@
       <c r="AJ298" s="46"/>
       <c r="AK298" s="46"/>
     </row>
-    <row r="299" spans="2:37" ht="12.75">
+    <row r="299" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="47"/>
       <c r="C299" s="47"/>
       <c r="D299" s="43"/>
@@ -12466,7 +12472,7 @@
       <c r="AJ299" s="46"/>
       <c r="AK299" s="46"/>
     </row>
-    <row r="300" spans="2:37" ht="12.75">
+    <row r="300" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="47"/>
       <c r="C300" s="47"/>
       <c r="D300" s="43"/>
@@ -12503,7 +12509,7 @@
       <c r="AJ300" s="46"/>
       <c r="AK300" s="46"/>
     </row>
-    <row r="301" spans="2:37" ht="12.75">
+    <row r="301" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="47"/>
       <c r="C301" s="47"/>
       <c r="D301" s="43"/>
@@ -12540,7 +12546,7 @@
       <c r="AJ301" s="46"/>
       <c r="AK301" s="46"/>
     </row>
-    <row r="302" spans="2:37" ht="12.75">
+    <row r="302" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="47"/>
       <c r="C302" s="47"/>
       <c r="D302" s="43"/>
@@ -12577,7 +12583,7 @@
       <c r="AJ302" s="46"/>
       <c r="AK302" s="46"/>
     </row>
-    <row r="303" spans="2:37" ht="12.75">
+    <row r="303" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="47"/>
       <c r="C303" s="47"/>
       <c r="D303" s="43"/>
@@ -12614,7 +12620,7 @@
       <c r="AJ303" s="46"/>
       <c r="AK303" s="46"/>
     </row>
-    <row r="304" spans="2:37" ht="12.75">
+    <row r="304" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="47"/>
       <c r="C304" s="47"/>
       <c r="D304" s="43"/>
@@ -12651,7 +12657,7 @@
       <c r="AJ304" s="46"/>
       <c r="AK304" s="46"/>
     </row>
-    <row r="305" spans="2:37" ht="12.75">
+    <row r="305" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="47"/>
       <c r="C305" s="47"/>
       <c r="D305" s="43"/>
@@ -12688,7 +12694,7 @@
       <c r="AJ305" s="46"/>
       <c r="AK305" s="46"/>
     </row>
-    <row r="306" spans="2:37" ht="12.75">
+    <row r="306" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="47"/>
       <c r="C306" s="47"/>
       <c r="D306" s="43"/>
@@ -12725,7 +12731,7 @@
       <c r="AJ306" s="46"/>
       <c r="AK306" s="46"/>
     </row>
-    <row r="307" spans="2:37" ht="12.75">
+    <row r="307" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="47"/>
       <c r="C307" s="47"/>
       <c r="D307" s="43"/>
@@ -12762,7 +12768,7 @@
       <c r="AJ307" s="46"/>
       <c r="AK307" s="46"/>
     </row>
-    <row r="308" spans="2:37" ht="12.75">
+    <row r="308" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="47"/>
       <c r="C308" s="47"/>
       <c r="D308" s="43"/>
@@ -12799,7 +12805,7 @@
       <c r="AJ308" s="46"/>
       <c r="AK308" s="46"/>
     </row>
-    <row r="309" spans="2:37" ht="12.75">
+    <row r="309" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="47"/>
       <c r="C309" s="47"/>
       <c r="D309" s="43"/>
@@ -12836,7 +12842,7 @@
       <c r="AJ309" s="46"/>
       <c r="AK309" s="46"/>
     </row>
-    <row r="310" spans="2:37" ht="12.75">
+    <row r="310" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="47"/>
       <c r="C310" s="47"/>
       <c r="D310" s="43"/>
@@ -12873,7 +12879,7 @@
       <c r="AJ310" s="46"/>
       <c r="AK310" s="46"/>
     </row>
-    <row r="311" spans="2:37" ht="12.75">
+    <row r="311" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="47"/>
       <c r="C311" s="47"/>
       <c r="D311" s="43"/>
@@ -12910,7 +12916,7 @@
       <c r="AJ311" s="46"/>
       <c r="AK311" s="46"/>
     </row>
-    <row r="312" spans="2:37" ht="12.75">
+    <row r="312" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="47"/>
       <c r="C312" s="47"/>
       <c r="D312" s="43"/>
@@ -12947,7 +12953,7 @@
       <c r="AJ312" s="46"/>
       <c r="AK312" s="46"/>
     </row>
-    <row r="313" spans="2:37" ht="12.75">
+    <row r="313" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="47"/>
       <c r="C313" s="47"/>
       <c r="D313" s="43"/>
@@ -12984,7 +12990,7 @@
       <c r="AJ313" s="46"/>
       <c r="AK313" s="46"/>
     </row>
-    <row r="314" spans="2:37" ht="12.75">
+    <row r="314" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="47"/>
       <c r="C314" s="47"/>
       <c r="D314" s="43"/>
@@ -13021,7 +13027,7 @@
       <c r="AJ314" s="46"/>
       <c r="AK314" s="46"/>
     </row>
-    <row r="315" spans="2:37" ht="12.75">
+    <row r="315" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="47"/>
       <c r="C315" s="47"/>
       <c r="D315" s="43"/>
@@ -13058,7 +13064,7 @@
       <c r="AJ315" s="46"/>
       <c r="AK315" s="46"/>
     </row>
-    <row r="316" spans="2:37" ht="12.75">
+    <row r="316" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="47"/>
       <c r="C316" s="47"/>
       <c r="D316" s="43"/>
@@ -13095,7 +13101,7 @@
       <c r="AJ316" s="46"/>
       <c r="AK316" s="46"/>
     </row>
-    <row r="317" spans="2:37" ht="12.75">
+    <row r="317" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="47"/>
       <c r="C317" s="47"/>
       <c r="D317" s="43"/>
@@ -13132,7 +13138,7 @@
       <c r="AJ317" s="46"/>
       <c r="AK317" s="46"/>
     </row>
-    <row r="318" spans="2:37" ht="12.75">
+    <row r="318" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="47"/>
       <c r="C318" s="47"/>
       <c r="D318" s="43"/>
@@ -13169,7 +13175,7 @@
       <c r="AJ318" s="46"/>
       <c r="AK318" s="46"/>
     </row>
-    <row r="319" spans="2:37" ht="12.75">
+    <row r="319" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="47"/>
       <c r="C319" s="47"/>
       <c r="D319" s="43"/>
@@ -13206,7 +13212,7 @@
       <c r="AJ319" s="46"/>
       <c r="AK319" s="46"/>
     </row>
-    <row r="320" spans="2:37" ht="12.75">
+    <row r="320" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="47"/>
       <c r="C320" s="47"/>
       <c r="D320" s="43"/>
@@ -13243,7 +13249,7 @@
       <c r="AJ320" s="46"/>
       <c r="AK320" s="46"/>
     </row>
-    <row r="321" spans="2:37" ht="12.75">
+    <row r="321" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="47"/>
       <c r="C321" s="47"/>
       <c r="D321" s="43"/>
@@ -13280,7 +13286,7 @@
       <c r="AJ321" s="46"/>
       <c r="AK321" s="46"/>
     </row>
-    <row r="322" spans="2:37" ht="12.75">
+    <row r="322" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="47"/>
       <c r="C322" s="47"/>
       <c r="D322" s="43"/>
@@ -13317,7 +13323,7 @@
       <c r="AJ322" s="46"/>
       <c r="AK322" s="46"/>
     </row>
-    <row r="323" spans="2:37" ht="12.75">
+    <row r="323" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="47"/>
       <c r="C323" s="47"/>
       <c r="D323" s="43"/>
@@ -13354,7 +13360,7 @@
       <c r="AJ323" s="46"/>
       <c r="AK323" s="46"/>
     </row>
-    <row r="324" spans="2:37" ht="12.75">
+    <row r="324" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="47"/>
       <c r="C324" s="47"/>
       <c r="D324" s="43"/>
@@ -13391,7 +13397,7 @@
       <c r="AJ324" s="46"/>
       <c r="AK324" s="46"/>
     </row>
-    <row r="325" spans="2:37" ht="12.75">
+    <row r="325" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="47"/>
       <c r="C325" s="47"/>
       <c r="D325" s="43"/>
@@ -13428,7 +13434,7 @@
       <c r="AJ325" s="46"/>
       <c r="AK325" s="46"/>
     </row>
-    <row r="326" spans="2:37" ht="12.75">
+    <row r="326" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="47"/>
       <c r="C326" s="47"/>
       <c r="D326" s="43"/>
@@ -13465,7 +13471,7 @@
       <c r="AJ326" s="46"/>
       <c r="AK326" s="46"/>
     </row>
-    <row r="327" spans="2:37" ht="12.75">
+    <row r="327" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="47"/>
       <c r="C327" s="47"/>
       <c r="D327" s="43"/>
@@ -13502,7 +13508,7 @@
       <c r="AJ327" s="46"/>
       <c r="AK327" s="46"/>
     </row>
-    <row r="328" spans="2:37" ht="12.75">
+    <row r="328" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="47"/>
       <c r="C328" s="47"/>
       <c r="D328" s="43"/>
@@ -13539,7 +13545,7 @@
       <c r="AJ328" s="46"/>
       <c r="AK328" s="46"/>
     </row>
-    <row r="329" spans="2:37" ht="12.75">
+    <row r="329" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="47"/>
       <c r="C329" s="47"/>
       <c r="D329" s="43"/>
@@ -13576,7 +13582,7 @@
       <c r="AJ329" s="46"/>
       <c r="AK329" s="46"/>
     </row>
-    <row r="330" spans="2:37" ht="12.75">
+    <row r="330" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="47"/>
       <c r="C330" s="47"/>
       <c r="D330" s="43"/>
@@ -13613,7 +13619,7 @@
       <c r="AJ330" s="46"/>
       <c r="AK330" s="46"/>
     </row>
-    <row r="331" spans="2:37" ht="12.75">
+    <row r="331" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="47"/>
       <c r="C331" s="47"/>
       <c r="D331" s="43"/>
@@ -13650,7 +13656,7 @@
       <c r="AJ331" s="46"/>
       <c r="AK331" s="46"/>
     </row>
-    <row r="332" spans="2:37" ht="12.75">
+    <row r="332" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="47"/>
       <c r="C332" s="47"/>
       <c r="D332" s="43"/>
@@ -13687,7 +13693,7 @@
       <c r="AJ332" s="46"/>
       <c r="AK332" s="46"/>
     </row>
-    <row r="333" spans="2:37" ht="12.75">
+    <row r="333" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="47"/>
       <c r="C333" s="47"/>
       <c r="D333" s="43"/>
@@ -13724,7 +13730,7 @@
       <c r="AJ333" s="46"/>
       <c r="AK333" s="46"/>
     </row>
-    <row r="334" spans="2:37" ht="12.75">
+    <row r="334" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="47"/>
       <c r="C334" s="47"/>
       <c r="D334" s="43"/>
@@ -13761,7 +13767,7 @@
       <c r="AJ334" s="46"/>
       <c r="AK334" s="46"/>
     </row>
-    <row r="335" spans="2:37" ht="12.75">
+    <row r="335" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="47"/>
       <c r="C335" s="47"/>
       <c r="D335" s="43"/>
@@ -13798,7 +13804,7 @@
       <c r="AJ335" s="46"/>
       <c r="AK335" s="46"/>
     </row>
-    <row r="336" spans="2:37" ht="12.75">
+    <row r="336" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="47"/>
       <c r="C336" s="47"/>
       <c r="D336" s="43"/>
@@ -13835,7 +13841,7 @@
       <c r="AJ336" s="46"/>
       <c r="AK336" s="46"/>
     </row>
-    <row r="337" spans="2:37" ht="12.75">
+    <row r="337" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="47"/>
       <c r="C337" s="47"/>
       <c r="D337" s="43"/>
@@ -13872,7 +13878,7 @@
       <c r="AJ337" s="46"/>
       <c r="AK337" s="46"/>
     </row>
-    <row r="338" spans="2:37" ht="12.75">
+    <row r="338" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="47"/>
       <c r="C338" s="47"/>
       <c r="D338" s="43"/>
@@ -13909,7 +13915,7 @@
       <c r="AJ338" s="46"/>
       <c r="AK338" s="46"/>
     </row>
-    <row r="339" spans="2:37" ht="12.75">
+    <row r="339" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="47"/>
       <c r="C339" s="47"/>
       <c r="D339" s="43"/>
@@ -13946,7 +13952,7 @@
       <c r="AJ339" s="46"/>
       <c r="AK339" s="46"/>
     </row>
-    <row r="340" spans="2:37" ht="12.75">
+    <row r="340" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="47"/>
       <c r="C340" s="47"/>
       <c r="D340" s="43"/>
@@ -13983,7 +13989,7 @@
       <c r="AJ340" s="46"/>
       <c r="AK340" s="46"/>
     </row>
-    <row r="341" spans="2:37" ht="12.75">
+    <row r="341" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="47"/>
       <c r="C341" s="47"/>
       <c r="D341" s="43"/>
@@ -14020,7 +14026,7 @@
       <c r="AJ341" s="46"/>
       <c r="AK341" s="46"/>
     </row>
-    <row r="342" spans="2:37" ht="12.75">
+    <row r="342" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="47"/>
       <c r="C342" s="47"/>
       <c r="D342" s="43"/>
@@ -14057,7 +14063,7 @@
       <c r="AJ342" s="46"/>
       <c r="AK342" s="46"/>
     </row>
-    <row r="343" spans="2:37" ht="12.75">
+    <row r="343" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="47"/>
       <c r="C343" s="47"/>
       <c r="D343" s="43"/>
@@ -14094,7 +14100,7 @@
       <c r="AJ343" s="46"/>
       <c r="AK343" s="46"/>
     </row>
-    <row r="344" spans="2:37" ht="12.75">
+    <row r="344" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="47"/>
       <c r="C344" s="47"/>
       <c r="D344" s="43"/>
@@ -14131,7 +14137,7 @@
       <c r="AJ344" s="46"/>
       <c r="AK344" s="46"/>
     </row>
-    <row r="345" spans="2:37" ht="12.75">
+    <row r="345" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="47"/>
       <c r="C345" s="47"/>
       <c r="D345" s="43"/>
@@ -14168,7 +14174,7 @@
       <c r="AJ345" s="46"/>
       <c r="AK345" s="46"/>
     </row>
-    <row r="346" spans="2:37" ht="12.75">
+    <row r="346" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="47"/>
       <c r="C346" s="47"/>
       <c r="D346" s="43"/>
@@ -14205,7 +14211,7 @@
       <c r="AJ346" s="46"/>
       <c r="AK346" s="46"/>
     </row>
-    <row r="347" spans="2:37" ht="12.75">
+    <row r="347" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="47"/>
       <c r="C347" s="47"/>
       <c r="D347" s="43"/>
@@ -14242,7 +14248,7 @@
       <c r="AJ347" s="46"/>
       <c r="AK347" s="46"/>
     </row>
-    <row r="348" spans="2:37" ht="12.75">
+    <row r="348" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="47"/>
       <c r="C348" s="47"/>
       <c r="D348" s="43"/>
@@ -14279,7 +14285,7 @@
       <c r="AJ348" s="46"/>
       <c r="AK348" s="46"/>
     </row>
-    <row r="349" spans="2:37" ht="12.75">
+    <row r="349" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="47"/>
       <c r="C349" s="47"/>
       <c r="D349" s="43"/>
@@ -14316,7 +14322,7 @@
       <c r="AJ349" s="46"/>
       <c r="AK349" s="46"/>
     </row>
-    <row r="350" spans="2:37" ht="12.75">
+    <row r="350" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="47"/>
       <c r="C350" s="47"/>
       <c r="D350" s="43"/>
@@ -14353,7 +14359,7 @@
       <c r="AJ350" s="46"/>
       <c r="AK350" s="46"/>
     </row>
-    <row r="351" spans="2:37" ht="12.75">
+    <row r="351" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="47"/>
       <c r="C351" s="47"/>
       <c r="D351" s="43"/>
@@ -14390,7 +14396,7 @@
       <c r="AJ351" s="46"/>
       <c r="AK351" s="46"/>
     </row>
-    <row r="352" spans="2:37" ht="12.75">
+    <row r="352" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="47"/>
       <c r="C352" s="47"/>
       <c r="D352" s="43"/>
@@ -14427,7 +14433,7 @@
       <c r="AJ352" s="46"/>
       <c r="AK352" s="46"/>
     </row>
-    <row r="353" spans="2:37" ht="12.75">
+    <row r="353" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="47"/>
       <c r="C353" s="47"/>
       <c r="D353" s="43"/>
@@ -14464,7 +14470,7 @@
       <c r="AJ353" s="46"/>
       <c r="AK353" s="46"/>
     </row>
-    <row r="354" spans="2:37" ht="12.75">
+    <row r="354" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="47"/>
       <c r="C354" s="47"/>
       <c r="D354" s="43"/>
@@ -14501,7 +14507,7 @@
       <c r="AJ354" s="46"/>
       <c r="AK354" s="46"/>
     </row>
-    <row r="355" spans="2:37" ht="12.75">
+    <row r="355" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="47"/>
       <c r="C355" s="47"/>
       <c r="D355" s="43"/>
@@ -14538,7 +14544,7 @@
       <c r="AJ355" s="46"/>
       <c r="AK355" s="46"/>
     </row>
-    <row r="356" spans="2:37" ht="12.75">
+    <row r="356" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="47"/>
       <c r="C356" s="47"/>
       <c r="D356" s="43"/>
@@ -14575,7 +14581,7 @@
       <c r="AJ356" s="46"/>
       <c r="AK356" s="46"/>
     </row>
-    <row r="357" spans="2:37" ht="12.75">
+    <row r="357" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="47"/>
       <c r="C357" s="47"/>
       <c r="D357" s="43"/>
@@ -14612,7 +14618,7 @@
       <c r="AJ357" s="46"/>
       <c r="AK357" s="46"/>
     </row>
-    <row r="358" spans="2:37" ht="12.75">
+    <row r="358" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="47"/>
       <c r="C358" s="47"/>
       <c r="D358" s="43"/>
@@ -14649,7 +14655,7 @@
       <c r="AJ358" s="46"/>
       <c r="AK358" s="46"/>
     </row>
-    <row r="359" spans="2:37" ht="12.75">
+    <row r="359" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="47"/>
       <c r="C359" s="47"/>
       <c r="D359" s="43"/>
@@ -14686,7 +14692,7 @@
       <c r="AJ359" s="46"/>
       <c r="AK359" s="46"/>
     </row>
-    <row r="360" spans="2:37" ht="12.75">
+    <row r="360" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="47"/>
       <c r="C360" s="47"/>
       <c r="D360" s="43"/>
@@ -14723,7 +14729,7 @@
       <c r="AJ360" s="46"/>
       <c r="AK360" s="46"/>
     </row>
-    <row r="361" spans="2:37" ht="12.75">
+    <row r="361" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="47"/>
       <c r="C361" s="47"/>
       <c r="D361" s="43"/>
@@ -14760,7 +14766,7 @@
       <c r="AJ361" s="46"/>
       <c r="AK361" s="46"/>
     </row>
-    <row r="362" spans="2:37" ht="12.75">
+    <row r="362" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="47"/>
       <c r="C362" s="47"/>
       <c r="D362" s="43"/>
@@ -14797,7 +14803,7 @@
       <c r="AJ362" s="46"/>
       <c r="AK362" s="46"/>
     </row>
-    <row r="363" spans="2:37" ht="12.75">
+    <row r="363" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="47"/>
       <c r="C363" s="47"/>
       <c r="D363" s="43"/>
@@ -14834,7 +14840,7 @@
       <c r="AJ363" s="46"/>
       <c r="AK363" s="46"/>
     </row>
-    <row r="364" spans="2:37" ht="12.75">
+    <row r="364" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="47"/>
       <c r="C364" s="47"/>
       <c r="D364" s="43"/>
@@ -14871,7 +14877,7 @@
       <c r="AJ364" s="46"/>
       <c r="AK364" s="46"/>
     </row>
-    <row r="365" spans="2:37" ht="12.75">
+    <row r="365" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="47"/>
       <c r="C365" s="47"/>
       <c r="D365" s="43"/>
@@ -14908,7 +14914,7 @@
       <c r="AJ365" s="46"/>
       <c r="AK365" s="46"/>
     </row>
-    <row r="366" spans="2:37" ht="12.75">
+    <row r="366" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="47"/>
       <c r="C366" s="47"/>
       <c r="D366" s="43"/>
@@ -14945,7 +14951,7 @@
       <c r="AJ366" s="46"/>
       <c r="AK366" s="46"/>
     </row>
-    <row r="367" spans="2:37" ht="12.75">
+    <row r="367" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="47"/>
       <c r="C367" s="47"/>
       <c r="D367" s="43"/>
@@ -14982,7 +14988,7 @@
       <c r="AJ367" s="46"/>
       <c r="AK367" s="46"/>
     </row>
-    <row r="368" spans="2:37" ht="12.75">
+    <row r="368" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="47"/>
       <c r="C368" s="47"/>
       <c r="D368" s="43"/>
@@ -15019,7 +15025,7 @@
       <c r="AJ368" s="46"/>
       <c r="AK368" s="46"/>
     </row>
-    <row r="369" spans="2:37" ht="12.75">
+    <row r="369" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="47"/>
       <c r="C369" s="47"/>
       <c r="D369" s="43"/>
@@ -15056,7 +15062,7 @@
       <c r="AJ369" s="46"/>
       <c r="AK369" s="46"/>
     </row>
-    <row r="370" spans="2:37" ht="12.75">
+    <row r="370" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="47"/>
       <c r="C370" s="47"/>
       <c r="D370" s="43"/>
@@ -15093,7 +15099,7 @@
       <c r="AJ370" s="46"/>
       <c r="AK370" s="46"/>
     </row>
-    <row r="371" spans="2:37" ht="12.75">
+    <row r="371" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="47"/>
       <c r="C371" s="47"/>
       <c r="D371" s="43"/>
@@ -15130,7 +15136,7 @@
       <c r="AJ371" s="46"/>
       <c r="AK371" s="46"/>
     </row>
-    <row r="372" spans="2:37" ht="12.75">
+    <row r="372" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="47"/>
       <c r="C372" s="47"/>
       <c r="D372" s="43"/>
@@ -15167,7 +15173,7 @@
       <c r="AJ372" s="46"/>
       <c r="AK372" s="46"/>
     </row>
-    <row r="373" spans="2:37" ht="12.75">
+    <row r="373" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="47"/>
       <c r="C373" s="47"/>
       <c r="D373" s="43"/>
@@ -15204,7 +15210,7 @@
       <c r="AJ373" s="46"/>
       <c r="AK373" s="46"/>
     </row>
-    <row r="374" spans="2:37" ht="12.75">
+    <row r="374" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="47"/>
       <c r="C374" s="47"/>
       <c r="D374" s="43"/>
@@ -15241,7 +15247,7 @@
       <c r="AJ374" s="46"/>
       <c r="AK374" s="46"/>
     </row>
-    <row r="375" spans="2:37" ht="12.75">
+    <row r="375" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="47"/>
       <c r="C375" s="47"/>
       <c r="D375" s="43"/>
@@ -15278,7 +15284,7 @@
       <c r="AJ375" s="46"/>
       <c r="AK375" s="46"/>
     </row>
-    <row r="376" spans="2:37" ht="12.75">
+    <row r="376" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="47"/>
       <c r="C376" s="47"/>
       <c r="D376" s="43"/>
@@ -15315,7 +15321,7 @@
       <c r="AJ376" s="46"/>
       <c r="AK376" s="46"/>
     </row>
-    <row r="377" spans="2:37" ht="12.75">
+    <row r="377" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="47"/>
       <c r="C377" s="47"/>
       <c r="D377" s="43"/>
@@ -15352,7 +15358,7 @@
       <c r="AJ377" s="46"/>
       <c r="AK377" s="46"/>
     </row>
-    <row r="378" spans="2:37" ht="12.75">
+    <row r="378" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="47"/>
       <c r="C378" s="47"/>
       <c r="D378" s="43"/>
@@ -15389,7 +15395,7 @@
       <c r="AJ378" s="46"/>
       <c r="AK378" s="46"/>
     </row>
-    <row r="379" spans="2:37" ht="12.75">
+    <row r="379" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="47"/>
       <c r="C379" s="47"/>
       <c r="D379" s="43"/>
@@ -15426,7 +15432,7 @@
       <c r="AJ379" s="46"/>
       <c r="AK379" s="46"/>
     </row>
-    <row r="380" spans="2:37" ht="12.75">
+    <row r="380" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="47"/>
       <c r="C380" s="47"/>
       <c r="D380" s="43"/>
@@ -15463,7 +15469,7 @@
       <c r="AJ380" s="46"/>
       <c r="AK380" s="46"/>
     </row>
-    <row r="381" spans="2:37" ht="12.75">
+    <row r="381" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="47"/>
       <c r="C381" s="47"/>
       <c r="D381" s="43"/>
@@ -15500,7 +15506,7 @@
       <c r="AJ381" s="46"/>
       <c r="AK381" s="46"/>
     </row>
-    <row r="382" spans="2:37" ht="12.75">
+    <row r="382" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="47"/>
       <c r="C382" s="47"/>
       <c r="D382" s="43"/>
@@ -15537,7 +15543,7 @@
       <c r="AJ382" s="46"/>
       <c r="AK382" s="46"/>
     </row>
-    <row r="383" spans="2:37" ht="12.75">
+    <row r="383" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="47"/>
       <c r="C383" s="47"/>
       <c r="D383" s="43"/>
@@ -15574,7 +15580,7 @@
       <c r="AJ383" s="46"/>
       <c r="AK383" s="46"/>
     </row>
-    <row r="384" spans="2:37" ht="12.75">
+    <row r="384" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="47"/>
       <c r="C384" s="47"/>
       <c r="D384" s="43"/>
@@ -15611,7 +15617,7 @@
       <c r="AJ384" s="46"/>
       <c r="AK384" s="46"/>
     </row>
-    <row r="385" spans="2:37" ht="12.75">
+    <row r="385" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="47"/>
       <c r="C385" s="47"/>
       <c r="D385" s="43"/>
@@ -15648,7 +15654,7 @@
       <c r="AJ385" s="46"/>
       <c r="AK385" s="46"/>
     </row>
-    <row r="386" spans="2:37" ht="12.75">
+    <row r="386" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="47"/>
       <c r="C386" s="47"/>
       <c r="D386" s="43"/>
@@ -15685,7 +15691,7 @@
       <c r="AJ386" s="46"/>
       <c r="AK386" s="46"/>
     </row>
-    <row r="387" spans="2:37" ht="12.75">
+    <row r="387" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="47"/>
       <c r="C387" s="47"/>
       <c r="D387" s="43"/>
@@ -15722,7 +15728,7 @@
       <c r="AJ387" s="46"/>
       <c r="AK387" s="46"/>
     </row>
-    <row r="388" spans="2:37" ht="12.75">
+    <row r="388" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="47"/>
       <c r="C388" s="47"/>
       <c r="D388" s="43"/>
@@ -15759,7 +15765,7 @@
       <c r="AJ388" s="46"/>
       <c r="AK388" s="46"/>
     </row>
-    <row r="389" spans="2:37" ht="12.75">
+    <row r="389" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="47"/>
       <c r="C389" s="47"/>
       <c r="D389" s="43"/>
@@ -15796,7 +15802,7 @@
       <c r="AJ389" s="46"/>
       <c r="AK389" s="46"/>
     </row>
-    <row r="390" spans="2:37" ht="12.75">
+    <row r="390" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="47"/>
       <c r="C390" s="47"/>
       <c r="D390" s="43"/>
@@ -15833,7 +15839,7 @@
       <c r="AJ390" s="46"/>
       <c r="AK390" s="46"/>
     </row>
-    <row r="391" spans="2:37" ht="12.75">
+    <row r="391" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="47"/>
       <c r="C391" s="47"/>
       <c r="D391" s="43"/>
@@ -15870,7 +15876,7 @@
       <c r="AJ391" s="46"/>
       <c r="AK391" s="46"/>
     </row>
-    <row r="392" spans="2:37" ht="12.75">
+    <row r="392" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="47"/>
       <c r="C392" s="47"/>
       <c r="D392" s="43"/>
@@ -15907,7 +15913,7 @@
       <c r="AJ392" s="46"/>
       <c r="AK392" s="46"/>
     </row>
-    <row r="393" spans="2:37" ht="12.75">
+    <row r="393" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="47"/>
       <c r="C393" s="47"/>
       <c r="D393" s="43"/>
@@ -15944,7 +15950,7 @@
       <c r="AJ393" s="46"/>
       <c r="AK393" s="46"/>
     </row>
-    <row r="394" spans="2:37" ht="12.75">
+    <row r="394" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="47"/>
       <c r="C394" s="47"/>
       <c r="D394" s="43"/>
@@ -15981,7 +15987,7 @@
       <c r="AJ394" s="46"/>
       <c r="AK394" s="46"/>
     </row>
-    <row r="395" spans="2:37" ht="12.75">
+    <row r="395" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="47"/>
       <c r="C395" s="47"/>
       <c r="D395" s="43"/>
@@ -16018,7 +16024,7 @@
       <c r="AJ395" s="46"/>
       <c r="AK395" s="46"/>
     </row>
-    <row r="396" spans="2:37" ht="12.75">
+    <row r="396" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="47"/>
       <c r="C396" s="47"/>
       <c r="D396" s="43"/>
@@ -16055,7 +16061,7 @@
       <c r="AJ396" s="46"/>
       <c r="AK396" s="46"/>
     </row>
-    <row r="397" spans="2:37" ht="12.75">
+    <row r="397" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="47"/>
       <c r="C397" s="47"/>
       <c r="D397" s="43"/>
@@ -16092,7 +16098,7 @@
       <c r="AJ397" s="46"/>
       <c r="AK397" s="46"/>
     </row>
-    <row r="398" spans="2:37" ht="12.75">
+    <row r="398" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="47"/>
       <c r="C398" s="47"/>
       <c r="D398" s="43"/>
@@ -16129,7 +16135,7 @@
       <c r="AJ398" s="46"/>
       <c r="AK398" s="46"/>
     </row>
-    <row r="399" spans="2:37" ht="12.75">
+    <row r="399" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="47"/>
       <c r="C399" s="47"/>
       <c r="D399" s="43"/>
@@ -16166,7 +16172,7 @@
       <c r="AJ399" s="46"/>
       <c r="AK399" s="46"/>
     </row>
-    <row r="400" spans="2:37" ht="12.75">
+    <row r="400" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="47"/>
       <c r="C400" s="47"/>
       <c r="D400" s="43"/>
@@ -16203,7 +16209,7 @@
       <c r="AJ400" s="46"/>
       <c r="AK400" s="46"/>
     </row>
-    <row r="401" spans="2:37" ht="12.75">
+    <row r="401" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="47"/>
       <c r="C401" s="47"/>
       <c r="D401" s="43"/>
@@ -16240,7 +16246,7 @@
       <c r="AJ401" s="46"/>
       <c r="AK401" s="46"/>
     </row>
-    <row r="402" spans="2:37" ht="12.75">
+    <row r="402" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="47"/>
       <c r="C402" s="47"/>
       <c r="D402" s="43"/>
@@ -16277,7 +16283,7 @@
       <c r="AJ402" s="46"/>
       <c r="AK402" s="46"/>
     </row>
-    <row r="403" spans="2:37" ht="12.75">
+    <row r="403" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="47"/>
       <c r="C403" s="47"/>
       <c r="D403" s="43"/>
@@ -16314,7 +16320,7 @@
       <c r="AJ403" s="46"/>
       <c r="AK403" s="46"/>
     </row>
-    <row r="404" spans="2:37" ht="12.75">
+    <row r="404" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="47"/>
       <c r="C404" s="47"/>
       <c r="D404" s="43"/>
@@ -16351,7 +16357,7 @@
       <c r="AJ404" s="46"/>
       <c r="AK404" s="46"/>
     </row>
-    <row r="405" spans="2:37" ht="12.75">
+    <row r="405" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="47"/>
       <c r="C405" s="47"/>
       <c r="D405" s="43"/>
@@ -16388,7 +16394,7 @@
       <c r="AJ405" s="46"/>
       <c r="AK405" s="46"/>
     </row>
-    <row r="406" spans="2:37" ht="12.75">
+    <row r="406" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="47"/>
       <c r="C406" s="47"/>
       <c r="D406" s="43"/>
@@ -16425,7 +16431,7 @@
       <c r="AJ406" s="46"/>
       <c r="AK406" s="46"/>
     </row>
-    <row r="407" spans="2:37" ht="12.75">
+    <row r="407" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="47"/>
       <c r="C407" s="47"/>
       <c r="D407" s="43"/>
@@ -16462,7 +16468,7 @@
       <c r="AJ407" s="46"/>
       <c r="AK407" s="46"/>
     </row>
-    <row r="408" spans="2:37" ht="12.75">
+    <row r="408" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="47"/>
       <c r="C408" s="47"/>
       <c r="D408" s="43"/>
@@ -16499,7 +16505,7 @@
       <c r="AJ408" s="46"/>
       <c r="AK408" s="46"/>
     </row>
-    <row r="409" spans="2:37" ht="12.75">
+    <row r="409" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="47"/>
       <c r="C409" s="47"/>
       <c r="D409" s="43"/>
@@ -16536,7 +16542,7 @@
       <c r="AJ409" s="46"/>
       <c r="AK409" s="46"/>
     </row>
-    <row r="410" spans="2:37" ht="12.75">
+    <row r="410" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="47"/>
       <c r="C410" s="47"/>
       <c r="D410" s="43"/>
@@ -16573,7 +16579,7 @@
       <c r="AJ410" s="46"/>
       <c r="AK410" s="46"/>
     </row>
-    <row r="411" spans="2:37" ht="12.75">
+    <row r="411" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="47"/>
       <c r="C411" s="47"/>
       <c r="D411" s="43"/>
@@ -16610,7 +16616,7 @@
       <c r="AJ411" s="46"/>
       <c r="AK411" s="46"/>
     </row>
-    <row r="412" spans="2:37" ht="12.75">
+    <row r="412" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="47"/>
       <c r="C412" s="47"/>
       <c r="D412" s="43"/>
@@ -16647,7 +16653,7 @@
       <c r="AJ412" s="46"/>
       <c r="AK412" s="46"/>
     </row>
-    <row r="413" spans="2:37" ht="12.75">
+    <row r="413" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="47"/>
       <c r="C413" s="47"/>
       <c r="D413" s="43"/>
@@ -16684,7 +16690,7 @@
       <c r="AJ413" s="46"/>
       <c r="AK413" s="46"/>
     </row>
-    <row r="414" spans="2:37" ht="12.75">
+    <row r="414" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="47"/>
       <c r="C414" s="47"/>
       <c r="D414" s="43"/>
@@ -16721,7 +16727,7 @@
       <c r="AJ414" s="46"/>
       <c r="AK414" s="46"/>
     </row>
-    <row r="415" spans="2:37" ht="12.75">
+    <row r="415" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="47"/>
       <c r="C415" s="47"/>
       <c r="D415" s="43"/>
@@ -16758,7 +16764,7 @@
       <c r="AJ415" s="46"/>
       <c r="AK415" s="46"/>
     </row>
-    <row r="416" spans="2:37" ht="12.75">
+    <row r="416" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="47"/>
       <c r="C416" s="47"/>
       <c r="D416" s="43"/>
@@ -16795,7 +16801,7 @@
       <c r="AJ416" s="46"/>
       <c r="AK416" s="46"/>
     </row>
-    <row r="417" spans="2:37" ht="12.75">
+    <row r="417" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="47"/>
       <c r="C417" s="47"/>
       <c r="D417" s="43"/>
@@ -16832,7 +16838,7 @@
       <c r="AJ417" s="46"/>
       <c r="AK417" s="46"/>
     </row>
-    <row r="418" spans="2:37" ht="12.75">
+    <row r="418" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="47"/>
       <c r="C418" s="47"/>
       <c r="D418" s="43"/>
@@ -16869,7 +16875,7 @@
       <c r="AJ418" s="46"/>
       <c r="AK418" s="46"/>
     </row>
-    <row r="419" spans="2:37" ht="12.75">
+    <row r="419" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="47"/>
       <c r="C419" s="47"/>
       <c r="D419" s="43"/>
@@ -16906,7 +16912,7 @@
       <c r="AJ419" s="46"/>
       <c r="AK419" s="46"/>
     </row>
-    <row r="420" spans="2:37" ht="12.75">
+    <row r="420" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="47"/>
       <c r="C420" s="47"/>
       <c r="D420" s="43"/>
@@ -16943,7 +16949,7 @@
       <c r="AJ420" s="46"/>
       <c r="AK420" s="46"/>
     </row>
-    <row r="421" spans="2:37" ht="12.75">
+    <row r="421" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="47"/>
       <c r="C421" s="47"/>
       <c r="D421" s="43"/>
@@ -16980,7 +16986,7 @@
       <c r="AJ421" s="46"/>
       <c r="AK421" s="46"/>
     </row>
-    <row r="422" spans="2:37" ht="12.75">
+    <row r="422" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="47"/>
       <c r="C422" s="47"/>
       <c r="D422" s="43"/>
@@ -17017,7 +17023,7 @@
       <c r="AJ422" s="46"/>
       <c r="AK422" s="46"/>
     </row>
-    <row r="423" spans="2:37" ht="12.75">
+    <row r="423" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="47"/>
       <c r="C423" s="47"/>
       <c r="D423" s="43"/>
@@ -17054,7 +17060,7 @@
       <c r="AJ423" s="46"/>
       <c r="AK423" s="46"/>
     </row>
-    <row r="424" spans="2:37" ht="12.75">
+    <row r="424" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="47"/>
       <c r="C424" s="47"/>
       <c r="D424" s="43"/>
@@ -17091,7 +17097,7 @@
       <c r="AJ424" s="46"/>
       <c r="AK424" s="46"/>
     </row>
-    <row r="425" spans="2:37" ht="12.75">
+    <row r="425" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="47"/>
       <c r="C425" s="47"/>
       <c r="D425" s="43"/>
@@ -17128,7 +17134,7 @@
       <c r="AJ425" s="46"/>
       <c r="AK425" s="46"/>
     </row>
-    <row r="426" spans="2:37" ht="12.75">
+    <row r="426" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="47"/>
       <c r="C426" s="47"/>
       <c r="D426" s="43"/>
@@ -17165,7 +17171,7 @@
       <c r="AJ426" s="46"/>
       <c r="AK426" s="46"/>
     </row>
-    <row r="427" spans="2:37" ht="12.75">
+    <row r="427" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="47"/>
       <c r="C427" s="47"/>
       <c r="D427" s="43"/>
@@ -17202,7 +17208,7 @@
       <c r="AJ427" s="46"/>
       <c r="AK427" s="46"/>
     </row>
-    <row r="428" spans="2:37" ht="12.75">
+    <row r="428" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="47"/>
       <c r="C428" s="47"/>
       <c r="D428" s="43"/>
@@ -17239,7 +17245,7 @@
       <c r="AJ428" s="46"/>
       <c r="AK428" s="46"/>
     </row>
-    <row r="429" spans="2:37" ht="12.75">
+    <row r="429" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="47"/>
       <c r="C429" s="47"/>
       <c r="D429" s="43"/>
@@ -17276,7 +17282,7 @@
       <c r="AJ429" s="46"/>
       <c r="AK429" s="46"/>
     </row>
-    <row r="430" spans="2:37" ht="12.75">
+    <row r="430" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="47"/>
       <c r="C430" s="47"/>
       <c r="D430" s="43"/>
@@ -17313,7 +17319,7 @@
       <c r="AJ430" s="46"/>
       <c r="AK430" s="46"/>
     </row>
-    <row r="431" spans="2:37" ht="12.75">
+    <row r="431" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="47"/>
       <c r="C431" s="47"/>
       <c r="D431" s="43"/>
@@ -17350,7 +17356,7 @@
       <c r="AJ431" s="46"/>
       <c r="AK431" s="46"/>
     </row>
-    <row r="432" spans="2:37" ht="12.75">
+    <row r="432" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="47"/>
       <c r="C432" s="47"/>
       <c r="D432" s="43"/>
@@ -17387,7 +17393,7 @@
       <c r="AJ432" s="46"/>
       <c r="AK432" s="46"/>
     </row>
-    <row r="433" spans="2:37" ht="12.75">
+    <row r="433" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="47"/>
       <c r="C433" s="47"/>
       <c r="D433" s="43"/>
@@ -17424,7 +17430,7 @@
       <c r="AJ433" s="46"/>
       <c r="AK433" s="46"/>
     </row>
-    <row r="434" spans="2:37" ht="12.75">
+    <row r="434" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="47"/>
       <c r="C434" s="47"/>
       <c r="D434" s="43"/>
@@ -17461,7 +17467,7 @@
       <c r="AJ434" s="46"/>
       <c r="AK434" s="46"/>
     </row>
-    <row r="435" spans="2:37" ht="12.75">
+    <row r="435" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="47"/>
       <c r="C435" s="47"/>
       <c r="D435" s="43"/>
@@ -17498,7 +17504,7 @@
       <c r="AJ435" s="46"/>
       <c r="AK435" s="46"/>
     </row>
-    <row r="436" spans="2:37" ht="12.75">
+    <row r="436" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="47"/>
       <c r="C436" s="47"/>
       <c r="D436" s="43"/>
@@ -17535,7 +17541,7 @@
       <c r="AJ436" s="46"/>
       <c r="AK436" s="46"/>
     </row>
-    <row r="437" spans="2:37" ht="12.75">
+    <row r="437" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="47"/>
       <c r="C437" s="47"/>
       <c r="D437" s="43"/>
@@ -17572,7 +17578,7 @@
       <c r="AJ437" s="46"/>
       <c r="AK437" s="46"/>
     </row>
-    <row r="438" spans="2:37" ht="12.75">
+    <row r="438" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="47"/>
       <c r="C438" s="47"/>
       <c r="D438" s="43"/>
@@ -17609,7 +17615,7 @@
       <c r="AJ438" s="46"/>
       <c r="AK438" s="46"/>
     </row>
-    <row r="439" spans="2:37" ht="12.75">
+    <row r="439" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="47"/>
       <c r="C439" s="47"/>
       <c r="D439" s="43"/>
@@ -17646,7 +17652,7 @@
       <c r="AJ439" s="46"/>
       <c r="AK439" s="46"/>
     </row>
-    <row r="440" spans="2:37" ht="12.75">
+    <row r="440" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="47"/>
       <c r="C440" s="47"/>
       <c r="D440" s="43"/>
@@ -17683,7 +17689,7 @@
       <c r="AJ440" s="46"/>
       <c r="AK440" s="46"/>
     </row>
-    <row r="441" spans="2:37" ht="12.75">
+    <row r="441" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="47"/>
       <c r="C441" s="47"/>
       <c r="D441" s="43"/>
@@ -17720,7 +17726,7 @@
       <c r="AJ441" s="46"/>
       <c r="AK441" s="46"/>
     </row>
-    <row r="442" spans="2:37" ht="12.75">
+    <row r="442" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="47"/>
       <c r="C442" s="47"/>
       <c r="D442" s="43"/>
@@ -17757,7 +17763,7 @@
       <c r="AJ442" s="46"/>
       <c r="AK442" s="46"/>
     </row>
-    <row r="443" spans="2:37" ht="12.75">
+    <row r="443" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="47"/>
       <c r="C443" s="47"/>
       <c r="D443" s="43"/>
@@ -17794,7 +17800,7 @@
       <c r="AJ443" s="46"/>
       <c r="AK443" s="46"/>
     </row>
-    <row r="444" spans="2:37" ht="12.75">
+    <row r="444" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="47"/>
       <c r="C444" s="47"/>
       <c r="D444" s="43"/>
@@ -17831,7 +17837,7 @@
       <c r="AJ444" s="46"/>
       <c r="AK444" s="46"/>
     </row>
-    <row r="445" spans="2:37" ht="12.75">
+    <row r="445" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="47"/>
       <c r="C445" s="47"/>
       <c r="D445" s="43"/>
@@ -17868,7 +17874,7 @@
       <c r="AJ445" s="46"/>
       <c r="AK445" s="46"/>
     </row>
-    <row r="446" spans="2:37" ht="12.75">
+    <row r="446" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="47"/>
       <c r="C446" s="47"/>
       <c r="D446" s="43"/>
@@ -17905,7 +17911,7 @@
       <c r="AJ446" s="46"/>
       <c r="AK446" s="46"/>
     </row>
-    <row r="447" spans="2:37" ht="12.75">
+    <row r="447" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="47"/>
       <c r="C447" s="47"/>
       <c r="D447" s="43"/>
@@ -17942,7 +17948,7 @@
       <c r="AJ447" s="46"/>
       <c r="AK447" s="46"/>
     </row>
-    <row r="448" spans="2:37" ht="12.75">
+    <row r="448" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="47"/>
       <c r="C448" s="47"/>
       <c r="D448" s="43"/>
@@ -17979,7 +17985,7 @@
       <c r="AJ448" s="46"/>
       <c r="AK448" s="46"/>
     </row>
-    <row r="449" spans="2:37" ht="12.75">
+    <row r="449" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="47"/>
       <c r="C449" s="47"/>
       <c r="D449" s="43"/>
@@ -18016,7 +18022,7 @@
       <c r="AJ449" s="46"/>
       <c r="AK449" s="46"/>
     </row>
-    <row r="450" spans="2:37" ht="12.75">
+    <row r="450" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="47"/>
       <c r="C450" s="47"/>
       <c r="D450" s="43"/>
@@ -18053,7 +18059,7 @@
       <c r="AJ450" s="46"/>
       <c r="AK450" s="46"/>
     </row>
-    <row r="451" spans="2:37" ht="12.75">
+    <row r="451" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="47"/>
       <c r="C451" s="47"/>
       <c r="D451" s="43"/>
@@ -18090,7 +18096,7 @@
       <c r="AJ451" s="46"/>
       <c r="AK451" s="46"/>
     </row>
-    <row r="452" spans="2:37" ht="12.75">
+    <row r="452" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="47"/>
       <c r="C452" s="47"/>
       <c r="D452" s="43"/>
@@ -18127,7 +18133,7 @@
       <c r="AJ452" s="46"/>
       <c r="AK452" s="46"/>
     </row>
-    <row r="453" spans="2:37" ht="12.75">
+    <row r="453" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="47"/>
       <c r="C453" s="47"/>
       <c r="D453" s="43"/>
@@ -18164,7 +18170,7 @@
       <c r="AJ453" s="46"/>
       <c r="AK453" s="46"/>
     </row>
-    <row r="454" spans="2:37" ht="12.75">
+    <row r="454" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="47"/>
       <c r="C454" s="47"/>
       <c r="D454" s="43"/>
@@ -18201,7 +18207,7 @@
       <c r="AJ454" s="46"/>
       <c r="AK454" s="46"/>
     </row>
-    <row r="455" spans="2:37" ht="12.75">
+    <row r="455" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="47"/>
       <c r="C455" s="47"/>
       <c r="D455" s="43"/>
@@ -18238,7 +18244,7 @@
       <c r="AJ455" s="46"/>
       <c r="AK455" s="46"/>
     </row>
-    <row r="456" spans="2:37" ht="12.75">
+    <row r="456" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="47"/>
       <c r="C456" s="47"/>
       <c r="D456" s="43"/>
@@ -18275,7 +18281,7 @@
       <c r="AJ456" s="46"/>
       <c r="AK456" s="46"/>
     </row>
-    <row r="457" spans="2:37" ht="12.75">
+    <row r="457" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="47"/>
       <c r="C457" s="47"/>
       <c r="D457" s="43"/>
@@ -18312,7 +18318,7 @@
       <c r="AJ457" s="46"/>
       <c r="AK457" s="46"/>
     </row>
-    <row r="458" spans="2:37" ht="12.75">
+    <row r="458" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="47"/>
       <c r="C458" s="47"/>
       <c r="D458" s="43"/>
@@ -18349,7 +18355,7 @@
       <c r="AJ458" s="46"/>
       <c r="AK458" s="46"/>
     </row>
-    <row r="459" spans="2:37" ht="12.75">
+    <row r="459" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="47"/>
       <c r="C459" s="47"/>
       <c r="D459" s="43"/>
@@ -18386,7 +18392,7 @@
       <c r="AJ459" s="46"/>
       <c r="AK459" s="46"/>
     </row>
-    <row r="460" spans="2:37" ht="12.75">
+    <row r="460" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="47"/>
       <c r="C460" s="47"/>
       <c r="D460" s="43"/>
@@ -18423,7 +18429,7 @@
       <c r="AJ460" s="46"/>
       <c r="AK460" s="46"/>
     </row>
-    <row r="461" spans="2:37" ht="12.75">
+    <row r="461" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="47"/>
       <c r="C461" s="47"/>
       <c r="D461" s="43"/>
@@ -18460,7 +18466,7 @@
       <c r="AJ461" s="46"/>
       <c r="AK461" s="46"/>
     </row>
-    <row r="462" spans="2:37" ht="12.75">
+    <row r="462" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="47"/>
       <c r="C462" s="47"/>
       <c r="D462" s="43"/>
@@ -18497,7 +18503,7 @@
       <c r="AJ462" s="46"/>
       <c r="AK462" s="46"/>
     </row>
-    <row r="463" spans="2:37" ht="12.75">
+    <row r="463" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="47"/>
       <c r="C463" s="47"/>
       <c r="D463" s="43"/>
@@ -18534,7 +18540,7 @@
       <c r="AJ463" s="46"/>
       <c r="AK463" s="46"/>
     </row>
-    <row r="464" spans="2:37" ht="12.75">
+    <row r="464" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="47"/>
       <c r="C464" s="47"/>
       <c r="D464" s="43"/>
@@ -18571,7 +18577,7 @@
       <c r="AJ464" s="46"/>
       <c r="AK464" s="46"/>
     </row>
-    <row r="465" spans="2:37" ht="12.75">
+    <row r="465" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="47"/>
       <c r="C465" s="47"/>
       <c r="D465" s="43"/>
@@ -18608,7 +18614,7 @@
       <c r="AJ465" s="46"/>
       <c r="AK465" s="46"/>
     </row>
-    <row r="466" spans="2:37" ht="12.75">
+    <row r="466" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="47"/>
       <c r="C466" s="47"/>
       <c r="D466" s="43"/>
@@ -18645,7 +18651,7 @@
       <c r="AJ466" s="46"/>
       <c r="AK466" s="46"/>
     </row>
-    <row r="467" spans="2:37" ht="12.75">
+    <row r="467" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="47"/>
       <c r="C467" s="47"/>
       <c r="D467" s="43"/>
@@ -18682,7 +18688,7 @@
       <c r="AJ467" s="46"/>
       <c r="AK467" s="46"/>
     </row>
-    <row r="468" spans="2:37" ht="12.75">
+    <row r="468" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="47"/>
       <c r="C468" s="47"/>
       <c r="D468" s="43"/>
@@ -18719,7 +18725,7 @@
       <c r="AJ468" s="46"/>
       <c r="AK468" s="46"/>
     </row>
-    <row r="469" spans="2:37" ht="12.75">
+    <row r="469" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="47"/>
       <c r="C469" s="47"/>
       <c r="D469" s="43"/>
@@ -18756,7 +18762,7 @@
       <c r="AJ469" s="46"/>
       <c r="AK469" s="46"/>
     </row>
-    <row r="470" spans="2:37" ht="12.75">
+    <row r="470" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="47"/>
       <c r="C470" s="47"/>
       <c r="D470" s="43"/>
@@ -18793,7 +18799,7 @@
       <c r="AJ470" s="46"/>
       <c r="AK470" s="46"/>
     </row>
-    <row r="471" spans="2:37" ht="12.75">
+    <row r="471" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="47"/>
       <c r="C471" s="47"/>
       <c r="D471" s="43"/>
@@ -18830,7 +18836,7 @@
       <c r="AJ471" s="46"/>
       <c r="AK471" s="46"/>
     </row>
-    <row r="472" spans="2:37" ht="12.75">
+    <row r="472" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="47"/>
       <c r="C472" s="47"/>
       <c r="D472" s="43"/>
@@ -18867,7 +18873,7 @@
       <c r="AJ472" s="46"/>
       <c r="AK472" s="46"/>
     </row>
-    <row r="473" spans="2:37" ht="12.75">
+    <row r="473" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="47"/>
       <c r="C473" s="47"/>
       <c r="D473" s="43"/>
@@ -18904,7 +18910,7 @@
       <c r="AJ473" s="46"/>
       <c r="AK473" s="46"/>
     </row>
-    <row r="474" spans="2:37" ht="12.75">
+    <row r="474" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="47"/>
       <c r="C474" s="47"/>
       <c r="D474" s="43"/>
@@ -18941,7 +18947,7 @@
       <c r="AJ474" s="46"/>
       <c r="AK474" s="46"/>
     </row>
-    <row r="475" spans="2:37" ht="12.75">
+    <row r="475" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="47"/>
       <c r="C475" s="47"/>
       <c r="D475" s="43"/>
@@ -18978,7 +18984,7 @@
       <c r="AJ475" s="46"/>
       <c r="AK475" s="46"/>
     </row>
-    <row r="476" spans="2:37" ht="12.75">
+    <row r="476" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="47"/>
       <c r="C476" s="47"/>
       <c r="D476" s="43"/>
@@ -19015,7 +19021,7 @@
       <c r="AJ476" s="46"/>
       <c r="AK476" s="46"/>
     </row>
-    <row r="477" spans="2:37" ht="12.75">
+    <row r="477" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="47"/>
       <c r="C477" s="47"/>
       <c r="D477" s="43"/>
@@ -19052,7 +19058,7 @@
       <c r="AJ477" s="46"/>
       <c r="AK477" s="46"/>
     </row>
-    <row r="478" spans="2:37" ht="12.75">
+    <row r="478" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="47"/>
       <c r="C478" s="47"/>
       <c r="D478" s="43"/>
@@ -19089,7 +19095,7 @@
       <c r="AJ478" s="46"/>
       <c r="AK478" s="46"/>
     </row>
-    <row r="479" spans="2:37" ht="12.75">
+    <row r="479" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="47"/>
       <c r="C479" s="47"/>
       <c r="D479" s="43"/>
@@ -19126,7 +19132,7 @@
       <c r="AJ479" s="46"/>
       <c r="AK479" s="46"/>
     </row>
-    <row r="480" spans="2:37" ht="12.75">
+    <row r="480" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="47"/>
       <c r="C480" s="47"/>
       <c r="D480" s="43"/>
@@ -19163,7 +19169,7 @@
       <c r="AJ480" s="46"/>
       <c r="AK480" s="46"/>
     </row>
-    <row r="481" spans="2:37" ht="12.75">
+    <row r="481" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="47"/>
       <c r="C481" s="47"/>
       <c r="D481" s="43"/>
@@ -19200,7 +19206,7 @@
       <c r="AJ481" s="46"/>
       <c r="AK481" s="46"/>
     </row>
-    <row r="482" spans="2:37" ht="12.75">
+    <row r="482" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="47"/>
       <c r="C482" s="47"/>
       <c r="D482" s="43"/>
@@ -19237,7 +19243,7 @@
       <c r="AJ482" s="46"/>
       <c r="AK482" s="46"/>
     </row>
-    <row r="483" spans="2:37" ht="12.75">
+    <row r="483" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="47"/>
       <c r="C483" s="47"/>
       <c r="D483" s="43"/>
@@ -19274,7 +19280,7 @@
       <c r="AJ483" s="46"/>
       <c r="AK483" s="46"/>
     </row>
-    <row r="484" spans="2:37" ht="12.75">
+    <row r="484" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="47"/>
       <c r="C484" s="47"/>
       <c r="D484" s="43"/>
@@ -19311,7 +19317,7 @@
       <c r="AJ484" s="46"/>
       <c r="AK484" s="46"/>
     </row>
-    <row r="485" spans="2:37" ht="12.75">
+    <row r="485" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="47"/>
       <c r="C485" s="47"/>
       <c r="D485" s="43"/>
@@ -19348,7 +19354,7 @@
       <c r="AJ485" s="46"/>
       <c r="AK485" s="46"/>
     </row>
-    <row r="486" spans="2:37" ht="12.75">
+    <row r="486" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="47"/>
       <c r="C486" s="47"/>
       <c r="D486" s="43"/>
@@ -19385,7 +19391,7 @@
       <c r="AJ486" s="46"/>
       <c r="AK486" s="46"/>
     </row>
-    <row r="487" spans="2:37" ht="12.75">
+    <row r="487" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="47"/>
       <c r="C487" s="47"/>
       <c r="D487" s="43"/>
@@ -19422,7 +19428,7 @@
       <c r="AJ487" s="46"/>
       <c r="AK487" s="46"/>
     </row>
-    <row r="488" spans="2:37" ht="12.75">
+    <row r="488" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="47"/>
       <c r="C488" s="47"/>
       <c r="D488" s="43"/>
@@ -19459,7 +19465,7 @@
       <c r="AJ488" s="46"/>
       <c r="AK488" s="46"/>
     </row>
-    <row r="489" spans="2:37" ht="12.75">
+    <row r="489" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="47"/>
       <c r="C489" s="47"/>
       <c r="D489" s="43"/>
@@ -19496,7 +19502,7 @@
       <c r="AJ489" s="46"/>
       <c r="AK489" s="46"/>
     </row>
-    <row r="490" spans="2:37" ht="12.75">
+    <row r="490" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="47"/>
       <c r="C490" s="47"/>
       <c r="D490" s="43"/>
@@ -19533,7 +19539,7 @@
       <c r="AJ490" s="46"/>
       <c r="AK490" s="46"/>
     </row>
-    <row r="491" spans="2:37" ht="12.75">
+    <row r="491" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="47"/>
       <c r="C491" s="47"/>
       <c r="D491" s="43"/>
@@ -19570,7 +19576,7 @@
       <c r="AJ491" s="46"/>
       <c r="AK491" s="46"/>
     </row>
-    <row r="492" spans="2:37" ht="12.75">
+    <row r="492" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="47"/>
       <c r="C492" s="47"/>
       <c r="D492" s="43"/>
@@ -19607,7 +19613,7 @@
       <c r="AJ492" s="46"/>
       <c r="AK492" s="46"/>
     </row>
-    <row r="493" spans="2:37" ht="12.75">
+    <row r="493" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="47"/>
       <c r="C493" s="47"/>
       <c r="D493" s="43"/>
@@ -19644,7 +19650,7 @@
       <c r="AJ493" s="46"/>
       <c r="AK493" s="46"/>
     </row>
-    <row r="494" spans="2:37" ht="12.75">
+    <row r="494" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="47"/>
       <c r="C494" s="47"/>
       <c r="D494" s="43"/>
@@ -19681,7 +19687,7 @@
       <c r="AJ494" s="46"/>
       <c r="AK494" s="46"/>
     </row>
-    <row r="495" spans="2:37" ht="12.75">
+    <row r="495" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="47"/>
       <c r="C495" s="47"/>
       <c r="D495" s="43"/>
@@ -19718,7 +19724,7 @@
       <c r="AJ495" s="46"/>
       <c r="AK495" s="46"/>
     </row>
-    <row r="496" spans="2:37" ht="12.75">
+    <row r="496" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="47"/>
       <c r="C496" s="47"/>
       <c r="D496" s="43"/>
@@ -19755,7 +19761,7 @@
       <c r="AJ496" s="46"/>
       <c r="AK496" s="46"/>
     </row>
-    <row r="497" spans="2:37" ht="12.75">
+    <row r="497" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="47"/>
       <c r="C497" s="47"/>
       <c r="D497" s="43"/>
@@ -19792,7 +19798,7 @@
       <c r="AJ497" s="46"/>
       <c r="AK497" s="46"/>
     </row>
-    <row r="498" spans="2:37" ht="12.75">
+    <row r="498" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="47"/>
       <c r="C498" s="47"/>
       <c r="D498" s="43"/>
@@ -19829,7 +19835,7 @@
       <c r="AJ498" s="46"/>
       <c r="AK498" s="46"/>
     </row>
-    <row r="499" spans="2:37" ht="12.75">
+    <row r="499" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="47"/>
       <c r="C499" s="47"/>
       <c r="D499" s="43"/>
@@ -19866,7 +19872,7 @@
       <c r="AJ499" s="46"/>
       <c r="AK499" s="46"/>
     </row>
-    <row r="500" spans="2:37" ht="12.75">
+    <row r="500" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="47"/>
       <c r="C500" s="47"/>
       <c r="D500" s="43"/>
@@ -19903,7 +19909,7 @@
       <c r="AJ500" s="46"/>
       <c r="AK500" s="46"/>
     </row>
-    <row r="501" spans="2:37" ht="12.75">
+    <row r="501" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="47"/>
       <c r="C501" s="47"/>
       <c r="D501" s="43"/>
@@ -19940,7 +19946,7 @@
       <c r="AJ501" s="46"/>
       <c r="AK501" s="46"/>
     </row>
-    <row r="502" spans="2:37" ht="12.75">
+    <row r="502" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="47"/>
       <c r="C502" s="47"/>
       <c r="D502" s="43"/>
@@ -19977,7 +19983,7 @@
       <c r="AJ502" s="46"/>
       <c r="AK502" s="46"/>
     </row>
-    <row r="503" spans="2:37" ht="12.75">
+    <row r="503" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="47"/>
       <c r="C503" s="47"/>
       <c r="D503" s="43"/>
@@ -20014,7 +20020,7 @@
       <c r="AJ503" s="46"/>
       <c r="AK503" s="46"/>
     </row>
-    <row r="504" spans="2:37" ht="12.75">
+    <row r="504" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="47"/>
       <c r="C504" s="47"/>
       <c r="D504" s="43"/>
@@ -20051,7 +20057,7 @@
       <c r="AJ504" s="46"/>
       <c r="AK504" s="46"/>
     </row>
-    <row r="505" spans="2:37" ht="12.75">
+    <row r="505" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="47"/>
       <c r="C505" s="47"/>
       <c r="D505" s="43"/>
@@ -20088,7 +20094,7 @@
       <c r="AJ505" s="46"/>
       <c r="AK505" s="46"/>
     </row>
-    <row r="506" spans="2:37" ht="12.75">
+    <row r="506" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="47"/>
       <c r="C506" s="47"/>
       <c r="D506" s="43"/>
@@ -20125,7 +20131,7 @@
       <c r="AJ506" s="46"/>
       <c r="AK506" s="46"/>
     </row>
-    <row r="507" spans="2:37" ht="12.75">
+    <row r="507" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="47"/>
       <c r="C507" s="47"/>
       <c r="D507" s="43"/>
@@ -20162,7 +20168,7 @@
       <c r="AJ507" s="46"/>
       <c r="AK507" s="46"/>
     </row>
-    <row r="508" spans="2:37" ht="12.75">
+    <row r="508" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="47"/>
       <c r="C508" s="47"/>
       <c r="D508" s="43"/>
@@ -20199,7 +20205,7 @@
       <c r="AJ508" s="46"/>
       <c r="AK508" s="46"/>
     </row>
-    <row r="509" spans="2:37" ht="12.75">
+    <row r="509" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="47"/>
       <c r="C509" s="47"/>
       <c r="D509" s="43"/>
@@ -20236,7 +20242,7 @@
       <c r="AJ509" s="46"/>
       <c r="AK509" s="46"/>
     </row>
-    <row r="510" spans="2:37" ht="12.75">
+    <row r="510" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="47"/>
       <c r="C510" s="47"/>
       <c r="D510" s="43"/>
@@ -20273,7 +20279,7 @@
       <c r="AJ510" s="46"/>
       <c r="AK510" s="46"/>
     </row>
-    <row r="511" spans="2:37" ht="12.75">
+    <row r="511" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="47"/>
       <c r="C511" s="47"/>
       <c r="D511" s="43"/>
@@ -20310,7 +20316,7 @@
       <c r="AJ511" s="46"/>
       <c r="AK511" s="46"/>
     </row>
-    <row r="512" spans="2:37" ht="12.75">
+    <row r="512" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="47"/>
       <c r="C512" s="47"/>
       <c r="D512" s="43"/>
@@ -20347,7 +20353,7 @@
       <c r="AJ512" s="46"/>
       <c r="AK512" s="46"/>
     </row>
-    <row r="513" spans="2:37" ht="12.75">
+    <row r="513" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="47"/>
       <c r="C513" s="47"/>
       <c r="D513" s="43"/>
@@ -20384,7 +20390,7 @@
       <c r="AJ513" s="46"/>
       <c r="AK513" s="46"/>
     </row>
-    <row r="514" spans="2:37" ht="12.75">
+    <row r="514" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="47"/>
       <c r="C514" s="47"/>
       <c r="D514" s="43"/>
@@ -20421,7 +20427,7 @@
       <c r="AJ514" s="46"/>
       <c r="AK514" s="46"/>
     </row>
-    <row r="515" spans="2:37" ht="12.75">
+    <row r="515" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="47"/>
       <c r="C515" s="47"/>
       <c r="D515" s="43"/>
@@ -20458,7 +20464,7 @@
       <c r="AJ515" s="46"/>
       <c r="AK515" s="46"/>
     </row>
-    <row r="516" spans="2:37" ht="12.75">
+    <row r="516" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="47"/>
       <c r="C516" s="47"/>
       <c r="D516" s="43"/>
@@ -20495,7 +20501,7 @@
       <c r="AJ516" s="46"/>
       <c r="AK516" s="46"/>
     </row>
-    <row r="517" spans="2:37" ht="12.75">
+    <row r="517" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="47"/>
       <c r="C517" s="47"/>
       <c r="D517" s="43"/>
@@ -20532,7 +20538,7 @@
       <c r="AJ517" s="46"/>
       <c r="AK517" s="46"/>
     </row>
-    <row r="518" spans="2:37" ht="12.75">
+    <row r="518" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="47"/>
       <c r="C518" s="47"/>
       <c r="D518" s="43"/>
@@ -20569,7 +20575,7 @@
       <c r="AJ518" s="46"/>
       <c r="AK518" s="46"/>
     </row>
-    <row r="519" spans="2:37" ht="12.75">
+    <row r="519" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="47"/>
       <c r="C519" s="47"/>
       <c r="D519" s="43"/>
@@ -20606,7 +20612,7 @@
       <c r="AJ519" s="46"/>
       <c r="AK519" s="46"/>
     </row>
-    <row r="520" spans="2:37" ht="12.75">
+    <row r="520" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="47"/>
       <c r="C520" s="47"/>
       <c r="D520" s="43"/>
@@ -20643,7 +20649,7 @@
       <c r="AJ520" s="46"/>
       <c r="AK520" s="46"/>
     </row>
-    <row r="521" spans="2:37" ht="12.75">
+    <row r="521" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="47"/>
       <c r="C521" s="47"/>
       <c r="D521" s="43"/>
@@ -20680,7 +20686,7 @@
       <c r="AJ521" s="46"/>
       <c r="AK521" s="46"/>
     </row>
-    <row r="522" spans="2:37" ht="12.75">
+    <row r="522" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="47"/>
       <c r="C522" s="47"/>
       <c r="D522" s="43"/>
@@ -20717,7 +20723,7 @@
       <c r="AJ522" s="46"/>
       <c r="AK522" s="46"/>
     </row>
-    <row r="523" spans="2:37" ht="12.75">
+    <row r="523" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="47"/>
       <c r="C523" s="47"/>
       <c r="D523" s="43"/>
@@ -20754,7 +20760,7 @@
       <c r="AJ523" s="46"/>
       <c r="AK523" s="46"/>
     </row>
-    <row r="524" spans="2:37" ht="12.75">
+    <row r="524" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="47"/>
       <c r="C524" s="47"/>
       <c r="D524" s="43"/>
@@ -20791,7 +20797,7 @@
       <c r="AJ524" s="46"/>
       <c r="AK524" s="46"/>
     </row>
-    <row r="525" spans="2:37" ht="12.75">
+    <row r="525" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="47"/>
       <c r="C525" s="47"/>
       <c r="D525" s="43"/>
@@ -20828,7 +20834,7 @@
       <c r="AJ525" s="46"/>
       <c r="AK525" s="46"/>
     </row>
-    <row r="526" spans="2:37" ht="12.75">
+    <row r="526" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="47"/>
       <c r="C526" s="47"/>
       <c r="D526" s="43"/>
@@ -20865,7 +20871,7 @@
       <c r="AJ526" s="46"/>
       <c r="AK526" s="46"/>
     </row>
-    <row r="527" spans="2:37" ht="12.75">
+    <row r="527" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="47"/>
       <c r="C527" s="47"/>
       <c r="D527" s="43"/>
@@ -20902,7 +20908,7 @@
       <c r="AJ527" s="46"/>
       <c r="AK527" s="46"/>
     </row>
-    <row r="528" spans="2:37" ht="12.75">
+    <row r="528" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="47"/>
       <c r="C528" s="47"/>
       <c r="D528" s="43"/>
@@ -20939,7 +20945,7 @@
       <c r="AJ528" s="46"/>
       <c r="AK528" s="46"/>
     </row>
-    <row r="529" spans="2:37" ht="12.75">
+    <row r="529" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="47"/>
       <c r="C529" s="47"/>
       <c r="D529" s="43"/>
@@ -20976,7 +20982,7 @@
       <c r="AJ529" s="46"/>
       <c r="AK529" s="46"/>
     </row>
-    <row r="530" spans="2:37" ht="12.75">
+    <row r="530" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="47"/>
       <c r="C530" s="47"/>
       <c r="D530" s="43"/>
@@ -21013,7 +21019,7 @@
       <c r="AJ530" s="46"/>
       <c r="AK530" s="46"/>
     </row>
-    <row r="531" spans="2:37" ht="12.75">
+    <row r="531" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="47"/>
       <c r="C531" s="47"/>
       <c r="D531" s="43"/>
@@ -21050,7 +21056,7 @@
       <c r="AJ531" s="46"/>
       <c r="AK531" s="46"/>
     </row>
-    <row r="532" spans="2:37" ht="12.75">
+    <row r="532" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="47"/>
       <c r="C532" s="47"/>
       <c r="D532" s="43"/>
@@ -21087,7 +21093,7 @@
       <c r="AJ532" s="46"/>
       <c r="AK532" s="46"/>
     </row>
-    <row r="533" spans="2:37" ht="12.75">
+    <row r="533" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="47"/>
       <c r="C533" s="47"/>
       <c r="D533" s="43"/>
@@ -21124,7 +21130,7 @@
       <c r="AJ533" s="46"/>
       <c r="AK533" s="46"/>
     </row>
-    <row r="534" spans="2:37" ht="12.75">
+    <row r="534" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="47"/>
       <c r="C534" s="47"/>
       <c r="D534" s="43"/>
@@ -21161,7 +21167,7 @@
       <c r="AJ534" s="46"/>
       <c r="AK534" s="46"/>
     </row>
-    <row r="535" spans="2:37" ht="12.75">
+    <row r="535" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="47"/>
       <c r="C535" s="47"/>
       <c r="D535" s="43"/>
@@ -21198,7 +21204,7 @@
       <c r="AJ535" s="46"/>
       <c r="AK535" s="46"/>
     </row>
-    <row r="536" spans="2:37" ht="12.75">
+    <row r="536" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="47"/>
       <c r="C536" s="47"/>
       <c r="D536" s="43"/>
@@ -21235,7 +21241,7 @@
       <c r="AJ536" s="46"/>
       <c r="AK536" s="46"/>
     </row>
-    <row r="537" spans="2:37" ht="12.75">
+    <row r="537" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="47"/>
       <c r="C537" s="47"/>
       <c r="D537" s="43"/>
@@ -21272,7 +21278,7 @@
       <c r="AJ537" s="46"/>
       <c r="AK537" s="46"/>
     </row>
-    <row r="538" spans="2:37" ht="12.75">
+    <row r="538" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="47"/>
       <c r="C538" s="47"/>
       <c r="D538" s="43"/>
@@ -21309,7 +21315,7 @@
       <c r="AJ538" s="46"/>
       <c r="AK538" s="46"/>
     </row>
-    <row r="539" spans="2:37" ht="12.75">
+    <row r="539" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="47"/>
       <c r="C539" s="47"/>
       <c r="D539" s="43"/>
@@ -21346,7 +21352,7 @@
       <c r="AJ539" s="46"/>
       <c r="AK539" s="46"/>
     </row>
-    <row r="540" spans="2:37" ht="12.75">
+    <row r="540" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="47"/>
       <c r="C540" s="47"/>
       <c r="D540" s="43"/>
@@ -21383,7 +21389,7 @@
       <c r="AJ540" s="46"/>
       <c r="AK540" s="46"/>
     </row>
-    <row r="541" spans="2:37" ht="12.75">
+    <row r="541" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="47"/>
       <c r="C541" s="47"/>
       <c r="D541" s="43"/>
@@ -21420,7 +21426,7 @@
       <c r="AJ541" s="46"/>
       <c r="AK541" s="46"/>
     </row>
-    <row r="542" spans="2:37" ht="12.75">
+    <row r="542" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="47"/>
       <c r="C542" s="47"/>
       <c r="D542" s="43"/>
@@ -21457,7 +21463,7 @@
       <c r="AJ542" s="46"/>
       <c r="AK542" s="46"/>
     </row>
-    <row r="543" spans="2:37" ht="12.75">
+    <row r="543" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="47"/>
       <c r="C543" s="47"/>
       <c r="D543" s="43"/>
@@ -21494,7 +21500,7 @@
       <c r="AJ543" s="46"/>
       <c r="AK543" s="46"/>
     </row>
-    <row r="544" spans="2:37" ht="12.75">
+    <row r="544" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="47"/>
       <c r="C544" s="47"/>
       <c r="D544" s="43"/>
@@ -21531,7 +21537,7 @@
       <c r="AJ544" s="46"/>
       <c r="AK544" s="46"/>
     </row>
-    <row r="545" spans="2:37" ht="12.75">
+    <row r="545" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="47"/>
       <c r="C545" s="47"/>
       <c r="D545" s="43"/>
@@ -21568,7 +21574,7 @@
       <c r="AJ545" s="46"/>
       <c r="AK545" s="46"/>
     </row>
-    <row r="546" spans="2:37" ht="12.75">
+    <row r="546" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="47"/>
       <c r="C546" s="47"/>
       <c r="D546" s="43"/>
@@ -21605,7 +21611,7 @@
       <c r="AJ546" s="46"/>
       <c r="AK546" s="46"/>
     </row>
-    <row r="547" spans="2:37" ht="12.75">
+    <row r="547" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="47"/>
       <c r="C547" s="47"/>
       <c r="D547" s="43"/>
@@ -21642,7 +21648,7 @@
       <c r="AJ547" s="46"/>
       <c r="AK547" s="46"/>
     </row>
-    <row r="548" spans="2:37" ht="12.75">
+    <row r="548" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="47"/>
       <c r="C548" s="47"/>
       <c r="D548" s="43"/>
@@ -21679,7 +21685,7 @@
       <c r="AJ548" s="46"/>
       <c r="AK548" s="46"/>
     </row>
-    <row r="549" spans="2:37" ht="12.75">
+    <row r="549" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="47"/>
       <c r="C549" s="47"/>
       <c r="D549" s="43"/>
@@ -21716,7 +21722,7 @@
       <c r="AJ549" s="46"/>
       <c r="AK549" s="46"/>
     </row>
-    <row r="550" spans="2:37" ht="12.75">
+    <row r="550" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="47"/>
       <c r="C550" s="47"/>
       <c r="D550" s="43"/>
@@ -21753,7 +21759,7 @@
       <c r="AJ550" s="46"/>
       <c r="AK550" s="46"/>
     </row>
-    <row r="551" spans="2:37" ht="12.75">
+    <row r="551" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="47"/>
       <c r="C551" s="47"/>
       <c r="D551" s="43"/>
@@ -21790,7 +21796,7 @@
       <c r="AJ551" s="46"/>
       <c r="AK551" s="46"/>
     </row>
-    <row r="552" spans="2:37" ht="12.75">
+    <row r="552" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="47"/>
       <c r="C552" s="47"/>
       <c r="D552" s="43"/>
@@ -21827,7 +21833,7 @@
       <c r="AJ552" s="46"/>
       <c r="AK552" s="46"/>
     </row>
-    <row r="553" spans="2:37" ht="12.75">
+    <row r="553" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="47"/>
       <c r="C553" s="47"/>
       <c r="D553" s="43"/>
@@ -21864,7 +21870,7 @@
       <c r="AJ553" s="46"/>
       <c r="AK553" s="46"/>
     </row>
-    <row r="554" spans="2:37" ht="12.75">
+    <row r="554" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="47"/>
       <c r="C554" s="47"/>
       <c r="D554" s="43"/>
@@ -21901,7 +21907,7 @@
       <c r="AJ554" s="46"/>
       <c r="AK554" s="46"/>
     </row>
-    <row r="555" spans="2:37" ht="12.75">
+    <row r="555" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="47"/>
       <c r="C555" s="47"/>
       <c r="D555" s="43"/>
@@ -21938,7 +21944,7 @@
       <c r="AJ555" s="46"/>
       <c r="AK555" s="46"/>
     </row>
-    <row r="556" spans="2:37" ht="12.75">
+    <row r="556" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="47"/>
       <c r="C556" s="47"/>
       <c r="D556" s="43"/>
@@ -21975,7 +21981,7 @@
       <c r="AJ556" s="46"/>
       <c r="AK556" s="46"/>
     </row>
-    <row r="557" spans="2:37" ht="12.75">
+    <row r="557" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="47"/>
       <c r="C557" s="47"/>
       <c r="D557" s="43"/>
@@ -22012,7 +22018,7 @@
       <c r="AJ557" s="46"/>
       <c r="AK557" s="46"/>
     </row>
-    <row r="558" spans="2:37" ht="12.75">
+    <row r="558" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="47"/>
       <c r="C558" s="47"/>
       <c r="D558" s="43"/>
@@ -22049,7 +22055,7 @@
       <c r="AJ558" s="46"/>
       <c r="AK558" s="46"/>
     </row>
-    <row r="559" spans="2:37" ht="12.75">
+    <row r="559" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="47"/>
       <c r="C559" s="47"/>
       <c r="D559" s="43"/>
@@ -22086,7 +22092,7 @@
       <c r="AJ559" s="46"/>
       <c r="AK559" s="46"/>
     </row>
-    <row r="560" spans="2:37" ht="12.75">
+    <row r="560" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="47"/>
       <c r="C560" s="47"/>
       <c r="D560" s="43"/>
@@ -22123,7 +22129,7 @@
       <c r="AJ560" s="46"/>
       <c r="AK560" s="46"/>
     </row>
-    <row r="561" spans="2:37" ht="12.75">
+    <row r="561" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="47"/>
       <c r="C561" s="47"/>
       <c r="D561" s="43"/>
@@ -22160,7 +22166,7 @@
       <c r="AJ561" s="46"/>
       <c r="AK561" s="46"/>
     </row>
-    <row r="562" spans="2:37" ht="12.75">
+    <row r="562" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="47"/>
       <c r="C562" s="47"/>
       <c r="D562" s="43"/>
@@ -22197,7 +22203,7 @@
       <c r="AJ562" s="46"/>
       <c r="AK562" s="46"/>
     </row>
-    <row r="563" spans="2:37" ht="12.75">
+    <row r="563" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="47"/>
       <c r="C563" s="47"/>
       <c r="D563" s="43"/>
@@ -22234,7 +22240,7 @@
       <c r="AJ563" s="46"/>
       <c r="AK563" s="46"/>
     </row>
-    <row r="564" spans="2:37" ht="12.75">
+    <row r="564" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="47"/>
       <c r="C564" s="47"/>
       <c r="D564" s="43"/>
@@ -22271,7 +22277,7 @@
       <c r="AJ564" s="46"/>
       <c r="AK564" s="46"/>
     </row>
-    <row r="565" spans="2:37" ht="12.75">
+    <row r="565" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="47"/>
       <c r="C565" s="47"/>
       <c r="D565" s="43"/>
@@ -22308,7 +22314,7 @@
       <c r="AJ565" s="46"/>
       <c r="AK565" s="46"/>
     </row>
-    <row r="566" spans="2:37" ht="12.75">
+    <row r="566" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="47"/>
       <c r="C566" s="47"/>
       <c r="D566" s="43"/>
@@ -22345,7 +22351,7 @@
       <c r="AJ566" s="46"/>
       <c r="AK566" s="46"/>
     </row>
-    <row r="567" spans="2:37" ht="12.75">
+    <row r="567" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="47"/>
       <c r="C567" s="47"/>
       <c r="D567" s="43"/>
@@ -22382,7 +22388,7 @@
       <c r="AJ567" s="46"/>
       <c r="AK567" s="46"/>
     </row>
-    <row r="568" spans="2:37" ht="12.75">
+    <row r="568" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="47"/>
       <c r="C568" s="47"/>
       <c r="D568" s="43"/>
@@ -22419,7 +22425,7 @@
       <c r="AJ568" s="46"/>
       <c r="AK568" s="46"/>
     </row>
-    <row r="569" spans="2:37" ht="12.75">
+    <row r="569" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="47"/>
       <c r="C569" s="47"/>
       <c r="D569" s="43"/>
@@ -22456,7 +22462,7 @@
       <c r="AJ569" s="46"/>
       <c r="AK569" s="46"/>
     </row>
-    <row r="570" spans="2:37" ht="12.75">
+    <row r="570" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="47"/>
       <c r="C570" s="47"/>
       <c r="D570" s="43"/>
@@ -22493,7 +22499,7 @@
       <c r="AJ570" s="46"/>
       <c r="AK570" s="46"/>
     </row>
-    <row r="571" spans="2:37" ht="12.75">
+    <row r="571" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="47"/>
       <c r="C571" s="47"/>
       <c r="D571" s="43"/>
@@ -22530,7 +22536,7 @@
       <c r="AJ571" s="46"/>
       <c r="AK571" s="46"/>
     </row>
-    <row r="572" spans="2:37" ht="12.75">
+    <row r="572" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="47"/>
       <c r="C572" s="47"/>
       <c r="D572" s="43"/>
@@ -22567,7 +22573,7 @@
       <c r="AJ572" s="46"/>
       <c r="AK572" s="46"/>
     </row>
-    <row r="573" spans="2:37" ht="12.75">
+    <row r="573" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="47"/>
       <c r="C573" s="47"/>
       <c r="D573" s="43"/>
@@ -22604,7 +22610,7 @@
       <c r="AJ573" s="46"/>
       <c r="AK573" s="46"/>
     </row>
-    <row r="574" spans="2:37" ht="12.75">
+    <row r="574" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="47"/>
       <c r="C574" s="47"/>
       <c r="D574" s="43"/>
@@ -22641,7 +22647,7 @@
       <c r="AJ574" s="46"/>
       <c r="AK574" s="46"/>
     </row>
-    <row r="575" spans="2:37" ht="12.75">
+    <row r="575" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="47"/>
       <c r="C575" s="47"/>
       <c r="D575" s="43"/>
@@ -22678,7 +22684,7 @@
       <c r="AJ575" s="46"/>
       <c r="AK575" s="46"/>
     </row>
-    <row r="576" spans="2:37" ht="12.75">
+    <row r="576" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="47"/>
       <c r="C576" s="47"/>
       <c r="D576" s="43"/>
@@ -22715,7 +22721,7 @@
       <c r="AJ576" s="46"/>
       <c r="AK576" s="46"/>
     </row>
-    <row r="577" spans="2:37" ht="12.75">
+    <row r="577" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="47"/>
       <c r="C577" s="47"/>
       <c r="D577" s="43"/>
@@ -22752,7 +22758,7 @@
       <c r="AJ577" s="46"/>
       <c r="AK577" s="46"/>
     </row>
-    <row r="578" spans="2:37" ht="12.75">
+    <row r="578" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="47"/>
       <c r="C578" s="47"/>
       <c r="D578" s="43"/>
@@ -22789,7 +22795,7 @@
       <c r="AJ578" s="46"/>
       <c r="AK578" s="46"/>
     </row>
-    <row r="579" spans="2:37" ht="12.75">
+    <row r="579" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="47"/>
       <c r="C579" s="47"/>
       <c r="D579" s="43"/>
@@ -22826,7 +22832,7 @@
       <c r="AJ579" s="46"/>
       <c r="AK579" s="46"/>
     </row>
-    <row r="580" spans="2:37" ht="12.75">
+    <row r="580" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="47"/>
       <c r="C580" s="47"/>
       <c r="D580" s="43"/>
@@ -22863,7 +22869,7 @@
       <c r="AJ580" s="46"/>
       <c r="AK580" s="46"/>
     </row>
-    <row r="581" spans="2:37" ht="12.75">
+    <row r="581" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="47"/>
       <c r="C581" s="47"/>
       <c r="D581" s="43"/>
@@ -22900,7 +22906,7 @@
       <c r="AJ581" s="46"/>
       <c r="AK581" s="46"/>
     </row>
-    <row r="582" spans="2:37" ht="12.75">
+    <row r="582" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="47"/>
       <c r="C582" s="47"/>
       <c r="D582" s="43"/>
@@ -22937,7 +22943,7 @@
       <c r="AJ582" s="46"/>
       <c r="AK582" s="46"/>
     </row>
-    <row r="583" spans="2:37" ht="12.75">
+    <row r="583" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="47"/>
       <c r="C583" s="47"/>
       <c r="D583" s="43"/>
@@ -22974,7 +22980,7 @@
       <c r="AJ583" s="46"/>
       <c r="AK583" s="46"/>
     </row>
-    <row r="584" spans="2:37" ht="12.75">
+    <row r="584" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="47"/>
       <c r="C584" s="47"/>
       <c r="D584" s="43"/>
@@ -23011,7 +23017,7 @@
       <c r="AJ584" s="46"/>
       <c r="AK584" s="46"/>
     </row>
-    <row r="585" spans="2:37" ht="12.75">
+    <row r="585" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="47"/>
       <c r="C585" s="47"/>
       <c r="D585" s="43"/>
@@ -23048,7 +23054,7 @@
       <c r="AJ585" s="46"/>
       <c r="AK585" s="46"/>
     </row>
-    <row r="586" spans="2:37" ht="12.75">
+    <row r="586" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="47"/>
       <c r="C586" s="47"/>
       <c r="D586" s="43"/>
@@ -23085,7 +23091,7 @@
       <c r="AJ586" s="46"/>
       <c r="AK586" s="46"/>
     </row>
-    <row r="587" spans="2:37" ht="12.75">
+    <row r="587" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="47"/>
       <c r="C587" s="47"/>
       <c r="D587" s="43"/>
@@ -23122,7 +23128,7 @@
       <c r="AJ587" s="46"/>
       <c r="AK587" s="46"/>
     </row>
-    <row r="588" spans="2:37" ht="12.75">
+    <row r="588" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="47"/>
       <c r="C588" s="47"/>
       <c r="D588" s="43"/>
@@ -23159,7 +23165,7 @@
       <c r="AJ588" s="46"/>
       <c r="AK588" s="46"/>
     </row>
-    <row r="589" spans="2:37" ht="12.75">
+    <row r="589" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="47"/>
       <c r="C589" s="47"/>
       <c r="D589" s="43"/>
@@ -23196,7 +23202,7 @@
       <c r="AJ589" s="46"/>
       <c r="AK589" s="46"/>
     </row>
-    <row r="590" spans="2:37" ht="12.75">
+    <row r="590" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="47"/>
       <c r="C590" s="47"/>
       <c r="D590" s="43"/>
@@ -23233,7 +23239,7 @@
       <c r="AJ590" s="46"/>
       <c r="AK590" s="46"/>
     </row>
-    <row r="591" spans="2:37" ht="12.75">
+    <row r="591" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="47"/>
       <c r="C591" s="47"/>
       <c r="D591" s="43"/>
@@ -23270,7 +23276,7 @@
       <c r="AJ591" s="46"/>
       <c r="AK591" s="46"/>
     </row>
-    <row r="592" spans="2:37" ht="12.75">
+    <row r="592" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="47"/>
       <c r="C592" s="47"/>
       <c r="D592" s="43"/>
@@ -23307,7 +23313,7 @@
       <c r="AJ592" s="46"/>
       <c r="AK592" s="46"/>
     </row>
-    <row r="593" spans="2:37" ht="12.75">
+    <row r="593" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="47"/>
       <c r="C593" s="47"/>
       <c r="D593" s="43"/>
@@ -23344,7 +23350,7 @@
       <c r="AJ593" s="46"/>
       <c r="AK593" s="46"/>
     </row>
-    <row r="594" spans="2:37" ht="12.75">
+    <row r="594" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="47"/>
       <c r="C594" s="47"/>
       <c r="D594" s="43"/>
@@ -23381,7 +23387,7 @@
       <c r="AJ594" s="46"/>
       <c r="AK594" s="46"/>
     </row>
-    <row r="595" spans="2:37" ht="12.75">
+    <row r="595" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="47"/>
       <c r="C595" s="47"/>
       <c r="D595" s="43"/>
@@ -23418,7 +23424,7 @@
       <c r="AJ595" s="46"/>
       <c r="AK595" s="46"/>
     </row>
-    <row r="596" spans="2:37" ht="12.75">
+    <row r="596" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="47"/>
       <c r="C596" s="47"/>
       <c r="D596" s="43"/>
@@ -23455,7 +23461,7 @@
       <c r="AJ596" s="46"/>
       <c r="AK596" s="46"/>
     </row>
-    <row r="597" spans="2:37" ht="12.75">
+    <row r="597" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="47"/>
       <c r="C597" s="47"/>
       <c r="D597" s="43"/>
@@ -23492,7 +23498,7 @@
       <c r="AJ597" s="46"/>
       <c r="AK597" s="46"/>
     </row>
-    <row r="598" spans="2:37" ht="12.75">
+    <row r="598" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="47"/>
       <c r="C598" s="47"/>
       <c r="D598" s="43"/>
@@ -23529,7 +23535,7 @@
       <c r="AJ598" s="46"/>
       <c r="AK598" s="46"/>
     </row>
-    <row r="599" spans="2:37" ht="12.75">
+    <row r="599" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="47"/>
       <c r="C599" s="47"/>
       <c r="D599" s="43"/>
@@ -23566,7 +23572,7 @@
       <c r="AJ599" s="46"/>
       <c r="AK599" s="46"/>
     </row>
-    <row r="600" spans="2:37" ht="12.75">
+    <row r="600" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="47"/>
       <c r="C600" s="47"/>
       <c r="D600" s="43"/>
@@ -23603,7 +23609,7 @@
       <c r="AJ600" s="46"/>
       <c r="AK600" s="46"/>
     </row>
-    <row r="601" spans="2:37" ht="12.75">
+    <row r="601" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="47"/>
       <c r="C601" s="47"/>
       <c r="D601" s="43"/>
@@ -23640,7 +23646,7 @@
       <c r="AJ601" s="46"/>
       <c r="AK601" s="46"/>
     </row>
-    <row r="602" spans="2:37" ht="12.75">
+    <row r="602" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="47"/>
       <c r="C602" s="47"/>
       <c r="D602" s="43"/>
@@ -23677,7 +23683,7 @@
       <c r="AJ602" s="46"/>
       <c r="AK602" s="46"/>
     </row>
-    <row r="603" spans="2:37" ht="12.75">
+    <row r="603" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="47"/>
       <c r="C603" s="47"/>
       <c r="D603" s="43"/>
@@ -23714,7 +23720,7 @@
       <c r="AJ603" s="46"/>
       <c r="AK603" s="46"/>
     </row>
-    <row r="604" spans="2:37" ht="12.75">
+    <row r="604" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="47"/>
       <c r="C604" s="47"/>
       <c r="D604" s="43"/>
@@ -23751,7 +23757,7 @@
       <c r="AJ604" s="46"/>
       <c r="AK604" s="46"/>
     </row>
-    <row r="605" spans="2:37" ht="12.75">
+    <row r="605" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="47"/>
       <c r="C605" s="47"/>
       <c r="D605" s="43"/>
@@ -23788,7 +23794,7 @@
       <c r="AJ605" s="46"/>
       <c r="AK605" s="46"/>
     </row>
-    <row r="606" spans="2:37" ht="12.75">
+    <row r="606" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="47"/>
       <c r="C606" s="47"/>
       <c r="D606" s="43"/>
@@ -23825,7 +23831,7 @@
       <c r="AJ606" s="46"/>
       <c r="AK606" s="46"/>
     </row>
-    <row r="607" spans="2:37" ht="12.75">
+    <row r="607" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="47"/>
       <c r="C607" s="47"/>
       <c r="D607" s="43"/>
@@ -23862,7 +23868,7 @@
       <c r="AJ607" s="46"/>
       <c r="AK607" s="46"/>
     </row>
-    <row r="608" spans="2:37" ht="12.75">
+    <row r="608" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="47"/>
       <c r="C608" s="47"/>
       <c r="D608" s="43"/>
@@ -23899,7 +23905,7 @@
       <c r="AJ608" s="46"/>
       <c r="AK608" s="46"/>
     </row>
-    <row r="609" spans="2:37" ht="12.75">
+    <row r="609" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="47"/>
       <c r="C609" s="47"/>
       <c r="D609" s="43"/>
@@ -23936,7 +23942,7 @@
       <c r="AJ609" s="46"/>
       <c r="AK609" s="46"/>
     </row>
-    <row r="610" spans="2:37" ht="12.75">
+    <row r="610" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="47"/>
       <c r="C610" s="47"/>
       <c r="D610" s="43"/>
@@ -23973,7 +23979,7 @@
       <c r="AJ610" s="46"/>
       <c r="AK610" s="46"/>
     </row>
-    <row r="611" spans="2:37" ht="12.75">
+    <row r="611" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="47"/>
       <c r="C611" s="47"/>
       <c r="D611" s="43"/>
@@ -24010,7 +24016,7 @@
       <c r="AJ611" s="46"/>
       <c r="AK611" s="46"/>
     </row>
-    <row r="612" spans="2:37" ht="12.75">
+    <row r="612" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="47"/>
       <c r="C612" s="47"/>
       <c r="D612" s="43"/>
@@ -24047,7 +24053,7 @@
       <c r="AJ612" s="46"/>
       <c r="AK612" s="46"/>
     </row>
-    <row r="613" spans="2:37" ht="12.75">
+    <row r="613" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="47"/>
       <c r="C613" s="47"/>
       <c r="D613" s="43"/>
@@ -24084,7 +24090,7 @@
       <c r="AJ613" s="46"/>
       <c r="AK613" s="46"/>
     </row>
-    <row r="614" spans="2:37" ht="12.75">
+    <row r="614" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="47"/>
       <c r="C614" s="47"/>
       <c r="D614" s="43"/>
@@ -24121,7 +24127,7 @@
       <c r="AJ614" s="46"/>
       <c r="AK614" s="46"/>
     </row>
-    <row r="615" spans="2:37" ht="12.75">
+    <row r="615" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="47"/>
       <c r="C615" s="47"/>
       <c r="D615" s="43"/>
@@ -24158,7 +24164,7 @@
       <c r="AJ615" s="46"/>
       <c r="AK615" s="46"/>
     </row>
-    <row r="616" spans="2:37" ht="12.75">
+    <row r="616" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="47"/>
       <c r="C616" s="47"/>
       <c r="D616" s="43"/>
@@ -24195,7 +24201,7 @@
       <c r="AJ616" s="46"/>
       <c r="AK616" s="46"/>
     </row>
-    <row r="617" spans="2:37" ht="12.75">
+    <row r="617" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="47"/>
       <c r="C617" s="47"/>
       <c r="D617" s="43"/>
@@ -24232,7 +24238,7 @@
       <c r="AJ617" s="46"/>
       <c r="AK617" s="46"/>
     </row>
-    <row r="618" spans="2:37" ht="12.75">
+    <row r="618" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="47"/>
       <c r="C618" s="47"/>
       <c r="D618" s="43"/>
@@ -24269,7 +24275,7 @@
       <c r="AJ618" s="46"/>
       <c r="AK618" s="46"/>
     </row>
-    <row r="619" spans="2:37" ht="12.75">
+    <row r="619" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="47"/>
       <c r="C619" s="47"/>
       <c r="D619" s="43"/>
@@ -24306,7 +24312,7 @@
       <c r="AJ619" s="46"/>
       <c r="AK619" s="46"/>
     </row>
-    <row r="620" spans="2:37" ht="12.75">
+    <row r="620" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="47"/>
       <c r="C620" s="47"/>
       <c r="D620" s="43"/>
@@ -24343,7 +24349,7 @@
       <c r="AJ620" s="46"/>
       <c r="AK620" s="46"/>
     </row>
-    <row r="621" spans="2:37" ht="12.75">
+    <row r="621" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="47"/>
       <c r="C621" s="47"/>
       <c r="D621" s="43"/>
@@ -24380,7 +24386,7 @@
       <c r="AJ621" s="46"/>
       <c r="AK621" s="46"/>
     </row>
-    <row r="622" spans="2:37" ht="12.75">
+    <row r="622" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="47"/>
       <c r="C622" s="47"/>
       <c r="D622" s="43"/>
@@ -24417,7 +24423,7 @@
       <c r="AJ622" s="46"/>
       <c r="AK622" s="46"/>
     </row>
-    <row r="623" spans="2:37" ht="12.75">
+    <row r="623" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="47"/>
       <c r="C623" s="47"/>
       <c r="D623" s="43"/>
@@ -24454,7 +24460,7 @@
       <c r="AJ623" s="46"/>
       <c r="AK623" s="46"/>
     </row>
-    <row r="624" spans="2:37" ht="12.75">
+    <row r="624" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="47"/>
       <c r="C624" s="47"/>
       <c r="D624" s="43"/>
@@ -24491,7 +24497,7 @@
       <c r="AJ624" s="46"/>
       <c r="AK624" s="46"/>
     </row>
-    <row r="625" spans="2:37" ht="12.75">
+    <row r="625" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="47"/>
       <c r="C625" s="47"/>
       <c r="D625" s="43"/>
@@ -24528,7 +24534,7 @@
       <c r="AJ625" s="46"/>
       <c r="AK625" s="46"/>
     </row>
-    <row r="626" spans="2:37" ht="12.75">
+    <row r="626" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="47"/>
       <c r="C626" s="47"/>
       <c r="D626" s="43"/>
@@ -24565,7 +24571,7 @@
       <c r="AJ626" s="46"/>
       <c r="AK626" s="46"/>
     </row>
-    <row r="627" spans="2:37" ht="12.75">
+    <row r="627" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="47"/>
       <c r="C627" s="47"/>
       <c r="D627" s="43"/>
@@ -24602,7 +24608,7 @@
       <c r="AJ627" s="46"/>
       <c r="AK627" s="46"/>
     </row>
-    <row r="628" spans="2:37" ht="12.75">
+    <row r="628" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="47"/>
       <c r="C628" s="47"/>
       <c r="D628" s="43"/>
@@ -24639,7 +24645,7 @@
       <c r="AJ628" s="46"/>
       <c r="AK628" s="46"/>
     </row>
-    <row r="629" spans="2:37" ht="12.75">
+    <row r="629" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="47"/>
       <c r="C629" s="47"/>
       <c r="D629" s="43"/>
@@ -24676,7 +24682,7 @@
       <c r="AJ629" s="46"/>
       <c r="AK629" s="46"/>
     </row>
-    <row r="630" spans="2:37" ht="12.75">
+    <row r="630" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="47"/>
       <c r="C630" s="47"/>
       <c r="D630" s="43"/>
@@ -24713,7 +24719,7 @@
       <c r="AJ630" s="46"/>
       <c r="AK630" s="46"/>
     </row>
-    <row r="631" spans="2:37" ht="12.75">
+    <row r="631" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="47"/>
       <c r="C631" s="47"/>
       <c r="D631" s="43"/>
@@ -24750,7 +24756,7 @@
       <c r="AJ631" s="46"/>
       <c r="AK631" s="46"/>
     </row>
-    <row r="632" spans="2:37" ht="12.75">
+    <row r="632" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="47"/>
       <c r="C632" s="47"/>
       <c r="D632" s="43"/>
@@ -24787,7 +24793,7 @@
       <c r="AJ632" s="46"/>
       <c r="AK632" s="46"/>
     </row>
-    <row r="633" spans="2:37" ht="12.75">
+    <row r="633" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="47"/>
       <c r="C633" s="47"/>
       <c r="D633" s="43"/>
@@ -24824,7 +24830,7 @@
       <c r="AJ633" s="46"/>
       <c r="AK633" s="46"/>
     </row>
-    <row r="634" spans="2:37" ht="12.75">
+    <row r="634" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="47"/>
       <c r="C634" s="47"/>
       <c r="D634" s="43"/>
@@ -24861,7 +24867,7 @@
       <c r="AJ634" s="46"/>
       <c r="AK634" s="46"/>
     </row>
-    <row r="635" spans="2:37" ht="12.75">
+    <row r="635" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="47"/>
       <c r="C635" s="47"/>
       <c r="D635" s="43"/>
@@ -24898,7 +24904,7 @@
       <c r="AJ635" s="46"/>
       <c r="AK635" s="46"/>
     </row>
-    <row r="636" spans="2:37" ht="12.75">
+    <row r="636" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="47"/>
       <c r="C636" s="47"/>
       <c r="D636" s="43"/>
@@ -24935,7 +24941,7 @@
       <c r="AJ636" s="46"/>
       <c r="AK636" s="46"/>
     </row>
-    <row r="637" spans="2:37" ht="12.75">
+    <row r="637" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="47"/>
       <c r="C637" s="47"/>
       <c r="D637" s="43"/>
@@ -24972,7 +24978,7 @@
       <c r="AJ637" s="46"/>
       <c r="AK637" s="46"/>
     </row>
-    <row r="638" spans="2:37" ht="12.75">
+    <row r="638" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="47"/>
       <c r="C638" s="47"/>
       <c r="D638" s="43"/>
@@ -25009,7 +25015,7 @@
       <c r="AJ638" s="46"/>
       <c r="AK638" s="46"/>
     </row>
-    <row r="639" spans="2:37" ht="12.75">
+    <row r="639" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="47"/>
       <c r="C639" s="47"/>
       <c r="D639" s="43"/>
@@ -25046,7 +25052,7 @@
       <c r="AJ639" s="46"/>
       <c r="AK639" s="46"/>
     </row>
-    <row r="640" spans="2:37" ht="12.75">
+    <row r="640" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="47"/>
       <c r="C640" s="47"/>
       <c r="D640" s="43"/>
@@ -25083,7 +25089,7 @@
       <c r="AJ640" s="46"/>
       <c r="AK640" s="46"/>
     </row>
-    <row r="641" spans="2:37" ht="12.75">
+    <row r="641" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="47"/>
       <c r="C641" s="47"/>
       <c r="D641" s="43"/>
@@ -25120,7 +25126,7 @@
       <c r="AJ641" s="46"/>
       <c r="AK641" s="46"/>
     </row>
-    <row r="642" spans="2:37" ht="12.75">
+    <row r="642" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="47"/>
       <c r="C642" s="47"/>
       <c r="D642" s="43"/>
@@ -25157,7 +25163,7 @@
       <c r="AJ642" s="46"/>
       <c r="AK642" s="46"/>
     </row>
-    <row r="643" spans="2:37" ht="12.75">
+    <row r="643" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="47"/>
       <c r="C643" s="47"/>
       <c r="D643" s="43"/>
@@ -25194,7 +25200,7 @@
       <c r="AJ643" s="46"/>
       <c r="AK643" s="46"/>
     </row>
-    <row r="644" spans="2:37" ht="12.75">
+    <row r="644" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="47"/>
       <c r="C644" s="47"/>
       <c r="D644" s="43"/>
@@ -25231,7 +25237,7 @@
       <c r="AJ644" s="46"/>
       <c r="AK644" s="46"/>
     </row>
-    <row r="645" spans="2:37" ht="12.75">
+    <row r="645" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="47"/>
       <c r="C645" s="47"/>
       <c r="D645" s="43"/>
@@ -25268,7 +25274,7 @@
       <c r="AJ645" s="46"/>
       <c r="AK645" s="46"/>
     </row>
-    <row r="646" spans="2:37" ht="12.75">
+    <row r="646" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="47"/>
       <c r="C646" s="47"/>
       <c r="D646" s="43"/>
@@ -25305,7 +25311,7 @@
       <c r="AJ646" s="46"/>
       <c r="AK646" s="46"/>
     </row>
-    <row r="647" spans="2:37" ht="12.75">
+    <row r="647" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="47"/>
       <c r="C647" s="47"/>
       <c r="D647" s="43"/>
@@ -25342,7 +25348,7 @@
       <c r="AJ647" s="46"/>
       <c r="AK647" s="46"/>
     </row>
-    <row r="648" spans="2:37" ht="12.75">
+    <row r="648" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="47"/>
       <c r="C648" s="47"/>
       <c r="D648" s="43"/>
@@ -25379,7 +25385,7 @@
       <c r="AJ648" s="46"/>
       <c r="AK648" s="46"/>
     </row>
-    <row r="649" spans="2:37" ht="12.75">
+    <row r="649" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="47"/>
       <c r="C649" s="47"/>
       <c r="D649" s="43"/>
@@ -25416,7 +25422,7 @@
       <c r="AJ649" s="46"/>
       <c r="AK649" s="46"/>
     </row>
-    <row r="650" spans="2:37" ht="12.75">
+    <row r="650" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="47"/>
       <c r="C650" s="47"/>
       <c r="D650" s="43"/>
@@ -25453,7 +25459,7 @@
       <c r="AJ650" s="46"/>
       <c r="AK650" s="46"/>
     </row>
-    <row r="651" spans="2:37" ht="12.75">
+    <row r="651" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="47"/>
       <c r="C651" s="47"/>
       <c r="D651" s="43"/>
@@ -25490,7 +25496,7 @@
       <c r="AJ651" s="46"/>
       <c r="AK651" s="46"/>
     </row>
-    <row r="652" spans="2:37" ht="12.75">
+    <row r="652" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="47"/>
       <c r="C652" s="47"/>
       <c r="D652" s="43"/>
@@ -25527,7 +25533,7 @@
       <c r="AJ652" s="46"/>
       <c r="AK652" s="46"/>
     </row>
-    <row r="653" spans="2:37" ht="12.75">
+    <row r="653" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="47"/>
       <c r="C653" s="47"/>
       <c r="D653" s="43"/>
@@ -25564,7 +25570,7 @@
       <c r="AJ653" s="46"/>
       <c r="AK653" s="46"/>
     </row>
-    <row r="654" spans="2:37" ht="12.75">
+    <row r="654" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="47"/>
       <c r="C654" s="47"/>
       <c r="D654" s="43"/>
@@ -25601,7 +25607,7 @@
       <c r="AJ654" s="46"/>
       <c r="AK654" s="46"/>
     </row>
-    <row r="655" spans="2:37" ht="12.75">
+    <row r="655" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="47"/>
       <c r="C655" s="47"/>
       <c r="D655" s="43"/>
@@ -25638,7 +25644,7 @@
       <c r="AJ655" s="46"/>
       <c r="AK655" s="46"/>
     </row>
-    <row r="656" spans="2:37" ht="12.75">
+    <row r="656" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="47"/>
       <c r="C656" s="47"/>
       <c r="D656" s="43"/>
@@ -25675,7 +25681,7 @@
       <c r="AJ656" s="46"/>
       <c r="AK656" s="46"/>
     </row>
-    <row r="657" spans="2:37" ht="12.75">
+    <row r="657" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="47"/>
       <c r="C657" s="47"/>
       <c r="D657" s="43"/>
@@ -25712,7 +25718,7 @@
       <c r="AJ657" s="46"/>
       <c r="AK657" s="46"/>
     </row>
-    <row r="658" spans="2:37" ht="12.75">
+    <row r="658" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="47"/>
       <c r="C658" s="47"/>
       <c r="D658" s="43"/>
@@ -25749,7 +25755,7 @@
       <c r="AJ658" s="46"/>
       <c r="AK658" s="46"/>
     </row>
-    <row r="659" spans="2:37" ht="12.75">
+    <row r="659" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="47"/>
       <c r="C659" s="47"/>
       <c r="D659" s="43"/>
@@ -25786,7 +25792,7 @@
       <c r="AJ659" s="46"/>
       <c r="AK659" s="46"/>
     </row>
-    <row r="660" spans="2:37" ht="12.75">
+    <row r="660" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="47"/>
       <c r="C660" s="47"/>
       <c r="D660" s="43"/>
@@ -25823,7 +25829,7 @@
       <c r="AJ660" s="46"/>
       <c r="AK660" s="46"/>
     </row>
-    <row r="661" spans="2:37" ht="12.75">
+    <row r="661" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="47"/>
       <c r="C661" s="47"/>
       <c r="D661" s="43"/>
@@ -25860,7 +25866,7 @@
       <c r="AJ661" s="46"/>
       <c r="AK661" s="46"/>
     </row>
-    <row r="662" spans="2:37" ht="12.75">
+    <row r="662" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="47"/>
       <c r="C662" s="47"/>
       <c r="D662" s="43"/>
@@ -25897,7 +25903,7 @@
       <c r="AJ662" s="46"/>
       <c r="AK662" s="46"/>
     </row>
-    <row r="663" spans="2:37" ht="12.75">
+    <row r="663" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="47"/>
       <c r="C663" s="47"/>
       <c r="D663" s="43"/>
@@ -25934,7 +25940,7 @@
       <c r="AJ663" s="46"/>
       <c r="AK663" s="46"/>
     </row>
-    <row r="664" spans="2:37" ht="12.75">
+    <row r="664" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="47"/>
       <c r="C664" s="47"/>
       <c r="D664" s="43"/>
@@ -25971,7 +25977,7 @@
       <c r="AJ664" s="46"/>
       <c r="AK664" s="46"/>
     </row>
-    <row r="665" spans="2:37" ht="12.75">
+    <row r="665" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="47"/>
       <c r="C665" s="47"/>
       <c r="D665" s="43"/>
@@ -26008,7 +26014,7 @@
       <c r="AJ665" s="46"/>
       <c r="AK665" s="46"/>
     </row>
-    <row r="666" spans="2:37" ht="12.75">
+    <row r="666" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="47"/>
       <c r="C666" s="47"/>
       <c r="D666" s="43"/>
@@ -26045,7 +26051,7 @@
       <c r="AJ666" s="46"/>
       <c r="AK666" s="46"/>
     </row>
-    <row r="667" spans="2:37" ht="12.75">
+    <row r="667" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="47"/>
       <c r="C667" s="47"/>
       <c r="D667" s="43"/>
@@ -26082,7 +26088,7 @@
       <c r="AJ667" s="46"/>
       <c r="AK667" s="46"/>
     </row>
-    <row r="668" spans="2:37" ht="12.75">
+    <row r="668" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="47"/>
       <c r="C668" s="47"/>
       <c r="D668" s="43"/>
@@ -26119,7 +26125,7 @@
       <c r="AJ668" s="46"/>
       <c r="AK668" s="46"/>
     </row>
-    <row r="669" spans="2:37" ht="12.75">
+    <row r="669" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="47"/>
       <c r="C669" s="47"/>
       <c r="D669" s="43"/>
@@ -26156,7 +26162,7 @@
       <c r="AJ669" s="46"/>
       <c r="AK669" s="46"/>
     </row>
-    <row r="670" spans="2:37" ht="12.75">
+    <row r="670" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="47"/>
       <c r="C670" s="47"/>
       <c r="D670" s="43"/>
@@ -26193,7 +26199,7 @@
       <c r="AJ670" s="46"/>
       <c r="AK670" s="46"/>
     </row>
-    <row r="671" spans="2:37" ht="12.75">
+    <row r="671" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="47"/>
       <c r="C671" s="47"/>
       <c r="D671" s="43"/>
@@ -26230,7 +26236,7 @@
       <c r="AJ671" s="46"/>
       <c r="AK671" s="46"/>
     </row>
-    <row r="672" spans="2:37" ht="12.75">
+    <row r="672" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="47"/>
       <c r="C672" s="47"/>
       <c r="D672" s="43"/>
@@ -26267,7 +26273,7 @@
       <c r="AJ672" s="46"/>
       <c r="AK672" s="46"/>
     </row>
-    <row r="673" spans="2:37" ht="12.75">
+    <row r="673" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="47"/>
       <c r="C673" s="47"/>
       <c r="D673" s="43"/>
@@ -26304,7 +26310,7 @@
       <c r="AJ673" s="46"/>
       <c r="AK673" s="46"/>
     </row>
-    <row r="674" spans="2:37" ht="12.75">
+    <row r="674" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="47"/>
       <c r="C674" s="47"/>
       <c r="D674" s="43"/>
@@ -26341,7 +26347,7 @@
       <c r="AJ674" s="46"/>
       <c r="AK674" s="46"/>
     </row>
-    <row r="675" spans="2:37" ht="12.75">
+    <row r="675" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="47"/>
       <c r="C675" s="47"/>
       <c r="D675" s="43"/>
@@ -26378,7 +26384,7 @@
       <c r="AJ675" s="46"/>
       <c r="AK675" s="46"/>
     </row>
-    <row r="676" spans="2:37" ht="12.75">
+    <row r="676" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="47"/>
       <c r="C676" s="47"/>
       <c r="D676" s="43"/>
@@ -26415,7 +26421,7 @@
       <c r="AJ676" s="46"/>
       <c r="AK676" s="46"/>
     </row>
-    <row r="677" spans="2:37" ht="12.75">
+    <row r="677" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="47"/>
       <c r="C677" s="47"/>
       <c r="D677" s="43"/>
@@ -26452,7 +26458,7 @@
       <c r="AJ677" s="46"/>
       <c r="AK677" s="46"/>
     </row>
-    <row r="678" spans="2:37" ht="12.75">
+    <row r="678" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="47"/>
       <c r="C678" s="47"/>
       <c r="D678" s="43"/>
@@ -26489,7 +26495,7 @@
       <c r="AJ678" s="46"/>
       <c r="AK678" s="46"/>
     </row>
-    <row r="679" spans="2:37" ht="12.75">
+    <row r="679" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="47"/>
       <c r="C679" s="47"/>
       <c r="D679" s="43"/>
@@ -26526,7 +26532,7 @@
       <c r="AJ679" s="46"/>
       <c r="AK679" s="46"/>
     </row>
-    <row r="680" spans="2:37" ht="12.75">
+    <row r="680" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="47"/>
       <c r="C680" s="47"/>
       <c r="D680" s="43"/>
@@ -26563,7 +26569,7 @@
       <c r="AJ680" s="46"/>
       <c r="AK680" s="46"/>
     </row>
-    <row r="681" spans="2:37" ht="12.75">
+    <row r="681" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="47"/>
       <c r="C681" s="47"/>
       <c r="D681" s="43"/>
@@ -26600,7 +26606,7 @@
       <c r="AJ681" s="46"/>
       <c r="AK681" s="46"/>
     </row>
-    <row r="682" spans="2:37" ht="12.75">
+    <row r="682" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="47"/>
       <c r="C682" s="47"/>
       <c r="D682" s="43"/>
@@ -26637,7 +26643,7 @@
       <c r="AJ682" s="46"/>
       <c r="AK682" s="46"/>
     </row>
-    <row r="683" spans="2:37" ht="12.75">
+    <row r="683" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="47"/>
       <c r="C683" s="47"/>
       <c r="D683" s="43"/>
@@ -26674,7 +26680,7 @@
       <c r="AJ683" s="46"/>
       <c r="AK683" s="46"/>
     </row>
-    <row r="684" spans="2:37" ht="12.75">
+    <row r="684" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="47"/>
       <c r="C684" s="47"/>
       <c r="D684" s="43"/>
@@ -26711,7 +26717,7 @@
       <c r="AJ684" s="46"/>
       <c r="AK684" s="46"/>
     </row>
-    <row r="685" spans="2:37" ht="12.75">
+    <row r="685" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="47"/>
       <c r="C685" s="47"/>
       <c r="D685" s="43"/>
@@ -26748,7 +26754,7 @@
       <c r="AJ685" s="46"/>
       <c r="AK685" s="46"/>
     </row>
-    <row r="686" spans="2:37" ht="12.75">
+    <row r="686" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="47"/>
       <c r="C686" s="47"/>
       <c r="D686" s="43"/>
@@ -26785,7 +26791,7 @@
       <c r="AJ686" s="46"/>
       <c r="AK686" s="46"/>
     </row>
-    <row r="687" spans="2:37" ht="12.75">
+    <row r="687" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="47"/>
       <c r="C687" s="47"/>
       <c r="D687" s="43"/>
@@ -26822,7 +26828,7 @@
       <c r="AJ687" s="46"/>
       <c r="AK687" s="46"/>
     </row>
-    <row r="688" spans="2:37" ht="12.75">
+    <row r="688" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="47"/>
       <c r="C688" s="47"/>
       <c r="D688" s="43"/>
@@ -26859,7 +26865,7 @@
       <c r="AJ688" s="46"/>
       <c r="AK688" s="46"/>
     </row>
-    <row r="689" spans="2:37" ht="12.75">
+    <row r="689" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="47"/>
       <c r="C689" s="47"/>
       <c r="D689" s="43"/>
@@ -26896,7 +26902,7 @@
       <c r="AJ689" s="46"/>
       <c r="AK689" s="46"/>
     </row>
-    <row r="690" spans="2:37" ht="12.75">
+    <row r="690" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="47"/>
       <c r="C690" s="47"/>
       <c r="D690" s="43"/>
@@ -26933,7 +26939,7 @@
       <c r="AJ690" s="46"/>
       <c r="AK690" s="46"/>
     </row>
-    <row r="691" spans="2:37" ht="12.75">
+    <row r="691" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="47"/>
       <c r="C691" s="47"/>
       <c r="D691" s="43"/>
@@ -26970,7 +26976,7 @@
       <c r="AJ691" s="46"/>
       <c r="AK691" s="46"/>
     </row>
-    <row r="692" spans="2:37" ht="12.75">
+    <row r="692" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="47"/>
       <c r="C692" s="47"/>
       <c r="D692" s="43"/>
@@ -27007,7 +27013,7 @@
       <c r="AJ692" s="46"/>
       <c r="AK692" s="46"/>
     </row>
-    <row r="693" spans="2:37" ht="12.75">
+    <row r="693" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="47"/>
       <c r="C693" s="47"/>
       <c r="D693" s="43"/>
@@ -27044,7 +27050,7 @@
       <c r="AJ693" s="46"/>
       <c r="AK693" s="46"/>
     </row>
-    <row r="694" spans="2:37" ht="12.75">
+    <row r="694" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="47"/>
       <c r="C694" s="47"/>
       <c r="D694" s="43"/>
@@ -27081,7 +27087,7 @@
       <c r="AJ694" s="46"/>
       <c r="AK694" s="46"/>
     </row>
-    <row r="695" spans="2:37" ht="12.75">
+    <row r="695" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="47"/>
       <c r="C695" s="47"/>
       <c r="D695" s="43"/>
@@ -27118,7 +27124,7 @@
       <c r="AJ695" s="46"/>
       <c r="AK695" s="46"/>
     </row>
-    <row r="696" spans="2:37" ht="12.75">
+    <row r="696" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="47"/>
       <c r="C696" s="47"/>
       <c r="D696" s="43"/>
@@ -27155,7 +27161,7 @@
       <c r="AJ696" s="46"/>
       <c r="AK696" s="46"/>
     </row>
-    <row r="697" spans="2:37" ht="12.75">
+    <row r="697" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="47"/>
       <c r="C697" s="47"/>
       <c r="D697" s="43"/>
@@ -27192,7 +27198,7 @@
       <c r="AJ697" s="46"/>
       <c r="AK697" s="46"/>
     </row>
-    <row r="698" spans="2:37" ht="12.75">
+    <row r="698" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="47"/>
       <c r="C698" s="47"/>
       <c r="D698" s="43"/>
@@ -27229,7 +27235,7 @@
       <c r="AJ698" s="46"/>
       <c r="AK698" s="46"/>
     </row>
-    <row r="699" spans="2:37" ht="12.75">
+    <row r="699" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="47"/>
       <c r="C699" s="47"/>
       <c r="D699" s="43"/>
@@ -27266,7 +27272,7 @@
       <c r="AJ699" s="46"/>
       <c r="AK699" s="46"/>
     </row>
-    <row r="700" spans="2:37" ht="12.75">
+    <row r="700" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="47"/>
       <c r="C700" s="47"/>
       <c r="D700" s="43"/>
@@ -27303,7 +27309,7 @@
       <c r="AJ700" s="46"/>
       <c r="AK700" s="46"/>
     </row>
-    <row r="701" spans="2:37" ht="12.75">
+    <row r="701" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="47"/>
       <c r="C701" s="47"/>
       <c r="D701" s="43"/>
@@ -27340,7 +27346,7 @@
       <c r="AJ701" s="46"/>
       <c r="AK701" s="46"/>
     </row>
-    <row r="702" spans="2:37" ht="12.75">
+    <row r="702" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="47"/>
       <c r="C702" s="47"/>
       <c r="D702" s="43"/>
@@ -27377,7 +27383,7 @@
       <c r="AJ702" s="46"/>
       <c r="AK702" s="46"/>
     </row>
-    <row r="703" spans="2:37" ht="12.75">
+    <row r="703" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="47"/>
       <c r="C703" s="47"/>
       <c r="D703" s="43"/>
@@ -27414,7 +27420,7 @@
       <c r="AJ703" s="46"/>
       <c r="AK703" s="46"/>
     </row>
-    <row r="704" spans="2:37" ht="12.75">
+    <row r="704" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="47"/>
       <c r="C704" s="47"/>
       <c r="D704" s="43"/>
@@ -27451,7 +27457,7 @@
       <c r="AJ704" s="46"/>
       <c r="AK704" s="46"/>
     </row>
-    <row r="705" spans="2:37" ht="12.75">
+    <row r="705" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="47"/>
       <c r="C705" s="47"/>
       <c r="D705" s="43"/>
@@ -27488,7 +27494,7 @@
       <c r="AJ705" s="46"/>
       <c r="AK705" s="46"/>
     </row>
-    <row r="706" spans="2:37" ht="12.75">
+    <row r="706" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="47"/>
       <c r="C706" s="47"/>
       <c r="D706" s="43"/>
@@ -27525,7 +27531,7 @@
       <c r="AJ706" s="46"/>
       <c r="AK706" s="46"/>
     </row>
-    <row r="707" spans="2:37" ht="12.75">
+    <row r="707" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="47"/>
       <c r="C707" s="47"/>
       <c r="D707" s="43"/>
@@ -27562,7 +27568,7 @@
       <c r="AJ707" s="46"/>
       <c r="AK707" s="46"/>
     </row>
-    <row r="708" spans="2:37" ht="12.75">
+    <row r="708" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="47"/>
       <c r="C708" s="47"/>
       <c r="D708" s="43"/>
@@ -27599,7 +27605,7 @@
       <c r="AJ708" s="46"/>
       <c r="AK708" s="46"/>
     </row>
-    <row r="709" spans="2:37" ht="12.75">
+    <row r="709" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="47"/>
       <c r="C709" s="47"/>
       <c r="D709" s="43"/>
@@ -27636,7 +27642,7 @@
       <c r="AJ709" s="46"/>
       <c r="AK709" s="46"/>
     </row>
-    <row r="710" spans="2:37" ht="12.75">
+    <row r="710" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="47"/>
       <c r="C710" s="47"/>
       <c r="D710" s="43"/>
@@ -27673,7 +27679,7 @@
       <c r="AJ710" s="46"/>
       <c r="AK710" s="46"/>
     </row>
-    <row r="711" spans="2:37" ht="12.75">
+    <row r="711" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="47"/>
       <c r="C711" s="47"/>
       <c r="D711" s="43"/>
@@ -27710,7 +27716,7 @@
       <c r="AJ711" s="46"/>
       <c r="AK711" s="46"/>
     </row>
-    <row r="712" spans="2:37" ht="12.75">
+    <row r="712" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="47"/>
       <c r="C712" s="47"/>
       <c r="D712" s="43"/>
@@ -27747,7 +27753,7 @@
       <c r="AJ712" s="46"/>
       <c r="AK712" s="46"/>
     </row>
-    <row r="713" spans="2:37" ht="12.75">
+    <row r="713" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="47"/>
       <c r="C713" s="47"/>
       <c r="D713" s="43"/>
@@ -27784,7 +27790,7 @@
       <c r="AJ713" s="46"/>
       <c r="AK713" s="46"/>
     </row>
-    <row r="714" spans="2:37" ht="12.75">
+    <row r="714" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="47"/>
       <c r="C714" s="47"/>
       <c r="D714" s="43"/>
@@ -27821,7 +27827,7 @@
       <c r="AJ714" s="46"/>
       <c r="AK714" s="46"/>
     </row>
-    <row r="715" spans="2:37" ht="12.75">
+    <row r="715" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="47"/>
       <c r="C715" s="47"/>
       <c r="D715" s="43"/>
@@ -27858,7 +27864,7 @@
       <c r="AJ715" s="46"/>
       <c r="AK715" s="46"/>
     </row>
-    <row r="716" spans="2:37" ht="12.75">
+    <row r="716" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="47"/>
       <c r="C716" s="47"/>
       <c r="D716" s="43"/>
@@ -27895,7 +27901,7 @@
       <c r="AJ716" s="46"/>
       <c r="AK716" s="46"/>
     </row>
-    <row r="717" spans="2:37" ht="12.75">
+    <row r="717" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="47"/>
       <c r="C717" s="47"/>
       <c r="D717" s="43"/>
@@ -27932,7 +27938,7 @@
       <c r="AJ717" s="46"/>
       <c r="AK717" s="46"/>
     </row>
-    <row r="718" spans="2:37" ht="12.75">
+    <row r="718" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="47"/>
       <c r="C718" s="47"/>
       <c r="D718" s="43"/>
@@ -27969,7 +27975,7 @@
       <c r="AJ718" s="46"/>
       <c r="AK718" s="46"/>
     </row>
-    <row r="719" spans="2:37" ht="12.75">
+    <row r="719" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="47"/>
       <c r="C719" s="47"/>
       <c r="D719" s="43"/>
@@ -28006,7 +28012,7 @@
       <c r="AJ719" s="46"/>
       <c r="AK719" s="46"/>
     </row>
-    <row r="720" spans="2:37" ht="12.75">
+    <row r="720" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="47"/>
       <c r="C720" s="47"/>
       <c r="D720" s="43"/>
@@ -28043,7 +28049,7 @@
       <c r="AJ720" s="46"/>
       <c r="AK720" s="46"/>
     </row>
-    <row r="721" spans="2:37" ht="12.75">
+    <row r="721" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="47"/>
       <c r="C721" s="47"/>
       <c r="D721" s="43"/>
@@ -28080,7 +28086,7 @@
       <c r="AJ721" s="46"/>
       <c r="AK721" s="46"/>
     </row>
-    <row r="722" spans="2:37" ht="12.75">
+    <row r="722" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="47"/>
       <c r="C722" s="47"/>
       <c r="D722" s="43"/>
@@ -28117,7 +28123,7 @@
       <c r="AJ722" s="46"/>
       <c r="AK722" s="46"/>
     </row>
-    <row r="723" spans="2:37" ht="12.75">
+    <row r="723" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="47"/>
       <c r="C723" s="47"/>
       <c r="D723" s="43"/>
@@ -28154,7 +28160,7 @@
       <c r="AJ723" s="46"/>
       <c r="AK723" s="46"/>
     </row>
-    <row r="724" spans="2:37" ht="12.75">
+    <row r="724" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="47"/>
       <c r="C724" s="47"/>
       <c r="D724" s="43"/>
@@ -28191,7 +28197,7 @@
       <c r="AJ724" s="46"/>
       <c r="AK724" s="46"/>
     </row>
-    <row r="725" spans="2:37" ht="12.75">
+    <row r="725" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="47"/>
       <c r="C725" s="47"/>
       <c r="D725" s="43"/>
@@ -28228,7 +28234,7 @@
       <c r="AJ725" s="46"/>
       <c r="AK725" s="46"/>
     </row>
-    <row r="726" spans="2:37" ht="12.75">
+    <row r="726" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="47"/>
       <c r="C726" s="47"/>
       <c r="D726" s="43"/>
@@ -28265,7 +28271,7 @@
       <c r="AJ726" s="46"/>
       <c r="AK726" s="46"/>
     </row>
-    <row r="727" spans="2:37" ht="12.75">
+    <row r="727" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="47"/>
       <c r="C727" s="47"/>
       <c r="D727" s="43"/>
@@ -28302,7 +28308,7 @@
       <c r="AJ727" s="46"/>
       <c r="AK727" s="46"/>
     </row>
-    <row r="728" spans="2:37" ht="12.75">
+    <row r="728" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="47"/>
       <c r="C728" s="47"/>
       <c r="D728" s="43"/>
@@ -28339,7 +28345,7 @@
       <c r="AJ728" s="46"/>
       <c r="AK728" s="46"/>
     </row>
-    <row r="729" spans="2:37" ht="12.75">
+    <row r="729" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="47"/>
       <c r="C729" s="47"/>
       <c r="D729" s="43"/>
@@ -28376,7 +28382,7 @@
       <c r="AJ729" s="46"/>
       <c r="AK729" s="46"/>
     </row>
-    <row r="730" spans="2:37" ht="12.75">
+    <row r="730" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="47"/>
       <c r="C730" s="47"/>
       <c r="D730" s="43"/>
@@ -28413,7 +28419,7 @@
       <c r="AJ730" s="46"/>
       <c r="AK730" s="46"/>
     </row>
-    <row r="731" spans="2:37" ht="12.75">
+    <row r="731" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="47"/>
       <c r="C731" s="47"/>
       <c r="D731" s="43"/>
@@ -28450,7 +28456,7 @@
       <c r="AJ731" s="46"/>
       <c r="AK731" s="46"/>
     </row>
-    <row r="732" spans="2:37" ht="12.75">
+    <row r="732" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="47"/>
       <c r="C732" s="47"/>
       <c r="D732" s="43"/>
@@ -28487,7 +28493,7 @@
       <c r="AJ732" s="46"/>
       <c r="AK732" s="46"/>
     </row>
-    <row r="733" spans="2:37" ht="12.75">
+    <row r="733" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="47"/>
       <c r="C733" s="47"/>
       <c r="D733" s="43"/>
@@ -28524,7 +28530,7 @@
       <c r="AJ733" s="46"/>
       <c r="AK733" s="46"/>
     </row>
-    <row r="734" spans="2:37" ht="12.75">
+    <row r="734" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="47"/>
       <c r="C734" s="47"/>
       <c r="D734" s="43"/>
@@ -28561,7 +28567,7 @@
       <c r="AJ734" s="46"/>
       <c r="AK734" s="46"/>
     </row>
-    <row r="735" spans="2:37" ht="12.75">
+    <row r="735" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="47"/>
       <c r="C735" s="47"/>
       <c r="D735" s="43"/>
@@ -28598,7 +28604,7 @@
       <c r="AJ735" s="46"/>
       <c r="AK735" s="46"/>
     </row>
-    <row r="736" spans="2:37" ht="12.75">
+    <row r="736" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="47"/>
       <c r="C736" s="47"/>
       <c r="D736" s="43"/>
@@ -28635,7 +28641,7 @@
       <c r="AJ736" s="46"/>
       <c r="AK736" s="46"/>
     </row>
-    <row r="737" spans="2:37" ht="12.75">
+    <row r="737" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="47"/>
       <c r="C737" s="47"/>
       <c r="D737" s="43"/>
@@ -28672,7 +28678,7 @@
       <c r="AJ737" s="46"/>
       <c r="AK737" s="46"/>
     </row>
-    <row r="738" spans="2:37" ht="12.75">
+    <row r="738" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="47"/>
       <c r="C738" s="47"/>
       <c r="D738" s="43"/>
@@ -28709,7 +28715,7 @@
       <c r="AJ738" s="46"/>
       <c r="AK738" s="46"/>
     </row>
-    <row r="739" spans="2:37" ht="12.75">
+    <row r="739" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="47"/>
       <c r="C739" s="47"/>
       <c r="D739" s="43"/>
@@ -28746,7 +28752,7 @@
       <c r="AJ739" s="46"/>
       <c r="AK739" s="46"/>
     </row>
-    <row r="740" spans="2:37" ht="12.75">
+    <row r="740" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="47"/>
       <c r="C740" s="47"/>
       <c r="D740" s="43"/>
@@ -28783,7 +28789,7 @@
       <c r="AJ740" s="46"/>
       <c r="AK740" s="46"/>
     </row>
-    <row r="741" spans="2:37" ht="12.75">
+    <row r="741" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="47"/>
       <c r="C741" s="47"/>
       <c r="D741" s="43"/>
@@ -28820,7 +28826,7 @@
       <c r="AJ741" s="46"/>
       <c r="AK741" s="46"/>
     </row>
-    <row r="742" spans="2:37" ht="12.75">
+    <row r="742" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="47"/>
       <c r="C742" s="47"/>
       <c r="D742" s="43"/>
@@ -28857,7 +28863,7 @@
       <c r="AJ742" s="46"/>
       <c r="AK742" s="46"/>
     </row>
-    <row r="743" spans="2:37" ht="12.75">
+    <row r="743" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="47"/>
       <c r="C743" s="47"/>
       <c r="D743" s="43"/>
@@ -28894,7 +28900,7 @@
       <c r="AJ743" s="46"/>
       <c r="AK743" s="46"/>
     </row>
-    <row r="744" spans="2:37" ht="12.75">
+    <row r="744" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="47"/>
       <c r="C744" s="47"/>
       <c r="D744" s="43"/>
@@ -28931,7 +28937,7 @@
       <c r="AJ744" s="46"/>
       <c r="AK744" s="46"/>
     </row>
-    <row r="745" spans="2:37" ht="12.75">
+    <row r="745" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="47"/>
       <c r="C745" s="47"/>
       <c r="D745" s="43"/>
@@ -28968,7 +28974,7 @@
       <c r="AJ745" s="46"/>
       <c r="AK745" s="46"/>
     </row>
-    <row r="746" spans="2:37" ht="12.75">
+    <row r="746" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="47"/>
       <c r="C746" s="47"/>
       <c r="D746" s="43"/>
@@ -29005,7 +29011,7 @@
       <c r="AJ746" s="46"/>
       <c r="AK746" s="46"/>
     </row>
-    <row r="747" spans="2:37" ht="12.75">
+    <row r="747" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="47"/>
       <c r="C747" s="47"/>
       <c r="D747" s="43"/>
@@ -29042,7 +29048,7 @@
       <c r="AJ747" s="46"/>
       <c r="AK747" s="46"/>
     </row>
-    <row r="748" spans="2:37" ht="12.75">
+    <row r="748" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="47"/>
       <c r="C748" s="47"/>
       <c r="D748" s="43"/>
@@ -29079,7 +29085,7 @@
       <c r="AJ748" s="46"/>
       <c r="AK748" s="46"/>
     </row>
-    <row r="749" spans="2:37" ht="12.75">
+    <row r="749" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="47"/>
       <c r="C749" s="47"/>
       <c r="D749" s="43"/>
@@ -29116,7 +29122,7 @@
       <c r="AJ749" s="46"/>
       <c r="AK749" s="46"/>
     </row>
-    <row r="750" spans="2:37" ht="12.75">
+    <row r="750" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="47"/>
       <c r="C750" s="47"/>
       <c r="D750" s="43"/>
@@ -29153,7 +29159,7 @@
       <c r="AJ750" s="46"/>
       <c r="AK750" s="46"/>
     </row>
-    <row r="751" spans="2:37" ht="12.75">
+    <row r="751" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="47"/>
       <c r="C751" s="47"/>
       <c r="D751" s="43"/>
@@ -29190,7 +29196,7 @@
       <c r="AJ751" s="46"/>
       <c r="AK751" s="46"/>
     </row>
-    <row r="752" spans="2:37" ht="12.75">
+    <row r="752" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="47"/>
       <c r="C752" s="47"/>
       <c r="D752" s="43"/>
@@ -29227,7 +29233,7 @@
       <c r="AJ752" s="46"/>
       <c r="AK752" s="46"/>
     </row>
-    <row r="753" spans="2:37" ht="12.75">
+    <row r="753" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="47"/>
       <c r="C753" s="47"/>
       <c r="D753" s="43"/>
@@ -29264,7 +29270,7 @@
       <c r="AJ753" s="46"/>
       <c r="AK753" s="46"/>
     </row>
-    <row r="754" spans="2:37" ht="12.75">
+    <row r="754" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="47"/>
       <c r="C754" s="47"/>
       <c r="D754" s="43"/>
@@ -29301,7 +29307,7 @@
       <c r="AJ754" s="46"/>
       <c r="AK754" s="46"/>
     </row>
-    <row r="755" spans="2:37" ht="12.75">
+    <row r="755" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="47"/>
       <c r="C755" s="47"/>
       <c r="D755" s="43"/>
@@ -29338,7 +29344,7 @@
       <c r="AJ755" s="46"/>
       <c r="AK755" s="46"/>
     </row>
-    <row r="756" spans="2:37" ht="12.75">
+    <row r="756" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="47"/>
       <c r="C756" s="47"/>
       <c r="D756" s="43"/>
@@ -29375,7 +29381,7 @@
       <c r="AJ756" s="46"/>
       <c r="AK756" s="46"/>
     </row>
-    <row r="757" spans="2:37" ht="12.75">
+    <row r="757" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="47"/>
       <c r="C757" s="47"/>
       <c r="D757" s="43"/>
@@ -29412,7 +29418,7 @@
       <c r="AJ757" s="46"/>
       <c r="AK757" s="46"/>
     </row>
-    <row r="758" spans="2:37" ht="12.75">
+    <row r="758" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="47"/>
       <c r="C758" s="47"/>
       <c r="D758" s="43"/>
@@ -29449,7 +29455,7 @@
       <c r="AJ758" s="46"/>
       <c r="AK758" s="46"/>
     </row>
-    <row r="759" spans="2:37" ht="12.75">
+    <row r="759" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="47"/>
       <c r="C759" s="47"/>
       <c r="D759" s="43"/>
@@ -29486,7 +29492,7 @@
       <c r="AJ759" s="46"/>
       <c r="AK759" s="46"/>
     </row>
-    <row r="760" spans="2:37" ht="12.75">
+    <row r="760" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="47"/>
       <c r="C760" s="47"/>
       <c r="D760" s="43"/>
@@ -29523,7 +29529,7 @@
       <c r="AJ760" s="46"/>
       <c r="AK760" s="46"/>
     </row>
-    <row r="761" spans="2:37" ht="12.75">
+    <row r="761" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="47"/>
       <c r="C761" s="47"/>
       <c r="D761" s="43"/>
@@ -29560,7 +29566,7 @@
       <c r="AJ761" s="46"/>
       <c r="AK761" s="46"/>
     </row>
-    <row r="762" spans="2:37" ht="12.75">
+    <row r="762" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="47"/>
       <c r="C762" s="47"/>
       <c r="D762" s="43"/>
@@ -29597,7 +29603,7 @@
       <c r="AJ762" s="46"/>
       <c r="AK762" s="46"/>
     </row>
-    <row r="763" spans="2:37" ht="12.75">
+    <row r="763" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="47"/>
       <c r="C763" s="47"/>
       <c r="D763" s="43"/>
@@ -29634,7 +29640,7 @@
       <c r="AJ763" s="46"/>
       <c r="AK763" s="46"/>
     </row>
-    <row r="764" spans="2:37" ht="12.75">
+    <row r="764" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="47"/>
       <c r="C764" s="47"/>
       <c r="D764" s="43"/>
@@ -29671,7 +29677,7 @@
       <c r="AJ764" s="46"/>
       <c r="AK764" s="46"/>
     </row>
-    <row r="765" spans="2:37" ht="12.75">
+    <row r="765" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="47"/>
       <c r="C765" s="47"/>
       <c r="D765" s="43"/>
@@ -29708,7 +29714,7 @@
       <c r="AJ765" s="46"/>
       <c r="AK765" s="46"/>
     </row>
-    <row r="766" spans="2:37" ht="12.75">
+    <row r="766" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="47"/>
       <c r="C766" s="47"/>
       <c r="D766" s="43"/>
@@ -29745,7 +29751,7 @@
       <c r="AJ766" s="46"/>
       <c r="AK766" s="46"/>
     </row>
-    <row r="767" spans="2:37" ht="12.75">
+    <row r="767" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="47"/>
       <c r="C767" s="47"/>
       <c r="D767" s="43"/>
@@ -29782,7 +29788,7 @@
       <c r="AJ767" s="46"/>
       <c r="AK767" s="46"/>
     </row>
-    <row r="768" spans="2:37" ht="12.75">
+    <row r="768" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="47"/>
       <c r="C768" s="47"/>
       <c r="D768" s="43"/>
@@ -29819,7 +29825,7 @@
       <c r="AJ768" s="46"/>
       <c r="AK768" s="46"/>
     </row>
-    <row r="769" spans="2:37" ht="12.75">
+    <row r="769" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="47"/>
       <c r="C769" s="47"/>
       <c r="D769" s="43"/>
@@ -29856,7 +29862,7 @@
       <c r="AJ769" s="46"/>
       <c r="AK769" s="46"/>
     </row>
-    <row r="770" spans="2:37" ht="12.75">
+    <row r="770" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="47"/>
       <c r="C770" s="47"/>
       <c r="D770" s="43"/>
@@ -29893,7 +29899,7 @@
       <c r="AJ770" s="46"/>
       <c r="AK770" s="46"/>
     </row>
-    <row r="771" spans="2:37" ht="12.75">
+    <row r="771" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="47"/>
       <c r="C771" s="47"/>
       <c r="D771" s="43"/>
@@ -29930,7 +29936,7 @@
       <c r="AJ771" s="46"/>
       <c r="AK771" s="46"/>
     </row>
-    <row r="772" spans="2:37" ht="12.75">
+    <row r="772" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="47"/>
       <c r="C772" s="47"/>
       <c r="D772" s="43"/>
@@ -29967,7 +29973,7 @@
       <c r="AJ772" s="46"/>
       <c r="AK772" s="46"/>
     </row>
-    <row r="773" spans="2:37" ht="12.75">
+    <row r="773" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="47"/>
       <c r="C773" s="47"/>
       <c r="D773" s="43"/>
@@ -30004,7 +30010,7 @@
       <c r="AJ773" s="46"/>
       <c r="AK773" s="46"/>
     </row>
-    <row r="774" spans="2:37" ht="12.75">
+    <row r="774" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="47"/>
       <c r="C774" s="47"/>
       <c r="D774" s="43"/>
@@ -30041,7 +30047,7 @@
       <c r="AJ774" s="46"/>
       <c r="AK774" s="46"/>
     </row>
-    <row r="775" spans="2:37" ht="12.75">
+    <row r="775" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="47"/>
       <c r="C775" s="47"/>
       <c r="D775" s="43"/>
@@ -30078,7 +30084,7 @@
       <c r="AJ775" s="46"/>
       <c r="AK775" s="46"/>
     </row>
-    <row r="776" spans="2:37" ht="12.75">
+    <row r="776" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="47"/>
       <c r="C776" s="47"/>
       <c r="D776" s="43"/>
@@ -30115,7 +30121,7 @@
       <c r="AJ776" s="46"/>
       <c r="AK776" s="46"/>
     </row>
-    <row r="777" spans="2:37" ht="12.75">
+    <row r="777" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="47"/>
       <c r="C777" s="47"/>
       <c r="D777" s="43"/>
@@ -30152,7 +30158,7 @@
       <c r="AJ777" s="46"/>
       <c r="AK777" s="46"/>
     </row>
-    <row r="778" spans="2:37" ht="12.75">
+    <row r="778" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="47"/>
       <c r="C778" s="47"/>
       <c r="D778" s="43"/>
@@ -30189,7 +30195,7 @@
       <c r="AJ778" s="46"/>
       <c r="AK778" s="46"/>
     </row>
-    <row r="779" spans="2:37" ht="12.75">
+    <row r="779" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="47"/>
       <c r="C779" s="47"/>
       <c r="D779" s="43"/>
@@ -30226,7 +30232,7 @@
       <c r="AJ779" s="46"/>
       <c r="AK779" s="46"/>
     </row>
-    <row r="780" spans="2:37" ht="12.75">
+    <row r="780" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="47"/>
       <c r="C780" s="47"/>
       <c r="D780" s="43"/>
@@ -30263,7 +30269,7 @@
       <c r="AJ780" s="46"/>
       <c r="AK780" s="46"/>
     </row>
-    <row r="781" spans="2:37" ht="12.75">
+    <row r="781" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="47"/>
       <c r="C781" s="47"/>
       <c r="D781" s="43"/>
@@ -30300,7 +30306,7 @@
       <c r="AJ781" s="46"/>
       <c r="AK781" s="46"/>
     </row>
-    <row r="782" spans="2:37" ht="12.75">
+    <row r="782" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="47"/>
       <c r="C782" s="47"/>
       <c r="D782" s="43"/>
@@ -30337,7 +30343,7 @@
       <c r="AJ782" s="46"/>
       <c r="AK782" s="46"/>
     </row>
-    <row r="783" spans="2:37" ht="12.75">
+    <row r="783" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="47"/>
       <c r="C783" s="47"/>
       <c r="D783" s="43"/>
@@ -30374,7 +30380,7 @@
       <c r="AJ783" s="46"/>
       <c r="AK783" s="46"/>
     </row>
-    <row r="784" spans="2:37" ht="12.75">
+    <row r="784" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="47"/>
       <c r="C784" s="47"/>
       <c r="D784" s="43"/>
@@ -30411,7 +30417,7 @@
       <c r="AJ784" s="46"/>
       <c r="AK784" s="46"/>
     </row>
-    <row r="785" spans="2:37" ht="12.75">
+    <row r="785" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="47"/>
       <c r="C785" s="47"/>
       <c r="D785" s="43"/>
@@ -30448,7 +30454,7 @@
       <c r="AJ785" s="46"/>
       <c r="AK785" s="46"/>
     </row>
-    <row r="786" spans="2:37" ht="12.75">
+    <row r="786" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="47"/>
       <c r="C786" s="47"/>
       <c r="D786" s="43"/>
@@ -30485,7 +30491,7 @@
       <c r="AJ786" s="46"/>
       <c r="AK786" s="46"/>
     </row>
-    <row r="787" spans="2:37" ht="12.75">
+    <row r="787" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="47"/>
       <c r="C787" s="47"/>
       <c r="D787" s="43"/>
@@ -30522,7 +30528,7 @@
       <c r="AJ787" s="46"/>
       <c r="AK787" s="46"/>
     </row>
-    <row r="788" spans="2:37" ht="12.75">
+    <row r="788" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="47"/>
       <c r="C788" s="47"/>
       <c r="D788" s="43"/>
@@ -30559,7 +30565,7 @@
       <c r="AJ788" s="46"/>
       <c r="AK788" s="46"/>
     </row>
-    <row r="789" spans="2:37" ht="12.75">
+    <row r="789" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="47"/>
       <c r="C789" s="47"/>
       <c r="D789" s="43"/>
@@ -30596,7 +30602,7 @@
       <c r="AJ789" s="46"/>
       <c r="AK789" s="46"/>
     </row>
-    <row r="790" spans="2:37" ht="12.75">
+    <row r="790" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="47"/>
       <c r="C790" s="47"/>
       <c r="D790" s="43"/>
@@ -30633,7 +30639,7 @@
       <c r="AJ790" s="46"/>
       <c r="AK790" s="46"/>
     </row>
-    <row r="791" spans="2:37" ht="12.75">
+    <row r="791" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="47"/>
       <c r="C791" s="47"/>
       <c r="D791" s="43"/>
@@ -30670,7 +30676,7 @@
       <c r="AJ791" s="46"/>
       <c r="AK791" s="46"/>
     </row>
-    <row r="792" spans="2:37" ht="12.75">
+    <row r="792" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="47"/>
       <c r="C792" s="47"/>
       <c r="D792" s="43"/>
@@ -30707,7 +30713,7 @@
       <c r="AJ792" s="46"/>
       <c r="AK792" s="46"/>
     </row>
-    <row r="793" spans="2:37" ht="12.75">
+    <row r="793" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="47"/>
       <c r="C793" s="47"/>
       <c r="D793" s="43"/>
@@ -30744,7 +30750,7 @@
       <c r="AJ793" s="46"/>
       <c r="AK793" s="46"/>
     </row>
-    <row r="794" spans="2:37" ht="12.75">
+    <row r="794" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="47"/>
       <c r="C794" s="47"/>
       <c r="D794" s="43"/>
@@ -30781,7 +30787,7 @@
       <c r="AJ794" s="46"/>
       <c r="AK794" s="46"/>
     </row>
-    <row r="795" spans="2:37" ht="12.75">
+    <row r="795" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="47"/>
       <c r="C795" s="47"/>
       <c r="D795" s="43"/>
@@ -30818,7 +30824,7 @@
       <c r="AJ795" s="46"/>
       <c r="AK795" s="46"/>
     </row>
-    <row r="796" spans="2:37" ht="12.75">
+    <row r="796" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="47"/>
       <c r="C796" s="47"/>
       <c r="D796" s="43"/>
@@ -30855,7 +30861,7 @@
       <c r="AJ796" s="46"/>
       <c r="AK796" s="46"/>
     </row>
-    <row r="797" spans="2:37" ht="12.75">
+    <row r="797" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="47"/>
       <c r="C797" s="47"/>
       <c r="D797" s="43"/>
@@ -30892,7 +30898,7 @@
       <c r="AJ797" s="46"/>
       <c r="AK797" s="46"/>
     </row>
-    <row r="798" spans="2:37" ht="12.75">
+    <row r="798" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="47"/>
       <c r="C798" s="47"/>
       <c r="D798" s="43"/>
@@ -30929,7 +30935,7 @@
       <c r="AJ798" s="46"/>
       <c r="AK798" s="46"/>
     </row>
-    <row r="799" spans="2:37" ht="12.75">
+    <row r="799" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="47"/>
       <c r="C799" s="47"/>
       <c r="D799" s="43"/>
@@ -30966,7 +30972,7 @@
       <c r="AJ799" s="46"/>
       <c r="AK799" s="46"/>
     </row>
-    <row r="800" spans="2:37" ht="12.75">
+    <row r="800" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="47"/>
       <c r="C800" s="47"/>
       <c r="D800" s="43"/>
@@ -31003,7 +31009,7 @@
       <c r="AJ800" s="46"/>
       <c r="AK800" s="46"/>
     </row>
-    <row r="801" spans="2:37" ht="12.75">
+    <row r="801" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="47"/>
       <c r="C801" s="47"/>
       <c r="D801" s="43"/>
@@ -31040,7 +31046,7 @@
       <c r="AJ801" s="46"/>
       <c r="AK801" s="46"/>
     </row>
-    <row r="802" spans="2:37" ht="12.75">
+    <row r="802" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="47"/>
       <c r="C802" s="47"/>
       <c r="D802" s="43"/>
@@ -31077,7 +31083,7 @@
       <c r="AJ802" s="46"/>
       <c r="AK802" s="46"/>
     </row>
-    <row r="803" spans="2:37" ht="12.75">
+    <row r="803" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="47"/>
       <c r="C803" s="47"/>
       <c r="D803" s="43"/>
@@ -31114,7 +31120,7 @@
       <c r="AJ803" s="46"/>
       <c r="AK803" s="46"/>
     </row>
-    <row r="804" spans="2:37" ht="12.75">
+    <row r="804" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="47"/>
       <c r="C804" s="47"/>
       <c r="D804" s="43"/>
@@ -31151,7 +31157,7 @@
       <c r="AJ804" s="46"/>
       <c r="AK804" s="46"/>
     </row>
-    <row r="805" spans="2:37" ht="12.75">
+    <row r="805" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="47"/>
       <c r="C805" s="47"/>
       <c r="D805" s="43"/>
@@ -31188,7 +31194,7 @@
       <c r="AJ805" s="46"/>
       <c r="AK805" s="46"/>
     </row>
-    <row r="806" spans="2:37" ht="12.75">
+    <row r="806" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="47"/>
       <c r="C806" s="47"/>
       <c r="D806" s="43"/>
@@ -31225,7 +31231,7 @@
       <c r="AJ806" s="46"/>
       <c r="AK806" s="46"/>
     </row>
-    <row r="807" spans="2:37" ht="12.75">
+    <row r="807" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="47"/>
       <c r="C807" s="47"/>
       <c r="D807" s="43"/>
@@ -31262,7 +31268,7 @@
       <c r="AJ807" s="46"/>
       <c r="AK807" s="46"/>
     </row>
-    <row r="808" spans="2:37" ht="12.75">
+    <row r="808" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="47"/>
       <c r="C808" s="47"/>
       <c r="D808" s="43"/>
@@ -31299,7 +31305,7 @@
       <c r="AJ808" s="46"/>
       <c r="AK808" s="46"/>
     </row>
-    <row r="809" spans="2:37" ht="12.75">
+    <row r="809" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="47"/>
       <c r="C809" s="47"/>
       <c r="D809" s="43"/>
@@ -31336,7 +31342,7 @@
       <c r="AJ809" s="46"/>
       <c r="AK809" s="46"/>
     </row>
-    <row r="810" spans="2:37" ht="12.75">
+    <row r="810" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="47"/>
       <c r="C810" s="47"/>
       <c r="D810" s="43"/>
@@ -31373,7 +31379,7 @@
       <c r="AJ810" s="46"/>
       <c r="AK810" s="46"/>
     </row>
-    <row r="811" spans="2:37" ht="12.75">
+    <row r="811" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="47"/>
       <c r="C811" s="47"/>
       <c r="D811" s="43"/>
@@ -31410,7 +31416,7 @@
       <c r="AJ811" s="46"/>
       <c r="AK811" s="46"/>
     </row>
-    <row r="812" spans="2:37" ht="12.75">
+    <row r="812" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="47"/>
       <c r="C812" s="47"/>
       <c r="D812" s="43"/>
@@ -31447,7 +31453,7 @@
       <c r="AJ812" s="46"/>
       <c r="AK812" s="46"/>
     </row>
-    <row r="813" spans="2:37" ht="12.75">
+    <row r="813" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="47"/>
       <c r="C813" s="47"/>
       <c r="D813" s="43"/>
@@ -31484,7 +31490,7 @@
       <c r="AJ813" s="46"/>
       <c r="AK813" s="46"/>
     </row>
-    <row r="814" spans="2:37" ht="12.75">
+    <row r="814" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="47"/>
       <c r="C814" s="47"/>
       <c r="D814" s="43"/>
@@ -31521,7 +31527,7 @@
       <c r="AJ814" s="46"/>
       <c r="AK814" s="46"/>
     </row>
-    <row r="815" spans="2:37" ht="12.75">
+    <row r="815" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="47"/>
       <c r="C815" s="47"/>
       <c r="D815" s="43"/>
@@ -31558,7 +31564,7 @@
       <c r="AJ815" s="46"/>
       <c r="AK815" s="46"/>
     </row>
-    <row r="816" spans="2:37" ht="12.75">
+    <row r="816" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="47"/>
       <c r="C816" s="47"/>
       <c r="D816" s="43"/>
@@ -31595,7 +31601,7 @@
       <c r="AJ816" s="46"/>
       <c r="AK816" s="46"/>
     </row>
-    <row r="817" spans="2:37" ht="12.75">
+    <row r="817" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="47"/>
       <c r="C817" s="47"/>
       <c r="D817" s="43"/>
@@ -31632,7 +31638,7 @@
       <c r="AJ817" s="46"/>
       <c r="AK817" s="46"/>
     </row>
-    <row r="818" spans="2:37" ht="12.75">
+    <row r="818" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="47"/>
       <c r="C818" s="47"/>
       <c r="D818" s="43"/>
@@ -31669,7 +31675,7 @@
       <c r="AJ818" s="46"/>
       <c r="AK818" s="46"/>
     </row>
-    <row r="819" spans="2:37" ht="12.75">
+    <row r="819" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="47"/>
       <c r="C819" s="47"/>
       <c r="D819" s="43"/>
@@ -31706,7 +31712,7 @@
       <c r="AJ819" s="46"/>
       <c r="AK819" s="46"/>
     </row>
-    <row r="820" spans="2:37" ht="12.75">
+    <row r="820" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="47"/>
       <c r="C820" s="47"/>
       <c r="D820" s="43"/>
@@ -31743,7 +31749,7 @@
       <c r="AJ820" s="46"/>
       <c r="AK820" s="46"/>
     </row>
-    <row r="821" spans="2:37" ht="12.75">
+    <row r="821" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="47"/>
       <c r="C821" s="47"/>
       <c r="D821" s="43"/>
@@ -31780,7 +31786,7 @@
       <c r="AJ821" s="46"/>
       <c r="AK821" s="46"/>
     </row>
-    <row r="822" spans="2:37" ht="12.75">
+    <row r="822" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="47"/>
       <c r="C822" s="47"/>
       <c r="D822" s="43"/>
@@ -31817,7 +31823,7 @@
       <c r="AJ822" s="46"/>
       <c r="AK822" s="46"/>
     </row>
-    <row r="823" spans="2:37" ht="12.75">
+    <row r="823" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="47"/>
       <c r="C823" s="47"/>
       <c r="D823" s="43"/>
@@ -31854,7 +31860,7 @@
       <c r="AJ823" s="46"/>
       <c r="AK823" s="46"/>
     </row>
-    <row r="824" spans="2:37" ht="12.75">
+    <row r="824" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="47"/>
       <c r="C824" s="47"/>
       <c r="D824" s="43"/>
@@ -31891,7 +31897,7 @@
       <c r="AJ824" s="46"/>
       <c r="AK824" s="46"/>
     </row>
-    <row r="825" spans="2:37" ht="12.75">
+    <row r="825" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="47"/>
       <c r="C825" s="47"/>
       <c r="D825" s="43"/>
@@ -31928,7 +31934,7 @@
       <c r="AJ825" s="46"/>
       <c r="AK825" s="46"/>
     </row>
-    <row r="826" spans="2:37" ht="12.75">
+    <row r="826" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="47"/>
       <c r="C826" s="47"/>
       <c r="D826" s="43"/>
@@ -31965,7 +31971,7 @@
       <c r="AJ826" s="46"/>
       <c r="AK826" s="46"/>
     </row>
-    <row r="827" spans="2:37" ht="12.75">
+    <row r="827" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="47"/>
       <c r="C827" s="47"/>
       <c r="D827" s="43"/>
@@ -32002,7 +32008,7 @@
       <c r="AJ827" s="46"/>
       <c r="AK827" s="46"/>
     </row>
-    <row r="828" spans="2:37" ht="12.75">
+    <row r="828" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="47"/>
       <c r="C828" s="47"/>
       <c r="D828" s="43"/>
@@ -32039,7 +32045,7 @@
       <c r="AJ828" s="46"/>
       <c r="AK828" s="46"/>
     </row>
-    <row r="829" spans="2:37" ht="12.75">
+    <row r="829" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="47"/>
       <c r="C829" s="47"/>
       <c r="D829" s="43"/>
@@ -32076,7 +32082,7 @@
       <c r="AJ829" s="46"/>
       <c r="AK829" s="46"/>
     </row>
-    <row r="830" spans="2:37" ht="12.75">
+    <row r="830" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="47"/>
       <c r="C830" s="47"/>
       <c r="D830" s="43"/>
@@ -32113,7 +32119,7 @@
       <c r="AJ830" s="46"/>
       <c r="AK830" s="46"/>
     </row>
-    <row r="831" spans="2:37" ht="12.75">
+    <row r="831" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="47"/>
       <c r="C831" s="47"/>
       <c r="D831" s="43"/>
@@ -32150,7 +32156,7 @@
       <c r="AJ831" s="46"/>
       <c r="AK831" s="46"/>
     </row>
-    <row r="832" spans="2:37" ht="12.75">
+    <row r="832" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="47"/>
       <c r="C832" s="47"/>
       <c r="D832" s="43"/>
@@ -32187,7 +32193,7 @@
       <c r="AJ832" s="46"/>
       <c r="AK832" s="46"/>
     </row>
-    <row r="833" spans="2:37" ht="12.75">
+    <row r="833" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="47"/>
       <c r="C833" s="47"/>
       <c r="D833" s="43"/>
@@ -32224,7 +32230,7 @@
       <c r="AJ833" s="46"/>
       <c r="AK833" s="46"/>
     </row>
-    <row r="834" spans="2:37" ht="12.75">
+    <row r="834" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="47"/>
       <c r="C834" s="47"/>
       <c r="D834" s="43"/>
@@ -32261,7 +32267,7 @@
       <c r="AJ834" s="46"/>
       <c r="AK834" s="46"/>
     </row>
-    <row r="835" spans="2:37" ht="12.75">
+    <row r="835" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="47"/>
       <c r="C835" s="47"/>
       <c r="D835" s="43"/>
@@ -32298,7 +32304,7 @@
       <c r="AJ835" s="46"/>
       <c r="AK835" s="46"/>
     </row>
-    <row r="836" spans="2:37" ht="12.75">
+    <row r="836" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="47"/>
       <c r="C836" s="47"/>
       <c r="D836" s="43"/>
@@ -32335,7 +32341,7 @@
       <c r="AJ836" s="46"/>
       <c r="AK836" s="46"/>
     </row>
-    <row r="837" spans="2:37" ht="12.75">
+    <row r="837" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="47"/>
       <c r="C837" s="47"/>
       <c r="D837" s="43"/>
@@ -32372,7 +32378,7 @@
       <c r="AJ837" s="46"/>
       <c r="AK837" s="46"/>
     </row>
-    <row r="838" spans="2:37" ht="12.75">
+    <row r="838" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="47"/>
       <c r="C838" s="47"/>
       <c r="D838" s="43"/>
@@ -32409,7 +32415,7 @@
       <c r="AJ838" s="46"/>
       <c r="AK838" s="46"/>
     </row>
-    <row r="839" spans="2:37" ht="12.75">
+    <row r="839" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="47"/>
       <c r="C839" s="47"/>
       <c r="D839" s="43"/>
@@ -32446,7 +32452,7 @@
       <c r="AJ839" s="46"/>
       <c r="AK839" s="46"/>
     </row>
-    <row r="840" spans="2:37" ht="12.75">
+    <row r="840" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="47"/>
       <c r="C840" s="47"/>
       <c r="D840" s="43"/>
@@ -32483,7 +32489,7 @@
       <c r="AJ840" s="46"/>
       <c r="AK840" s="46"/>
     </row>
-    <row r="841" spans="2:37" ht="12.75">
+    <row r="841" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="47"/>
       <c r="C841" s="47"/>
       <c r="D841" s="43"/>
@@ -32520,7 +32526,7 @@
       <c r="AJ841" s="46"/>
       <c r="AK841" s="46"/>
     </row>
-    <row r="842" spans="2:37" ht="12.75">
+    <row r="842" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="47"/>
       <c r="C842" s="47"/>
       <c r="D842" s="43"/>
@@ -32557,7 +32563,7 @@
       <c r="AJ842" s="46"/>
       <c r="AK842" s="46"/>
     </row>
-    <row r="843" spans="2:37" ht="12.75">
+    <row r="843" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="47"/>
       <c r="C843" s="47"/>
       <c r="D843" s="43"/>
@@ -32594,7 +32600,7 @@
       <c r="AJ843" s="46"/>
       <c r="AK843" s="46"/>
     </row>
-    <row r="844" spans="2:37" ht="12.75">
+    <row r="844" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="47"/>
       <c r="C844" s="47"/>
       <c r="D844" s="43"/>
@@ -32631,7 +32637,7 @@
       <c r="AJ844" s="46"/>
       <c r="AK844" s="46"/>
     </row>
-    <row r="845" spans="2:37" ht="12.75">
+    <row r="845" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="47"/>
       <c r="C845" s="47"/>
       <c r="D845" s="43"/>
@@ -32668,7 +32674,7 @@
       <c r="AJ845" s="46"/>
       <c r="AK845" s="46"/>
     </row>
-    <row r="846" spans="2:37" ht="12.75">
+    <row r="846" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="47"/>
       <c r="C846" s="47"/>
       <c r="D846" s="43"/>
@@ -32705,7 +32711,7 @@
       <c r="AJ846" s="46"/>
       <c r="AK846" s="46"/>
     </row>
-    <row r="847" spans="2:37" ht="12.75">
+    <row r="847" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="47"/>
       <c r="C847" s="47"/>
       <c r="D847" s="43"/>
@@ -32742,7 +32748,7 @@
       <c r="AJ847" s="46"/>
       <c r="AK847" s="46"/>
     </row>
-    <row r="848" spans="2:37" ht="12.75">
+    <row r="848" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="47"/>
       <c r="C848" s="47"/>
       <c r="D848" s="43"/>
@@ -32779,7 +32785,7 @@
       <c r="AJ848" s="46"/>
       <c r="AK848" s="46"/>
     </row>
-    <row r="849" spans="2:37" ht="12.75">
+    <row r="849" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="47"/>
       <c r="C849" s="47"/>
       <c r="D849" s="43"/>
@@ -32816,7 +32822,7 @@
       <c r="AJ849" s="46"/>
       <c r="AK849" s="46"/>
     </row>
-    <row r="850" spans="2:37" ht="12.75">
+    <row r="850" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="47"/>
       <c r="C850" s="47"/>
       <c r="D850" s="43"/>
@@ -32853,7 +32859,7 @@
       <c r="AJ850" s="46"/>
       <c r="AK850" s="46"/>
     </row>
-    <row r="851" spans="2:37" ht="12.75">
+    <row r="851" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="47"/>
       <c r="C851" s="47"/>
       <c r="D851" s="43"/>
@@ -32890,7 +32896,7 @@
       <c r="AJ851" s="46"/>
       <c r="AK851" s="46"/>
     </row>
-    <row r="852" spans="2:37" ht="12.75">
+    <row r="852" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="47"/>
       <c r="C852" s="47"/>
       <c r="D852" s="43"/>
@@ -32927,7 +32933,7 @@
       <c r="AJ852" s="46"/>
       <c r="AK852" s="46"/>
     </row>
-    <row r="853" spans="2:37" ht="12.75">
+    <row r="853" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="47"/>
       <c r="C853" s="47"/>
       <c r="D853" s="43"/>
@@ -32964,7 +32970,7 @@
       <c r="AJ853" s="46"/>
       <c r="AK853" s="46"/>
     </row>
-    <row r="854" spans="2:37" ht="12.75">
+    <row r="854" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="47"/>
       <c r="C854" s="47"/>
       <c r="D854" s="43"/>
@@ -33001,7 +33007,7 @@
       <c r="AJ854" s="46"/>
       <c r="AK854" s="46"/>
     </row>
-    <row r="855" spans="2:37" ht="12.75">
+    <row r="855" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="47"/>
       <c r="C855" s="47"/>
       <c r="D855" s="43"/>
@@ -33038,7 +33044,7 @@
       <c r="AJ855" s="46"/>
       <c r="AK855" s="46"/>
     </row>
-    <row r="856" spans="2:37" ht="12.75">
+    <row r="856" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="47"/>
       <c r="C856" s="47"/>
       <c r="D856" s="43"/>
@@ -33075,7 +33081,7 @@
       <c r="AJ856" s="46"/>
       <c r="AK856" s="46"/>
     </row>
-    <row r="857" spans="2:37" ht="12.75">
+    <row r="857" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="47"/>
       <c r="C857" s="47"/>
       <c r="D857" s="43"/>
@@ -33112,7 +33118,7 @@
       <c r="AJ857" s="46"/>
       <c r="AK857" s="46"/>
     </row>
-    <row r="858" spans="2:37" ht="12.75">
+    <row r="858" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="47"/>
       <c r="C858" s="47"/>
       <c r="D858" s="43"/>
@@ -33149,7 +33155,7 @@
       <c r="AJ858" s="46"/>
       <c r="AK858" s="46"/>
     </row>
-    <row r="859" spans="2:37" ht="12.75">
+    <row r="859" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="47"/>
       <c r="C859" s="47"/>
       <c r="D859" s="43"/>
@@ -33186,7 +33192,7 @@
       <c r="AJ859" s="46"/>
       <c r="AK859" s="46"/>
     </row>
-    <row r="860" spans="2:37" ht="12.75">
+    <row r="860" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="47"/>
       <c r="C860" s="47"/>
       <c r="D860" s="43"/>
@@ -33223,7 +33229,7 @@
       <c r="AJ860" s="46"/>
       <c r="AK860" s="46"/>
     </row>
-    <row r="861" spans="2:37" ht="12.75">
+    <row r="861" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="47"/>
       <c r="C861" s="47"/>
       <c r="D861" s="43"/>
@@ -33260,7 +33266,7 @@
       <c r="AJ861" s="46"/>
       <c r="AK861" s="46"/>
     </row>
-    <row r="862" spans="2:37" ht="12.75">
+    <row r="862" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="47"/>
       <c r="C862" s="47"/>
       <c r="D862" s="43"/>
@@ -33297,7 +33303,7 @@
       <c r="AJ862" s="46"/>
       <c r="AK862" s="46"/>
     </row>
-    <row r="863" spans="2:37" ht="12.75">
+    <row r="863" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="47"/>
       <c r="C863" s="47"/>
       <c r="D863" s="43"/>
@@ -33334,7 +33340,7 @@
       <c r="AJ863" s="46"/>
       <c r="AK863" s="46"/>
     </row>
-    <row r="864" spans="2:37" ht="12.75">
+    <row r="864" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="47"/>
       <c r="C864" s="47"/>
       <c r="D864" s="43"/>
@@ -33371,7 +33377,7 @@
       <c r="AJ864" s="46"/>
       <c r="AK864" s="46"/>
     </row>
-    <row r="865" spans="2:37" ht="12.75">
+    <row r="865" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="47"/>
       <c r="C865" s="47"/>
       <c r="D865" s="43"/>
@@ -33408,7 +33414,7 @@
       <c r="AJ865" s="46"/>
       <c r="AK865" s="46"/>
     </row>
-    <row r="866" spans="2:37" ht="12.75">
+    <row r="866" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="47"/>
       <c r="C866" s="47"/>
       <c r="D866" s="43"/>
@@ -33445,7 +33451,7 @@
       <c r="AJ866" s="46"/>
       <c r="AK866" s="46"/>
     </row>
-    <row r="867" spans="2:37" ht="12.75">
+    <row r="867" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="47"/>
       <c r="C867" s="47"/>
       <c r="D867" s="43"/>
@@ -33482,7 +33488,7 @@
       <c r="AJ867" s="46"/>
       <c r="AK867" s="46"/>
     </row>
-    <row r="868" spans="2:37" ht="12.75">
+    <row r="868" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="47"/>
       <c r="C868" s="47"/>
       <c r="D868" s="43"/>
@@ -33519,7 +33525,7 @@
       <c r="AJ868" s="46"/>
       <c r="AK868" s="46"/>
     </row>
-    <row r="869" spans="2:37" ht="12.75">
+    <row r="869" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="47"/>
       <c r="C869" s="47"/>
       <c r="D869" s="43"/>
@@ -33556,7 +33562,7 @@
       <c r="AJ869" s="46"/>
       <c r="AK869" s="46"/>
     </row>
-    <row r="870" spans="2:37" ht="12.75">
+    <row r="870" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="47"/>
       <c r="C870" s="47"/>
       <c r="D870" s="43"/>
@@ -33593,7 +33599,7 @@
       <c r="AJ870" s="46"/>
       <c r="AK870" s="46"/>
     </row>
-    <row r="871" spans="2:37" ht="12.75">
+    <row r="871" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="47"/>
       <c r="C871" s="47"/>
       <c r="D871" s="43"/>
@@ -33630,7 +33636,7 @@
       <c r="AJ871" s="46"/>
       <c r="AK871" s="46"/>
     </row>
-    <row r="872" spans="2:37" ht="12.75">
+    <row r="872" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="47"/>
       <c r="C872" s="47"/>
       <c r="D872" s="43"/>
@@ -33667,7 +33673,7 @@
       <c r="AJ872" s="46"/>
       <c r="AK872" s="46"/>
     </row>
-    <row r="873" spans="2:37" ht="12.75">
+    <row r="873" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="47"/>
       <c r="C873" s="47"/>
       <c r="D873" s="43"/>
@@ -33704,7 +33710,7 @@
       <c r="AJ873" s="46"/>
       <c r="AK873" s="46"/>
     </row>
-    <row r="874" spans="2:37" ht="12.75">
+    <row r="874" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="47"/>
       <c r="C874" s="47"/>
       <c r="D874" s="43"/>
@@ -33741,7 +33747,7 @@
       <c r="AJ874" s="46"/>
       <c r="AK874" s="46"/>
     </row>
-    <row r="875" spans="2:37" ht="12.75">
+    <row r="875" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="47"/>
       <c r="C875" s="47"/>
       <c r="D875" s="43"/>
@@ -33778,7 +33784,7 @@
       <c r="AJ875" s="46"/>
       <c r="AK875" s="46"/>
     </row>
-    <row r="876" spans="2:37" ht="12.75">
+    <row r="876" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="47"/>
       <c r="C876" s="47"/>
       <c r="D876" s="43"/>
@@ -33815,7 +33821,7 @@
       <c r="AJ876" s="46"/>
       <c r="AK876" s="46"/>
     </row>
-    <row r="877" spans="2:37" ht="12.75">
+    <row r="877" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="47"/>
       <c r="C877" s="47"/>
       <c r="D877" s="43"/>
@@ -33852,7 +33858,7 @@
       <c r="AJ877" s="46"/>
       <c r="AK877" s="46"/>
     </row>
-    <row r="878" spans="2:37" ht="12.75">
+    <row r="878" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="47"/>
       <c r="C878" s="47"/>
       <c r="D878" s="43"/>
@@ -33889,7 +33895,7 @@
       <c r="AJ878" s="46"/>
       <c r="AK878" s="46"/>
     </row>
-    <row r="879" spans="2:37" ht="12.75">
+    <row r="879" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="47"/>
       <c r="C879" s="47"/>
       <c r="D879" s="43"/>
@@ -33926,7 +33932,7 @@
       <c r="AJ879" s="46"/>
       <c r="AK879" s="46"/>
     </row>
-    <row r="880" spans="2:37" ht="12.75">
+    <row r="880" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="47"/>
       <c r="C880" s="47"/>
       <c r="D880" s="43"/>
@@ -33963,7 +33969,7 @@
       <c r="AJ880" s="46"/>
       <c r="AK880" s="46"/>
     </row>
-    <row r="881" spans="2:37" ht="12.75">
+    <row r="881" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="47"/>
       <c r="C881" s="47"/>
       <c r="D881" s="43"/>
@@ -34000,7 +34006,7 @@
       <c r="AJ881" s="46"/>
       <c r="AK881" s="46"/>
     </row>
-    <row r="882" spans="2:37" ht="12.75">
+    <row r="882" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="47"/>
       <c r="C882" s="47"/>
       <c r="D882" s="43"/>
@@ -34037,7 +34043,7 @@
       <c r="AJ882" s="46"/>
       <c r="AK882" s="46"/>
     </row>
-    <row r="883" spans="2:37" ht="12.75">
+    <row r="883" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="47"/>
       <c r="C883" s="47"/>
       <c r="D883" s="43"/>
@@ -34074,7 +34080,7 @@
       <c r="AJ883" s="46"/>
       <c r="AK883" s="46"/>
     </row>
-    <row r="884" spans="2:37" ht="12.75">
+    <row r="884" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="47"/>
       <c r="C884" s="47"/>
       <c r="D884" s="43"/>
@@ -34111,7 +34117,7 @@
       <c r="AJ884" s="46"/>
       <c r="AK884" s="46"/>
     </row>
-    <row r="885" spans="2:37" ht="12.75">
+    <row r="885" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="47"/>
       <c r="C885" s="47"/>
       <c r="D885" s="43"/>
@@ -34148,7 +34154,7 @@
       <c r="AJ885" s="46"/>
       <c r="AK885" s="46"/>
     </row>
-    <row r="886" spans="2:37" ht="12.75">
+    <row r="886" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="47"/>
       <c r="C886" s="47"/>
       <c r="D886" s="43"/>
@@ -34185,7 +34191,7 @@
       <c r="AJ886" s="46"/>
       <c r="AK886" s="46"/>
     </row>
-    <row r="887" spans="2:37" ht="12.75">
+    <row r="887" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="47"/>
       <c r="C887" s="47"/>
       <c r="D887" s="43"/>
@@ -34222,7 +34228,7 @@
       <c r="AJ887" s="46"/>
       <c r="AK887" s="46"/>
     </row>
-    <row r="888" spans="2:37" ht="12.75">
+    <row r="888" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="47"/>
       <c r="C888" s="47"/>
       <c r="D888" s="43"/>
@@ -34259,7 +34265,7 @@
       <c r="AJ888" s="46"/>
       <c r="AK888" s="46"/>
     </row>
-    <row r="889" spans="2:37" ht="12.75">
+    <row r="889" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="47"/>
       <c r="C889" s="47"/>
       <c r="D889" s="43"/>
@@ -34296,7 +34302,7 @@
       <c r="AJ889" s="46"/>
       <c r="AK889" s="46"/>
     </row>
-    <row r="890" spans="2:37" ht="12.75">
+    <row r="890" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="47"/>
       <c r="C890" s="47"/>
       <c r="D890" s="43"/>
@@ -34333,7 +34339,7 @@
       <c r="AJ890" s="46"/>
       <c r="AK890" s="46"/>
     </row>
-    <row r="891" spans="2:37" ht="12.75">
+    <row r="891" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="47"/>
       <c r="C891" s="47"/>
       <c r="D891" s="43"/>
@@ -34370,7 +34376,7 @@
       <c r="AJ891" s="46"/>
       <c r="AK891" s="46"/>
     </row>
-    <row r="892" spans="2:37" ht="12.75">
+    <row r="892" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="47"/>
       <c r="C892" s="47"/>
       <c r="D892" s="43"/>
@@ -34407,7 +34413,7 @@
       <c r="AJ892" s="46"/>
       <c r="AK892" s="46"/>
     </row>
-    <row r="893" spans="2:37" ht="12.75">
+    <row r="893" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="47"/>
       <c r="C893" s="47"/>
       <c r="D893" s="43"/>
@@ -34444,7 +34450,7 @@
       <c r="AJ893" s="46"/>
       <c r="AK893" s="46"/>
     </row>
-    <row r="894" spans="2:37" ht="12.75">
+    <row r="894" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="47"/>
       <c r="C894" s="47"/>
       <c r="D894" s="43"/>
@@ -34481,7 +34487,7 @@
       <c r="AJ894" s="46"/>
       <c r="AK894" s="46"/>
     </row>
-    <row r="895" spans="2:37" ht="12.75">
+    <row r="895" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="47"/>
       <c r="C895" s="47"/>
       <c r="D895" s="43"/>
@@ -34518,7 +34524,7 @@
       <c r="AJ895" s="46"/>
       <c r="AK895" s="46"/>
     </row>
-    <row r="896" spans="2:37" ht="12.75">
+    <row r="896" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="47"/>
       <c r="C896" s="47"/>
       <c r="D896" s="43"/>
@@ -34555,7 +34561,7 @@
       <c r="AJ896" s="46"/>
       <c r="AK896" s="46"/>
     </row>
-    <row r="897" spans="2:37" ht="12.75">
+    <row r="897" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="47"/>
       <c r="C897" s="47"/>
       <c r="D897" s="43"/>
@@ -34592,7 +34598,7 @@
       <c r="AJ897" s="46"/>
       <c r="AK897" s="46"/>
     </row>
-    <row r="898" spans="2:37" ht="12.75">
+    <row r="898" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="47"/>
       <c r="C898" s="47"/>
       <c r="D898" s="43"/>
@@ -34629,7 +34635,7 @@
       <c r="AJ898" s="46"/>
       <c r="AK898" s="46"/>
     </row>
-    <row r="899" spans="2:37" ht="12.75">
+    <row r="899" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="47"/>
       <c r="C899" s="47"/>
       <c r="D899" s="43"/>
@@ -34666,7 +34672,7 @@
       <c r="AJ899" s="46"/>
       <c r="AK899" s="46"/>
     </row>
-    <row r="900" spans="2:37" ht="12.75">
+    <row r="900" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="47"/>
       <c r="C900" s="47"/>
       <c r="D900" s="43"/>
@@ -34703,7 +34709,7 @@
       <c r="AJ900" s="46"/>
       <c r="AK900" s="46"/>
     </row>
-    <row r="901" spans="2:37" ht="12.75">
+    <row r="901" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="47"/>
       <c r="C901" s="47"/>
       <c r="D901" s="43"/>
@@ -34740,7 +34746,7 @@
       <c r="AJ901" s="46"/>
       <c r="AK901" s="46"/>
     </row>
-    <row r="902" spans="2:37" ht="12.75">
+    <row r="902" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="47"/>
       <c r="C902" s="47"/>
       <c r="D902" s="43"/>
@@ -34777,7 +34783,7 @@
       <c r="AJ902" s="46"/>
       <c r="AK902" s="46"/>
     </row>
-    <row r="903" spans="2:37" ht="12.75">
+    <row r="903" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="47"/>
       <c r="C903" s="47"/>
       <c r="D903" s="43"/>
@@ -34814,7 +34820,7 @@
       <c r="AJ903" s="46"/>
       <c r="AK903" s="46"/>
     </row>
-    <row r="904" spans="2:37" ht="12.75">
+    <row r="904" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="47"/>
       <c r="C904" s="47"/>
       <c r="D904" s="43"/>
@@ -34851,7 +34857,7 @@
       <c r="AJ904" s="46"/>
       <c r="AK904" s="46"/>
     </row>
-    <row r="905" spans="2:37" ht="12.75">
+    <row r="905" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="47"/>
       <c r="C905" s="47"/>
       <c r="D905" s="43"/>
@@ -34888,7 +34894,7 @@
       <c r="AJ905" s="46"/>
       <c r="AK905" s="46"/>
     </row>
-    <row r="906" spans="2:37" ht="12.75">
+    <row r="906" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="47"/>
       <c r="C906" s="47"/>
       <c r="D906" s="43"/>
@@ -34925,7 +34931,7 @@
       <c r="AJ906" s="46"/>
       <c r="AK906" s="46"/>
     </row>
-    <row r="907" spans="2:37" ht="12.75">
+    <row r="907" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="47"/>
       <c r="C907" s="47"/>
       <c r="D907" s="43"/>
@@ -34962,7 +34968,7 @@
       <c r="AJ907" s="46"/>
       <c r="AK907" s="46"/>
     </row>
-    <row r="908" spans="2:37" ht="12.75">
+    <row r="908" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="47"/>
       <c r="C908" s="47"/>
       <c r="D908" s="43"/>
@@ -34999,7 +35005,7 @@
       <c r="AJ908" s="46"/>
       <c r="AK908" s="46"/>
     </row>
-    <row r="909" spans="2:37" ht="12.75">
+    <row r="909" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="47"/>
       <c r="C909" s="47"/>
       <c r="D909" s="43"/>
@@ -35036,7 +35042,7 @@
       <c r="AJ909" s="46"/>
       <c r="AK909" s="46"/>
     </row>
-    <row r="910" spans="2:37" ht="12.75">
+    <row r="910" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="47"/>
       <c r="C910" s="47"/>
       <c r="D910" s="43"/>
@@ -35073,7 +35079,7 @@
       <c r="AJ910" s="46"/>
       <c r="AK910" s="46"/>
     </row>
-    <row r="911" spans="2:37" ht="12.75">
+    <row r="911" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="47"/>
       <c r="C911" s="47"/>
       <c r="D911" s="43"/>
@@ -35110,7 +35116,7 @@
       <c r="AJ911" s="46"/>
       <c r="AK911" s="46"/>
     </row>
-    <row r="912" spans="2:37" ht="12.75">
+    <row r="912" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="47"/>
       <c r="C912" s="47"/>
       <c r="D912" s="43"/>
@@ -35147,7 +35153,7 @@
       <c r="AJ912" s="46"/>
       <c r="AK912" s="46"/>
     </row>
-    <row r="913" spans="2:37" ht="12.75">
+    <row r="913" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="47"/>
       <c r="C913" s="47"/>
       <c r="D913" s="43"/>
@@ -35184,7 +35190,7 @@
       <c r="AJ913" s="46"/>
       <c r="AK913" s="46"/>
     </row>
-    <row r="914" spans="2:37" ht="12.75">
+    <row r="914" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="47"/>
       <c r="C914" s="47"/>
       <c r="D914" s="43"/>
@@ -35221,7 +35227,7 @@
       <c r="AJ914" s="46"/>
       <c r="AK914" s="46"/>
     </row>
-    <row r="915" spans="2:37" ht="12.75">
+    <row r="915" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="47"/>
       <c r="C915" s="47"/>
       <c r="D915" s="43"/>
@@ -35258,7 +35264,7 @@
       <c r="AJ915" s="46"/>
       <c r="AK915" s="46"/>
     </row>
-    <row r="916" spans="2:37" ht="12.75">
+    <row r="916" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="47"/>
       <c r="C916" s="47"/>
       <c r="D916" s="43"/>
@@ -35295,7 +35301,7 @@
       <c r="AJ916" s="46"/>
       <c r="AK916" s="46"/>
     </row>
-    <row r="917" spans="2:37" ht="12.75">
+    <row r="917" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="47"/>
       <c r="C917" s="47"/>
       <c r="D917" s="43"/>
@@ -35332,7 +35338,7 @@
       <c r="AJ917" s="46"/>
       <c r="AK917" s="46"/>
     </row>
-    <row r="918" spans="2:37" ht="12.75">
+    <row r="918" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="47"/>
       <c r="C918" s="47"/>
       <c r="D918" s="43"/>
@@ -35369,7 +35375,7 @@
       <c r="AJ918" s="46"/>
       <c r="AK918" s="46"/>
     </row>
-    <row r="919" spans="2:37" ht="12.75">
+    <row r="919" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="47"/>
       <c r="C919" s="47"/>
       <c r="D919" s="43"/>
@@ -35406,7 +35412,7 @@
       <c r="AJ919" s="46"/>
       <c r="AK919" s="46"/>
     </row>
-    <row r="920" spans="2:37" ht="12.75">
+    <row r="920" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="47"/>
       <c r="C920" s="47"/>
       <c r="D920" s="43"/>
@@ -35443,7 +35449,7 @@
       <c r="AJ920" s="46"/>
       <c r="AK920" s="46"/>
     </row>
-    <row r="921" spans="2:37" ht="12.75">
+    <row r="921" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="47"/>
       <c r="C921" s="47"/>
       <c r="D921" s="43"/>
@@ -35480,7 +35486,7 @@
       <c r="AJ921" s="46"/>
       <c r="AK921" s="46"/>
     </row>
-    <row r="922" spans="2:37" ht="12.75">
+    <row r="922" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="47"/>
       <c r="C922" s="47"/>
       <c r="D922" s="43"/>
@@ -35517,7 +35523,7 @@
       <c r="AJ922" s="46"/>
       <c r="AK922" s="46"/>
     </row>
-    <row r="923" spans="2:37" ht="12.75">
+    <row r="923" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="47"/>
       <c r="C923" s="47"/>
       <c r="D923" s="43"/>
@@ -35554,7 +35560,7 @@
       <c r="AJ923" s="46"/>
       <c r="AK923" s="46"/>
     </row>
-    <row r="924" spans="2:37" ht="12.75">
+    <row r="924" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="47"/>
       <c r="C924" s="47"/>
       <c r="D924" s="43"/>
@@ -35591,7 +35597,7 @@
       <c r="AJ924" s="46"/>
       <c r="AK924" s="46"/>
     </row>
-    <row r="925" spans="2:37" ht="12.75">
+    <row r="925" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="47"/>
       <c r="C925" s="47"/>
       <c r="D925" s="43"/>
@@ -35628,7 +35634,7 @@
       <c r="AJ925" s="46"/>
       <c r="AK925" s="46"/>
     </row>
-    <row r="926" spans="2:37" ht="12.75">
+    <row r="926" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="47"/>
       <c r="C926" s="47"/>
       <c r="D926" s="43"/>
@@ -35665,7 +35671,7 @@
       <c r="AJ926" s="46"/>
       <c r="AK926" s="46"/>
     </row>
-    <row r="927" spans="2:37" ht="12.75">
+    <row r="927" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="47"/>
       <c r="C927" s="47"/>
       <c r="D927" s="43"/>
@@ -35702,7 +35708,7 @@
       <c r="AJ927" s="46"/>
       <c r="AK927" s="46"/>
     </row>
-    <row r="928" spans="2:37" ht="12.75">
+    <row r="928" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="47"/>
       <c r="C928" s="47"/>
       <c r="D928" s="43"/>
@@ -35739,7 +35745,7 @@
       <c r="AJ928" s="46"/>
       <c r="AK928" s="46"/>
     </row>
-    <row r="929" spans="2:37" ht="12.75">
+    <row r="929" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="47"/>
       <c r="C929" s="47"/>
       <c r="D929" s="43"/>
@@ -35776,7 +35782,7 @@
       <c r="AJ929" s="46"/>
       <c r="AK929" s="46"/>
     </row>
-    <row r="930" spans="2:37" ht="12.75">
+    <row r="930" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="47"/>
       <c r="C930" s="47"/>
       <c r="D930" s="43"/>
@@ -35813,7 +35819,7 @@
       <c r="AJ930" s="46"/>
       <c r="AK930" s="46"/>
     </row>
-    <row r="931" spans="2:37" ht="12.75">
+    <row r="931" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="47"/>
       <c r="C931" s="47"/>
       <c r="D931" s="43"/>
@@ -35850,7 +35856,7 @@
       <c r="AJ931" s="46"/>
       <c r="AK931" s="46"/>
     </row>
-    <row r="932" spans="2:37" ht="12.75">
+    <row r="932" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="47"/>
       <c r="C932" s="47"/>
       <c r="D932" s="43"/>
@@ -35887,7 +35893,7 @@
       <c r="AJ932" s="46"/>
       <c r="AK932" s="46"/>
     </row>
-    <row r="933" spans="2:37" ht="12.75">
+    <row r="933" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="47"/>
       <c r="C933" s="47"/>
       <c r="D933" s="43"/>
@@ -35924,7 +35930,7 @@
       <c r="AJ933" s="46"/>
       <c r="AK933" s="46"/>
     </row>
-    <row r="934" spans="2:37" ht="12.75">
+    <row r="934" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="47"/>
       <c r="C934" s="47"/>
       <c r="D934" s="43"/>
@@ -35961,7 +35967,7 @@
       <c r="AJ934" s="46"/>
       <c r="AK934" s="46"/>
     </row>
-    <row r="935" spans="2:37" ht="12.75">
+    <row r="935" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="47"/>
       <c r="C935" s="47"/>
       <c r="D935" s="43"/>
@@ -35998,7 +36004,7 @@
       <c r="AJ935" s="46"/>
       <c r="AK935" s="46"/>
     </row>
-    <row r="936" spans="2:37" ht="12.75">
+    <row r="936" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="47"/>
       <c r="C936" s="47"/>
       <c r="D936" s="43"/>
@@ -36035,7 +36041,7 @@
       <c r="AJ936" s="46"/>
       <c r="AK936" s="46"/>
     </row>
-    <row r="937" spans="2:37" ht="12.75">
+    <row r="937" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="47"/>
       <c r="C937" s="47"/>
       <c r="D937" s="43"/>
@@ -36072,7 +36078,7 @@
       <c r="AJ937" s="46"/>
       <c r="AK937" s="46"/>
     </row>
-    <row r="938" spans="2:37" ht="12.75">
+    <row r="938" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="47"/>
       <c r="C938" s="47"/>
       <c r="D938" s="43"/>
@@ -36109,7 +36115,7 @@
       <c r="AJ938" s="46"/>
       <c r="AK938" s="46"/>
     </row>
-    <row r="939" spans="2:37" ht="12.75">
+    <row r="939" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="47"/>
       <c r="C939" s="47"/>
       <c r="D939" s="43"/>
@@ -36146,7 +36152,7 @@
       <c r="AJ939" s="46"/>
       <c r="AK939" s="46"/>
     </row>
-    <row r="940" spans="2:37" ht="12.75">
+    <row r="940" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="47"/>
       <c r="C940" s="47"/>
       <c r="D940" s="43"/>
@@ -36183,7 +36189,7 @@
       <c r="AJ940" s="46"/>
       <c r="AK940" s="46"/>
     </row>
-    <row r="941" spans="2:37" ht="12.75">
+    <row r="941" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="47"/>
       <c r="C941" s="47"/>
       <c r="D941" s="43"/>
@@ -36220,7 +36226,7 @@
       <c r="AJ941" s="46"/>
       <c r="AK941" s="46"/>
     </row>
-    <row r="942" spans="2:37" ht="12.75">
+    <row r="942" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="47"/>
       <c r="C942" s="47"/>
       <c r="D942" s="43"/>
@@ -36257,7 +36263,7 @@
       <c r="AJ942" s="46"/>
       <c r="AK942" s="46"/>
     </row>
-    <row r="943" spans="2:37" ht="12.75">
+    <row r="943" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="47"/>
       <c r="C943" s="47"/>
       <c r="D943" s="43"/>
@@ -36294,7 +36300,7 @@
       <c r="AJ943" s="46"/>
       <c r="AK943" s="46"/>
     </row>
-    <row r="944" spans="2:37" ht="12.75">
+    <row r="944" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="47"/>
       <c r="C944" s="47"/>
       <c r="D944" s="43"/>
@@ -36331,7 +36337,7 @@
       <c r="AJ944" s="46"/>
       <c r="AK944" s="46"/>
     </row>
-    <row r="945" spans="2:37" ht="12.75">
+    <row r="945" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="47"/>
       <c r="C945" s="47"/>
       <c r="D945" s="43"/>
@@ -36368,7 +36374,7 @@
       <c r="AJ945" s="46"/>
       <c r="AK945" s="46"/>
     </row>
-    <row r="946" spans="2:37" ht="12.75">
+    <row r="946" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="47"/>
       <c r="C946" s="47"/>
       <c r="D946" s="43"/>
@@ -36405,7 +36411,7 @@
       <c r="AJ946" s="46"/>
       <c r="AK946" s="46"/>
     </row>
-    <row r="947" spans="2:37" ht="12.75">
+    <row r="947" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="47"/>
       <c r="C947" s="47"/>
       <c r="D947" s="43"/>
@@ -36442,7 +36448,7 @@
       <c r="AJ947" s="46"/>
       <c r="AK947" s="46"/>
     </row>
-    <row r="948" spans="2:37" ht="12.75">
+    <row r="948" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="47"/>
       <c r="C948" s="47"/>
       <c r="D948" s="43"/>
@@ -36479,7 +36485,7 @@
       <c r="AJ948" s="46"/>
       <c r="AK948" s="46"/>
     </row>
-    <row r="949" spans="2:37" ht="12.75">
+    <row r="949" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="47"/>
       <c r="C949" s="47"/>
       <c r="D949" s="43"/>
@@ -36516,7 +36522,7 @@
       <c r="AJ949" s="46"/>
       <c r="AK949" s="46"/>
     </row>
-    <row r="950" spans="2:37" ht="12.75">
+    <row r="950" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="47"/>
       <c r="C950" s="47"/>
       <c r="D950" s="43"/>
@@ -36553,7 +36559,7 @@
       <c r="AJ950" s="46"/>
       <c r="AK950" s="46"/>
     </row>
-    <row r="951" spans="2:37" ht="12.75">
+    <row r="951" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="47"/>
       <c r="C951" s="47"/>
       <c r="D951" s="43"/>
@@ -36590,7 +36596,7 @@
       <c r="AJ951" s="46"/>
       <c r="AK951" s="46"/>
     </row>
-    <row r="952" spans="2:37" ht="12.75">
+    <row r="952" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="47"/>
       <c r="C952" s="47"/>
       <c r="D952" s="43"/>
@@ -36627,7 +36633,7 @@
       <c r="AJ952" s="46"/>
       <c r="AK952" s="46"/>
     </row>
-    <row r="953" spans="2:37" ht="12.75">
+    <row r="953" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="47"/>
       <c r="C953" s="47"/>
       <c r="D953" s="43"/>
@@ -36664,7 +36670,7 @@
       <c r="AJ953" s="46"/>
       <c r="AK953" s="46"/>
     </row>
-    <row r="954" spans="2:37" ht="12.75">
+    <row r="954" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="47"/>
       <c r="C954" s="47"/>
       <c r="D954" s="43"/>
@@ -36701,7 +36707,7 @@
       <c r="AJ954" s="46"/>
       <c r="AK954" s="46"/>
     </row>
-    <row r="955" spans="2:37" ht="12.75">
+    <row r="955" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="47"/>
       <c r="C955" s="47"/>
       <c r="D955" s="43"/>
@@ -36738,7 +36744,7 @@
       <c r="AJ955" s="46"/>
       <c r="AK955" s="46"/>
     </row>
-    <row r="956" spans="2:37" ht="12.75">
+    <row r="956" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="47"/>
       <c r="C956" s="47"/>
       <c r="D956" s="43"/>
@@ -36775,7 +36781,7 @@
       <c r="AJ956" s="46"/>
       <c r="AK956" s="46"/>
     </row>
-    <row r="957" spans="2:37" ht="12.75">
+    <row r="957" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="47"/>
       <c r="C957" s="47"/>
       <c r="D957" s="43"/>
@@ -36812,7 +36818,7 @@
       <c r="AJ957" s="46"/>
       <c r="AK957" s="46"/>
     </row>
-    <row r="958" spans="2:37" ht="12.75">
+    <row r="958" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="47"/>
       <c r="C958" s="47"/>
       <c r="D958" s="43"/>
@@ -36849,7 +36855,7 @@
       <c r="AJ958" s="46"/>
       <c r="AK958" s="46"/>
     </row>
-    <row r="959" spans="2:37" ht="12.75">
+    <row r="959" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="47"/>
       <c r="C959" s="47"/>
       <c r="D959" s="43"/>
@@ -36886,7 +36892,7 @@
       <c r="AJ959" s="46"/>
       <c r="AK959" s="46"/>
     </row>
-    <row r="960" spans="2:37" ht="12.75">
+    <row r="960" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="47"/>
       <c r="C960" s="47"/>
       <c r="D960" s="43"/>
@@ -36923,7 +36929,7 @@
       <c r="AJ960" s="46"/>
       <c r="AK960" s="46"/>
     </row>
-    <row r="961" spans="2:37" ht="12.75">
+    <row r="961" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="47"/>
       <c r="C961" s="47"/>
       <c r="D961" s="43"/>
@@ -36960,7 +36966,7 @@
       <c r="AJ961" s="46"/>
       <c r="AK961" s="46"/>
     </row>
-    <row r="962" spans="2:37" ht="12.75">
+    <row r="962" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="47"/>
       <c r="C962" s="47"/>
       <c r="D962" s="43"/>
@@ -36997,7 +37003,7 @@
       <c r="AJ962" s="46"/>
       <c r="AK962" s="46"/>
     </row>
-    <row r="963" spans="2:37" ht="12.75">
+    <row r="963" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="47"/>
       <c r="C963" s="47"/>
       <c r="D963" s="43"/>
@@ -37034,7 +37040,7 @@
       <c r="AJ963" s="46"/>
       <c r="AK963" s="46"/>
     </row>
-    <row r="964" spans="2:37" ht="12.75">
+    <row r="964" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="47"/>
       <c r="C964" s="47"/>
       <c r="D964" s="43"/>
@@ -37071,7 +37077,7 @@
       <c r="AJ964" s="46"/>
       <c r="AK964" s="46"/>
     </row>
-    <row r="965" spans="2:37" ht="12.75">
+    <row r="965" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="47"/>
       <c r="C965" s="47"/>
       <c r="D965" s="43"/>
@@ -37108,7 +37114,7 @@
       <c r="AJ965" s="46"/>
       <c r="AK965" s="46"/>
     </row>
-    <row r="966" spans="2:37" ht="12.75">
+    <row r="966" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="47"/>
       <c r="C966" s="47"/>
       <c r="D966" s="43"/>
@@ -37145,7 +37151,7 @@
       <c r="AJ966" s="46"/>
       <c r="AK966" s="46"/>
     </row>
-    <row r="967" spans="2:37" ht="12.75">
+    <row r="967" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="47"/>
       <c r="C967" s="47"/>
       <c r="D967" s="43"/>
@@ -37182,7 +37188,7 @@
       <c r="AJ967" s="46"/>
       <c r="AK967" s="46"/>
     </row>
-    <row r="968" spans="2:37" ht="12.75">
+    <row r="968" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="47"/>
       <c r="C968" s="47"/>
       <c r="D968" s="43"/>
@@ -37219,7 +37225,7 @@
       <c r="AJ968" s="46"/>
       <c r="AK968" s="46"/>
     </row>
-    <row r="969" spans="2:37" ht="12.75">
+    <row r="969" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="47"/>
       <c r="C969" s="47"/>
       <c r="D969" s="43"/>
@@ -37256,7 +37262,7 @@
       <c r="AJ969" s="46"/>
       <c r="AK969" s="46"/>
     </row>
-    <row r="970" spans="2:37" ht="12.75">
+    <row r="970" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="47"/>
       <c r="C970" s="47"/>
       <c r="D970" s="43"/>
@@ -37293,7 +37299,7 @@
       <c r="AJ970" s="46"/>
       <c r="AK970" s="46"/>
     </row>
-    <row r="971" spans="2:37" ht="12.75">
+    <row r="971" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="47"/>
       <c r="C971" s="47"/>
       <c r="D971" s="43"/>
@@ -37330,7 +37336,7 @@
       <c r="AJ971" s="46"/>
       <c r="AK971" s="46"/>
     </row>
-    <row r="972" spans="2:37" ht="12.75">
+    <row r="972" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="47"/>
       <c r="C972" s="47"/>
       <c r="D972" s="43"/>
@@ -37367,7 +37373,7 @@
       <c r="AJ972" s="46"/>
       <c r="AK972" s="46"/>
     </row>
-    <row r="973" spans="2:37" ht="12.75">
+    <row r="973" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="47"/>
       <c r="C973" s="47"/>
       <c r="D973" s="43"/>
@@ -37404,7 +37410,7 @@
       <c r="AJ973" s="46"/>
       <c r="AK973" s="46"/>
     </row>
-    <row r="974" spans="2:37" ht="12.75">
+    <row r="974" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="47"/>
       <c r="C974" s="47"/>
       <c r="D974" s="43"/>
@@ -37441,7 +37447,7 @@
       <c r="AJ974" s="46"/>
       <c r="AK974" s="46"/>
     </row>
-    <row r="975" spans="2:37" ht="12.75">
+    <row r="975" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="47"/>
       <c r="C975" s="47"/>
       <c r="D975" s="43"/>
@@ -37478,7 +37484,7 @@
       <c r="AJ975" s="46"/>
       <c r="AK975" s="46"/>
     </row>
-    <row r="976" spans="2:37" ht="12.75">
+    <row r="976" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="47"/>
       <c r="C976" s="47"/>
       <c r="D976" s="43"/>
@@ -37515,7 +37521,7 @@
       <c r="AJ976" s="46"/>
       <c r="AK976" s="46"/>
     </row>
-    <row r="977" spans="2:37" ht="12.75">
+    <row r="977" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="47"/>
       <c r="C977" s="47"/>
       <c r="D977" s="43"/>
@@ -37552,7 +37558,7 @@
       <c r="AJ977" s="46"/>
       <c r="AK977" s="46"/>
     </row>
-    <row r="978" spans="2:37" ht="12.75">
+    <row r="978" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="47"/>
       <c r="C978" s="47"/>
       <c r="D978" s="43"/>
@@ -37589,7 +37595,7 @@
       <c r="AJ978" s="46"/>
       <c r="AK978" s="46"/>
     </row>
-    <row r="979" spans="2:37" ht="12.75">
+    <row r="979" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="47"/>
       <c r="C979" s="47"/>
       <c r="D979" s="43"/>
@@ -37626,7 +37632,7 @@
       <c r="AJ979" s="46"/>
       <c r="AK979" s="46"/>
     </row>
-    <row r="980" spans="2:37" ht="12.75">
+    <row r="980" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="47"/>
       <c r="C980" s="47"/>
       <c r="D980" s="43"/>
@@ -37663,7 +37669,7 @@
       <c r="AJ980" s="46"/>
       <c r="AK980" s="46"/>
     </row>
-    <row r="981" spans="2:37" ht="12.75">
+    <row r="981" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="47"/>
       <c r="C981" s="47"/>
       <c r="D981" s="43"/>
@@ -37700,7 +37706,7 @@
       <c r="AJ981" s="46"/>
       <c r="AK981" s="46"/>
     </row>
-    <row r="982" spans="2:37" ht="12.75">
+    <row r="982" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="47"/>
       <c r="C982" s="47"/>
       <c r="D982" s="43"/>
@@ -37737,7 +37743,7 @@
       <c r="AJ982" s="46"/>
       <c r="AK982" s="46"/>
     </row>
-    <row r="983" spans="2:37" ht="12.75">
+    <row r="983" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="47"/>
       <c r="C983" s="47"/>
       <c r="D983" s="43"/>
@@ -37774,7 +37780,7 @@
       <c r="AJ983" s="46"/>
       <c r="AK983" s="46"/>
     </row>
-    <row r="984" spans="2:37" ht="12.75">
+    <row r="984" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="47"/>
       <c r="C984" s="47"/>
       <c r="D984" s="43"/>
@@ -37811,7 +37817,7 @@
       <c r="AJ984" s="46"/>
       <c r="AK984" s="46"/>
     </row>
-    <row r="985" spans="2:37" ht="12.75">
+    <row r="985" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="47"/>
       <c r="C985" s="47"/>
       <c r="D985" s="43"/>
@@ -37848,7 +37854,7 @@
       <c r="AJ985" s="46"/>
       <c r="AK985" s="46"/>
     </row>
-    <row r="986" spans="2:37" ht="12.75">
+    <row r="986" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="47"/>
       <c r="C986" s="47"/>
       <c r="D986" s="43"/>
@@ -37885,7 +37891,7 @@
       <c r="AJ986" s="46"/>
       <c r="AK986" s="46"/>
     </row>
-    <row r="987" spans="2:37" ht="12.75">
+    <row r="987" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="47"/>
       <c r="C987" s="47"/>
       <c r="D987" s="43"/>
@@ -37922,7 +37928,7 @@
       <c r="AJ987" s="46"/>
       <c r="AK987" s="46"/>
     </row>
-    <row r="988" spans="2:37" ht="12.75">
+    <row r="988" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="47"/>
       <c r="C988" s="47"/>
       <c r="D988" s="43"/>
@@ -37959,7 +37965,7 @@
       <c r="AJ988" s="46"/>
       <c r="AK988" s="46"/>
     </row>
-    <row r="989" spans="2:37" ht="12.75">
+    <row r="989" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="47"/>
       <c r="C989" s="47"/>
       <c r="D989" s="43"/>
@@ -37996,7 +38002,7 @@
       <c r="AJ989" s="46"/>
       <c r="AK989" s="46"/>
     </row>
-    <row r="990" spans="2:37" ht="12.75">
+    <row r="990" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="47"/>
       <c r="C990" s="47"/>
       <c r="D990" s="43"/>
@@ -38033,7 +38039,7 @@
       <c r="AJ990" s="46"/>
       <c r="AK990" s="46"/>
     </row>
-    <row r="991" spans="2:37" ht="12.75">
+    <row r="991" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="47"/>
       <c r="C991" s="47"/>
       <c r="D991" s="43"/>
@@ -38070,7 +38076,7 @@
       <c r="AJ991" s="46"/>
       <c r="AK991" s="46"/>
     </row>
-    <row r="992" spans="2:37" ht="12.75">
+    <row r="992" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="47"/>
       <c r="C992" s="47"/>
       <c r="D992" s="43"/>
@@ -38107,7 +38113,7 @@
       <c r="AJ992" s="46"/>
       <c r="AK992" s="46"/>
     </row>
-    <row r="993" spans="2:37" ht="12.75">
+    <row r="993" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="47"/>
       <c r="C993" s="47"/>
       <c r="D993" s="43"/>
@@ -38144,7 +38150,7 @@
       <c r="AJ993" s="46"/>
       <c r="AK993" s="46"/>
     </row>
-    <row r="994" spans="2:37" ht="12.75">
+    <row r="994" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="47"/>
       <c r="C994" s="47"/>
       <c r="D994" s="43"/>
@@ -38181,7 +38187,7 @@
       <c r="AJ994" s="46"/>
       <c r="AK994" s="46"/>
     </row>
-    <row r="995" spans="2:37" ht="12.75">
+    <row r="995" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="47"/>
       <c r="C995" s="47"/>
       <c r="D995" s="43"/>
@@ -38218,7 +38224,7 @@
       <c r="AJ995" s="46"/>
       <c r="AK995" s="46"/>
     </row>
-    <row r="996" spans="2:37" ht="12.75">
+    <row r="996" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B996" s="47"/>
       <c r="C996" s="47"/>
       <c r="D996" s="43"/>
@@ -38255,7 +38261,7 @@
       <c r="AJ996" s="46"/>
       <c r="AK996" s="46"/>
     </row>
-    <row r="997" spans="2:37" ht="12.75">
+    <row r="997" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B997" s="47"/>
       <c r="C997" s="47"/>
       <c r="D997" s="43"/>
@@ -38292,7 +38298,7 @@
       <c r="AJ997" s="46"/>
       <c r="AK997" s="46"/>
     </row>
-    <row r="998" spans="2:37" ht="12.75">
+    <row r="998" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B998" s="47"/>
       <c r="C998" s="47"/>
       <c r="D998" s="43"/>
@@ -38329,7 +38335,7 @@
       <c r="AJ998" s="46"/>
       <c r="AK998" s="46"/>
     </row>
-    <row r="999" spans="2:37" ht="12.75">
+    <row r="999" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B999" s="47"/>
       <c r="C999" s="47"/>
       <c r="D999" s="43"/>
@@ -38366,7 +38372,7 @@
       <c r="AJ999" s="46"/>
       <c r="AK999" s="46"/>
     </row>
-    <row r="1000" spans="2:37" ht="12.75">
+    <row r="1000" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1000" s="47"/>
       <c r="C1000" s="47"/>
       <c r="D1000" s="43"/>
@@ -38403,7 +38409,7 @@
       <c r="AJ1000" s="46"/>
       <c r="AK1000" s="46"/>
     </row>
-    <row r="1001" spans="2:37" ht="12.75">
+    <row r="1001" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1001" s="47"/>
       <c r="C1001" s="47"/>
       <c r="D1001" s="43"/>
@@ -38440,7 +38446,7 @@
       <c r="AJ1001" s="46"/>
       <c r="AK1001" s="46"/>
     </row>
-    <row r="1002" spans="2:37" ht="12.75">
+    <row r="1002" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1002" s="47"/>
       <c r="C1002" s="47"/>
       <c r="D1002" s="43"/>
@@ -38477,7 +38483,7 @@
       <c r="AJ1002" s="46"/>
       <c r="AK1002" s="46"/>
     </row>
-    <row r="1003" spans="2:37" ht="12.75">
+    <row r="1003" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1003" s="47"/>
       <c r="C1003" s="47"/>
       <c r="D1003" s="43"/>
@@ -38514,7 +38520,7 @@
       <c r="AJ1003" s="46"/>
       <c r="AK1003" s="46"/>
     </row>
-    <row r="1004" spans="2:37" ht="12.75">
+    <row r="1004" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1004" s="47"/>
       <c r="C1004" s="47"/>
       <c r="D1004" s="43"/>
@@ -38551,7 +38557,7 @@
       <c r="AJ1004" s="46"/>
       <c r="AK1004" s="46"/>
     </row>
-    <row r="1005" spans="2:37" ht="12.75">
+    <row r="1005" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1005" s="47"/>
       <c r="C1005" s="47"/>
       <c r="D1005" s="43"/>
@@ -38588,7 +38594,7 @@
       <c r="AJ1005" s="46"/>
       <c r="AK1005" s="46"/>
     </row>
-    <row r="1006" spans="2:37" ht="12.75">
+    <row r="1006" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1006" s="47"/>
       <c r="C1006" s="47"/>
       <c r="D1006" s="43"/>
@@ -38625,7 +38631,7 @@
       <c r="AJ1006" s="46"/>
       <c r="AK1006" s="46"/>
     </row>
-    <row r="1007" spans="2:37" ht="12.75">
+    <row r="1007" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1007" s="47"/>
       <c r="C1007" s="47"/>
       <c r="D1007" s="43"/>
@@ -38662,7 +38668,7 @@
       <c r="AJ1007" s="46"/>
       <c r="AK1007" s="46"/>
     </row>
-    <row r="1008" spans="2:37" ht="12.75">
+    <row r="1008" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1008" s="47"/>
       <c r="C1008" s="47"/>
       <c r="D1008" s="43"/>
@@ -38699,7 +38705,7 @@
       <c r="AJ1008" s="46"/>
       <c r="AK1008" s="46"/>
     </row>
-    <row r="1009" spans="2:37" ht="12.75">
+    <row r="1009" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1009" s="47"/>
       <c r="C1009" s="47"/>
       <c r="D1009" s="43"/>
@@ -38736,7 +38742,7 @@
       <c r="AJ1009" s="46"/>
       <c r="AK1009" s="46"/>
     </row>
-    <row r="1010" spans="2:37" ht="12.75">
+    <row r="1010" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1010" s="47"/>
       <c r="C1010" s="47"/>
       <c r="D1010" s="43"/>
@@ -38773,7 +38779,7 @@
       <c r="AJ1010" s="46"/>
       <c r="AK1010" s="46"/>
     </row>
-    <row r="1011" spans="2:37" ht="12.75">
+    <row r="1011" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1011" s="47"/>
       <c r="C1011" s="47"/>
       <c r="D1011" s="43"/>
@@ -38810,7 +38816,7 @@
       <c r="AJ1011" s="46"/>
       <c r="AK1011" s="46"/>
     </row>
-    <row r="1012" spans="2:37" ht="12.75">
+    <row r="1012" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1012" s="47"/>
       <c r="C1012" s="47"/>
       <c r="D1012" s="43"/>
@@ -38847,7 +38853,7 @@
       <c r="AJ1012" s="46"/>
       <c r="AK1012" s="46"/>
     </row>
-    <row r="1013" spans="2:37" ht="12.75">
+    <row r="1013" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1013" s="47"/>
       <c r="C1013" s="47"/>
       <c r="D1013" s="43"/>
@@ -38884,7 +38890,7 @@
       <c r="AJ1013" s="46"/>
       <c r="AK1013" s="46"/>
     </row>
-    <row r="1014" spans="2:37" ht="12.75">
+    <row r="1014" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1014" s="47"/>
       <c r="C1014" s="47"/>
       <c r="D1014" s="43"/>
@@ -38921,7 +38927,7 @@
       <c r="AJ1014" s="46"/>
       <c r="AK1014" s="46"/>
     </row>
-    <row r="1015" spans="2:37" ht="12.75">
+    <row r="1015" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1015" s="47"/>
       <c r="C1015" s="47"/>
       <c r="D1015" s="43"/>
@@ -38958,7 +38964,7 @@
       <c r="AJ1015" s="46"/>
       <c r="AK1015" s="46"/>
     </row>
-    <row r="1016" spans="2:37" ht="12.75">
+    <row r="1016" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1016" s="47"/>
       <c r="C1016" s="47"/>
       <c r="D1016" s="43"/>
@@ -38995,7 +39001,7 @@
       <c r="AJ1016" s="46"/>
       <c r="AK1016" s="46"/>
     </row>
-    <row r="1017" spans="2:37" ht="12.75">
+    <row r="1017" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1017" s="47"/>
       <c r="C1017" s="47"/>
       <c r="D1017" s="43"/>
@@ -39032,7 +39038,7 @@
       <c r="AJ1017" s="46"/>
       <c r="AK1017" s="46"/>
     </row>
-    <row r="1018" spans="2:37" ht="12.75">
+    <row r="1018" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1018" s="47"/>
       <c r="C1018" s="47"/>
       <c r="D1018" s="43"/>
@@ -39069,7 +39075,7 @@
       <c r="AJ1018" s="46"/>
       <c r="AK1018" s="46"/>
     </row>
-    <row r="1019" spans="2:37" ht="12.75">
+    <row r="1019" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1019" s="47"/>
       <c r="C1019" s="47"/>
       <c r="D1019" s="43"/>
@@ -39106,7 +39112,7 @@
       <c r="AJ1019" s="46"/>
       <c r="AK1019" s="46"/>
     </row>
-    <row r="1020" spans="2:37" ht="12.75">
+    <row r="1020" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1020" s="47"/>
       <c r="C1020" s="47"/>
       <c r="D1020" s="43"/>
@@ -39143,7 +39149,7 @@
       <c r="AJ1020" s="46"/>
       <c r="AK1020" s="46"/>
     </row>
-    <row r="1021" spans="2:37" ht="12.75">
+    <row r="1021" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1021" s="47"/>
       <c r="C1021" s="47"/>
       <c r="D1021" s="43"/>
@@ -39180,7 +39186,7 @@
       <c r="AJ1021" s="46"/>
       <c r="AK1021" s="46"/>
     </row>
-    <row r="1022" spans="2:37" ht="12.75">
+    <row r="1022" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1022" s="47"/>
       <c r="C1022" s="47"/>
       <c r="D1022" s="43"/>
@@ -39217,7 +39223,7 @@
       <c r="AJ1022" s="46"/>
       <c r="AK1022" s="46"/>
     </row>
-    <row r="1023" spans="2:37" ht="12.75">
+    <row r="1023" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1023" s="47"/>
       <c r="C1023" s="47"/>
       <c r="D1023" s="43"/>
@@ -39254,7 +39260,7 @@
       <c r="AJ1023" s="46"/>
       <c r="AK1023" s="46"/>
     </row>
-    <row r="1024" spans="2:37" ht="12.75">
+    <row r="1024" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1024" s="47"/>
       <c r="C1024" s="47"/>
       <c r="D1024" s="43"/>
@@ -39291,7 +39297,7 @@
       <c r="AJ1024" s="46"/>
       <c r="AK1024" s="46"/>
     </row>
-    <row r="1025" spans="2:37" ht="12.75">
+    <row r="1025" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1025" s="47"/>
       <c r="C1025" s="47"/>
       <c r="D1025" s="43"/>
@@ -39328,7 +39334,7 @@
       <c r="AJ1025" s="46"/>
       <c r="AK1025" s="46"/>
     </row>
-    <row r="1026" spans="2:37" ht="12.75">
+    <row r="1026" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1026" s="47"/>
       <c r="C1026" s="47"/>
       <c r="D1026" s="43"/>
@@ -39367,17 +39373,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="I15:O15"/>
     <mergeCell ref="L14:O14"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="K7:O7"/>
     <mergeCell ref="K8:O8"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="L13:O13"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="I15:O15"/>
   </mergeCells>
   <conditionalFormatting sqref="Z4:Z21">
     <cfRule type="dataBar" priority="41">
@@ -39386,8 +39392,8 @@
         <cfvo type="percent" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{02421D34-3FF4-4E4B-8338-D294617122F9}</x14:id>
         </ext>
       </extLst>
@@ -39400,8 +39406,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FFFF3300"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{41E71259-AF6A-41D2-8DF0-1A80C57AC258}</x14:id>
         </ext>
       </extLst>
@@ -39414,8 +39420,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FFFF3300"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{B86CBE0C-1B83-469F-824A-26743D987674}</x14:id>
         </ext>
       </extLst>
@@ -39428,8 +39434,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{582894E3-AD2D-42C9-9F18-B68D5BE107D0}</x14:id>
         </ext>
       </extLst>
@@ -39442,8 +39448,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7912CB7E-4D2E-488F-995A-942031381F56}</x14:id>
         </ext>
       </extLst>
@@ -39456,8 +39462,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8E67AE67-FBB7-4871-8F03-CEC4175BAEAB}</x14:id>
         </ext>
       </extLst>
@@ -39470,8 +39476,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F15BD1E8-794D-4711-998C-7D4D1F9CB743}</x14:id>
         </ext>
       </extLst>
@@ -39484,8 +39490,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{42570DEA-F2E7-4DAC-B0FA-58C3E15F811B}</x14:id>
         </ext>
       </extLst>
@@ -39498,8 +39504,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{85496C07-6E13-4262-972B-FF0193C2C502}</x14:id>
         </ext>
       </extLst>
@@ -39512,8 +39518,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F88029B5-8C15-4841-B46C-6A454746C9A7}</x14:id>
         </ext>
       </extLst>
@@ -39526,8 +39532,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F11BC74E-AB68-4366-92EC-C68BA9A2CD2C}</x14:id>
         </ext>
       </extLst>
@@ -39540,8 +39546,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BD1E7A44-317C-49A0-86E3-0062403EF0CB}</x14:id>
         </ext>
       </extLst>
@@ -39554,8 +39560,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8CA4C410-FAB2-4DED-B78A-A16AD896ACCB}</x14:id>
         </ext>
       </extLst>
@@ -39568,8 +39574,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FFFF3300"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FCC23F07-C4BB-4610-AAED-5E9EA527DD31}</x14:id>
         </ext>
       </extLst>
@@ -39582,8 +39588,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BCEB0C8A-6315-4D32-AF3C-6ADE5B2EF5CD}</x14:id>
         </ext>
       </extLst>
@@ -39596,8 +39602,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{1B1C2A96-C4F5-4CBF-8E0B-616DBD034389}</x14:id>
         </ext>
       </extLst>
@@ -39610,8 +39616,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{5E304328-A3E6-42CA-BFA0-18DCF847369B}</x14:id>
         </ext>
       </extLst>
@@ -39624,8 +39630,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{ED66A3D9-A0A9-4C02-B91E-3A26F0C8C92D}</x14:id>
         </ext>
       </extLst>
@@ -39638,8 +39644,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A706FDAD-B19A-4471-A213-127CF466C0D2}</x14:id>
         </ext>
       </extLst>
@@ -39652,8 +39658,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{550695BD-59A9-4490-9A4C-27A6ECF36274}</x14:id>
         </ext>
       </extLst>
@@ -39666,8 +39672,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{1E7CB623-7609-4A33-85F2-B95ACAC70984}</x14:id>
         </ext>
       </extLst>
@@ -39680,8 +39686,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FE93241A-C519-4B78-8708-24F0DAB01459}</x14:id>
         </ext>
       </extLst>
@@ -39694,8 +39700,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{2AF517B7-2E2E-4261-862A-86C721BFB5BA}</x14:id>
         </ext>
       </extLst>
@@ -39708,8 +39714,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BAC0BEF6-6297-4301-B658-FFBA33AE6A8C}</x14:id>
         </ext>
       </extLst>
@@ -39722,8 +39728,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{D9421341-F511-4100-926A-02520601D817}</x14:id>
         </ext>
       </extLst>
@@ -39736,8 +39742,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{6B97ED3C-2B23-4EDD-B5BE-A29D7B9C8399}</x14:id>
         </ext>
       </extLst>
@@ -39750,8 +39756,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FA25B196-18B1-475F-A5FE-9E580B982772}</x14:id>
         </ext>
       </extLst>
@@ -39764,8 +39770,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7574D377-696A-43DD-ACAA-C278E58F811E}</x14:id>
         </ext>
       </extLst>
@@ -39778,8 +39784,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{0867C136-9BE9-4A30-A79B-BF7EF60AAB40}</x14:id>
         </ext>
       </extLst>
@@ -39792,8 +39798,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{491399FF-6471-4F7C-B94D-9ADBD108AD99}</x14:id>
         </ext>
       </extLst>
@@ -39806,8 +39812,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9009538C-6B30-475A-8672-1FD9A00A4224}</x14:id>
         </ext>
       </extLst>
@@ -39820,8 +39826,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{C4D518D9-74DC-4FFC-BE58-0BB3C5F5A87C}</x14:id>
         </ext>
       </extLst>
@@ -39834,8 +39840,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{6D119486-B921-4B90-8DFB-9964BAE3C6C5}</x14:id>
         </ext>
       </extLst>
@@ -39848,8 +39854,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{314F4969-2B26-46CB-A448-4CAB642C2FD1}</x14:id>
         </ext>
       </extLst>
@@ -39862,8 +39868,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8CCC4B7B-169A-4D89-A309-803F6E4BCC39}</x14:id>
         </ext>
       </extLst>
@@ -39876,8 +39882,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{47C64CA7-5009-4E17-89B9-52DC380D9E73}</x14:id>
         </ext>
       </extLst>
@@ -39886,8 +39892,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{02421D34-3FF4-4E4B-8338-D294617122F9}">
@@ -40022,7 +40028,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V16 P18 M18</xm:sqref>
+          <xm:sqref>P18 V16 M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F88029B5-8C15-4841-B46C-6A454746C9A7}">
